--- a/Dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
+++ b/Dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="70">
-  <si>
-    <t>Location</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -24,6 +21,15 @@
   </si>
   <si>
     <t>Diagnosed</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Anhui</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
   <si>
     <t>Discharged</t>
@@ -45,12 +51,6 @@
   </si>
   <si>
     <t>t</t>
-  </si>
-  <si>
-    <t>Anhui</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
   <si>
     <t>Beijing</t>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,20 +267,17 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,34 +509,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="4"/>
@@ -565,7 +562,7 @@
         <v>43840.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>41.0</v>
@@ -574,10 +571,10 @@
         <v>2.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>7.0</v>
@@ -615,7 +612,7 @@
         <v>43841.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>41.0</v>
@@ -624,10 +621,10 @@
         <v>6.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
         <v>7.0</v>
@@ -639,7 +636,7 @@
         <v>763.0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J31" si="1">J2+1</f>
+        <f t="shared" ref="J3:J32" si="1">J2+1</f>
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
@@ -666,7 +663,7 @@
         <v>43842.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
         <v>41.0</v>
@@ -675,10 +672,10 @@
         <v>7.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1">
         <v>6.0</v>
@@ -717,7 +714,7 @@
         <v>43843.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>41.0</v>
@@ -726,10 +723,10 @@
         <v>7.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1">
         <v>6.0</v>
@@ -768,7 +765,7 @@
         <v>43844.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>41.0</v>
@@ -777,10 +774,10 @@
         <v>7.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1">
         <v>6.0</v>
@@ -819,7 +816,7 @@
         <v>43845.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>41.0</v>
@@ -828,10 +825,10 @@
         <v>12.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>5.0</v>
@@ -870,7 +867,7 @@
         <v>43846.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>45.0</v>
@@ -879,10 +876,10 @@
         <v>15.0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1">
         <v>5.0</v>
@@ -921,7 +918,7 @@
         <v>43847.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1">
         <v>62.0</v>
@@ -930,10 +927,10 @@
         <v>19.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -972,7 +969,7 @@
         <v>43848.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1">
         <f>C9+59</f>
@@ -983,10 +980,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>7.0</v>
@@ -1025,7 +1022,7 @@
         <v>43849.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
         <f>C10+77</f>
@@ -1085,16 +1082,16 @@
         <v>291.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
         <v>6.0</v>
@@ -1136,13 +1133,13 @@
         <v>440.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
         <v>102.0</v>
@@ -1187,16 +1184,16 @@
         <v>571.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>17.0</v>
@@ -1241,10 +1238,10 @@
         <v>34.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>177.0</v>
@@ -1292,10 +1289,10 @@
         <v>38.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
         <v>237.0</v>
@@ -1343,10 +1340,10 @@
         <v>49.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1">
         <v>324.0</v>
@@ -1394,10 +1391,10 @@
         <v>51.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1">
         <v>461.0</v>
@@ -1445,10 +1442,10 @@
         <v>60.0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1">
         <v>976.0</v>
@@ -1496,10 +1493,10 @@
         <v>103.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1">
         <v>1239.0</v>
@@ -1547,10 +1544,10 @@
         <v>124.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1">
         <v>1370.0</v>
@@ -1598,10 +1595,10 @@
         <v>171.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1">
         <v>1527.0</v>
@@ -1649,10 +1646,10 @@
         <v>243.0</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1">
         <v>1795.0</v>
@@ -1700,10 +1697,10 @@
         <v>328.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1">
         <v>2110.0</v>
@@ -1751,10 +1748,10 @@
         <v>475.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1">
         <v>2296.0</v>
@@ -1802,10 +1799,10 @@
         <v>632.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1">
         <v>2788.0</v>
@@ -1853,10 +1850,10 @@
         <v>892.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1">
         <v>3219.0</v>
@@ -1907,7 +1904,7 @@
         <v>26302.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G28" s="1">
         <v>3859.0</v>
@@ -1955,10 +1952,10 @@
         <v>1540.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1">
         <v>4821.0</v>
@@ -1993,31 +1990,31 @@
       <c r="AB29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="5">
+      <c r="A30" s="2">
         <v>43868.0</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="1">
         <v>27657.0</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="1">
         <v>34546.0</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="1">
         <v>2050.0</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
         <v>6101.0</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="1">
         <v>722.0</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="1">
         <v>345498.0</v>
       </c>
       <c r="J30" s="1">
@@ -2044,31 +2041,31 @@
       <c r="AB30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="5">
+      <c r="A31" s="2">
         <v>43869.0</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="1">
         <v>28942.0</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="1">
         <v>37198.0</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="1">
         <v>2649.0</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="E31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
         <v>6188.0</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="1">
         <v>811.0</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="1">
         <v>371905.0</v>
       </c>
       <c r="J31" s="1">
@@ -2095,16 +2092,37 @@
       <c r="AB31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="3">
+        <v>43870.0</v>
+      </c>
+      <c r="B32" s="6">
+        <v>23589.0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>40171.0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>3281.0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6">
+        <v>6484.0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>908.0</v>
+      </c>
+      <c r="I32" s="6">
+        <v>399487.0</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -31189,7 +31207,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2">
         <v>43849.0</v>
@@ -31248,20 +31266,22 @@
       <c r="T1" s="2">
         <v>43867.0</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="2">
         <v>43868.0</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="2">
         <v>43869.0</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="3">
+        <v>43870.0</v>
+      </c>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -31270,28 +31290,28 @@
         <v>0.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1">
         <v>200.0</v>
@@ -31320,13 +31340,15 @@
       <c r="T2" s="1">
         <v>591.0</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="1">
         <v>733.0</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="1">
         <v>733.0</v>
       </c>
-      <c r="W2" s="4"/>
+      <c r="W2" s="6">
+        <v>779.0</v>
+      </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
@@ -31342,28 +31364,28 @@
         <v>10.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L3" s="1">
         <v>114.0</v>
@@ -31392,13 +31414,15 @@
       <c r="T3" s="1">
         <v>274.0</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="1">
         <v>297.0</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="1">
         <v>315.0</v>
       </c>
-      <c r="W3" s="4"/>
+      <c r="W3" s="6">
+        <v>326.0</v>
+      </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
@@ -31414,28 +31438,28 @@
         <v>5.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1">
         <v>182.0</v>
@@ -31464,13 +31488,15 @@
       <c r="T4" s="1">
         <v>411.0</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="1">
         <v>426.0</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="1">
         <v>446.0</v>
       </c>
-      <c r="W4" s="4"/>
+      <c r="W4" s="6">
+        <v>468.0</v>
+      </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
@@ -31480,34 +31506,34 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1">
         <v>101.0</v>
@@ -31536,13 +31562,15 @@
       <c r="T5" s="1">
         <v>215.0</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="1">
         <v>224.0</v>
       </c>
-      <c r="V5" s="6">
+      <c r="V5" s="1">
         <v>239.0</v>
       </c>
-      <c r="W5" s="4"/>
+      <c r="W5" s="6">
+        <v>250.0</v>
+      </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
@@ -31552,34 +31580,34 @@
         <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1">
         <v>26.0</v>
@@ -31608,13 +31636,15 @@
       <c r="T6" s="1">
         <v>67.0</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="1">
         <v>71.0</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="1">
         <v>79.0</v>
       </c>
-      <c r="W6" s="4"/>
+      <c r="W6" s="6">
+        <v>83.0</v>
+      </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
@@ -31630,28 +31660,28 @@
         <v>26.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1">
         <v>354.0</v>
@@ -31680,13 +31710,15 @@
       <c r="T7" s="1">
         <v>1018.0</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="1">
         <v>1075.0</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="1">
         <v>1120.0</v>
       </c>
-      <c r="W7" s="4"/>
+      <c r="W7" s="6">
+        <v>1151.0</v>
+      </c>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
@@ -31702,28 +31734,28 @@
         <v>0.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1">
         <v>78.0</v>
@@ -31752,13 +31784,15 @@
       <c r="T8" s="1">
         <v>172.0</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="1">
         <v>183.0</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="1">
         <v>195.0</v>
       </c>
-      <c r="W8" s="4"/>
+      <c r="W8" s="6">
+        <v>210.0</v>
+      </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
@@ -31774,28 +31808,28 @@
         <v>0.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
         <v>12.0</v>
@@ -31824,13 +31858,15 @@
       <c r="T9" s="1">
         <v>71.0</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="1">
         <v>81.0</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="1">
         <v>89.0</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="6">
+        <v>99.0</v>
+      </c>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
@@ -31846,28 +31882,28 @@
         <v>0.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L10" s="1">
         <v>46.0</v>
@@ -31896,13 +31932,15 @@
       <c r="T10" s="1">
         <v>114.0</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="1">
         <v>124.0</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="1">
         <v>128.0</v>
       </c>
-      <c r="W10" s="4"/>
+      <c r="W10" s="6">
+        <v>136.0</v>
+      </c>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
@@ -31912,34 +31950,34 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L11" s="1">
         <v>65.0</v>
@@ -31968,13 +32006,15 @@
       <c r="T11" s="1">
         <v>171.0</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="1">
         <v>195.0</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="1">
         <v>206.0</v>
       </c>
-      <c r="W11" s="4"/>
+      <c r="W11" s="6">
+        <v>218.0</v>
+      </c>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
@@ -31990,28 +32030,28 @@
         <v>0.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L12" s="1">
         <v>43.0</v>
@@ -32040,13 +32080,15 @@
       <c r="T12" s="1">
         <v>227.0</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="1">
         <v>277.0</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="1">
         <v>307.0</v>
       </c>
-      <c r="W12" s="4"/>
+      <c r="W12" s="6">
+        <v>331.0</v>
+      </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
@@ -32062,28 +32104,28 @@
         <v>1.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L13" s="1">
         <v>278.0</v>
@@ -32112,13 +32154,15 @@
       <c r="T13" s="1">
         <v>914.0</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="1">
         <v>981.0</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="1">
         <v>1033.0</v>
       </c>
-      <c r="W13" s="4"/>
+      <c r="W13" s="6">
+        <v>1073.0</v>
+      </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
@@ -32134,28 +32178,28 @@
         <v>375.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L14" s="1">
         <v>4586.0</v>
@@ -32184,13 +32228,15 @@
       <c r="T14" s="1">
         <v>22112.0</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="1">
         <v>24953.0</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="1">
         <v>27100.0</v>
       </c>
-      <c r="W14" s="4"/>
+      <c r="W14" s="6">
+        <v>29631.0</v>
+      </c>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -32206,28 +32252,28 @@
         <v>1.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L15" s="1">
         <v>277.0</v>
@@ -32256,13 +32302,15 @@
       <c r="T15" s="1">
         <v>711.0</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="1">
         <v>772.0</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="1">
         <v>838.0</v>
       </c>
-      <c r="W15" s="4"/>
+      <c r="W15" s="6">
+        <v>838.0</v>
+      </c>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -32272,34 +32320,34 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L16" s="1">
         <v>18.0</v>
@@ -32328,13 +32376,15 @@
       <c r="T16" s="1">
         <v>46.0</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="1">
         <v>50.0</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="1">
         <v>52.0</v>
       </c>
-      <c r="W16" s="4"/>
+      <c r="W16" s="6">
+        <v>54.0</v>
+      </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -32344,34 +32394,34 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L17" s="1">
         <v>129.0</v>
@@ -32400,13 +32450,15 @@
       <c r="T17" s="1">
         <v>373.0</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="1">
         <v>408.0</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="1">
         <v>468.0</v>
       </c>
-      <c r="W17" s="4"/>
+      <c r="W17" s="6">
+        <v>468.0</v>
+      </c>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -32422,28 +32474,28 @@
         <v>2.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L18" s="1">
         <v>162.0</v>
@@ -32472,13 +32524,15 @@
       <c r="T18" s="1">
         <v>600.0</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="1">
         <v>661.0</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="1">
         <v>698.0</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="6">
+        <v>740.0</v>
+      </c>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -32494,28 +32548,28 @@
         <v>0.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L19" s="1">
         <v>14.0</v>
@@ -32544,13 +32598,15 @@
       <c r="T19" s="1">
         <v>65.0</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="1">
         <v>69.0</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="1">
         <v>78.0</v>
       </c>
-      <c r="W19" s="4"/>
+      <c r="W19" s="6">
+        <v>80.0</v>
+      </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -32560,34 +32616,34 @@
         <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L20" s="1">
         <v>41.0</v>
@@ -32616,13 +32672,15 @@
       <c r="T20" s="1">
         <v>94.0</v>
       </c>
-      <c r="U20" s="6">
+      <c r="U20" s="1">
         <v>99.0</v>
       </c>
-      <c r="V20" s="6">
+      <c r="V20" s="1">
         <v>105.0</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="6">
+        <v>107.0</v>
+      </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -32638,28 +32696,28 @@
         <v>0.0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L21" s="1">
         <v>17.0</v>
@@ -32688,13 +32746,15 @@
       <c r="T21" s="1">
         <v>40.0</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="1">
         <v>43.0</v>
       </c>
-      <c r="V21" s="6">
+      <c r="V21" s="1">
         <v>45.0</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="6">
+        <v>45.0</v>
+      </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -32704,34 +32764,34 @@
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L22" s="1">
         <v>6.0</v>
@@ -32760,13 +32820,15 @@
       <c r="T22" s="1">
         <v>18.0</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="1">
         <v>18.0</v>
       </c>
-      <c r="V22" s="6">
+      <c r="V22" s="1">
         <v>18.0</v>
       </c>
-      <c r="W22" s="4"/>
+      <c r="W22" s="6">
+        <v>18.0</v>
+      </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -32776,34 +32838,34 @@
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L23" s="1">
         <v>63.0</v>
@@ -32832,13 +32894,15 @@
       <c r="T23" s="1">
         <v>173.0</v>
       </c>
-      <c r="U23" s="6">
+      <c r="U23" s="1">
         <v>184.0</v>
       </c>
-      <c r="V23" s="6">
+      <c r="V23" s="1">
         <v>195.0</v>
       </c>
-      <c r="W23" s="4"/>
+      <c r="W23" s="6">
+        <v>208.0</v>
+      </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -32854,28 +32918,28 @@
         <v>1.0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L24" s="1">
         <v>158.0</v>
@@ -32904,13 +32968,15 @@
       <c r="T24" s="1">
         <v>379.0</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="1">
         <v>407.0</v>
       </c>
-      <c r="V24" s="6">
+      <c r="V24" s="1">
         <v>416.0</v>
       </c>
-      <c r="W24" s="4"/>
+      <c r="W24" s="6">
+        <v>459.0</v>
+      </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -32926,28 +32992,28 @@
         <v>9.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L25" s="1">
         <v>112.0</v>
@@ -32976,13 +33042,15 @@
       <c r="T25" s="1">
         <v>269.0</v>
       </c>
-      <c r="U25" s="6">
+      <c r="U25" s="1">
         <v>281.0</v>
       </c>
-      <c r="V25" s="6">
+      <c r="V25" s="1">
         <v>292.0</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="6">
+        <v>295.0</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -32998,28 +33066,28 @@
         <v>0.0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L26" s="1">
         <v>35.0</v>
@@ -33048,13 +33116,15 @@
       <c r="T26" s="1">
         <v>96.0</v>
       </c>
-      <c r="U26" s="6">
+      <c r="U26" s="1">
         <v>104.0</v>
       </c>
-      <c r="V26" s="6">
+      <c r="V26" s="1">
         <v>115.0</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="6">
+        <v>119.0</v>
+      </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -33070,28 +33140,28 @@
         <v>2.0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L27" s="1">
         <v>142.0</v>
@@ -33120,13 +33190,15 @@
       <c r="T27" s="1">
         <v>344.0</v>
       </c>
-      <c r="U27" s="6">
+      <c r="U27" s="1">
         <v>344.0</v>
       </c>
-      <c r="V27" s="6">
+      <c r="V27" s="1">
         <v>386.0</v>
       </c>
-      <c r="W27" s="4"/>
+      <c r="W27" s="6">
+        <v>405.0</v>
+      </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
@@ -33142,28 +33214,28 @@
         <v>2.0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L28" s="1">
         <v>29.0</v>
@@ -33192,13 +33264,15 @@
       <c r="T28" s="1">
         <v>79.0</v>
       </c>
-      <c r="U28" s="6">
+      <c r="U28" s="1">
         <v>81.0</v>
       </c>
-      <c r="V28" s="6">
+      <c r="V28" s="1">
         <v>88.0</v>
       </c>
-      <c r="W28" s="4"/>
+      <c r="W28" s="6">
+        <v>91.0</v>
+      </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
@@ -33208,34 +33282,34 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L29" s="1">
         <v>1.0</v>
@@ -33264,13 +33338,15 @@
       <c r="T29" s="1">
         <v>1.0</v>
       </c>
-      <c r="U29" s="6">
+      <c r="U29" s="1">
         <v>1.0</v>
       </c>
-      <c r="V29" s="6">
+      <c r="V29" s="1">
         <v>1.0</v>
       </c>
-      <c r="W29" s="4"/>
+      <c r="W29" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
@@ -33280,34 +33356,34 @@
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L30" s="1">
         <v>14.0</v>
@@ -33336,13 +33412,15 @@
       <c r="T30" s="1">
         <v>36.0</v>
       </c>
-      <c r="U30" s="6">
+      <c r="U30" s="1">
         <v>39.0</v>
       </c>
-      <c r="V30" s="6">
+      <c r="V30" s="1">
         <v>45.0</v>
       </c>
-      <c r="W30" s="4"/>
+      <c r="W30" s="6">
+        <v>49.0</v>
+      </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
@@ -33358,28 +33436,28 @@
         <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L31" s="1">
         <v>70.0</v>
@@ -33408,13 +33486,15 @@
       <c r="T31" s="1">
         <v>135.0</v>
       </c>
-      <c r="U31" s="6">
+      <c r="U31" s="1">
         <v>138.0</v>
       </c>
-      <c r="V31" s="6">
+      <c r="V31" s="1">
         <v>140.0</v>
       </c>
-      <c r="W31" s="4"/>
+      <c r="W31" s="6">
+        <v>141.0</v>
+      </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
@@ -33430,28 +33510,28 @@
         <v>5.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L32" s="1">
         <v>428.0</v>
@@ -33480,13 +33560,15 @@
       <c r="T32" s="1">
         <v>954.0</v>
       </c>
-      <c r="U32" s="6">
+      <c r="U32" s="1">
         <v>1006.0</v>
       </c>
-      <c r="V32" s="6">
+      <c r="V32" s="1">
         <v>1048.0</v>
       </c>
-      <c r="W32" s="4"/>
+      <c r="W32" s="6">
+        <v>1075.0</v>
+      </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -33690,26 +33772,26 @@
     <row r="40">
       <c r="A40" s="4"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
@@ -33776,13 +33858,15 @@
       <c r="T41" s="1">
         <v>24.0</v>
       </c>
-      <c r="U41" s="6">
+      <c r="U41" s="1">
         <v>26.0</v>
       </c>
-      <c r="V41" s="6">
+      <c r="V41" s="1">
         <v>26.0</v>
       </c>
-      <c r="W41" s="4"/>
+      <c r="W41" s="6">
+        <v>36.0</v>
+      </c>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -33848,13 +33932,15 @@
       <c r="T42" s="1">
         <v>10.0</v>
       </c>
-      <c r="U42" s="6">
+      <c r="U42" s="1">
         <v>10.0</v>
       </c>
-      <c r="V42" s="6">
+      <c r="V42" s="1">
         <v>10.0</v>
       </c>
-      <c r="W42" s="4"/>
+      <c r="W42" s="6">
+        <v>10.0</v>
+      </c>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -33920,13 +34006,15 @@
       <c r="T43" s="1">
         <v>16.0</v>
       </c>
-      <c r="U43" s="6">
+      <c r="U43" s="1">
         <v>16.0</v>
       </c>
-      <c r="V43" s="6">
+      <c r="V43" s="1">
         <v>17.0</v>
       </c>
-      <c r="W43" s="4"/>
+      <c r="W43" s="6">
+        <v>18.0</v>
+      </c>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -33992,13 +34080,15 @@
       <c r="T44" s="1">
         <v>41.0</v>
       </c>
-      <c r="U44" s="6">
+      <c r="U44" s="1">
         <v>21.0</v>
       </c>
-      <c r="V44" s="6">
+      <c r="V44" s="1">
         <v>22.0</v>
       </c>
-      <c r="W44" s="4"/>
+      <c r="W44" s="6">
+        <v>22.0</v>
+      </c>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -34064,13 +34154,15 @@
       <c r="T45" s="1">
         <v>25.0</v>
       </c>
-      <c r="U45" s="6">
+      <c r="U45" s="1">
         <v>25.0</v>
       </c>
-      <c r="V45" s="6">
+      <c r="V45" s="1">
         <v>32.0</v>
       </c>
-      <c r="W45" s="4"/>
+      <c r="W45" s="6">
+        <v>32.0</v>
+      </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -34136,13 +34228,15 @@
       <c r="T46" s="1">
         <v>23.0</v>
       </c>
-      <c r="U46" s="6">
+      <c r="U46" s="1">
         <v>24.0</v>
       </c>
-      <c r="V46" s="6">
+      <c r="V46" s="1">
         <v>24.0</v>
       </c>
-      <c r="W46" s="4"/>
+      <c r="W46" s="6">
+        <v>27.0</v>
+      </c>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -34208,13 +34302,15 @@
       <c r="T47" s="1">
         <v>12.0</v>
       </c>
-      <c r="U47" s="6">
+      <c r="U47" s="1">
         <v>12.0</v>
       </c>
-      <c r="V47" s="6">
+      <c r="V47" s="1">
         <v>12.0</v>
       </c>
-      <c r="W47" s="4"/>
+      <c r="W47" s="6">
+        <v>12.0</v>
+      </c>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -34280,13 +34376,15 @@
       <c r="T48" s="1">
         <v>12.0</v>
       </c>
-      <c r="U48" s="6">
+      <c r="U48" s="1">
         <v>13.0</v>
       </c>
-      <c r="V48" s="6">
+      <c r="V48" s="1">
         <v>13.0</v>
       </c>
-      <c r="W48" s="4"/>
+      <c r="W48" s="6">
+        <v>14.0</v>
+      </c>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -34352,13 +34450,15 @@
       <c r="T49" s="1">
         <v>39.0</v>
       </c>
-      <c r="U49" s="6">
+      <c r="U49" s="1">
         <v>33.0</v>
       </c>
-      <c r="V49" s="6">
+      <c r="V49" s="1">
         <v>40.0</v>
       </c>
-      <c r="W49" s="4"/>
+      <c r="W49" s="6">
+        <v>43.0</v>
+      </c>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -34424,13 +34524,15 @@
       <c r="T50" s="1">
         <v>1.0</v>
       </c>
-      <c r="U50" s="6">
+      <c r="U50" s="1">
         <v>1.0</v>
       </c>
-      <c r="V50" s="6">
+      <c r="V50" s="1">
         <v>1.0</v>
       </c>
-      <c r="W50" s="4"/>
+      <c r="W50" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -34496,13 +34598,15 @@
       <c r="T51" s="1">
         <v>6.0</v>
       </c>
-      <c r="U51" s="6">
+      <c r="U51" s="1">
         <v>6.0</v>
       </c>
-      <c r="V51" s="6">
+      <c r="V51" s="1">
         <v>11.0</v>
       </c>
-      <c r="W51" s="4"/>
+      <c r="W51" s="6">
+        <v>11.0</v>
+      </c>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -34568,13 +34672,15 @@
       <c r="T52" s="1">
         <v>12.0</v>
       </c>
-      <c r="U52" s="6">
+      <c r="U52" s="1">
         <v>15.0</v>
       </c>
-      <c r="V52" s="6">
+      <c r="V52" s="1">
         <v>16.0</v>
       </c>
-      <c r="W52" s="4"/>
+      <c r="W52" s="6">
+        <v>17.0</v>
+      </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
@@ -34640,13 +34746,15 @@
       <c r="T53" s="1">
         <v>15.0</v>
       </c>
-      <c r="U53" s="6">
+      <c r="U53" s="1">
         <v>15.0</v>
       </c>
-      <c r="V53" s="6">
+      <c r="V53" s="1">
         <v>15.0</v>
       </c>
-      <c r="W53" s="4"/>
+      <c r="W53" s="6">
+        <v>15.0</v>
+      </c>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
@@ -34712,13 +34820,15 @@
       <c r="T54" s="1">
         <v>5.0</v>
       </c>
-      <c r="U54" s="6">
+      <c r="U54" s="1">
         <v>7.0</v>
       </c>
-      <c r="V54" s="6">
+      <c r="V54" s="1">
         <v>7.0</v>
       </c>
-      <c r="W54" s="4"/>
+      <c r="W54" s="6">
+        <v>7.0</v>
+      </c>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
@@ -34784,13 +34894,15 @@
       <c r="T55" s="1">
         <v>11.0</v>
       </c>
-      <c r="U55" s="6">
+      <c r="U55" s="1">
         <v>12.0</v>
       </c>
-      <c r="V55" s="6">
+      <c r="V55" s="1">
         <v>12.0</v>
       </c>
-      <c r="W55" s="4"/>
+      <c r="W55" s="6">
+        <v>14.0</v>
+      </c>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
@@ -34856,13 +34968,15 @@
       <c r="T56" s="1">
         <v>1.0</v>
       </c>
-      <c r="U56" s="6">
+      <c r="U56" s="1">
         <v>1.0</v>
       </c>
-      <c r="V56" s="6">
+      <c r="V56" s="1">
         <v>1.0</v>
       </c>
-      <c r="W56" s="4"/>
+      <c r="W56" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
@@ -34928,13 +35042,15 @@
       <c r="T57" s="1">
         <v>1.0</v>
       </c>
-      <c r="U57" s="6">
+      <c r="U57" s="1">
         <v>1.0</v>
       </c>
-      <c r="V57" s="6">
+      <c r="V57" s="1">
         <v>1.0</v>
       </c>
-      <c r="W57" s="4"/>
+      <c r="W57" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
@@ -35000,13 +35116,15 @@
       <c r="T58" s="1">
         <v>5.0</v>
       </c>
-      <c r="U58" s="6">
+      <c r="U58" s="1">
         <v>5.0</v>
       </c>
-      <c r="V58" s="6">
+      <c r="V58" s="1">
         <v>7.0</v>
       </c>
-      <c r="W58" s="4"/>
+      <c r="W58" s="6">
+        <v>7.0</v>
+      </c>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
@@ -35072,13 +35190,15 @@
       <c r="T59" s="1">
         <v>1.0</v>
       </c>
-      <c r="U59" s="6">
+      <c r="U59" s="1">
         <v>1.0</v>
       </c>
-      <c r="V59" s="6">
+      <c r="V59" s="1">
         <v>1.0</v>
       </c>
-      <c r="W59" s="4"/>
+      <c r="W59" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
@@ -35144,13 +35264,15 @@
       <c r="T60" s="1">
         <v>3.0</v>
       </c>
-      <c r="U60" s="6">
+      <c r="U60" s="1">
         <v>3.0</v>
       </c>
-      <c r="V60" s="6">
+      <c r="V60" s="1">
         <v>3.0</v>
       </c>
-      <c r="W60" s="4"/>
+      <c r="W60" s="6">
+        <v>3.0</v>
+      </c>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
@@ -35216,13 +35338,15 @@
       <c r="T61" s="1">
         <v>3.0</v>
       </c>
-      <c r="U61" s="6">
+      <c r="U61" s="1">
         <v>3.0</v>
       </c>
-      <c r="V61" s="6">
+      <c r="V61" s="1">
         <v>3.0</v>
       </c>
-      <c r="W61" s="4"/>
+      <c r="W61" s="6">
+        <v>3.0</v>
+      </c>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
@@ -35288,13 +35412,15 @@
       <c r="T62" s="1">
         <v>2.0</v>
       </c>
-      <c r="U62" s="6">
+      <c r="U62" s="1">
         <v>3.0</v>
       </c>
-      <c r="V62" s="6">
+      <c r="V62" s="1">
         <v>3.0</v>
       </c>
-      <c r="W62" s="4"/>
+      <c r="W62" s="6">
+        <v>3.0</v>
+      </c>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
@@ -35360,13 +35486,15 @@
       <c r="T63" s="1">
         <v>3.0</v>
       </c>
-      <c r="U63" s="6">
+      <c r="U63" s="1">
         <v>3.0</v>
       </c>
-      <c r="V63" s="6">
+      <c r="V63" s="1">
         <v>3.0</v>
       </c>
-      <c r="W63" s="4"/>
+      <c r="W63" s="6">
+        <v>4.0</v>
+      </c>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
@@ -35432,13 +35560,15 @@
       <c r="T64" s="1">
         <v>2.0</v>
       </c>
-      <c r="U64" s="6">
+      <c r="U64" s="1">
         <v>2.0</v>
       </c>
-      <c r="V64" s="6">
+      <c r="V64" s="1">
         <v>2.0</v>
       </c>
-      <c r="W64" s="4"/>
+      <c r="W64" s="6">
+        <v>2.0</v>
+      </c>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
@@ -35504,13 +35634,15 @@
       <c r="T65" s="1">
         <v>1.0</v>
       </c>
-      <c r="U65" s="6">
+      <c r="U65" s="1">
         <v>1.0</v>
       </c>
-      <c r="V65" s="6">
+      <c r="V65" s="1">
         <v>1.0</v>
       </c>
-      <c r="W65" s="4"/>
+      <c r="W65" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
@@ -35576,13 +35708,15 @@
       <c r="T66" s="1">
         <v>1.0</v>
       </c>
-      <c r="U66" s="6">
+      <c r="U66" s="1">
         <v>1.0</v>
       </c>
-      <c r="V66" s="6">
+      <c r="V66" s="1">
         <v>1.0</v>
       </c>
-      <c r="W66" s="4"/>
+      <c r="W66" s="6">
+        <v>2.0</v>
+      </c>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
@@ -35648,13 +35782,15 @@
       <c r="T67" s="1">
         <v>1.0</v>
       </c>
-      <c r="U67" s="6">
+      <c r="U67" s="1">
         <v>1.0</v>
       </c>
-      <c r="V67" s="6">
+      <c r="V67" s="1">
         <v>1.0</v>
       </c>
-      <c r="W67" s="4"/>
+      <c r="W67" s="6">
+        <v>1.0</v>
+      </c>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>

--- a/Dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
+++ b/Dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="71">
-  <si>
-    <t>Location</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -27,6 +24,9 @@
   </si>
   <si>
     <t>Discharged</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
   <si>
     <t>Inpatient</t>
@@ -267,10 +267,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -512,24 +512,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -559,7 +559,7 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>43840.0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -607,7 +607,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>43841.0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -635,7 +635,7 @@
         <v>763.0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J39" si="1">J2+1</f>
+        <f t="shared" ref="J3:J41" si="1">J2+1</f>
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
@@ -656,7 +656,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>43842.0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -705,7 +705,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>43843.0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -754,7 +754,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>43844.0</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -803,7 +803,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>43845.0</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -852,7 +852,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>43846.0</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -901,7 +901,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>43847.0</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -950,7 +950,7 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>43848.0</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1001,7 +1001,7 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>43849.0</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1053,7 +1053,7 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>43850.0</v>
       </c>
       <c r="B12" s="1">
@@ -1102,7 +1102,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>43851.0</v>
       </c>
       <c r="B13" s="1">
@@ -1151,7 +1151,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>43852.0</v>
       </c>
       <c r="B14" s="1">
@@ -1200,7 +1200,7 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>43853.0</v>
       </c>
       <c r="B15" s="1">
@@ -1249,7 +1249,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>43854.0</v>
       </c>
       <c r="B16" s="1">
@@ -1298,7 +1298,7 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>43855.0</v>
       </c>
       <c r="B17" s="1">
@@ -1347,7 +1347,7 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>43856.0</v>
       </c>
       <c r="B18" s="1">
@@ -1396,7 +1396,7 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>43857.0</v>
       </c>
       <c r="B19" s="1">
@@ -1445,7 +1445,7 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>43858.0</v>
       </c>
       <c r="B20" s="1">
@@ -1494,7 +1494,7 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>43859.0</v>
       </c>
       <c r="B21" s="1">
@@ -1543,7 +1543,7 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>43860.0</v>
       </c>
       <c r="B22" s="1">
@@ -1592,7 +1592,7 @@
       <c r="Z22" s="4"/>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>43861.0</v>
       </c>
       <c r="B23" s="1">
@@ -1641,7 +1641,7 @@
       <c r="Z23" s="4"/>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>43862.0</v>
       </c>
       <c r="B24" s="1">
@@ -1690,7 +1690,7 @@
       <c r="Z24" s="4"/>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>43863.0</v>
       </c>
       <c r="B25" s="1">
@@ -1739,7 +1739,7 @@
       <c r="Z25" s="4"/>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>43864.0</v>
       </c>
       <c r="B26" s="1">
@@ -1788,7 +1788,7 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>43865.0</v>
       </c>
       <c r="B27" s="1">
@@ -1837,7 +1837,7 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>43866.0</v>
       </c>
       <c r="B28" s="1">
@@ -1886,7 +1886,7 @@
       <c r="Z28" s="4"/>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>43867.0</v>
       </c>
       <c r="B29" s="1">
@@ -1935,7 +1935,7 @@
       <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>43868.0</v>
       </c>
       <c r="B30" s="1">
@@ -1984,7 +1984,7 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>43869.0</v>
       </c>
       <c r="B31" s="1">
@@ -2033,7 +2033,7 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>43870.0</v>
       </c>
       <c r="B32" s="1">
@@ -2082,7 +2082,7 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>43871.0</v>
       </c>
       <c r="B33" s="1">
@@ -2131,7 +2131,7 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>43872.0</v>
       </c>
       <c r="B34" s="1">
@@ -2180,7 +2180,7 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>43873.0</v>
       </c>
       <c r="B35" s="1">
@@ -2229,7 +2229,7 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>43874.0</v>
       </c>
       <c r="B36" s="1">
@@ -2278,7 +2278,7 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>43875.0</v>
       </c>
       <c r="B37" s="1">
@@ -2327,7 +2327,7 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>43876.0</v>
       </c>
       <c r="B38" s="1">
@@ -2376,31 +2376,31 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>43877.0</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="1">
         <v>7264.0</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>70548.0</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="1">
         <v>10844.0</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="1">
         <v>10644.0</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="1">
         <v>1770.0</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="1">
         <v>546016.0</v>
       </c>
       <c r="J39" s="1">
@@ -2425,16 +2425,37 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="A40" s="3">
+        <v>43878.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6242.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>72436.0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12552.0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1">
+        <v>11741.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1868.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>560901.0</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -2453,16 +2474,37 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="A41" s="5">
+        <v>43879.0</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5248.0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>74185.0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>14376.0</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="6">
+        <v>11977.0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>2004.0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>574418.0</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -29357,97 +29399,104 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3">
         <v>43849.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>43850.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>43851.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="3">
         <v>43852.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>43853.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>43854.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>43855.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>43856.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>43857.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="3">
         <v>43858.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="3">
         <v>43859.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="3">
         <v>43860.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="3">
         <v>43861.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="3">
         <v>43862.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="3">
         <v>43863.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="3">
         <v>43864.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="3">
         <v>43865.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="3">
         <v>43866.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="3">
         <v>43867.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="3">
         <v>43868.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="3">
         <v>43869.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="3">
         <v>43870.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="3">
         <v>43871.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="3">
         <v>43872.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="3">
         <v>43873.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="3">
         <v>43874.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="3">
         <v>43875.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="3">
         <v>43876.0</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="3">
         <v>43877.0</v>
       </c>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
+      <c r="AE1" s="3">
+        <v>43878.0</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>43879.0</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>43880.0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -29537,11 +29586,16 @@
       <c r="AC2" s="1">
         <v>962.0</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="1">
         <v>973.0</v>
       </c>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
+      <c r="AE2" s="1">
+        <v>982.0</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>982.0</v>
+      </c>
+      <c r="AG2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -29631,11 +29685,16 @@
       <c r="AC3" s="1">
         <v>380.0</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="1">
         <v>381.0</v>
       </c>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
+      <c r="AE3" s="1">
+        <v>381.0</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>387.0</v>
+      </c>
+      <c r="AG3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -29725,11 +29784,16 @@
       <c r="AC4" s="1">
         <v>547.0</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="1">
         <v>551.0</v>
       </c>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
+      <c r="AE4" s="1">
+        <v>553.0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>555.0</v>
+      </c>
+      <c r="AG4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -29819,11 +29883,16 @@
       <c r="AC5" s="1">
         <v>287.0</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="1">
         <v>290.0</v>
       </c>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
+      <c r="AE5" s="1">
+        <v>292.0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>292.0</v>
+      </c>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -29913,11 +29982,16 @@
       <c r="AC6" s="1">
         <v>90.0</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="1">
         <v>90.0</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
+      <c r="AE6" s="1">
+        <v>91.0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>91.0</v>
+      </c>
+      <c r="AG6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -30007,11 +30081,16 @@
       <c r="AC7" s="1">
         <v>1316.0</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="1">
         <v>1322.0</v>
       </c>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
+      <c r="AE7" s="1">
+        <v>1328.0</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>1331.0</v>
+      </c>
+      <c r="AG7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -30101,11 +30180,16 @@
       <c r="AC8" s="1">
         <v>237.0</v>
       </c>
-      <c r="AD8" s="6">
+      <c r="AD8" s="1">
         <v>238.0</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
+      <c r="AE8" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>242.0</v>
+      </c>
+      <c r="AG8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -30195,11 +30279,16 @@
       <c r="AC9" s="1">
         <v>144.0</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="1">
         <v>144.0</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
+      <c r="AE9" s="1">
+        <v>146.0</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="AG9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -30289,11 +30378,16 @@
       <c r="AC10" s="1">
         <v>162.0</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="1">
         <v>162.0</v>
       </c>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
+      <c r="AE10" s="1">
+        <v>163.0</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>163.0</v>
+      </c>
+      <c r="AG10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -30383,11 +30477,16 @@
       <c r="AC11" s="1">
         <v>300.0</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="1">
         <v>301.0</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
+      <c r="AE11" s="1">
+        <v>302.0</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>306.0</v>
+      </c>
+      <c r="AG11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -30477,11 +30576,16 @@
       <c r="AC12" s="1">
         <v>445.0</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="1">
         <v>447.0</v>
       </c>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
+      <c r="AE12" s="1">
+        <v>464.0</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>464.0</v>
+      </c>
+      <c r="AG12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -30571,11 +30675,16 @@
       <c r="AC13" s="1">
         <v>1231.0</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="1">
         <v>1246.0</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AE13" s="1">
+        <v>1257.0</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>1257.0</v>
+      </c>
+      <c r="AG13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -30665,11 +30774,16 @@
       <c r="AC14" s="1">
         <v>56249.0</v>
       </c>
-      <c r="AD14" s="6">
+      <c r="AD14" s="1">
         <v>58182.0</v>
       </c>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
+      <c r="AE14" s="1">
+        <v>59989.0</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>61682.0</v>
+      </c>
+      <c r="AG14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -30759,11 +30873,16 @@
       <c r="AC15" s="1">
         <v>1004.0</v>
       </c>
-      <c r="AD15" s="6">
+      <c r="AD15" s="1">
         <v>1006.0</v>
       </c>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
+      <c r="AE15" s="1">
+        <v>1007.0</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>1007.0</v>
+      </c>
+      <c r="AG15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -30853,11 +30972,16 @@
       <c r="AC16" s="1">
         <v>70.0</v>
       </c>
-      <c r="AD16" s="6">
+      <c r="AD16" s="1">
         <v>70.0</v>
       </c>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+      <c r="AE16" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>73.0</v>
+      </c>
+      <c r="AG16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -30947,11 +31071,16 @@
       <c r="AC17" s="1">
         <v>617.0</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="1">
         <v>617.0</v>
       </c>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
+      <c r="AE17" s="1">
+        <v>629.0</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>629.0</v>
+      </c>
+      <c r="AG17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -31041,11 +31170,16 @@
       <c r="AC18" s="1">
         <v>925.0</v>
       </c>
-      <c r="AD18" s="6">
+      <c r="AD18" s="1">
         <v>925.0</v>
       </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
+      <c r="AE18" s="1">
+        <v>930.0</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>933.0</v>
+      </c>
+      <c r="AG18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -31135,11 +31269,16 @@
       <c r="AC19" s="1">
         <v>89.0</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="1">
         <v>89.0</v>
       </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AE19" s="1">
+        <v>89.0</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>89.0</v>
+      </c>
+      <c r="AG19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -31229,11 +31368,16 @@
       <c r="AC20" s="1">
         <v>120.0</v>
       </c>
-      <c r="AD20" s="6">
+      <c r="AD20" s="1">
         <v>121.0</v>
       </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
+      <c r="AE20" s="1">
+        <v>121.0</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="AG20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -31323,11 +31467,16 @@
       <c r="AC21" s="1">
         <v>70.0</v>
       </c>
-      <c r="AD21" s="6">
+      <c r="AD21" s="1">
         <v>70.0</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
+      <c r="AE21" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="AG21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -31417,11 +31566,16 @@
       <c r="AC22" s="1">
         <v>18.0</v>
       </c>
-      <c r="AD22" s="6">
+      <c r="AD22" s="1">
         <v>18.0</v>
       </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
+      <c r="AE22" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="AG22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -31511,11 +31665,16 @@
       <c r="AC23" s="1">
         <v>236.0</v>
       </c>
-      <c r="AD23" s="6">
+      <c r="AD23" s="1">
         <v>236.0</v>
       </c>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="1"/>
+      <c r="AE23" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>240.0</v>
+      </c>
+      <c r="AG23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -31605,11 +31764,16 @@
       <c r="AC24" s="1">
         <v>537.0</v>
       </c>
-      <c r="AD24" s="6">
+      <c r="AD24" s="1">
         <v>541.0</v>
       </c>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
+      <c r="AE24" s="1">
+        <v>543.0</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>543.0</v>
+      </c>
+      <c r="AG24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -31699,11 +31863,16 @@
       <c r="AC25" s="1">
         <v>328.0</v>
       </c>
-      <c r="AD25" s="6">
+      <c r="AD25" s="1">
         <v>331.0</v>
       </c>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
+      <c r="AE25" s="1">
+        <v>333.0</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>333.0</v>
+      </c>
+      <c r="AG25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -31793,11 +31962,16 @@
       <c r="AC26" s="1">
         <v>128.0</v>
       </c>
-      <c r="AD26" s="6">
+      <c r="AD26" s="1">
         <v>129.0</v>
       </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
+      <c r="AE26" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="AG26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -31887,11 +32061,16 @@
       <c r="AC27" s="1">
         <v>481.0</v>
       </c>
-      <c r="AD27" s="6">
+      <c r="AD27" s="1">
         <v>495.0</v>
       </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
+      <c r="AE27" s="1">
+        <v>508.0</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>508.0</v>
+      </c>
+      <c r="AG27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -31981,11 +32160,16 @@
       <c r="AC28" s="1">
         <v>124.0</v>
       </c>
-      <c r="AD28" s="6">
+      <c r="AD28" s="1">
         <v>124.0</v>
       </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
+      <c r="AE28" s="1">
+        <v>125.0</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>128.0</v>
+      </c>
+      <c r="AG28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -32075,11 +32259,16 @@
       <c r="AC29" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD29" s="6">
+      <c r="AD29" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
+      <c r="AE29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -32169,11 +32358,16 @@
       <c r="AC30" s="1">
         <v>71.0</v>
       </c>
-      <c r="AD30" s="6">
+      <c r="AD30" s="1">
         <v>71.0</v>
       </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
+      <c r="AE30" s="1">
+        <v>76.0</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>76.0</v>
+      </c>
+      <c r="AG30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -32263,11 +32457,16 @@
       <c r="AC31" s="1">
         <v>171.0</v>
       </c>
-      <c r="AD31" s="6">
+      <c r="AD31" s="1">
         <v>171.0</v>
       </c>
-      <c r="AE31" s="1"/>
-      <c r="AF31" s="1"/>
+      <c r="AE31" s="1">
+        <v>171.0</v>
+      </c>
+      <c r="AF31" s="6">
+        <v>172.0</v>
+      </c>
+      <c r="AG31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -32357,11 +32556,16 @@
       <c r="AC32" s="1">
         <v>1167.0</v>
       </c>
-      <c r="AD32" s="6">
+      <c r="AD32" s="1">
         <v>1167.0</v>
       </c>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
+      <c r="AE32" s="1">
+        <v>1172.0</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>1172.0</v>
+      </c>
+      <c r="AG32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -32396,6 +32600,7 @@
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -32430,6 +32635,7 @@
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -32464,6 +32670,7 @@
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -32498,6 +32705,7 @@
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -32532,6 +32740,7 @@
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -32566,6 +32775,7 @@
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -32600,6 +32810,7 @@
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -32634,6 +32845,7 @@
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -32723,11 +32935,16 @@
       <c r="AC41" s="1">
         <v>56.0</v>
       </c>
-      <c r="AD41" s="6">
+      <c r="AD41" s="1">
         <v>57.0</v>
       </c>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
+      <c r="AE41" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>62.0</v>
+      </c>
+      <c r="AG41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
@@ -32817,11 +33034,16 @@
       <c r="AC42" s="1">
         <v>10.0</v>
       </c>
-      <c r="AD42" s="6">
+      <c r="AD42" s="1">
         <v>10.0</v>
       </c>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
+      <c r="AE42" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="AF42" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="AG42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -32911,11 +33133,16 @@
       <c r="AC43" s="1">
         <v>18.0</v>
       </c>
-      <c r="AD43" s="6">
+      <c r="AD43" s="1">
         <v>20.0</v>
       </c>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
+      <c r="AE43" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="AF43" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="AG43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -33005,11 +33232,16 @@
       <c r="AC44" s="1">
         <v>43.0</v>
       </c>
-      <c r="AD44" s="6">
+      <c r="AD44" s="1">
         <v>43.0</v>
       </c>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
+      <c r="AE44" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="AF44" s="6">
+        <v>65.0</v>
+      </c>
+      <c r="AG44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -33099,11 +33331,16 @@
       <c r="AC45" s="1">
         <v>34.0</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AD45" s="1">
         <v>34.0</v>
       </c>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
+      <c r="AE45" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="AF45" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="AG45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
@@ -33193,11 +33430,16 @@
       <c r="AC46" s="1">
         <v>29.0</v>
       </c>
-      <c r="AD46" s="6">
+      <c r="AD46" s="1">
         <v>29.0</v>
       </c>
-      <c r="AE46" s="1"/>
-      <c r="AF46" s="1"/>
+      <c r="AE46" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="AF46" s="6">
+        <v>31.0</v>
+      </c>
+      <c r="AG46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -33287,11 +33529,16 @@
       <c r="AC47" s="1">
         <v>15.0</v>
       </c>
-      <c r="AD47" s="6">
+      <c r="AD47" s="1">
         <v>15.0</v>
       </c>
-      <c r="AE47" s="1"/>
-      <c r="AF47" s="1"/>
+      <c r="AE47" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AF47" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="AG47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -33381,11 +33628,16 @@
       <c r="AC48" s="1">
         <v>16.0</v>
       </c>
-      <c r="AD48" s="6">
+      <c r="AD48" s="1">
         <v>16.0</v>
       </c>
-      <c r="AE48" s="1"/>
-      <c r="AF48" s="1"/>
+      <c r="AE48" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="AF48" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="AG48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -33475,11 +33727,16 @@
       <c r="AC49" s="1">
         <v>72.0</v>
       </c>
-      <c r="AD49" s="6">
+      <c r="AD49" s="1">
         <v>75.0</v>
       </c>
-      <c r="AE49" s="1"/>
-      <c r="AF49" s="1"/>
+      <c r="AE49" s="1">
+        <v>77.0</v>
+      </c>
+      <c r="AF49" s="6">
+        <v>81.0</v>
+      </c>
+      <c r="AG49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -33569,11 +33826,16 @@
       <c r="AC50" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD50" s="6">
+      <c r="AD50" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
+      <c r="AE50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -33663,11 +33925,16 @@
       <c r="AC51" s="1">
         <v>12.0</v>
       </c>
-      <c r="AD51" s="6">
+      <c r="AD51" s="1">
         <v>12.0</v>
       </c>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
+      <c r="AE51" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="AF51" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="AG51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -33757,11 +34024,16 @@
       <c r="AC52" s="1">
         <v>22.0</v>
       </c>
-      <c r="AD52" s="6">
+      <c r="AD52" s="1">
         <v>22.0</v>
       </c>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
+      <c r="AE52" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="AF52" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="AG52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -33851,11 +34123,16 @@
       <c r="AC53" s="1">
         <v>15.0</v>
       </c>
-      <c r="AD53" s="6">
+      <c r="AD53" s="1">
         <v>15.0</v>
       </c>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
+      <c r="AE53" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="AF53" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="AG53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
@@ -33945,11 +34222,16 @@
       <c r="AC54" s="1">
         <v>7.0</v>
       </c>
-      <c r="AD54" s="6">
+      <c r="AD54" s="1">
         <v>7.0</v>
       </c>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
+      <c r="AE54" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="AG54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -34039,11 +34321,16 @@
       <c r="AC55" s="1">
         <v>14.0</v>
       </c>
-      <c r="AD55" s="6">
+      <c r="AD55" s="1">
         <v>14.0</v>
       </c>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
+      <c r="AE55" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="AF55" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="AG55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -34133,11 +34420,16 @@
       <c r="AC56" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD56" s="6">
+      <c r="AD56" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
+      <c r="AE56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF56" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -34227,11 +34519,16 @@
       <c r="AC57" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD57" s="6">
+      <c r="AD57" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
+      <c r="AE57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
@@ -34321,11 +34618,16 @@
       <c r="AC58" s="1">
         <v>8.0</v>
       </c>
-      <c r="AD58" s="6">
+      <c r="AD58" s="1">
         <v>8.0</v>
       </c>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
+      <c r="AE58" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AF58" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AG58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -34415,11 +34717,16 @@
       <c r="AC59" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD59" s="6">
+      <c r="AD59" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
+      <c r="AE59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF59" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -34509,11 +34816,16 @@
       <c r="AC60" s="1">
         <v>3.0</v>
       </c>
-      <c r="AD60" s="6">
+      <c r="AD60" s="1">
         <v>3.0</v>
       </c>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
+      <c r="AE60" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AF60" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AG60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
@@ -34603,11 +34915,16 @@
       <c r="AC61" s="1">
         <v>3.0</v>
       </c>
-      <c r="AD61" s="6">
+      <c r="AD61" s="1">
         <v>3.0</v>
       </c>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
+      <c r="AE61" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AF61" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AG61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
@@ -34697,11 +35014,16 @@
       <c r="AC62" s="1">
         <v>3.0</v>
       </c>
-      <c r="AD62" s="6">
+      <c r="AD62" s="1">
         <v>3.0</v>
       </c>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
+      <c r="AE62" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="AF62" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AG62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -34791,11 +35113,16 @@
       <c r="AC63" s="1">
         <v>9.0</v>
       </c>
-      <c r="AD63" s="6">
+      <c r="AD63" s="1">
         <v>9.0</v>
       </c>
-      <c r="AE63" s="1"/>
-      <c r="AF63" s="1"/>
+      <c r="AE63" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="AF63" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AG63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -34885,11 +35212,16 @@
       <c r="AC64" s="1">
         <v>2.0</v>
       </c>
-      <c r="AD64" s="6">
+      <c r="AD64" s="1">
         <v>2.0</v>
       </c>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1"/>
+      <c r="AE64" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AF64" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AG64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -34979,11 +35311,16 @@
       <c r="AC65" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD65" s="6">
+      <c r="AD65" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="1"/>
+      <c r="AE65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
@@ -35073,11 +35410,16 @@
       <c r="AC66" s="1">
         <v>2.0</v>
       </c>
-      <c r="AD66" s="6">
+      <c r="AD66" s="1">
         <v>2.0</v>
       </c>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
+      <c r="AE66" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="AF66" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AG66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -35167,11 +35509,16 @@
       <c r="AC67" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD67" s="6">
+      <c r="AD67" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
+      <c r="AE67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -35261,11 +35608,16 @@
       <c r="AC68" s="1">
         <v>1.0</v>
       </c>
-      <c r="AD68" s="6">
+      <c r="AD68" s="1">
         <v>1.0</v>
       </c>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
+      <c r="AE68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="AF68" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AG68" s="1"/>
     </row>
     <row r="69">
       <c r="A69" s="4"/>
@@ -35300,6 +35652,7 @@
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -35334,6 +35687,7 @@
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -35368,6 +35722,7 @@
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
+      <c r="AG71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -35402,6 +35757,7 @@
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -35436,6 +35792,7 @@
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -35470,6 +35827,7 @@
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
+      <c r="AG74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -35504,6 +35862,7 @@
       <c r="AD75" s="4"/>
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
+      <c r="AG75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -35538,6 +35897,7 @@
       <c r="AD76" s="4"/>
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -35572,6 +35932,7 @@
       <c r="AD77" s="4"/>
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
+      <c r="AG77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -35606,6 +35967,7 @@
       <c r="AD78" s="4"/>
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
+      <c r="AG78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -35640,6 +36002,7 @@
       <c r="AD79" s="4"/>
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -35674,6 +36037,7 @@
       <c r="AD80" s="4"/>
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
+      <c r="AG80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -35708,6 +36072,7 @@
       <c r="AD81" s="4"/>
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -35742,6 +36107,7 @@
       <c r="AD82" s="4"/>
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -35776,6 +36142,7 @@
       <c r="AD83" s="4"/>
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
+      <c r="AG83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -35810,6 +36177,7 @@
       <c r="AD84" s="4"/>
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
+      <c r="AG84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -35844,6 +36212,7 @@
       <c r="AD85" s="4"/>
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
+      <c r="AG85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -35878,6 +36247,7 @@
       <c r="AD86" s="4"/>
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
+      <c r="AG86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -35912,6 +36282,7 @@
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
+      <c r="AG87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -35946,6 +36317,7 @@
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
+      <c r="AG88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -35980,6 +36352,7 @@
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
+      <c r="AG89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -36014,6 +36387,7 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
+      <c r="AG90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -36048,6 +36422,7 @@
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
+      <c r="AG91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -36082,6 +36457,7 @@
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
+      <c r="AG92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -36116,6 +36492,7 @@
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
+      <c r="AG93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -36150,6 +36527,7 @@
       <c r="AD94" s="4"/>
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
+      <c r="AG94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -36184,6 +36562,7 @@
       <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
+      <c r="AG95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -36218,6 +36597,7 @@
       <c r="AD96" s="4"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
+      <c r="AG96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -36252,6 +36632,7 @@
       <c r="AD97" s="4"/>
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
+      <c r="AG97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -36286,6 +36667,7 @@
       <c r="AD98" s="4"/>
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
+      <c r="AG98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -36320,6 +36702,7 @@
       <c r="AD99" s="4"/>
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
+      <c r="AG99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -36354,6 +36737,7 @@
       <c r="AD100" s="4"/>
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
+      <c r="AG100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -36388,6 +36772,7 @@
       <c r="AD101" s="4"/>
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
+      <c r="AG101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -36422,6 +36807,7 @@
       <c r="AD102" s="4"/>
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
+      <c r="AG102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -36456,6 +36842,7 @@
       <c r="AD103" s="4"/>
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
+      <c r="AG103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -36490,6 +36877,7 @@
       <c r="AD104" s="4"/>
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
+      <c r="AG104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -36524,6 +36912,7 @@
       <c r="AD105" s="4"/>
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
+      <c r="AG105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -36558,6 +36947,7 @@
       <c r="AD106" s="4"/>
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
+      <c r="AG106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -36592,6 +36982,7 @@
       <c r="AD107" s="4"/>
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
+      <c r="AG107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -36626,6 +37017,7 @@
       <c r="AD108" s="4"/>
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
+      <c r="AG108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -36660,6 +37052,7 @@
       <c r="AD109" s="4"/>
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
+      <c r="AG109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -36694,6 +37087,7 @@
       <c r="AD110" s="4"/>
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
+      <c r="AG110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -36728,6 +37122,7 @@
       <c r="AD111" s="4"/>
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
+      <c r="AG111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -36762,6 +37157,7 @@
       <c r="AD112" s="4"/>
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
+      <c r="AG112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -36796,6 +37192,7 @@
       <c r="AD113" s="4"/>
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
+      <c r="AG113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -36830,6 +37227,7 @@
       <c r="AD114" s="4"/>
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
+      <c r="AG114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -36864,6 +37262,7 @@
       <c r="AD115" s="4"/>
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
+      <c r="AG115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -36898,6 +37297,7 @@
       <c r="AD116" s="4"/>
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
+      <c r="AG116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -36932,6 +37332,7 @@
       <c r="AD117" s="4"/>
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
+      <c r="AG117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -36966,6 +37367,7 @@
       <c r="AD118" s="4"/>
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
+      <c r="AG118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -37000,6 +37402,7 @@
       <c r="AD119" s="4"/>
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
+      <c r="AG119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -37034,6 +37437,7 @@
       <c r="AD120" s="4"/>
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
+      <c r="AG120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -37068,6 +37472,7 @@
       <c r="AD121" s="4"/>
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
+      <c r="AG121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -37102,6 +37507,7 @@
       <c r="AD122" s="4"/>
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
+      <c r="AG122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -37136,6 +37542,7 @@
       <c r="AD123" s="4"/>
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
+      <c r="AG123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -37170,6 +37577,7 @@
       <c r="AD124" s="4"/>
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
+      <c r="AG124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -37204,6 +37612,7 @@
       <c r="AD125" s="4"/>
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
+      <c r="AG125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -37238,6 +37647,7 @@
       <c r="AD126" s="4"/>
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
+      <c r="AG126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -37272,6 +37682,7 @@
       <c r="AD127" s="4"/>
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
+      <c r="AG127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -37306,6 +37717,7 @@
       <c r="AD128" s="4"/>
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
+      <c r="AG128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -37340,6 +37752,7 @@
       <c r="AD129" s="4"/>
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
+      <c r="AG129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -37374,6 +37787,7 @@
       <c r="AD130" s="4"/>
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
+      <c r="AG130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -37408,6 +37822,7 @@
       <c r="AD131" s="4"/>
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
+      <c r="AG131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -37442,6 +37857,7 @@
       <c r="AD132" s="4"/>
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
+      <c r="AG132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -37476,6 +37892,7 @@
       <c r="AD133" s="4"/>
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
+      <c r="AG133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -37510,6 +37927,7 @@
       <c r="AD134" s="4"/>
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
+      <c r="AG134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -37544,6 +37962,7 @@
       <c r="AD135" s="4"/>
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
+      <c r="AG135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -37578,6 +37997,7 @@
       <c r="AD136" s="4"/>
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
+      <c r="AG136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -37612,6 +38032,7 @@
       <c r="AD137" s="4"/>
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
+      <c r="AG137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -37646,6 +38067,7 @@
       <c r="AD138" s="4"/>
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
+      <c r="AG138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -37680,6 +38102,7 @@
       <c r="AD139" s="4"/>
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
+      <c r="AG139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -37714,6 +38137,7 @@
       <c r="AD140" s="4"/>
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
+      <c r="AG140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -37748,6 +38172,7 @@
       <c r="AD141" s="4"/>
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
+      <c r="AG141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -37782,6 +38207,7 @@
       <c r="AD142" s="4"/>
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
+      <c r="AG142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -37816,6 +38242,7 @@
       <c r="AD143" s="4"/>
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
+      <c r="AG143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -37850,6 +38277,7 @@
       <c r="AD144" s="4"/>
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
+      <c r="AG144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -37884,6 +38312,7 @@
       <c r="AD145" s="4"/>
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
+      <c r="AG145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -37918,6 +38347,7 @@
       <c r="AD146" s="4"/>
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
+      <c r="AG146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -37952,6 +38382,7 @@
       <c r="AD147" s="4"/>
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
+      <c r="AG147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -37986,6 +38417,7 @@
       <c r="AD148" s="4"/>
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
+      <c r="AG148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -38020,6 +38452,7 @@
       <c r="AD149" s="4"/>
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
+      <c r="AG149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -38054,6 +38487,7 @@
       <c r="AD150" s="4"/>
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
+      <c r="AG150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -38088,6 +38522,7 @@
       <c r="AD151" s="4"/>
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
+      <c r="AG151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -38122,6 +38557,7 @@
       <c r="AD152" s="4"/>
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
+      <c r="AG152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -38156,6 +38592,7 @@
       <c r="AD153" s="4"/>
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
+      <c r="AG153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -38190,6 +38627,7 @@
       <c r="AD154" s="4"/>
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
+      <c r="AG154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -38224,6 +38662,7 @@
       <c r="AD155" s="4"/>
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
+      <c r="AG155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -38258,6 +38697,7 @@
       <c r="AD156" s="4"/>
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
+      <c r="AG156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -38292,6 +38732,7 @@
       <c r="AD157" s="4"/>
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
+      <c r="AG157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -38326,6 +38767,7 @@
       <c r="AD158" s="4"/>
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
+      <c r="AG158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -38360,6 +38802,7 @@
       <c r="AD159" s="4"/>
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
+      <c r="AG159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -38394,6 +38837,7 @@
       <c r="AD160" s="4"/>
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
+      <c r="AG160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -38428,6 +38872,7 @@
       <c r="AD161" s="4"/>
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
+      <c r="AG161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -38462,6 +38907,7 @@
       <c r="AD162" s="4"/>
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
+      <c r="AG162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -38496,6 +38942,7 @@
       <c r="AD163" s="4"/>
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
+      <c r="AG163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -38530,6 +38977,7 @@
       <c r="AD164" s="4"/>
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
+      <c r="AG164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -38564,6 +39012,7 @@
       <c r="AD165" s="4"/>
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
+      <c r="AG165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -38598,6 +39047,7 @@
       <c r="AD166" s="4"/>
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
+      <c r="AG166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -38632,6 +39082,7 @@
       <c r="AD167" s="4"/>
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
+      <c r="AG167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -38666,6 +39117,7 @@
       <c r="AD168" s="4"/>
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
+      <c r="AG168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -38700,6 +39152,7 @@
       <c r="AD169" s="4"/>
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
+      <c r="AG169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -38734,6 +39187,7 @@
       <c r="AD170" s="4"/>
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
+      <c r="AG170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -38768,6 +39222,7 @@
       <c r="AD171" s="4"/>
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
+      <c r="AG171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -38802,6 +39257,7 @@
       <c r="AD172" s="4"/>
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
+      <c r="AG172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -38836,6 +39292,7 @@
       <c r="AD173" s="4"/>
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
+      <c r="AG173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -38870,6 +39327,7 @@
       <c r="AD174" s="4"/>
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
+      <c r="AG174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -38904,6 +39362,7 @@
       <c r="AD175" s="4"/>
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
+      <c r="AG175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -38938,6 +39397,7 @@
       <c r="AD176" s="4"/>
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
+      <c r="AG176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -38972,6 +39432,7 @@
       <c r="AD177" s="4"/>
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
+      <c r="AG177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -39006,6 +39467,7 @@
       <c r="AD178" s="4"/>
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
+      <c r="AG178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -39040,6 +39502,7 @@
       <c r="AD179" s="4"/>
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
+      <c r="AG179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -39074,6 +39537,7 @@
       <c r="AD180" s="4"/>
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
+      <c r="AG180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -39108,6 +39572,7 @@
       <c r="AD181" s="4"/>
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
+      <c r="AG181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -39142,6 +39607,7 @@
       <c r="AD182" s="4"/>
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
+      <c r="AG182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -39176,6 +39642,7 @@
       <c r="AD183" s="4"/>
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
+      <c r="AG183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -39210,6 +39677,7 @@
       <c r="AD184" s="4"/>
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
+      <c r="AG184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -39244,6 +39712,7 @@
       <c r="AD185" s="4"/>
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
+      <c r="AG185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -39278,6 +39747,7 @@
       <c r="AD186" s="4"/>
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
+      <c r="AG186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -39312,6 +39782,7 @@
       <c r="AD187" s="4"/>
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
+      <c r="AG187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -39346,6 +39817,7 @@
       <c r="AD188" s="4"/>
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
+      <c r="AG188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -39380,6 +39852,7 @@
       <c r="AD189" s="4"/>
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
+      <c r="AG189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -39414,6 +39887,7 @@
       <c r="AD190" s="4"/>
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
+      <c r="AG190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -39448,6 +39922,7 @@
       <c r="AD191" s="4"/>
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
+      <c r="AG191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -39482,6 +39957,7 @@
       <c r="AD192" s="4"/>
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
+      <c r="AG192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -39516,6 +39992,7 @@
       <c r="AD193" s="4"/>
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
+      <c r="AG193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -39550,6 +40027,7 @@
       <c r="AD194" s="4"/>
       <c r="AE194" s="4"/>
       <c r="AF194" s="4"/>
+      <c r="AG194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -39584,6 +40062,7 @@
       <c r="AD195" s="4"/>
       <c r="AE195" s="4"/>
       <c r="AF195" s="4"/>
+      <c r="AG195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -39618,6 +40097,7 @@
       <c r="AD196" s="4"/>
       <c r="AE196" s="4"/>
       <c r="AF196" s="4"/>
+      <c r="AG196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -39652,6 +40132,7 @@
       <c r="AD197" s="4"/>
       <c r="AE197" s="4"/>
       <c r="AF197" s="4"/>
+      <c r="AG197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -39686,6 +40167,7 @@
       <c r="AD198" s="4"/>
       <c r="AE198" s="4"/>
       <c r="AF198" s="4"/>
+      <c r="AG198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -39720,6 +40202,7 @@
       <c r="AD199" s="4"/>
       <c r="AE199" s="4"/>
       <c r="AF199" s="4"/>
+      <c r="AG199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -39754,6 +40237,7 @@
       <c r="AD200" s="4"/>
       <c r="AE200" s="4"/>
       <c r="AF200" s="4"/>
+      <c r="AG200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -39788,6 +40272,7 @@
       <c r="AD201" s="4"/>
       <c r="AE201" s="4"/>
       <c r="AF201" s="4"/>
+      <c r="AG201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -39822,6 +40307,7 @@
       <c r="AD202" s="4"/>
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
+      <c r="AG202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -39856,6 +40342,7 @@
       <c r="AD203" s="4"/>
       <c r="AE203" s="4"/>
       <c r="AF203" s="4"/>
+      <c r="AG203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -39890,6 +40377,7 @@
       <c r="AD204" s="4"/>
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
+      <c r="AG204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -39924,6 +40412,7 @@
       <c r="AD205" s="4"/>
       <c r="AE205" s="4"/>
       <c r="AF205" s="4"/>
+      <c r="AG205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -39958,6 +40447,7 @@
       <c r="AD206" s="4"/>
       <c r="AE206" s="4"/>
       <c r="AF206" s="4"/>
+      <c r="AG206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -39992,6 +40482,7 @@
       <c r="AD207" s="4"/>
       <c r="AE207" s="4"/>
       <c r="AF207" s="4"/>
+      <c r="AG207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -40026,6 +40517,7 @@
       <c r="AD208" s="4"/>
       <c r="AE208" s="4"/>
       <c r="AF208" s="4"/>
+      <c r="AG208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -40060,6 +40552,7 @@
       <c r="AD209" s="4"/>
       <c r="AE209" s="4"/>
       <c r="AF209" s="4"/>
+      <c r="AG209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -40094,6 +40587,7 @@
       <c r="AD210" s="4"/>
       <c r="AE210" s="4"/>
       <c r="AF210" s="4"/>
+      <c r="AG210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -40128,6 +40622,7 @@
       <c r="AD211" s="4"/>
       <c r="AE211" s="4"/>
       <c r="AF211" s="4"/>
+      <c r="AG211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -40162,6 +40657,7 @@
       <c r="AD212" s="4"/>
       <c r="AE212" s="4"/>
       <c r="AF212" s="4"/>
+      <c r="AG212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -40196,6 +40692,7 @@
       <c r="AD213" s="4"/>
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
+      <c r="AG213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -40230,6 +40727,7 @@
       <c r="AD214" s="4"/>
       <c r="AE214" s="4"/>
       <c r="AF214" s="4"/>
+      <c r="AG214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -40264,6 +40762,7 @@
       <c r="AD215" s="4"/>
       <c r="AE215" s="4"/>
       <c r="AF215" s="4"/>
+      <c r="AG215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -40298,6 +40797,7 @@
       <c r="AD216" s="4"/>
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
+      <c r="AG216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -40332,6 +40832,7 @@
       <c r="AD217" s="4"/>
       <c r="AE217" s="4"/>
       <c r="AF217" s="4"/>
+      <c r="AG217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -40366,6 +40867,7 @@
       <c r="AD218" s="4"/>
       <c r="AE218" s="4"/>
       <c r="AF218" s="4"/>
+      <c r="AG218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -40400,6 +40902,7 @@
       <c r="AD219" s="4"/>
       <c r="AE219" s="4"/>
       <c r="AF219" s="4"/>
+      <c r="AG219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -40434,6 +40937,7 @@
       <c r="AD220" s="4"/>
       <c r="AE220" s="4"/>
       <c r="AF220" s="4"/>
+      <c r="AG220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -40468,6 +40972,7 @@
       <c r="AD221" s="4"/>
       <c r="AE221" s="4"/>
       <c r="AF221" s="4"/>
+      <c r="AG221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -40502,6 +41007,7 @@
       <c r="AD222" s="4"/>
       <c r="AE222" s="4"/>
       <c r="AF222" s="4"/>
+      <c r="AG222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -40536,6 +41042,7 @@
       <c r="AD223" s="4"/>
       <c r="AE223" s="4"/>
       <c r="AF223" s="4"/>
+      <c r="AG223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -40570,6 +41077,7 @@
       <c r="AD224" s="4"/>
       <c r="AE224" s="4"/>
       <c r="AF224" s="4"/>
+      <c r="AG224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -40604,6 +41112,7 @@
       <c r="AD225" s="4"/>
       <c r="AE225" s="4"/>
       <c r="AF225" s="4"/>
+      <c r="AG225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -40638,6 +41147,7 @@
       <c r="AD226" s="4"/>
       <c r="AE226" s="4"/>
       <c r="AF226" s="4"/>
+      <c r="AG226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -40672,6 +41182,7 @@
       <c r="AD227" s="4"/>
       <c r="AE227" s="4"/>
       <c r="AF227" s="4"/>
+      <c r="AG227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -40706,6 +41217,7 @@
       <c r="AD228" s="4"/>
       <c r="AE228" s="4"/>
       <c r="AF228" s="4"/>
+      <c r="AG228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -40740,6 +41252,7 @@
       <c r="AD229" s="4"/>
       <c r="AE229" s="4"/>
       <c r="AF229" s="4"/>
+      <c r="AG229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -40774,6 +41287,7 @@
       <c r="AD230" s="4"/>
       <c r="AE230" s="4"/>
       <c r="AF230" s="4"/>
+      <c r="AG230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -40808,6 +41322,7 @@
       <c r="AD231" s="4"/>
       <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
+      <c r="AG231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -40842,6 +41357,7 @@
       <c r="AD232" s="4"/>
       <c r="AE232" s="4"/>
       <c r="AF232" s="4"/>
+      <c r="AG232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -40876,6 +41392,7 @@
       <c r="AD233" s="4"/>
       <c r="AE233" s="4"/>
       <c r="AF233" s="4"/>
+      <c r="AG233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -40910,6 +41427,7 @@
       <c r="AD234" s="4"/>
       <c r="AE234" s="4"/>
       <c r="AF234" s="4"/>
+      <c r="AG234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -40944,6 +41462,7 @@
       <c r="AD235" s="4"/>
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
+      <c r="AG235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -40978,6 +41497,7 @@
       <c r="AD236" s="4"/>
       <c r="AE236" s="4"/>
       <c r="AF236" s="4"/>
+      <c r="AG236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -41012,6 +41532,7 @@
       <c r="AD237" s="4"/>
       <c r="AE237" s="4"/>
       <c r="AF237" s="4"/>
+      <c r="AG237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -41046,6 +41567,7 @@
       <c r="AD238" s="4"/>
       <c r="AE238" s="4"/>
       <c r="AF238" s="4"/>
+      <c r="AG238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -41080,6 +41602,7 @@
       <c r="AD239" s="4"/>
       <c r="AE239" s="4"/>
       <c r="AF239" s="4"/>
+      <c r="AG239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -41114,6 +41637,7 @@
       <c r="AD240" s="4"/>
       <c r="AE240" s="4"/>
       <c r="AF240" s="4"/>
+      <c r="AG240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -41148,6 +41672,7 @@
       <c r="AD241" s="4"/>
       <c r="AE241" s="4"/>
       <c r="AF241" s="4"/>
+      <c r="AG241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -41182,6 +41707,7 @@
       <c r="AD242" s="4"/>
       <c r="AE242" s="4"/>
       <c r="AF242" s="4"/>
+      <c r="AG242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -41216,6 +41742,7 @@
       <c r="AD243" s="4"/>
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
+      <c r="AG243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -41250,6 +41777,7 @@
       <c r="AD244" s="4"/>
       <c r="AE244" s="4"/>
       <c r="AF244" s="4"/>
+      <c r="AG244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -41284,6 +41812,7 @@
       <c r="AD245" s="4"/>
       <c r="AE245" s="4"/>
       <c r="AF245" s="4"/>
+      <c r="AG245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -41318,6 +41847,7 @@
       <c r="AD246" s="4"/>
       <c r="AE246" s="4"/>
       <c r="AF246" s="4"/>
+      <c r="AG246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -41352,6 +41882,7 @@
       <c r="AD247" s="4"/>
       <c r="AE247" s="4"/>
       <c r="AF247" s="4"/>
+      <c r="AG247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -41386,6 +41917,7 @@
       <c r="AD248" s="4"/>
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
+      <c r="AG248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -41420,6 +41952,7 @@
       <c r="AD249" s="4"/>
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
+      <c r="AG249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -41454,6 +41987,7 @@
       <c r="AD250" s="4"/>
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
+      <c r="AG250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -41488,6 +42022,7 @@
       <c r="AD251" s="4"/>
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
+      <c r="AG251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -41522,6 +42057,7 @@
       <c r="AD252" s="4"/>
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
+      <c r="AG252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -41556,6 +42092,7 @@
       <c r="AD253" s="4"/>
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
+      <c r="AG253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -41590,6 +42127,7 @@
       <c r="AD254" s="4"/>
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
+      <c r="AG254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -41624,6 +42162,7 @@
       <c r="AD255" s="4"/>
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
+      <c r="AG255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -41658,6 +42197,7 @@
       <c r="AD256" s="4"/>
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
+      <c r="AG256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -41692,6 +42232,7 @@
       <c r="AD257" s="4"/>
       <c r="AE257" s="4"/>
       <c r="AF257" s="4"/>
+      <c r="AG257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -41726,6 +42267,7 @@
       <c r="AD258" s="4"/>
       <c r="AE258" s="4"/>
       <c r="AF258" s="4"/>
+      <c r="AG258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -41760,6 +42302,7 @@
       <c r="AD259" s="4"/>
       <c r="AE259" s="4"/>
       <c r="AF259" s="4"/>
+      <c r="AG259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -41794,6 +42337,7 @@
       <c r="AD260" s="4"/>
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
+      <c r="AG260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -41828,6 +42372,7 @@
       <c r="AD261" s="4"/>
       <c r="AE261" s="4"/>
       <c r="AF261" s="4"/>
+      <c r="AG261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -41862,6 +42407,7 @@
       <c r="AD262" s="4"/>
       <c r="AE262" s="4"/>
       <c r="AF262" s="4"/>
+      <c r="AG262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -41896,6 +42442,7 @@
       <c r="AD263" s="4"/>
       <c r="AE263" s="4"/>
       <c r="AF263" s="4"/>
+      <c r="AG263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -41930,6 +42477,7 @@
       <c r="AD264" s="4"/>
       <c r="AE264" s="4"/>
       <c r="AF264" s="4"/>
+      <c r="AG264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -41964,6 +42512,7 @@
       <c r="AD265" s="4"/>
       <c r="AE265" s="4"/>
       <c r="AF265" s="4"/>
+      <c r="AG265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -41998,6 +42547,7 @@
       <c r="AD266" s="4"/>
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
+      <c r="AG266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -42032,6 +42582,7 @@
       <c r="AD267" s="4"/>
       <c r="AE267" s="4"/>
       <c r="AF267" s="4"/>
+      <c r="AG267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -42066,6 +42617,7 @@
       <c r="AD268" s="4"/>
       <c r="AE268" s="4"/>
       <c r="AF268" s="4"/>
+      <c r="AG268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -42100,6 +42652,7 @@
       <c r="AD269" s="4"/>
       <c r="AE269" s="4"/>
       <c r="AF269" s="4"/>
+      <c r="AG269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -42134,6 +42687,7 @@
       <c r="AD270" s="4"/>
       <c r="AE270" s="4"/>
       <c r="AF270" s="4"/>
+      <c r="AG270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -42168,6 +42722,7 @@
       <c r="AD271" s="4"/>
       <c r="AE271" s="4"/>
       <c r="AF271" s="4"/>
+      <c r="AG271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -42202,6 +42757,7 @@
       <c r="AD272" s="4"/>
       <c r="AE272" s="4"/>
       <c r="AF272" s="4"/>
+      <c r="AG272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -42236,6 +42792,7 @@
       <c r="AD273" s="4"/>
       <c r="AE273" s="4"/>
       <c r="AF273" s="4"/>
+      <c r="AG273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -42270,6 +42827,7 @@
       <c r="AD274" s="4"/>
       <c r="AE274" s="4"/>
       <c r="AF274" s="4"/>
+      <c r="AG274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -42304,6 +42862,7 @@
       <c r="AD275" s="4"/>
       <c r="AE275" s="4"/>
       <c r="AF275" s="4"/>
+      <c r="AG275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -42338,6 +42897,7 @@
       <c r="AD276" s="4"/>
       <c r="AE276" s="4"/>
       <c r="AF276" s="4"/>
+      <c r="AG276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -42372,6 +42932,7 @@
       <c r="AD277" s="4"/>
       <c r="AE277" s="4"/>
       <c r="AF277" s="4"/>
+      <c r="AG277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -42406,6 +42967,7 @@
       <c r="AD278" s="4"/>
       <c r="AE278" s="4"/>
       <c r="AF278" s="4"/>
+      <c r="AG278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -42440,6 +43002,7 @@
       <c r="AD279" s="4"/>
       <c r="AE279" s="4"/>
       <c r="AF279" s="4"/>
+      <c r="AG279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -42474,6 +43037,7 @@
       <c r="AD280" s="4"/>
       <c r="AE280" s="4"/>
       <c r="AF280" s="4"/>
+      <c r="AG280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -42508,6 +43072,7 @@
       <c r="AD281" s="4"/>
       <c r="AE281" s="4"/>
       <c r="AF281" s="4"/>
+      <c r="AG281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -42542,6 +43107,7 @@
       <c r="AD282" s="4"/>
       <c r="AE282" s="4"/>
       <c r="AF282" s="4"/>
+      <c r="AG282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -42576,6 +43142,7 @@
       <c r="AD283" s="4"/>
       <c r="AE283" s="4"/>
       <c r="AF283" s="4"/>
+      <c r="AG283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -42610,6 +43177,7 @@
       <c r="AD284" s="4"/>
       <c r="AE284" s="4"/>
       <c r="AF284" s="4"/>
+      <c r="AG284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -42644,6 +43212,7 @@
       <c r="AD285" s="4"/>
       <c r="AE285" s="4"/>
       <c r="AF285" s="4"/>
+      <c r="AG285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -42678,6 +43247,7 @@
       <c r="AD286" s="4"/>
       <c r="AE286" s="4"/>
       <c r="AF286" s="4"/>
+      <c r="AG286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -42712,6 +43282,7 @@
       <c r="AD287" s="4"/>
       <c r="AE287" s="4"/>
       <c r="AF287" s="4"/>
+      <c r="AG287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -42746,6 +43317,7 @@
       <c r="AD288" s="4"/>
       <c r="AE288" s="4"/>
       <c r="AF288" s="4"/>
+      <c r="AG288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -42780,6 +43352,7 @@
       <c r="AD289" s="4"/>
       <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
+      <c r="AG289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -42814,6 +43387,7 @@
       <c r="AD290" s="4"/>
       <c r="AE290" s="4"/>
       <c r="AF290" s="4"/>
+      <c r="AG290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -42848,6 +43422,7 @@
       <c r="AD291" s="4"/>
       <c r="AE291" s="4"/>
       <c r="AF291" s="4"/>
+      <c r="AG291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -42882,6 +43457,7 @@
       <c r="AD292" s="4"/>
       <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
+      <c r="AG292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -42916,6 +43492,7 @@
       <c r="AD293" s="4"/>
       <c r="AE293" s="4"/>
       <c r="AF293" s="4"/>
+      <c r="AG293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -42950,6 +43527,7 @@
       <c r="AD294" s="4"/>
       <c r="AE294" s="4"/>
       <c r="AF294" s="4"/>
+      <c r="AG294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -42984,6 +43562,7 @@
       <c r="AD295" s="4"/>
       <c r="AE295" s="4"/>
       <c r="AF295" s="4"/>
+      <c r="AG295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -43018,6 +43597,7 @@
       <c r="AD296" s="4"/>
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
+      <c r="AG296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -43052,6 +43632,7 @@
       <c r="AD297" s="4"/>
       <c r="AE297" s="4"/>
       <c r="AF297" s="4"/>
+      <c r="AG297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -43086,6 +43667,7 @@
       <c r="AD298" s="4"/>
       <c r="AE298" s="4"/>
       <c r="AF298" s="4"/>
+      <c r="AG298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -43120,6 +43702,7 @@
       <c r="AD299" s="4"/>
       <c r="AE299" s="4"/>
       <c r="AF299" s="4"/>
+      <c r="AG299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -43154,6 +43737,7 @@
       <c r="AD300" s="4"/>
       <c r="AE300" s="4"/>
       <c r="AF300" s="4"/>
+      <c r="AG300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -43188,6 +43772,7 @@
       <c r="AD301" s="4"/>
       <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
+      <c r="AG301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -43222,6 +43807,7 @@
       <c r="AD302" s="4"/>
       <c r="AE302" s="4"/>
       <c r="AF302" s="4"/>
+      <c r="AG302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -43256,6 +43842,7 @@
       <c r="AD303" s="4"/>
       <c r="AE303" s="4"/>
       <c r="AF303" s="4"/>
+      <c r="AG303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -43290,6 +43877,7 @@
       <c r="AD304" s="4"/>
       <c r="AE304" s="4"/>
       <c r="AF304" s="4"/>
+      <c r="AG304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -43324,6 +43912,7 @@
       <c r="AD305" s="4"/>
       <c r="AE305" s="4"/>
       <c r="AF305" s="4"/>
+      <c r="AG305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -43358,6 +43947,7 @@
       <c r="AD306" s="4"/>
       <c r="AE306" s="4"/>
       <c r="AF306" s="4"/>
+      <c r="AG306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -43392,6 +43982,7 @@
       <c r="AD307" s="4"/>
       <c r="AE307" s="4"/>
       <c r="AF307" s="4"/>
+      <c r="AG307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -43426,6 +44017,7 @@
       <c r="AD308" s="4"/>
       <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
+      <c r="AG308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -43460,6 +44052,7 @@
       <c r="AD309" s="4"/>
       <c r="AE309" s="4"/>
       <c r="AF309" s="4"/>
+      <c r="AG309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -43494,6 +44087,7 @@
       <c r="AD310" s="4"/>
       <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
+      <c r="AG310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -43528,6 +44122,7 @@
       <c r="AD311" s="4"/>
       <c r="AE311" s="4"/>
       <c r="AF311" s="4"/>
+      <c r="AG311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -43562,6 +44157,7 @@
       <c r="AD312" s="4"/>
       <c r="AE312" s="4"/>
       <c r="AF312" s="4"/>
+      <c r="AG312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -43596,6 +44192,7 @@
       <c r="AD313" s="4"/>
       <c r="AE313" s="4"/>
       <c r="AF313" s="4"/>
+      <c r="AG313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -43630,6 +44227,7 @@
       <c r="AD314" s="4"/>
       <c r="AE314" s="4"/>
       <c r="AF314" s="4"/>
+      <c r="AG314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -43664,6 +44262,7 @@
       <c r="AD315" s="4"/>
       <c r="AE315" s="4"/>
       <c r="AF315" s="4"/>
+      <c r="AG315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -43698,6 +44297,7 @@
       <c r="AD316" s="4"/>
       <c r="AE316" s="4"/>
       <c r="AF316" s="4"/>
+      <c r="AG316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -43732,6 +44332,7 @@
       <c r="AD317" s="4"/>
       <c r="AE317" s="4"/>
       <c r="AF317" s="4"/>
+      <c r="AG317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -43766,6 +44367,7 @@
       <c r="AD318" s="4"/>
       <c r="AE318" s="4"/>
       <c r="AF318" s="4"/>
+      <c r="AG318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -43800,6 +44402,7 @@
       <c r="AD319" s="4"/>
       <c r="AE319" s="4"/>
       <c r="AF319" s="4"/>
+      <c r="AG319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -43834,6 +44437,7 @@
       <c r="AD320" s="4"/>
       <c r="AE320" s="4"/>
       <c r="AF320" s="4"/>
+      <c r="AG320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -43868,6 +44472,7 @@
       <c r="AD321" s="4"/>
       <c r="AE321" s="4"/>
       <c r="AF321" s="4"/>
+      <c r="AG321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -43902,6 +44507,7 @@
       <c r="AD322" s="4"/>
       <c r="AE322" s="4"/>
       <c r="AF322" s="4"/>
+      <c r="AG322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -43936,6 +44542,7 @@
       <c r="AD323" s="4"/>
       <c r="AE323" s="4"/>
       <c r="AF323" s="4"/>
+      <c r="AG323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -43970,6 +44577,7 @@
       <c r="AD324" s="4"/>
       <c r="AE324" s="4"/>
       <c r="AF324" s="4"/>
+      <c r="AG324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -44004,6 +44612,7 @@
       <c r="AD325" s="4"/>
       <c r="AE325" s="4"/>
       <c r="AF325" s="4"/>
+      <c r="AG325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -44038,6 +44647,7 @@
       <c r="AD326" s="4"/>
       <c r="AE326" s="4"/>
       <c r="AF326" s="4"/>
+      <c r="AG326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -44072,6 +44682,7 @@
       <c r="AD327" s="4"/>
       <c r="AE327" s="4"/>
       <c r="AF327" s="4"/>
+      <c r="AG327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -44106,6 +44717,7 @@
       <c r="AD328" s="4"/>
       <c r="AE328" s="4"/>
       <c r="AF328" s="4"/>
+      <c r="AG328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -44140,6 +44752,7 @@
       <c r="AD329" s="4"/>
       <c r="AE329" s="4"/>
       <c r="AF329" s="4"/>
+      <c r="AG329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -44174,6 +44787,7 @@
       <c r="AD330" s="4"/>
       <c r="AE330" s="4"/>
       <c r="AF330" s="4"/>
+      <c r="AG330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -44208,6 +44822,7 @@
       <c r="AD331" s="4"/>
       <c r="AE331" s="4"/>
       <c r="AF331" s="4"/>
+      <c r="AG331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -44242,6 +44857,7 @@
       <c r="AD332" s="4"/>
       <c r="AE332" s="4"/>
       <c r="AF332" s="4"/>
+      <c r="AG332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -44276,6 +44892,7 @@
       <c r="AD333" s="4"/>
       <c r="AE333" s="4"/>
       <c r="AF333" s="4"/>
+      <c r="AG333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -44310,6 +44927,7 @@
       <c r="AD334" s="4"/>
       <c r="AE334" s="4"/>
       <c r="AF334" s="4"/>
+      <c r="AG334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -44344,6 +44962,7 @@
       <c r="AD335" s="4"/>
       <c r="AE335" s="4"/>
       <c r="AF335" s="4"/>
+      <c r="AG335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -44378,6 +44997,7 @@
       <c r="AD336" s="4"/>
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
+      <c r="AG336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -44412,6 +45032,7 @@
       <c r="AD337" s="4"/>
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
+      <c r="AG337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -44446,6 +45067,7 @@
       <c r="AD338" s="4"/>
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
+      <c r="AG338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -44480,6 +45102,7 @@
       <c r="AD339" s="4"/>
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
+      <c r="AG339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -44514,6 +45137,7 @@
       <c r="AD340" s="4"/>
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
+      <c r="AG340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -44548,6 +45172,7 @@
       <c r="AD341" s="4"/>
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
+      <c r="AG341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -44582,6 +45207,7 @@
       <c r="AD342" s="4"/>
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
+      <c r="AG342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -44616,6 +45242,7 @@
       <c r="AD343" s="4"/>
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
+      <c r="AG343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -44650,6 +45277,7 @@
       <c r="AD344" s="4"/>
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
+      <c r="AG344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -44684,6 +45312,7 @@
       <c r="AD345" s="4"/>
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
+      <c r="AG345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -44718,6 +45347,7 @@
       <c r="AD346" s="4"/>
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
+      <c r="AG346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -44752,6 +45382,7 @@
       <c r="AD347" s="4"/>
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
+      <c r="AG347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -44786,6 +45417,7 @@
       <c r="AD348" s="4"/>
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
+      <c r="AG348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -44820,6 +45452,7 @@
       <c r="AD349" s="4"/>
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
+      <c r="AG349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -44854,6 +45487,7 @@
       <c r="AD350" s="4"/>
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
+      <c r="AG350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -44888,6 +45522,7 @@
       <c r="AD351" s="4"/>
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
+      <c r="AG351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -44922,6 +45557,7 @@
       <c r="AD352" s="4"/>
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
+      <c r="AG352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -44956,6 +45592,7 @@
       <c r="AD353" s="4"/>
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
+      <c r="AG353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -44990,6 +45627,7 @@
       <c r="AD354" s="4"/>
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
+      <c r="AG354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -45024,6 +45662,7 @@
       <c r="AD355" s="4"/>
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
+      <c r="AG355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -45058,6 +45697,7 @@
       <c r="AD356" s="4"/>
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
+      <c r="AG356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -45092,6 +45732,7 @@
       <c r="AD357" s="4"/>
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
+      <c r="AG357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -45126,6 +45767,7 @@
       <c r="AD358" s="4"/>
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
+      <c r="AG358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -45160,6 +45802,7 @@
       <c r="AD359" s="4"/>
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
+      <c r="AG359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -45194,6 +45837,7 @@
       <c r="AD360" s="4"/>
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
+      <c r="AG360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -45228,6 +45872,7 @@
       <c r="AD361" s="4"/>
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
+      <c r="AG361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -45262,6 +45907,7 @@
       <c r="AD362" s="4"/>
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
+      <c r="AG362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -45296,6 +45942,7 @@
       <c r="AD363" s="4"/>
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
+      <c r="AG363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -45330,6 +45977,7 @@
       <c r="AD364" s="4"/>
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
+      <c r="AG364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -45364,6 +46012,7 @@
       <c r="AD365" s="4"/>
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
+      <c r="AG365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -45398,6 +46047,7 @@
       <c r="AD366" s="4"/>
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
+      <c r="AG366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -45432,6 +46082,7 @@
       <c r="AD367" s="4"/>
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
+      <c r="AG367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -45466,6 +46117,7 @@
       <c r="AD368" s="4"/>
       <c r="AE368" s="4"/>
       <c r="AF368" s="4"/>
+      <c r="AG368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -45500,6 +46152,7 @@
       <c r="AD369" s="4"/>
       <c r="AE369" s="4"/>
       <c r="AF369" s="4"/>
+      <c r="AG369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -45534,6 +46187,7 @@
       <c r="AD370" s="4"/>
       <c r="AE370" s="4"/>
       <c r="AF370" s="4"/>
+      <c r="AG370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -45568,6 +46222,7 @@
       <c r="AD371" s="4"/>
       <c r="AE371" s="4"/>
       <c r="AF371" s="4"/>
+      <c r="AG371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -45602,6 +46257,7 @@
       <c r="AD372" s="4"/>
       <c r="AE372" s="4"/>
       <c r="AF372" s="4"/>
+      <c r="AG372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -45636,6 +46292,7 @@
       <c r="AD373" s="4"/>
       <c r="AE373" s="4"/>
       <c r="AF373" s="4"/>
+      <c r="AG373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -45670,6 +46327,7 @@
       <c r="AD374" s="4"/>
       <c r="AE374" s="4"/>
       <c r="AF374" s="4"/>
+      <c r="AG374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -45704,6 +46362,7 @@
       <c r="AD375" s="4"/>
       <c r="AE375" s="4"/>
       <c r="AF375" s="4"/>
+      <c r="AG375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -45738,6 +46397,7 @@
       <c r="AD376" s="4"/>
       <c r="AE376" s="4"/>
       <c r="AF376" s="4"/>
+      <c r="AG376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -45772,6 +46432,7 @@
       <c r="AD377" s="4"/>
       <c r="AE377" s="4"/>
       <c r="AF377" s="4"/>
+      <c r="AG377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -45806,6 +46467,7 @@
       <c r="AD378" s="4"/>
       <c r="AE378" s="4"/>
       <c r="AF378" s="4"/>
+      <c r="AG378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -45840,6 +46502,7 @@
       <c r="AD379" s="4"/>
       <c r="AE379" s="4"/>
       <c r="AF379" s="4"/>
+      <c r="AG379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -45874,6 +46537,7 @@
       <c r="AD380" s="4"/>
       <c r="AE380" s="4"/>
       <c r="AF380" s="4"/>
+      <c r="AG380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -45908,6 +46572,7 @@
       <c r="AD381" s="4"/>
       <c r="AE381" s="4"/>
       <c r="AF381" s="4"/>
+      <c r="AG381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -45942,6 +46607,7 @@
       <c r="AD382" s="4"/>
       <c r="AE382" s="4"/>
       <c r="AF382" s="4"/>
+      <c r="AG382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -45976,6 +46642,7 @@
       <c r="AD383" s="4"/>
       <c r="AE383" s="4"/>
       <c r="AF383" s="4"/>
+      <c r="AG383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -46010,6 +46677,7 @@
       <c r="AD384" s="4"/>
       <c r="AE384" s="4"/>
       <c r="AF384" s="4"/>
+      <c r="AG384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -46044,6 +46712,7 @@
       <c r="AD385" s="4"/>
       <c r="AE385" s="4"/>
       <c r="AF385" s="4"/>
+      <c r="AG385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -46078,6 +46747,7 @@
       <c r="AD386" s="4"/>
       <c r="AE386" s="4"/>
       <c r="AF386" s="4"/>
+      <c r="AG386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -46112,6 +46782,7 @@
       <c r="AD387" s="4"/>
       <c r="AE387" s="4"/>
       <c r="AF387" s="4"/>
+      <c r="AG387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -46146,6 +46817,7 @@
       <c r="AD388" s="4"/>
       <c r="AE388" s="4"/>
       <c r="AF388" s="4"/>
+      <c r="AG388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -46180,6 +46852,7 @@
       <c r="AD389" s="4"/>
       <c r="AE389" s="4"/>
       <c r="AF389" s="4"/>
+      <c r="AG389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -46214,6 +46887,7 @@
       <c r="AD390" s="4"/>
       <c r="AE390" s="4"/>
       <c r="AF390" s="4"/>
+      <c r="AG390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -46248,6 +46922,7 @@
       <c r="AD391" s="4"/>
       <c r="AE391" s="4"/>
       <c r="AF391" s="4"/>
+      <c r="AG391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -46282,6 +46957,7 @@
       <c r="AD392" s="4"/>
       <c r="AE392" s="4"/>
       <c r="AF392" s="4"/>
+      <c r="AG392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -46316,6 +46992,7 @@
       <c r="AD393" s="4"/>
       <c r="AE393" s="4"/>
       <c r="AF393" s="4"/>
+      <c r="AG393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -46350,6 +47027,7 @@
       <c r="AD394" s="4"/>
       <c r="AE394" s="4"/>
       <c r="AF394" s="4"/>
+      <c r="AG394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -46384,6 +47062,7 @@
       <c r="AD395" s="4"/>
       <c r="AE395" s="4"/>
       <c r="AF395" s="4"/>
+      <c r="AG395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -46418,6 +47097,7 @@
       <c r="AD396" s="4"/>
       <c r="AE396" s="4"/>
       <c r="AF396" s="4"/>
+      <c r="AG396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -46452,6 +47132,7 @@
       <c r="AD397" s="4"/>
       <c r="AE397" s="4"/>
       <c r="AF397" s="4"/>
+      <c r="AG397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -46486,6 +47167,7 @@
       <c r="AD398" s="4"/>
       <c r="AE398" s="4"/>
       <c r="AF398" s="4"/>
+      <c r="AG398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -46520,6 +47202,7 @@
       <c r="AD399" s="4"/>
       <c r="AE399" s="4"/>
       <c r="AF399" s="4"/>
+      <c r="AG399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -46554,6 +47237,7 @@
       <c r="AD400" s="4"/>
       <c r="AE400" s="4"/>
       <c r="AF400" s="4"/>
+      <c r="AG400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -46588,6 +47272,7 @@
       <c r="AD401" s="4"/>
       <c r="AE401" s="4"/>
       <c r="AF401" s="4"/>
+      <c r="AG401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -46622,6 +47307,7 @@
       <c r="AD402" s="4"/>
       <c r="AE402" s="4"/>
       <c r="AF402" s="4"/>
+      <c r="AG402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -46656,6 +47342,7 @@
       <c r="AD403" s="4"/>
       <c r="AE403" s="4"/>
       <c r="AF403" s="4"/>
+      <c r="AG403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -46690,6 +47377,7 @@
       <c r="AD404" s="4"/>
       <c r="AE404" s="4"/>
       <c r="AF404" s="4"/>
+      <c r="AG404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -46724,6 +47412,7 @@
       <c r="AD405" s="4"/>
       <c r="AE405" s="4"/>
       <c r="AF405" s="4"/>
+      <c r="AG405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -46758,6 +47447,7 @@
       <c r="AD406" s="4"/>
       <c r="AE406" s="4"/>
       <c r="AF406" s="4"/>
+      <c r="AG406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -46792,6 +47482,7 @@
       <c r="AD407" s="4"/>
       <c r="AE407" s="4"/>
       <c r="AF407" s="4"/>
+      <c r="AG407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -46826,6 +47517,7 @@
       <c r="AD408" s="4"/>
       <c r="AE408" s="4"/>
       <c r="AF408" s="4"/>
+      <c r="AG408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -46860,6 +47552,7 @@
       <c r="AD409" s="4"/>
       <c r="AE409" s="4"/>
       <c r="AF409" s="4"/>
+      <c r="AG409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -46894,6 +47587,7 @@
       <c r="AD410" s="4"/>
       <c r="AE410" s="4"/>
       <c r="AF410" s="4"/>
+      <c r="AG410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -46928,6 +47622,7 @@
       <c r="AD411" s="4"/>
       <c r="AE411" s="4"/>
       <c r="AF411" s="4"/>
+      <c r="AG411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -46962,6 +47657,7 @@
       <c r="AD412" s="4"/>
       <c r="AE412" s="4"/>
       <c r="AF412" s="4"/>
+      <c r="AG412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -46996,6 +47692,7 @@
       <c r="AD413" s="4"/>
       <c r="AE413" s="4"/>
       <c r="AF413" s="4"/>
+      <c r="AG413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -47030,6 +47727,7 @@
       <c r="AD414" s="4"/>
       <c r="AE414" s="4"/>
       <c r="AF414" s="4"/>
+      <c r="AG414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -47064,6 +47762,7 @@
       <c r="AD415" s="4"/>
       <c r="AE415" s="4"/>
       <c r="AF415" s="4"/>
+      <c r="AG415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -47098,6 +47797,7 @@
       <c r="AD416" s="4"/>
       <c r="AE416" s="4"/>
       <c r="AF416" s="4"/>
+      <c r="AG416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -47132,6 +47832,7 @@
       <c r="AD417" s="4"/>
       <c r="AE417" s="4"/>
       <c r="AF417" s="4"/>
+      <c r="AG417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -47166,6 +47867,7 @@
       <c r="AD418" s="4"/>
       <c r="AE418" s="4"/>
       <c r="AF418" s="4"/>
+      <c r="AG418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -47200,6 +47902,7 @@
       <c r="AD419" s="4"/>
       <c r="AE419" s="4"/>
       <c r="AF419" s="4"/>
+      <c r="AG419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -47234,6 +47937,7 @@
       <c r="AD420" s="4"/>
       <c r="AE420" s="4"/>
       <c r="AF420" s="4"/>
+      <c r="AG420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -47268,6 +47972,7 @@
       <c r="AD421" s="4"/>
       <c r="AE421" s="4"/>
       <c r="AF421" s="4"/>
+      <c r="AG421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -47302,6 +48007,7 @@
       <c r="AD422" s="4"/>
       <c r="AE422" s="4"/>
       <c r="AF422" s="4"/>
+      <c r="AG422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -47336,6 +48042,7 @@
       <c r="AD423" s="4"/>
       <c r="AE423" s="4"/>
       <c r="AF423" s="4"/>
+      <c r="AG423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -47370,6 +48077,7 @@
       <c r="AD424" s="4"/>
       <c r="AE424" s="4"/>
       <c r="AF424" s="4"/>
+      <c r="AG424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -47404,6 +48112,7 @@
       <c r="AD425" s="4"/>
       <c r="AE425" s="4"/>
       <c r="AF425" s="4"/>
+      <c r="AG425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -47438,6 +48147,7 @@
       <c r="AD426" s="4"/>
       <c r="AE426" s="4"/>
       <c r="AF426" s="4"/>
+      <c r="AG426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -47472,6 +48182,7 @@
       <c r="AD427" s="4"/>
       <c r="AE427" s="4"/>
       <c r="AF427" s="4"/>
+      <c r="AG427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -47506,6 +48217,7 @@
       <c r="AD428" s="4"/>
       <c r="AE428" s="4"/>
       <c r="AF428" s="4"/>
+      <c r="AG428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -47540,6 +48252,7 @@
       <c r="AD429" s="4"/>
       <c r="AE429" s="4"/>
       <c r="AF429" s="4"/>
+      <c r="AG429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -47574,6 +48287,7 @@
       <c r="AD430" s="4"/>
       <c r="AE430" s="4"/>
       <c r="AF430" s="4"/>
+      <c r="AG430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -47608,6 +48322,7 @@
       <c r="AD431" s="4"/>
       <c r="AE431" s="4"/>
       <c r="AF431" s="4"/>
+      <c r="AG431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -47642,6 +48357,7 @@
       <c r="AD432" s="4"/>
       <c r="AE432" s="4"/>
       <c r="AF432" s="4"/>
+      <c r="AG432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -47676,6 +48392,7 @@
       <c r="AD433" s="4"/>
       <c r="AE433" s="4"/>
       <c r="AF433" s="4"/>
+      <c r="AG433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -47710,6 +48427,7 @@
       <c r="AD434" s="4"/>
       <c r="AE434" s="4"/>
       <c r="AF434" s="4"/>
+      <c r="AG434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -47744,6 +48462,7 @@
       <c r="AD435" s="4"/>
       <c r="AE435" s="4"/>
       <c r="AF435" s="4"/>
+      <c r="AG435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -47778,6 +48497,7 @@
       <c r="AD436" s="4"/>
       <c r="AE436" s="4"/>
       <c r="AF436" s="4"/>
+      <c r="AG436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -47812,6 +48532,7 @@
       <c r="AD437" s="4"/>
       <c r="AE437" s="4"/>
       <c r="AF437" s="4"/>
+      <c r="AG437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -47846,6 +48567,7 @@
       <c r="AD438" s="4"/>
       <c r="AE438" s="4"/>
       <c r="AF438" s="4"/>
+      <c r="AG438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -47880,6 +48602,7 @@
       <c r="AD439" s="4"/>
       <c r="AE439" s="4"/>
       <c r="AF439" s="4"/>
+      <c r="AG439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -47914,6 +48637,7 @@
       <c r="AD440" s="4"/>
       <c r="AE440" s="4"/>
       <c r="AF440" s="4"/>
+      <c r="AG440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -47948,6 +48672,7 @@
       <c r="AD441" s="4"/>
       <c r="AE441" s="4"/>
       <c r="AF441" s="4"/>
+      <c r="AG441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -47982,6 +48707,7 @@
       <c r="AD442" s="4"/>
       <c r="AE442" s="4"/>
       <c r="AF442" s="4"/>
+      <c r="AG442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -48016,6 +48742,7 @@
       <c r="AD443" s="4"/>
       <c r="AE443" s="4"/>
       <c r="AF443" s="4"/>
+      <c r="AG443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -48050,6 +48777,7 @@
       <c r="AD444" s="4"/>
       <c r="AE444" s="4"/>
       <c r="AF444" s="4"/>
+      <c r="AG444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -48084,6 +48812,7 @@
       <c r="AD445" s="4"/>
       <c r="AE445" s="4"/>
       <c r="AF445" s="4"/>
+      <c r="AG445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -48118,6 +48847,7 @@
       <c r="AD446" s="4"/>
       <c r="AE446" s="4"/>
       <c r="AF446" s="4"/>
+      <c r="AG446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -48152,6 +48882,7 @@
       <c r="AD447" s="4"/>
       <c r="AE447" s="4"/>
       <c r="AF447" s="4"/>
+      <c r="AG447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -48186,6 +48917,7 @@
       <c r="AD448" s="4"/>
       <c r="AE448" s="4"/>
       <c r="AF448" s="4"/>
+      <c r="AG448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -48220,6 +48952,7 @@
       <c r="AD449" s="4"/>
       <c r="AE449" s="4"/>
       <c r="AF449" s="4"/>
+      <c r="AG449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -48254,6 +48987,7 @@
       <c r="AD450" s="4"/>
       <c r="AE450" s="4"/>
       <c r="AF450" s="4"/>
+      <c r="AG450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -48288,6 +49022,7 @@
       <c r="AD451" s="4"/>
       <c r="AE451" s="4"/>
       <c r="AF451" s="4"/>
+      <c r="AG451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -48322,6 +49057,7 @@
       <c r="AD452" s="4"/>
       <c r="AE452" s="4"/>
       <c r="AF452" s="4"/>
+      <c r="AG452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -48356,6 +49092,7 @@
       <c r="AD453" s="4"/>
       <c r="AE453" s="4"/>
       <c r="AF453" s="4"/>
+      <c r="AG453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -48390,6 +49127,7 @@
       <c r="AD454" s="4"/>
       <c r="AE454" s="4"/>
       <c r="AF454" s="4"/>
+      <c r="AG454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -48424,6 +49162,7 @@
       <c r="AD455" s="4"/>
       <c r="AE455" s="4"/>
       <c r="AF455" s="4"/>
+      <c r="AG455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -48458,6 +49197,7 @@
       <c r="AD456" s="4"/>
       <c r="AE456" s="4"/>
       <c r="AF456" s="4"/>
+      <c r="AG456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -48492,6 +49232,7 @@
       <c r="AD457" s="4"/>
       <c r="AE457" s="4"/>
       <c r="AF457" s="4"/>
+      <c r="AG457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -48526,6 +49267,7 @@
       <c r="AD458" s="4"/>
       <c r="AE458" s="4"/>
       <c r="AF458" s="4"/>
+      <c r="AG458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -48560,6 +49302,7 @@
       <c r="AD459" s="4"/>
       <c r="AE459" s="4"/>
       <c r="AF459" s="4"/>
+      <c r="AG459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -48594,6 +49337,7 @@
       <c r="AD460" s="4"/>
       <c r="AE460" s="4"/>
       <c r="AF460" s="4"/>
+      <c r="AG460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -48628,6 +49372,7 @@
       <c r="AD461" s="4"/>
       <c r="AE461" s="4"/>
       <c r="AF461" s="4"/>
+      <c r="AG461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -48662,6 +49407,7 @@
       <c r="AD462" s="4"/>
       <c r="AE462" s="4"/>
       <c r="AF462" s="4"/>
+      <c r="AG462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -48696,6 +49442,7 @@
       <c r="AD463" s="4"/>
       <c r="AE463" s="4"/>
       <c r="AF463" s="4"/>
+      <c r="AG463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -48730,6 +49477,7 @@
       <c r="AD464" s="4"/>
       <c r="AE464" s="4"/>
       <c r="AF464" s="4"/>
+      <c r="AG464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -48764,6 +49512,7 @@
       <c r="AD465" s="4"/>
       <c r="AE465" s="4"/>
       <c r="AF465" s="4"/>
+      <c r="AG465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -48798,6 +49547,7 @@
       <c r="AD466" s="4"/>
       <c r="AE466" s="4"/>
       <c r="AF466" s="4"/>
+      <c r="AG466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -48832,6 +49582,7 @@
       <c r="AD467" s="4"/>
       <c r="AE467" s="4"/>
       <c r="AF467" s="4"/>
+      <c r="AG467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -48866,6 +49617,7 @@
       <c r="AD468" s="4"/>
       <c r="AE468" s="4"/>
       <c r="AF468" s="4"/>
+      <c r="AG468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -48900,6 +49652,7 @@
       <c r="AD469" s="4"/>
       <c r="AE469" s="4"/>
       <c r="AF469" s="4"/>
+      <c r="AG469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -48934,6 +49687,7 @@
       <c r="AD470" s="4"/>
       <c r="AE470" s="4"/>
       <c r="AF470" s="4"/>
+      <c r="AG470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -48968,6 +49722,7 @@
       <c r="AD471" s="4"/>
       <c r="AE471" s="4"/>
       <c r="AF471" s="4"/>
+      <c r="AG471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -49002,6 +49757,7 @@
       <c r="AD472" s="4"/>
       <c r="AE472" s="4"/>
       <c r="AF472" s="4"/>
+      <c r="AG472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -49036,6 +49792,7 @@
       <c r="AD473" s="4"/>
       <c r="AE473" s="4"/>
       <c r="AF473" s="4"/>
+      <c r="AG473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -49070,6 +49827,7 @@
       <c r="AD474" s="4"/>
       <c r="AE474" s="4"/>
       <c r="AF474" s="4"/>
+      <c r="AG474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -49104,6 +49862,7 @@
       <c r="AD475" s="4"/>
       <c r="AE475" s="4"/>
       <c r="AF475" s="4"/>
+      <c r="AG475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -49138,6 +49897,7 @@
       <c r="AD476" s="4"/>
       <c r="AE476" s="4"/>
       <c r="AF476" s="4"/>
+      <c r="AG476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -49172,6 +49932,7 @@
       <c r="AD477" s="4"/>
       <c r="AE477" s="4"/>
       <c r="AF477" s="4"/>
+      <c r="AG477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -49206,6 +49967,7 @@
       <c r="AD478" s="4"/>
       <c r="AE478" s="4"/>
       <c r="AF478" s="4"/>
+      <c r="AG478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -49240,6 +50002,7 @@
       <c r="AD479" s="4"/>
       <c r="AE479" s="4"/>
       <c r="AF479" s="4"/>
+      <c r="AG479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -49274,6 +50037,7 @@
       <c r="AD480" s="4"/>
       <c r="AE480" s="4"/>
       <c r="AF480" s="4"/>
+      <c r="AG480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -49308,6 +50072,7 @@
       <c r="AD481" s="4"/>
       <c r="AE481" s="4"/>
       <c r="AF481" s="4"/>
+      <c r="AG481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -49342,6 +50107,7 @@
       <c r="AD482" s="4"/>
       <c r="AE482" s="4"/>
       <c r="AF482" s="4"/>
+      <c r="AG482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -49376,6 +50142,7 @@
       <c r="AD483" s="4"/>
       <c r="AE483" s="4"/>
       <c r="AF483" s="4"/>
+      <c r="AG483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -49410,6 +50177,7 @@
       <c r="AD484" s="4"/>
       <c r="AE484" s="4"/>
       <c r="AF484" s="4"/>
+      <c r="AG484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -49444,6 +50212,7 @@
       <c r="AD485" s="4"/>
       <c r="AE485" s="4"/>
       <c r="AF485" s="4"/>
+      <c r="AG485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -49478,6 +50247,7 @@
       <c r="AD486" s="4"/>
       <c r="AE486" s="4"/>
       <c r="AF486" s="4"/>
+      <c r="AG486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -49512,6 +50282,7 @@
       <c r="AD487" s="4"/>
       <c r="AE487" s="4"/>
       <c r="AF487" s="4"/>
+      <c r="AG487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -49546,6 +50317,7 @@
       <c r="AD488" s="4"/>
       <c r="AE488" s="4"/>
       <c r="AF488" s="4"/>
+      <c r="AG488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -49580,6 +50352,7 @@
       <c r="AD489" s="4"/>
       <c r="AE489" s="4"/>
       <c r="AF489" s="4"/>
+      <c r="AG489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -49614,6 +50387,7 @@
       <c r="AD490" s="4"/>
       <c r="AE490" s="4"/>
       <c r="AF490" s="4"/>
+      <c r="AG490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -49648,6 +50422,7 @@
       <c r="AD491" s="4"/>
       <c r="AE491" s="4"/>
       <c r="AF491" s="4"/>
+      <c r="AG491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -49682,6 +50457,7 @@
       <c r="AD492" s="4"/>
       <c r="AE492" s="4"/>
       <c r="AF492" s="4"/>
+      <c r="AG492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -49716,6 +50492,7 @@
       <c r="AD493" s="4"/>
       <c r="AE493" s="4"/>
       <c r="AF493" s="4"/>
+      <c r="AG493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -49750,6 +50527,7 @@
       <c r="AD494" s="4"/>
       <c r="AE494" s="4"/>
       <c r="AF494" s="4"/>
+      <c r="AG494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -49784,6 +50562,7 @@
       <c r="AD495" s="4"/>
       <c r="AE495" s="4"/>
       <c r="AF495" s="4"/>
+      <c r="AG495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -49818,6 +50597,7 @@
       <c r="AD496" s="4"/>
       <c r="AE496" s="4"/>
       <c r="AF496" s="4"/>
+      <c r="AG496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -49852,6 +50632,7 @@
       <c r="AD497" s="4"/>
       <c r="AE497" s="4"/>
       <c r="AF497" s="4"/>
+      <c r="AG497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -49886,6 +50667,7 @@
       <c r="AD498" s="4"/>
       <c r="AE498" s="4"/>
       <c r="AF498" s="4"/>
+      <c r="AG498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="4"/>
@@ -49920,6 +50702,7 @@
       <c r="AD499" s="4"/>
       <c r="AE499" s="4"/>
       <c r="AF499" s="4"/>
+      <c r="AG499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="4"/>
@@ -49954,6 +50737,7 @@
       <c r="AD500" s="4"/>
       <c r="AE500" s="4"/>
       <c r="AF500" s="4"/>
+      <c r="AG500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="4"/>
@@ -49988,6 +50772,7 @@
       <c r="AD501" s="4"/>
       <c r="AE501" s="4"/>
       <c r="AF501" s="4"/>
+      <c r="AG501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="4"/>
@@ -50022,6 +50807,7 @@
       <c r="AD502" s="4"/>
       <c r="AE502" s="4"/>
       <c r="AF502" s="4"/>
+      <c r="AG502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="4"/>
@@ -50056,6 +50842,7 @@
       <c r="AD503" s="4"/>
       <c r="AE503" s="4"/>
       <c r="AF503" s="4"/>
+      <c r="AG503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="4"/>
@@ -50090,6 +50877,7 @@
       <c r="AD504" s="4"/>
       <c r="AE504" s="4"/>
       <c r="AF504" s="4"/>
+      <c r="AG504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="4"/>
@@ -50124,6 +50912,7 @@
       <c r="AD505" s="4"/>
       <c r="AE505" s="4"/>
       <c r="AF505" s="4"/>
+      <c r="AG505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="4"/>
@@ -50158,6 +50947,7 @@
       <c r="AD506" s="4"/>
       <c r="AE506" s="4"/>
       <c r="AF506" s="4"/>
+      <c r="AG506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="4"/>
@@ -50192,6 +50982,7 @@
       <c r="AD507" s="4"/>
       <c r="AE507" s="4"/>
       <c r="AF507" s="4"/>
+      <c r="AG507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="4"/>
@@ -50226,6 +51017,7 @@
       <c r="AD508" s="4"/>
       <c r="AE508" s="4"/>
       <c r="AF508" s="4"/>
+      <c r="AG508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="4"/>
@@ -50260,6 +51052,7 @@
       <c r="AD509" s="4"/>
       <c r="AE509" s="4"/>
       <c r="AF509" s="4"/>
+      <c r="AG509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="4"/>
@@ -50294,6 +51087,7 @@
       <c r="AD510" s="4"/>
       <c r="AE510" s="4"/>
       <c r="AF510" s="4"/>
+      <c r="AG510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="4"/>
@@ -50328,6 +51122,7 @@
       <c r="AD511" s="4"/>
       <c r="AE511" s="4"/>
       <c r="AF511" s="4"/>
+      <c r="AG511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="4"/>
@@ -50362,6 +51157,7 @@
       <c r="AD512" s="4"/>
       <c r="AE512" s="4"/>
       <c r="AF512" s="4"/>
+      <c r="AG512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="4"/>
@@ -50396,6 +51192,7 @@
       <c r="AD513" s="4"/>
       <c r="AE513" s="4"/>
       <c r="AF513" s="4"/>
+      <c r="AG513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="4"/>
@@ -50430,6 +51227,7 @@
       <c r="AD514" s="4"/>
       <c r="AE514" s="4"/>
       <c r="AF514" s="4"/>
+      <c r="AG514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="4"/>
@@ -50464,6 +51262,7 @@
       <c r="AD515" s="4"/>
       <c r="AE515" s="4"/>
       <c r="AF515" s="4"/>
+      <c r="AG515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="4"/>
@@ -50498,6 +51297,7 @@
       <c r="AD516" s="4"/>
       <c r="AE516" s="4"/>
       <c r="AF516" s="4"/>
+      <c r="AG516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="4"/>
@@ -50532,6 +51332,7 @@
       <c r="AD517" s="4"/>
       <c r="AE517" s="4"/>
       <c r="AF517" s="4"/>
+      <c r="AG517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="4"/>
@@ -50566,6 +51367,7 @@
       <c r="AD518" s="4"/>
       <c r="AE518" s="4"/>
       <c r="AF518" s="4"/>
+      <c r="AG518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="4"/>
@@ -50600,6 +51402,7 @@
       <c r="AD519" s="4"/>
       <c r="AE519" s="4"/>
       <c r="AF519" s="4"/>
+      <c r="AG519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="4"/>
@@ -50634,6 +51437,7 @@
       <c r="AD520" s="4"/>
       <c r="AE520" s="4"/>
       <c r="AF520" s="4"/>
+      <c r="AG520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="4"/>
@@ -50668,6 +51472,7 @@
       <c r="AD521" s="4"/>
       <c r="AE521" s="4"/>
       <c r="AF521" s="4"/>
+      <c r="AG521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="4"/>
@@ -50702,6 +51507,7 @@
       <c r="AD522" s="4"/>
       <c r="AE522" s="4"/>
       <c r="AF522" s="4"/>
+      <c r="AG522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4"/>
@@ -50736,6 +51542,7 @@
       <c r="AD523" s="4"/>
       <c r="AE523" s="4"/>
       <c r="AF523" s="4"/>
+      <c r="AG523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4"/>
@@ -50770,6 +51577,7 @@
       <c r="AD524" s="4"/>
       <c r="AE524" s="4"/>
       <c r="AF524" s="4"/>
+      <c r="AG524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4"/>
@@ -50804,6 +51612,7 @@
       <c r="AD525" s="4"/>
       <c r="AE525" s="4"/>
       <c r="AF525" s="4"/>
+      <c r="AG525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="4"/>
@@ -50838,6 +51647,7 @@
       <c r="AD526" s="4"/>
       <c r="AE526" s="4"/>
       <c r="AF526" s="4"/>
+      <c r="AG526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="4"/>
@@ -50872,6 +51682,7 @@
       <c r="AD527" s="4"/>
       <c r="AE527" s="4"/>
       <c r="AF527" s="4"/>
+      <c r="AG527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="4"/>
@@ -50906,6 +51717,7 @@
       <c r="AD528" s="4"/>
       <c r="AE528" s="4"/>
       <c r="AF528" s="4"/>
+      <c r="AG528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4"/>
@@ -50940,6 +51752,7 @@
       <c r="AD529" s="4"/>
       <c r="AE529" s="4"/>
       <c r="AF529" s="4"/>
+      <c r="AG529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4"/>
@@ -50974,6 +51787,7 @@
       <c r="AD530" s="4"/>
       <c r="AE530" s="4"/>
       <c r="AF530" s="4"/>
+      <c r="AG530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="4"/>
@@ -51008,6 +51822,7 @@
       <c r="AD531" s="4"/>
       <c r="AE531" s="4"/>
       <c r="AF531" s="4"/>
+      <c r="AG531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="4"/>
@@ -51042,6 +51857,7 @@
       <c r="AD532" s="4"/>
       <c r="AE532" s="4"/>
       <c r="AF532" s="4"/>
+      <c r="AG532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="4"/>
@@ -51076,6 +51892,7 @@
       <c r="AD533" s="4"/>
       <c r="AE533" s="4"/>
       <c r="AF533" s="4"/>
+      <c r="AG533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="4"/>
@@ -51110,6 +51927,7 @@
       <c r="AD534" s="4"/>
       <c r="AE534" s="4"/>
       <c r="AF534" s="4"/>
+      <c r="AG534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="4"/>
@@ -51144,6 +51962,7 @@
       <c r="AD535" s="4"/>
       <c r="AE535" s="4"/>
       <c r="AF535" s="4"/>
+      <c r="AG535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="4"/>
@@ -51178,6 +51997,7 @@
       <c r="AD536" s="4"/>
       <c r="AE536" s="4"/>
       <c r="AF536" s="4"/>
+      <c r="AG536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="4"/>
@@ -51212,6 +52032,7 @@
       <c r="AD537" s="4"/>
       <c r="AE537" s="4"/>
       <c r="AF537" s="4"/>
+      <c r="AG537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="4"/>
@@ -51246,6 +52067,7 @@
       <c r="AD538" s="4"/>
       <c r="AE538" s="4"/>
       <c r="AF538" s="4"/>
+      <c r="AG538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="4"/>
@@ -51280,6 +52102,7 @@
       <c r="AD539" s="4"/>
       <c r="AE539" s="4"/>
       <c r="AF539" s="4"/>
+      <c r="AG539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4"/>
@@ -51314,6 +52137,7 @@
       <c r="AD540" s="4"/>
       <c r="AE540" s="4"/>
       <c r="AF540" s="4"/>
+      <c r="AG540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4"/>
@@ -51348,6 +52172,7 @@
       <c r="AD541" s="4"/>
       <c r="AE541" s="4"/>
       <c r="AF541" s="4"/>
+      <c r="AG541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4"/>
@@ -51382,6 +52207,7 @@
       <c r="AD542" s="4"/>
       <c r="AE542" s="4"/>
       <c r="AF542" s="4"/>
+      <c r="AG542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4"/>
@@ -51416,6 +52242,7 @@
       <c r="AD543" s="4"/>
       <c r="AE543" s="4"/>
       <c r="AF543" s="4"/>
+      <c r="AG543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4"/>
@@ -51450,6 +52277,7 @@
       <c r="AD544" s="4"/>
       <c r="AE544" s="4"/>
       <c r="AF544" s="4"/>
+      <c r="AG544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="4"/>
@@ -51484,6 +52312,7 @@
       <c r="AD545" s="4"/>
       <c r="AE545" s="4"/>
       <c r="AF545" s="4"/>
+      <c r="AG545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="4"/>
@@ -51518,6 +52347,7 @@
       <c r="AD546" s="4"/>
       <c r="AE546" s="4"/>
       <c r="AF546" s="4"/>
+      <c r="AG546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="4"/>
@@ -51552,6 +52382,7 @@
       <c r="AD547" s="4"/>
       <c r="AE547" s="4"/>
       <c r="AF547" s="4"/>
+      <c r="AG547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -51586,6 +52417,7 @@
       <c r="AD548" s="4"/>
       <c r="AE548" s="4"/>
       <c r="AF548" s="4"/>
+      <c r="AG548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="4"/>
@@ -51620,6 +52452,7 @@
       <c r="AD549" s="4"/>
       <c r="AE549" s="4"/>
       <c r="AF549" s="4"/>
+      <c r="AG549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="4"/>
@@ -51654,6 +52487,7 @@
       <c r="AD550" s="4"/>
       <c r="AE550" s="4"/>
       <c r="AF550" s="4"/>
+      <c r="AG550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="4"/>
@@ -51688,6 +52522,7 @@
       <c r="AD551" s="4"/>
       <c r="AE551" s="4"/>
       <c r="AF551" s="4"/>
+      <c r="AG551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="4"/>
@@ -51722,6 +52557,7 @@
       <c r="AD552" s="4"/>
       <c r="AE552" s="4"/>
       <c r="AF552" s="4"/>
+      <c r="AG552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="4"/>
@@ -51756,6 +52592,7 @@
       <c r="AD553" s="4"/>
       <c r="AE553" s="4"/>
       <c r="AF553" s="4"/>
+      <c r="AG553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="4"/>
@@ -51790,6 +52627,7 @@
       <c r="AD554" s="4"/>
       <c r="AE554" s="4"/>
       <c r="AF554" s="4"/>
+      <c r="AG554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="4"/>
@@ -51824,6 +52662,7 @@
       <c r="AD555" s="4"/>
       <c r="AE555" s="4"/>
       <c r="AF555" s="4"/>
+      <c r="AG555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="4"/>
@@ -51858,6 +52697,7 @@
       <c r="AD556" s="4"/>
       <c r="AE556" s="4"/>
       <c r="AF556" s="4"/>
+      <c r="AG556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="4"/>
@@ -51892,6 +52732,7 @@
       <c r="AD557" s="4"/>
       <c r="AE557" s="4"/>
       <c r="AF557" s="4"/>
+      <c r="AG557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="4"/>
@@ -51926,6 +52767,7 @@
       <c r="AD558" s="4"/>
       <c r="AE558" s="4"/>
       <c r="AF558" s="4"/>
+      <c r="AG558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="4"/>
@@ -51960,6 +52802,7 @@
       <c r="AD559" s="4"/>
       <c r="AE559" s="4"/>
       <c r="AF559" s="4"/>
+      <c r="AG559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="4"/>
@@ -51994,6 +52837,7 @@
       <c r="AD560" s="4"/>
       <c r="AE560" s="4"/>
       <c r="AF560" s="4"/>
+      <c r="AG560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4"/>
@@ -52028,6 +52872,7 @@
       <c r="AD561" s="4"/>
       <c r="AE561" s="4"/>
       <c r="AF561" s="4"/>
+      <c r="AG561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -52062,6 +52907,7 @@
       <c r="AD562" s="4"/>
       <c r="AE562" s="4"/>
       <c r="AF562" s="4"/>
+      <c r="AG562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4"/>
@@ -52096,6 +52942,7 @@
       <c r="AD563" s="4"/>
       <c r="AE563" s="4"/>
       <c r="AF563" s="4"/>
+      <c r="AG563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4"/>
@@ -52130,6 +52977,7 @@
       <c r="AD564" s="4"/>
       <c r="AE564" s="4"/>
       <c r="AF564" s="4"/>
+      <c r="AG564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4"/>
@@ -52164,6 +53012,7 @@
       <c r="AD565" s="4"/>
       <c r="AE565" s="4"/>
       <c r="AF565" s="4"/>
+      <c r="AG565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4"/>
@@ -52198,6 +53047,7 @@
       <c r="AD566" s="4"/>
       <c r="AE566" s="4"/>
       <c r="AF566" s="4"/>
+      <c r="AG566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4"/>
@@ -52232,6 +53082,7 @@
       <c r="AD567" s="4"/>
       <c r="AE567" s="4"/>
       <c r="AF567" s="4"/>
+      <c r="AG567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4"/>
@@ -52266,6 +53117,7 @@
       <c r="AD568" s="4"/>
       <c r="AE568" s="4"/>
       <c r="AF568" s="4"/>
+      <c r="AG568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="4"/>
@@ -52300,6 +53152,7 @@
       <c r="AD569" s="4"/>
       <c r="AE569" s="4"/>
       <c r="AF569" s="4"/>
+      <c r="AG569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="4"/>
@@ -52334,6 +53187,7 @@
       <c r="AD570" s="4"/>
       <c r="AE570" s="4"/>
       <c r="AF570" s="4"/>
+      <c r="AG570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="4"/>
@@ -52368,6 +53222,7 @@
       <c r="AD571" s="4"/>
       <c r="AE571" s="4"/>
       <c r="AF571" s="4"/>
+      <c r="AG571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="4"/>
@@ -52402,6 +53257,7 @@
       <c r="AD572" s="4"/>
       <c r="AE572" s="4"/>
       <c r="AF572" s="4"/>
+      <c r="AG572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="4"/>
@@ -52436,6 +53292,7 @@
       <c r="AD573" s="4"/>
       <c r="AE573" s="4"/>
       <c r="AF573" s="4"/>
+      <c r="AG573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="4"/>
@@ -52470,6 +53327,7 @@
       <c r="AD574" s="4"/>
       <c r="AE574" s="4"/>
       <c r="AF574" s="4"/>
+      <c r="AG574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4"/>
@@ -52504,6 +53362,7 @@
       <c r="AD575" s="4"/>
       <c r="AE575" s="4"/>
       <c r="AF575" s="4"/>
+      <c r="AG575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4"/>
@@ -52538,6 +53397,7 @@
       <c r="AD576" s="4"/>
       <c r="AE576" s="4"/>
       <c r="AF576" s="4"/>
+      <c r="AG576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4"/>
@@ -52572,6 +53432,7 @@
       <c r="AD577" s="4"/>
       <c r="AE577" s="4"/>
       <c r="AF577" s="4"/>
+      <c r="AG577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="4"/>
@@ -52606,6 +53467,7 @@
       <c r="AD578" s="4"/>
       <c r="AE578" s="4"/>
       <c r="AF578" s="4"/>
+      <c r="AG578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="4"/>
@@ -52640,6 +53502,7 @@
       <c r="AD579" s="4"/>
       <c r="AE579" s="4"/>
       <c r="AF579" s="4"/>
+      <c r="AG579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="4"/>
@@ -52674,6 +53537,7 @@
       <c r="AD580" s="4"/>
       <c r="AE580" s="4"/>
       <c r="AF580" s="4"/>
+      <c r="AG580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4"/>
@@ -52708,6 +53572,7 @@
       <c r="AD581" s="4"/>
       <c r="AE581" s="4"/>
       <c r="AF581" s="4"/>
+      <c r="AG581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="4"/>
@@ -52742,6 +53607,7 @@
       <c r="AD582" s="4"/>
       <c r="AE582" s="4"/>
       <c r="AF582" s="4"/>
+      <c r="AG582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="4"/>
@@ -52776,6 +53642,7 @@
       <c r="AD583" s="4"/>
       <c r="AE583" s="4"/>
       <c r="AF583" s="4"/>
+      <c r="AG583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="4"/>
@@ -52810,6 +53677,7 @@
       <c r="AD584" s="4"/>
       <c r="AE584" s="4"/>
       <c r="AF584" s="4"/>
+      <c r="AG584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="4"/>
@@ -52844,6 +53712,7 @@
       <c r="AD585" s="4"/>
       <c r="AE585" s="4"/>
       <c r="AF585" s="4"/>
+      <c r="AG585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="4"/>
@@ -52878,6 +53747,7 @@
       <c r="AD586" s="4"/>
       <c r="AE586" s="4"/>
       <c r="AF586" s="4"/>
+      <c r="AG586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="4"/>
@@ -52912,6 +53782,7 @@
       <c r="AD587" s="4"/>
       <c r="AE587" s="4"/>
       <c r="AF587" s="4"/>
+      <c r="AG587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="4"/>
@@ -52946,6 +53817,7 @@
       <c r="AD588" s="4"/>
       <c r="AE588" s="4"/>
       <c r="AF588" s="4"/>
+      <c r="AG588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="4"/>
@@ -52980,6 +53852,7 @@
       <c r="AD589" s="4"/>
       <c r="AE589" s="4"/>
       <c r="AF589" s="4"/>
+      <c r="AG589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -53014,6 +53887,7 @@
       <c r="AD590" s="4"/>
       <c r="AE590" s="4"/>
       <c r="AF590" s="4"/>
+      <c r="AG590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="4"/>
@@ -53048,6 +53922,7 @@
       <c r="AD591" s="4"/>
       <c r="AE591" s="4"/>
       <c r="AF591" s="4"/>
+      <c r="AG591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="4"/>
@@ -53082,6 +53957,7 @@
       <c r="AD592" s="4"/>
       <c r="AE592" s="4"/>
       <c r="AF592" s="4"/>
+      <c r="AG592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="4"/>
@@ -53116,6 +53992,7 @@
       <c r="AD593" s="4"/>
       <c r="AE593" s="4"/>
       <c r="AF593" s="4"/>
+      <c r="AG593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="4"/>
@@ -53150,6 +54027,7 @@
       <c r="AD594" s="4"/>
       <c r="AE594" s="4"/>
       <c r="AF594" s="4"/>
+      <c r="AG594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="4"/>
@@ -53184,6 +54062,7 @@
       <c r="AD595" s="4"/>
       <c r="AE595" s="4"/>
       <c r="AF595" s="4"/>
+      <c r="AG595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="4"/>
@@ -53218,6 +54097,7 @@
       <c r="AD596" s="4"/>
       <c r="AE596" s="4"/>
       <c r="AF596" s="4"/>
+      <c r="AG596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="4"/>
@@ -53252,6 +54132,7 @@
       <c r="AD597" s="4"/>
       <c r="AE597" s="4"/>
       <c r="AF597" s="4"/>
+      <c r="AG597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="4"/>
@@ -53286,6 +54167,7 @@
       <c r="AD598" s="4"/>
       <c r="AE598" s="4"/>
       <c r="AF598" s="4"/>
+      <c r="AG598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="4"/>
@@ -53320,6 +54202,7 @@
       <c r="AD599" s="4"/>
       <c r="AE599" s="4"/>
       <c r="AF599" s="4"/>
+      <c r="AG599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="4"/>
@@ -53354,6 +54237,7 @@
       <c r="AD600" s="4"/>
       <c r="AE600" s="4"/>
       <c r="AF600" s="4"/>
+      <c r="AG600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="4"/>
@@ -53388,6 +54272,7 @@
       <c r="AD601" s="4"/>
       <c r="AE601" s="4"/>
       <c r="AF601" s="4"/>
+      <c r="AG601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -53422,6 +54307,7 @@
       <c r="AD602" s="4"/>
       <c r="AE602" s="4"/>
       <c r="AF602" s="4"/>
+      <c r="AG602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="4"/>
@@ -53456,6 +54342,7 @@
       <c r="AD603" s="4"/>
       <c r="AE603" s="4"/>
       <c r="AF603" s="4"/>
+      <c r="AG603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="4"/>
@@ -53490,6 +54377,7 @@
       <c r="AD604" s="4"/>
       <c r="AE604" s="4"/>
       <c r="AF604" s="4"/>
+      <c r="AG604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="4"/>
@@ -53524,6 +54412,7 @@
       <c r="AD605" s="4"/>
       <c r="AE605" s="4"/>
       <c r="AF605" s="4"/>
+      <c r="AG605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="4"/>
@@ -53558,6 +54447,7 @@
       <c r="AD606" s="4"/>
       <c r="AE606" s="4"/>
       <c r="AF606" s="4"/>
+      <c r="AG606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="4"/>
@@ -53592,6 +54482,7 @@
       <c r="AD607" s="4"/>
       <c r="AE607" s="4"/>
       <c r="AF607" s="4"/>
+      <c r="AG607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="4"/>
@@ -53626,6 +54517,7 @@
       <c r="AD608" s="4"/>
       <c r="AE608" s="4"/>
       <c r="AF608" s="4"/>
+      <c r="AG608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="4"/>
@@ -53660,6 +54552,7 @@
       <c r="AD609" s="4"/>
       <c r="AE609" s="4"/>
       <c r="AF609" s="4"/>
+      <c r="AG609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="4"/>
@@ -53694,6 +54587,7 @@
       <c r="AD610" s="4"/>
       <c r="AE610" s="4"/>
       <c r="AF610" s="4"/>
+      <c r="AG610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="4"/>
@@ -53728,6 +54622,7 @@
       <c r="AD611" s="4"/>
       <c r="AE611" s="4"/>
       <c r="AF611" s="4"/>
+      <c r="AG611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="4"/>
@@ -53762,6 +54657,7 @@
       <c r="AD612" s="4"/>
       <c r="AE612" s="4"/>
       <c r="AF612" s="4"/>
+      <c r="AG612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="4"/>
@@ -53796,6 +54692,7 @@
       <c r="AD613" s="4"/>
       <c r="AE613" s="4"/>
       <c r="AF613" s="4"/>
+      <c r="AG613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="4"/>
@@ -53830,6 +54727,7 @@
       <c r="AD614" s="4"/>
       <c r="AE614" s="4"/>
       <c r="AF614" s="4"/>
+      <c r="AG614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="4"/>
@@ -53864,6 +54762,7 @@
       <c r="AD615" s="4"/>
       <c r="AE615" s="4"/>
       <c r="AF615" s="4"/>
+      <c r="AG615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="4"/>
@@ -53898,6 +54797,7 @@
       <c r="AD616" s="4"/>
       <c r="AE616" s="4"/>
       <c r="AF616" s="4"/>
+      <c r="AG616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="4"/>
@@ -53932,6 +54832,7 @@
       <c r="AD617" s="4"/>
       <c r="AE617" s="4"/>
       <c r="AF617" s="4"/>
+      <c r="AG617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="4"/>
@@ -53966,6 +54867,7 @@
       <c r="AD618" s="4"/>
       <c r="AE618" s="4"/>
       <c r="AF618" s="4"/>
+      <c r="AG618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="4"/>
@@ -54000,6 +54902,7 @@
       <c r="AD619" s="4"/>
       <c r="AE619" s="4"/>
       <c r="AF619" s="4"/>
+      <c r="AG619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="4"/>
@@ -54034,6 +54937,7 @@
       <c r="AD620" s="4"/>
       <c r="AE620" s="4"/>
       <c r="AF620" s="4"/>
+      <c r="AG620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="4"/>
@@ -54068,6 +54972,7 @@
       <c r="AD621" s="4"/>
       <c r="AE621" s="4"/>
       <c r="AF621" s="4"/>
+      <c r="AG621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="4"/>
@@ -54102,6 +55007,7 @@
       <c r="AD622" s="4"/>
       <c r="AE622" s="4"/>
       <c r="AF622" s="4"/>
+      <c r="AG622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="4"/>
@@ -54136,6 +55042,7 @@
       <c r="AD623" s="4"/>
       <c r="AE623" s="4"/>
       <c r="AF623" s="4"/>
+      <c r="AG623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="4"/>
@@ -54170,6 +55077,7 @@
       <c r="AD624" s="4"/>
       <c r="AE624" s="4"/>
       <c r="AF624" s="4"/>
+      <c r="AG624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="4"/>
@@ -54204,6 +55112,7 @@
       <c r="AD625" s="4"/>
       <c r="AE625" s="4"/>
       <c r="AF625" s="4"/>
+      <c r="AG625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="4"/>
@@ -54238,6 +55147,7 @@
       <c r="AD626" s="4"/>
       <c r="AE626" s="4"/>
       <c r="AF626" s="4"/>
+      <c r="AG626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="4"/>
@@ -54272,6 +55182,7 @@
       <c r="AD627" s="4"/>
       <c r="AE627" s="4"/>
       <c r="AF627" s="4"/>
+      <c r="AG627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -54306,6 +55217,7 @@
       <c r="AD628" s="4"/>
       <c r="AE628" s="4"/>
       <c r="AF628" s="4"/>
+      <c r="AG628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4"/>
@@ -54340,6 +55252,7 @@
       <c r="AD629" s="4"/>
       <c r="AE629" s="4"/>
       <c r="AF629" s="4"/>
+      <c r="AG629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="4"/>
@@ -54374,6 +55287,7 @@
       <c r="AD630" s="4"/>
       <c r="AE630" s="4"/>
       <c r="AF630" s="4"/>
+      <c r="AG630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="4"/>
@@ -54408,6 +55322,7 @@
       <c r="AD631" s="4"/>
       <c r="AE631" s="4"/>
       <c r="AF631" s="4"/>
+      <c r="AG631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="4"/>
@@ -54442,6 +55357,7 @@
       <c r="AD632" s="4"/>
       <c r="AE632" s="4"/>
       <c r="AF632" s="4"/>
+      <c r="AG632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4"/>
@@ -54476,6 +55392,7 @@
       <c r="AD633" s="4"/>
       <c r="AE633" s="4"/>
       <c r="AF633" s="4"/>
+      <c r="AG633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
@@ -54510,6 +55427,7 @@
       <c r="AD634" s="4"/>
       <c r="AE634" s="4"/>
       <c r="AF634" s="4"/>
+      <c r="AG634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="4"/>
@@ -54544,6 +55462,7 @@
       <c r="AD635" s="4"/>
       <c r="AE635" s="4"/>
       <c r="AF635" s="4"/>
+      <c r="AG635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="4"/>
@@ -54578,6 +55497,7 @@
       <c r="AD636" s="4"/>
       <c r="AE636" s="4"/>
       <c r="AF636" s="4"/>
+      <c r="AG636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="4"/>
@@ -54612,6 +55532,7 @@
       <c r="AD637" s="4"/>
       <c r="AE637" s="4"/>
       <c r="AF637" s="4"/>
+      <c r="AG637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="4"/>
@@ -54646,6 +55567,7 @@
       <c r="AD638" s="4"/>
       <c r="AE638" s="4"/>
       <c r="AF638" s="4"/>
+      <c r="AG638" s="4"/>
     </row>
     <row r="639">
       <c r="A639" s="4"/>
@@ -54680,6 +55602,7 @@
       <c r="AD639" s="4"/>
       <c r="AE639" s="4"/>
       <c r="AF639" s="4"/>
+      <c r="AG639" s="4"/>
     </row>
     <row r="640">
       <c r="A640" s="4"/>
@@ -54714,6 +55637,7 @@
       <c r="AD640" s="4"/>
       <c r="AE640" s="4"/>
       <c r="AF640" s="4"/>
+      <c r="AG640" s="4"/>
     </row>
     <row r="641">
       <c r="A641" s="4"/>
@@ -54748,6 +55672,7 @@
       <c r="AD641" s="4"/>
       <c r="AE641" s="4"/>
       <c r="AF641" s="4"/>
+      <c r="AG641" s="4"/>
     </row>
     <row r="642">
       <c r="A642" s="4"/>
@@ -54782,6 +55707,7 @@
       <c r="AD642" s="4"/>
       <c r="AE642" s="4"/>
       <c r="AF642" s="4"/>
+      <c r="AG642" s="4"/>
     </row>
     <row r="643">
       <c r="A643" s="4"/>
@@ -54816,6 +55742,7 @@
       <c r="AD643" s="4"/>
       <c r="AE643" s="4"/>
       <c r="AF643" s="4"/>
+      <c r="AG643" s="4"/>
     </row>
     <row r="644">
       <c r="A644" s="4"/>
@@ -54850,6 +55777,7 @@
       <c r="AD644" s="4"/>
       <c r="AE644" s="4"/>
       <c r="AF644" s="4"/>
+      <c r="AG644" s="4"/>
     </row>
     <row r="645">
       <c r="A645" s="4"/>
@@ -54884,6 +55812,7 @@
       <c r="AD645" s="4"/>
       <c r="AE645" s="4"/>
       <c r="AF645" s="4"/>
+      <c r="AG645" s="4"/>
     </row>
     <row r="646">
       <c r="A646" s="4"/>
@@ -54918,6 +55847,7 @@
       <c r="AD646" s="4"/>
       <c r="AE646" s="4"/>
       <c r="AF646" s="4"/>
+      <c r="AG646" s="4"/>
     </row>
     <row r="647">
       <c r="A647" s="4"/>
@@ -54952,6 +55882,7 @@
       <c r="AD647" s="4"/>
       <c r="AE647" s="4"/>
       <c r="AF647" s="4"/>
+      <c r="AG647" s="4"/>
     </row>
     <row r="648">
       <c r="A648" s="4"/>
@@ -54986,6 +55917,7 @@
       <c r="AD648" s="4"/>
       <c r="AE648" s="4"/>
       <c r="AF648" s="4"/>
+      <c r="AG648" s="4"/>
     </row>
     <row r="649">
       <c r="A649" s="4"/>
@@ -55020,6 +55952,7 @@
       <c r="AD649" s="4"/>
       <c r="AE649" s="4"/>
       <c r="AF649" s="4"/>
+      <c r="AG649" s="4"/>
     </row>
     <row r="650">
       <c r="A650" s="4"/>
@@ -55054,6 +55987,7 @@
       <c r="AD650" s="4"/>
       <c r="AE650" s="4"/>
       <c r="AF650" s="4"/>
+      <c r="AG650" s="4"/>
     </row>
     <row r="651">
       <c r="A651" s="4"/>
@@ -55088,6 +56022,7 @@
       <c r="AD651" s="4"/>
       <c r="AE651" s="4"/>
       <c r="AF651" s="4"/>
+      <c r="AG651" s="4"/>
     </row>
     <row r="652">
       <c r="A652" s="4"/>
@@ -55122,6 +56057,7 @@
       <c r="AD652" s="4"/>
       <c r="AE652" s="4"/>
       <c r="AF652" s="4"/>
+      <c r="AG652" s="4"/>
     </row>
     <row r="653">
       <c r="A653" s="4"/>
@@ -55156,6 +56092,7 @@
       <c r="AD653" s="4"/>
       <c r="AE653" s="4"/>
       <c r="AF653" s="4"/>
+      <c r="AG653" s="4"/>
     </row>
     <row r="654">
       <c r="A654" s="4"/>
@@ -55190,6 +56127,7 @@
       <c r="AD654" s="4"/>
       <c r="AE654" s="4"/>
       <c r="AF654" s="4"/>
+      <c r="AG654" s="4"/>
     </row>
     <row r="655">
       <c r="A655" s="4"/>
@@ -55224,6 +56162,7 @@
       <c r="AD655" s="4"/>
       <c r="AE655" s="4"/>
       <c r="AF655" s="4"/>
+      <c r="AG655" s="4"/>
     </row>
     <row r="656">
       <c r="A656" s="4"/>
@@ -55258,6 +56197,7 @@
       <c r="AD656" s="4"/>
       <c r="AE656" s="4"/>
       <c r="AF656" s="4"/>
+      <c r="AG656" s="4"/>
     </row>
     <row r="657">
       <c r="A657" s="4"/>
@@ -55292,6 +56232,7 @@
       <c r="AD657" s="4"/>
       <c r="AE657" s="4"/>
       <c r="AF657" s="4"/>
+      <c r="AG657" s="4"/>
     </row>
     <row r="658">
       <c r="A658" s="4"/>
@@ -55326,6 +56267,7 @@
       <c r="AD658" s="4"/>
       <c r="AE658" s="4"/>
       <c r="AF658" s="4"/>
+      <c r="AG658" s="4"/>
     </row>
     <row r="659">
       <c r="A659" s="4"/>
@@ -55360,6 +56302,7 @@
       <c r="AD659" s="4"/>
       <c r="AE659" s="4"/>
       <c r="AF659" s="4"/>
+      <c r="AG659" s="4"/>
     </row>
     <row r="660">
       <c r="A660" s="4"/>
@@ -55394,6 +56337,7 @@
       <c r="AD660" s="4"/>
       <c r="AE660" s="4"/>
       <c r="AF660" s="4"/>
+      <c r="AG660" s="4"/>
     </row>
     <row r="661">
       <c r="A661" s="4"/>
@@ -55428,6 +56372,7 @@
       <c r="AD661" s="4"/>
       <c r="AE661" s="4"/>
       <c r="AF661" s="4"/>
+      <c r="AG661" s="4"/>
     </row>
     <row r="662">
       <c r="A662" s="4"/>
@@ -55462,6 +56407,7 @@
       <c r="AD662" s="4"/>
       <c r="AE662" s="4"/>
       <c r="AF662" s="4"/>
+      <c r="AG662" s="4"/>
     </row>
     <row r="663">
       <c r="A663" s="4"/>
@@ -55496,6 +56442,7 @@
       <c r="AD663" s="4"/>
       <c r="AE663" s="4"/>
       <c r="AF663" s="4"/>
+      <c r="AG663" s="4"/>
     </row>
     <row r="664">
       <c r="A664" s="4"/>
@@ -55530,6 +56477,7 @@
       <c r="AD664" s="4"/>
       <c r="AE664" s="4"/>
       <c r="AF664" s="4"/>
+      <c r="AG664" s="4"/>
     </row>
     <row r="665">
       <c r="A665" s="4"/>
@@ -55564,6 +56512,7 @@
       <c r="AD665" s="4"/>
       <c r="AE665" s="4"/>
       <c r="AF665" s="4"/>
+      <c r="AG665" s="4"/>
     </row>
     <row r="666">
       <c r="A666" s="4"/>
@@ -55598,6 +56547,7 @@
       <c r="AD666" s="4"/>
       <c r="AE666" s="4"/>
       <c r="AF666" s="4"/>
+      <c r="AG666" s="4"/>
     </row>
     <row r="667">
       <c r="A667" s="4"/>
@@ -55632,6 +56582,7 @@
       <c r="AD667" s="4"/>
       <c r="AE667" s="4"/>
       <c r="AF667" s="4"/>
+      <c r="AG667" s="4"/>
     </row>
     <row r="668">
       <c r="A668" s="4"/>
@@ -55666,6 +56617,7 @@
       <c r="AD668" s="4"/>
       <c r="AE668" s="4"/>
       <c r="AF668" s="4"/>
+      <c r="AG668" s="4"/>
     </row>
     <row r="669">
       <c r="A669" s="4"/>
@@ -55700,6 +56652,7 @@
       <c r="AD669" s="4"/>
       <c r="AE669" s="4"/>
       <c r="AF669" s="4"/>
+      <c r="AG669" s="4"/>
     </row>
     <row r="670">
       <c r="A670" s="4"/>
@@ -55734,6 +56687,7 @@
       <c r="AD670" s="4"/>
       <c r="AE670" s="4"/>
       <c r="AF670" s="4"/>
+      <c r="AG670" s="4"/>
     </row>
     <row r="671">
       <c r="A671" s="4"/>
@@ -55768,6 +56722,7 @@
       <c r="AD671" s="4"/>
       <c r="AE671" s="4"/>
       <c r="AF671" s="4"/>
+      <c r="AG671" s="4"/>
     </row>
     <row r="672">
       <c r="A672" s="4"/>
@@ -55802,6 +56757,7 @@
       <c r="AD672" s="4"/>
       <c r="AE672" s="4"/>
       <c r="AF672" s="4"/>
+      <c r="AG672" s="4"/>
     </row>
     <row r="673">
       <c r="A673" s="4"/>
@@ -55836,6 +56792,7 @@
       <c r="AD673" s="4"/>
       <c r="AE673" s="4"/>
       <c r="AF673" s="4"/>
+      <c r="AG673" s="4"/>
     </row>
     <row r="674">
       <c r="A674" s="4"/>
@@ -55870,6 +56827,7 @@
       <c r="AD674" s="4"/>
       <c r="AE674" s="4"/>
       <c r="AF674" s="4"/>
+      <c r="AG674" s="4"/>
     </row>
     <row r="675">
       <c r="A675" s="4"/>
@@ -55904,6 +56862,7 @@
       <c r="AD675" s="4"/>
       <c r="AE675" s="4"/>
       <c r="AF675" s="4"/>
+      <c r="AG675" s="4"/>
     </row>
     <row r="676">
       <c r="A676" s="4"/>
@@ -55938,6 +56897,7 @@
       <c r="AD676" s="4"/>
       <c r="AE676" s="4"/>
       <c r="AF676" s="4"/>
+      <c r="AG676" s="4"/>
     </row>
     <row r="677">
       <c r="A677" s="4"/>
@@ -55972,6 +56932,7 @@
       <c r="AD677" s="4"/>
       <c r="AE677" s="4"/>
       <c r="AF677" s="4"/>
+      <c r="AG677" s="4"/>
     </row>
     <row r="678">
       <c r="A678" s="4"/>
@@ -56006,6 +56967,7 @@
       <c r="AD678" s="4"/>
       <c r="AE678" s="4"/>
       <c r="AF678" s="4"/>
+      <c r="AG678" s="4"/>
     </row>
     <row r="679">
       <c r="A679" s="4"/>
@@ -56040,6 +57002,7 @@
       <c r="AD679" s="4"/>
       <c r="AE679" s="4"/>
       <c r="AF679" s="4"/>
+      <c r="AG679" s="4"/>
     </row>
     <row r="680">
       <c r="A680" s="4"/>
@@ -56074,6 +57037,7 @@
       <c r="AD680" s="4"/>
       <c r="AE680" s="4"/>
       <c r="AF680" s="4"/>
+      <c r="AG680" s="4"/>
     </row>
     <row r="681">
       <c r="A681" s="4"/>
@@ -56108,6 +57072,7 @@
       <c r="AD681" s="4"/>
       <c r="AE681" s="4"/>
       <c r="AF681" s="4"/>
+      <c r="AG681" s="4"/>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
@@ -56142,6 +57107,7 @@
       <c r="AD682" s="4"/>
       <c r="AE682" s="4"/>
       <c r="AF682" s="4"/>
+      <c r="AG682" s="4"/>
     </row>
     <row r="683">
       <c r="A683" s="4"/>
@@ -56176,6 +57142,7 @@
       <c r="AD683" s="4"/>
       <c r="AE683" s="4"/>
       <c r="AF683" s="4"/>
+      <c r="AG683" s="4"/>
     </row>
     <row r="684">
       <c r="A684" s="4"/>
@@ -56210,6 +57177,7 @@
       <c r="AD684" s="4"/>
       <c r="AE684" s="4"/>
       <c r="AF684" s="4"/>
+      <c r="AG684" s="4"/>
     </row>
     <row r="685">
       <c r="A685" s="4"/>
@@ -56244,6 +57212,7 @@
       <c r="AD685" s="4"/>
       <c r="AE685" s="4"/>
       <c r="AF685" s="4"/>
+      <c r="AG685" s="4"/>
     </row>
     <row r="686">
       <c r="A686" s="4"/>
@@ -56278,6 +57247,7 @@
       <c r="AD686" s="4"/>
       <c r="AE686" s="4"/>
       <c r="AF686" s="4"/>
+      <c r="AG686" s="4"/>
     </row>
     <row r="687">
       <c r="A687" s="4"/>
@@ -56312,6 +57282,7 @@
       <c r="AD687" s="4"/>
       <c r="AE687" s="4"/>
       <c r="AF687" s="4"/>
+      <c r="AG687" s="4"/>
     </row>
     <row r="688">
       <c r="A688" s="4"/>
@@ -56346,6 +57317,7 @@
       <c r="AD688" s="4"/>
       <c r="AE688" s="4"/>
       <c r="AF688" s="4"/>
+      <c r="AG688" s="4"/>
     </row>
     <row r="689">
       <c r="A689" s="4"/>
@@ -56380,6 +57352,7 @@
       <c r="AD689" s="4"/>
       <c r="AE689" s="4"/>
       <c r="AF689" s="4"/>
+      <c r="AG689" s="4"/>
     </row>
     <row r="690">
       <c r="A690" s="4"/>
@@ -56414,6 +57387,7 @@
       <c r="AD690" s="4"/>
       <c r="AE690" s="4"/>
       <c r="AF690" s="4"/>
+      <c r="AG690" s="4"/>
     </row>
     <row r="691">
       <c r="A691" s="4"/>
@@ -56448,6 +57422,7 @@
       <c r="AD691" s="4"/>
       <c r="AE691" s="4"/>
       <c r="AF691" s="4"/>
+      <c r="AG691" s="4"/>
     </row>
     <row r="692">
       <c r="A692" s="4"/>
@@ -56482,6 +57457,7 @@
       <c r="AD692" s="4"/>
       <c r="AE692" s="4"/>
       <c r="AF692" s="4"/>
+      <c r="AG692" s="4"/>
     </row>
     <row r="693">
       <c r="A693" s="4"/>
@@ -56516,6 +57492,7 @@
       <c r="AD693" s="4"/>
       <c r="AE693" s="4"/>
       <c r="AF693" s="4"/>
+      <c r="AG693" s="4"/>
     </row>
     <row r="694">
       <c r="A694" s="4"/>
@@ -56550,6 +57527,7 @@
       <c r="AD694" s="4"/>
       <c r="AE694" s="4"/>
       <c r="AF694" s="4"/>
+      <c r="AG694" s="4"/>
     </row>
     <row r="695">
       <c r="A695" s="4"/>
@@ -56584,6 +57562,7 @@
       <c r="AD695" s="4"/>
       <c r="AE695" s="4"/>
       <c r="AF695" s="4"/>
+      <c r="AG695" s="4"/>
     </row>
     <row r="696">
       <c r="A696" s="4"/>
@@ -56618,6 +57597,7 @@
       <c r="AD696" s="4"/>
       <c r="AE696" s="4"/>
       <c r="AF696" s="4"/>
+      <c r="AG696" s="4"/>
     </row>
     <row r="697">
       <c r="A697" s="4"/>
@@ -56652,6 +57632,7 @@
       <c r="AD697" s="4"/>
       <c r="AE697" s="4"/>
       <c r="AF697" s="4"/>
+      <c r="AG697" s="4"/>
     </row>
     <row r="698">
       <c r="A698" s="4"/>
@@ -56686,6 +57667,7 @@
       <c r="AD698" s="4"/>
       <c r="AE698" s="4"/>
       <c r="AF698" s="4"/>
+      <c r="AG698" s="4"/>
     </row>
     <row r="699">
       <c r="A699" s="4"/>
@@ -56720,6 +57702,7 @@
       <c r="AD699" s="4"/>
       <c r="AE699" s="4"/>
       <c r="AF699" s="4"/>
+      <c r="AG699" s="4"/>
     </row>
     <row r="700">
       <c r="A700" s="4"/>
@@ -56754,6 +57737,7 @@
       <c r="AD700" s="4"/>
       <c r="AE700" s="4"/>
       <c r="AF700" s="4"/>
+      <c r="AG700" s="4"/>
     </row>
     <row r="701">
       <c r="A701" s="4"/>
@@ -56788,6 +57772,7 @@
       <c r="AD701" s="4"/>
       <c r="AE701" s="4"/>
       <c r="AF701" s="4"/>
+      <c r="AG701" s="4"/>
     </row>
     <row r="702">
       <c r="A702" s="4"/>
@@ -56822,6 +57807,7 @@
       <c r="AD702" s="4"/>
       <c r="AE702" s="4"/>
       <c r="AF702" s="4"/>
+      <c r="AG702" s="4"/>
     </row>
     <row r="703">
       <c r="A703" s="4"/>
@@ -56856,6 +57842,7 @@
       <c r="AD703" s="4"/>
       <c r="AE703" s="4"/>
       <c r="AF703" s="4"/>
+      <c r="AG703" s="4"/>
     </row>
     <row r="704">
       <c r="A704" s="4"/>
@@ -56890,6 +57877,7 @@
       <c r="AD704" s="4"/>
       <c r="AE704" s="4"/>
       <c r="AF704" s="4"/>
+      <c r="AG704" s="4"/>
     </row>
     <row r="705">
       <c r="A705" s="4"/>
@@ -56924,6 +57912,7 @@
       <c r="AD705" s="4"/>
       <c r="AE705" s="4"/>
       <c r="AF705" s="4"/>
+      <c r="AG705" s="4"/>
     </row>
     <row r="706">
       <c r="A706" s="4"/>
@@ -56958,6 +57947,7 @@
       <c r="AD706" s="4"/>
       <c r="AE706" s="4"/>
       <c r="AF706" s="4"/>
+      <c r="AG706" s="4"/>
     </row>
     <row r="707">
       <c r="A707" s="4"/>
@@ -56992,6 +57982,7 @@
       <c r="AD707" s="4"/>
       <c r="AE707" s="4"/>
       <c r="AF707" s="4"/>
+      <c r="AG707" s="4"/>
     </row>
     <row r="708">
       <c r="A708" s="4"/>
@@ -57026,6 +58017,7 @@
       <c r="AD708" s="4"/>
       <c r="AE708" s="4"/>
       <c r="AF708" s="4"/>
+      <c r="AG708" s="4"/>
     </row>
     <row r="709">
       <c r="A709" s="4"/>
@@ -57060,6 +58052,7 @@
       <c r="AD709" s="4"/>
       <c r="AE709" s="4"/>
       <c r="AF709" s="4"/>
+      <c r="AG709" s="4"/>
     </row>
     <row r="710">
       <c r="A710" s="4"/>
@@ -57094,6 +58087,7 @@
       <c r="AD710" s="4"/>
       <c r="AE710" s="4"/>
       <c r="AF710" s="4"/>
+      <c r="AG710" s="4"/>
     </row>
     <row r="711">
       <c r="A711" s="4"/>
@@ -57128,6 +58122,7 @@
       <c r="AD711" s="4"/>
       <c r="AE711" s="4"/>
       <c r="AF711" s="4"/>
+      <c r="AG711" s="4"/>
     </row>
     <row r="712">
       <c r="A712" s="4"/>
@@ -57162,6 +58157,7 @@
       <c r="AD712" s="4"/>
       <c r="AE712" s="4"/>
       <c r="AF712" s="4"/>
+      <c r="AG712" s="4"/>
     </row>
     <row r="713">
       <c r="A713" s="4"/>
@@ -57196,6 +58192,7 @@
       <c r="AD713" s="4"/>
       <c r="AE713" s="4"/>
       <c r="AF713" s="4"/>
+      <c r="AG713" s="4"/>
     </row>
     <row r="714">
       <c r="A714" s="4"/>
@@ -57230,6 +58227,7 @@
       <c r="AD714" s="4"/>
       <c r="AE714" s="4"/>
       <c r="AF714" s="4"/>
+      <c r="AG714" s="4"/>
     </row>
     <row r="715">
       <c r="A715" s="4"/>
@@ -57264,6 +58262,7 @@
       <c r="AD715" s="4"/>
       <c r="AE715" s="4"/>
       <c r="AF715" s="4"/>
+      <c r="AG715" s="4"/>
     </row>
     <row r="716">
       <c r="A716" s="4"/>
@@ -57298,6 +58297,7 @@
       <c r="AD716" s="4"/>
       <c r="AE716" s="4"/>
       <c r="AF716" s="4"/>
+      <c r="AG716" s="4"/>
     </row>
     <row r="717">
       <c r="A717" s="4"/>
@@ -57332,6 +58332,7 @@
       <c r="AD717" s="4"/>
       <c r="AE717" s="4"/>
       <c r="AF717" s="4"/>
+      <c r="AG717" s="4"/>
     </row>
     <row r="718">
       <c r="A718" s="4"/>
@@ -57366,6 +58367,7 @@
       <c r="AD718" s="4"/>
       <c r="AE718" s="4"/>
       <c r="AF718" s="4"/>
+      <c r="AG718" s="4"/>
     </row>
     <row r="719">
       <c r="A719" s="4"/>
@@ -57400,6 +58402,7 @@
       <c r="AD719" s="4"/>
       <c r="AE719" s="4"/>
       <c r="AF719" s="4"/>
+      <c r="AG719" s="4"/>
     </row>
     <row r="720">
       <c r="A720" s="4"/>
@@ -57434,6 +58437,7 @@
       <c r="AD720" s="4"/>
       <c r="AE720" s="4"/>
       <c r="AF720" s="4"/>
+      <c r="AG720" s="4"/>
     </row>
     <row r="721">
       <c r="A721" s="4"/>
@@ -57468,6 +58472,7 @@
       <c r="AD721" s="4"/>
       <c r="AE721" s="4"/>
       <c r="AF721" s="4"/>
+      <c r="AG721" s="4"/>
     </row>
     <row r="722">
       <c r="A722" s="4"/>
@@ -57502,6 +58507,7 @@
       <c r="AD722" s="4"/>
       <c r="AE722" s="4"/>
       <c r="AF722" s="4"/>
+      <c r="AG722" s="4"/>
     </row>
     <row r="723">
       <c r="A723" s="4"/>
@@ -57536,6 +58542,7 @@
       <c r="AD723" s="4"/>
       <c r="AE723" s="4"/>
       <c r="AF723" s="4"/>
+      <c r="AG723" s="4"/>
     </row>
     <row r="724">
       <c r="A724" s="4"/>
@@ -57570,6 +58577,7 @@
       <c r="AD724" s="4"/>
       <c r="AE724" s="4"/>
       <c r="AF724" s="4"/>
+      <c r="AG724" s="4"/>
     </row>
     <row r="725">
       <c r="A725" s="4"/>
@@ -57604,6 +58612,7 @@
       <c r="AD725" s="4"/>
       <c r="AE725" s="4"/>
       <c r="AF725" s="4"/>
+      <c r="AG725" s="4"/>
     </row>
     <row r="726">
       <c r="A726" s="4"/>
@@ -57638,6 +58647,7 @@
       <c r="AD726" s="4"/>
       <c r="AE726" s="4"/>
       <c r="AF726" s="4"/>
+      <c r="AG726" s="4"/>
     </row>
     <row r="727">
       <c r="A727" s="4"/>
@@ -57672,6 +58682,7 @@
       <c r="AD727" s="4"/>
       <c r="AE727" s="4"/>
       <c r="AF727" s="4"/>
+      <c r="AG727" s="4"/>
     </row>
     <row r="728">
       <c r="A728" s="4"/>
@@ -57706,6 +58717,7 @@
       <c r="AD728" s="4"/>
       <c r="AE728" s="4"/>
       <c r="AF728" s="4"/>
+      <c r="AG728" s="4"/>
     </row>
     <row r="729">
       <c r="A729" s="4"/>
@@ -57740,6 +58752,7 @@
       <c r="AD729" s="4"/>
       <c r="AE729" s="4"/>
       <c r="AF729" s="4"/>
+      <c r="AG729" s="4"/>
     </row>
     <row r="730">
       <c r="A730" s="4"/>
@@ -57774,6 +58787,7 @@
       <c r="AD730" s="4"/>
       <c r="AE730" s="4"/>
       <c r="AF730" s="4"/>
+      <c r="AG730" s="4"/>
     </row>
     <row r="731">
       <c r="A731" s="4"/>
@@ -57808,6 +58822,7 @@
       <c r="AD731" s="4"/>
       <c r="AE731" s="4"/>
       <c r="AF731" s="4"/>
+      <c r="AG731" s="4"/>
     </row>
     <row r="732">
       <c r="A732" s="4"/>
@@ -57842,6 +58857,7 @@
       <c r="AD732" s="4"/>
       <c r="AE732" s="4"/>
       <c r="AF732" s="4"/>
+      <c r="AG732" s="4"/>
     </row>
     <row r="733">
       <c r="A733" s="4"/>
@@ -57876,6 +58892,7 @@
       <c r="AD733" s="4"/>
       <c r="AE733" s="4"/>
       <c r="AF733" s="4"/>
+      <c r="AG733" s="4"/>
     </row>
     <row r="734">
       <c r="A734" s="4"/>
@@ -57910,6 +58927,7 @@
       <c r="AD734" s="4"/>
       <c r="AE734" s="4"/>
       <c r="AF734" s="4"/>
+      <c r="AG734" s="4"/>
     </row>
     <row r="735">
       <c r="A735" s="4"/>
@@ -57944,6 +58962,7 @@
       <c r="AD735" s="4"/>
       <c r="AE735" s="4"/>
       <c r="AF735" s="4"/>
+      <c r="AG735" s="4"/>
     </row>
     <row r="736">
       <c r="A736" s="4"/>
@@ -57978,6 +58997,7 @@
       <c r="AD736" s="4"/>
       <c r="AE736" s="4"/>
       <c r="AF736" s="4"/>
+      <c r="AG736" s="4"/>
     </row>
     <row r="737">
       <c r="A737" s="4"/>
@@ -58012,6 +59032,7 @@
       <c r="AD737" s="4"/>
       <c r="AE737" s="4"/>
       <c r="AF737" s="4"/>
+      <c r="AG737" s="4"/>
     </row>
     <row r="738">
       <c r="A738" s="4"/>
@@ -58046,6 +59067,7 @@
       <c r="AD738" s="4"/>
       <c r="AE738" s="4"/>
       <c r="AF738" s="4"/>
+      <c r="AG738" s="4"/>
     </row>
     <row r="739">
       <c r="A739" s="4"/>
@@ -58080,6 +59102,7 @@
       <c r="AD739" s="4"/>
       <c r="AE739" s="4"/>
       <c r="AF739" s="4"/>
+      <c r="AG739" s="4"/>
     </row>
     <row r="740">
       <c r="A740" s="4"/>
@@ -58114,6 +59137,7 @@
       <c r="AD740" s="4"/>
       <c r="AE740" s="4"/>
       <c r="AF740" s="4"/>
+      <c r="AG740" s="4"/>
     </row>
     <row r="741">
       <c r="A741" s="4"/>
@@ -58148,6 +59172,7 @@
       <c r="AD741" s="4"/>
       <c r="AE741" s="4"/>
       <c r="AF741" s="4"/>
+      <c r="AG741" s="4"/>
     </row>
     <row r="742">
       <c r="A742" s="4"/>
@@ -58182,6 +59207,7 @@
       <c r="AD742" s="4"/>
       <c r="AE742" s="4"/>
       <c r="AF742" s="4"/>
+      <c r="AG742" s="4"/>
     </row>
     <row r="743">
       <c r="A743" s="4"/>
@@ -58216,6 +59242,7 @@
       <c r="AD743" s="4"/>
       <c r="AE743" s="4"/>
       <c r="AF743" s="4"/>
+      <c r="AG743" s="4"/>
     </row>
     <row r="744">
       <c r="A744" s="4"/>
@@ -58250,6 +59277,7 @@
       <c r="AD744" s="4"/>
       <c r="AE744" s="4"/>
       <c r="AF744" s="4"/>
+      <c r="AG744" s="4"/>
     </row>
     <row r="745">
       <c r="A745" s="4"/>
@@ -58284,6 +59312,7 @@
       <c r="AD745" s="4"/>
       <c r="AE745" s="4"/>
       <c r="AF745" s="4"/>
+      <c r="AG745" s="4"/>
     </row>
     <row r="746">
       <c r="A746" s="4"/>
@@ -58318,6 +59347,7 @@
       <c r="AD746" s="4"/>
       <c r="AE746" s="4"/>
       <c r="AF746" s="4"/>
+      <c r="AG746" s="4"/>
     </row>
     <row r="747">
       <c r="A747" s="4"/>
@@ -58352,6 +59382,7 @@
       <c r="AD747" s="4"/>
       <c r="AE747" s="4"/>
       <c r="AF747" s="4"/>
+      <c r="AG747" s="4"/>
     </row>
     <row r="748">
       <c r="A748" s="4"/>
@@ -58386,6 +59417,7 @@
       <c r="AD748" s="4"/>
       <c r="AE748" s="4"/>
       <c r="AF748" s="4"/>
+      <c r="AG748" s="4"/>
     </row>
     <row r="749">
       <c r="A749" s="4"/>
@@ -58420,6 +59452,7 @@
       <c r="AD749" s="4"/>
       <c r="AE749" s="4"/>
       <c r="AF749" s="4"/>
+      <c r="AG749" s="4"/>
     </row>
     <row r="750">
       <c r="A750" s="4"/>
@@ -58454,6 +59487,7 @@
       <c r="AD750" s="4"/>
       <c r="AE750" s="4"/>
       <c r="AF750" s="4"/>
+      <c r="AG750" s="4"/>
     </row>
     <row r="751">
       <c r="A751" s="4"/>
@@ -58488,6 +59522,7 @@
       <c r="AD751" s="4"/>
       <c r="AE751" s="4"/>
       <c r="AF751" s="4"/>
+      <c r="AG751" s="4"/>
     </row>
     <row r="752">
       <c r="A752" s="4"/>
@@ -58522,6 +59557,7 @@
       <c r="AD752" s="4"/>
       <c r="AE752" s="4"/>
       <c r="AF752" s="4"/>
+      <c r="AG752" s="4"/>
     </row>
     <row r="753">
       <c r="A753" s="4"/>
@@ -58556,6 +59592,7 @@
       <c r="AD753" s="4"/>
       <c r="AE753" s="4"/>
       <c r="AF753" s="4"/>
+      <c r="AG753" s="4"/>
     </row>
     <row r="754">
       <c r="A754" s="4"/>
@@ -58590,6 +59627,7 @@
       <c r="AD754" s="4"/>
       <c r="AE754" s="4"/>
       <c r="AF754" s="4"/>
+      <c r="AG754" s="4"/>
     </row>
     <row r="755">
       <c r="A755" s="4"/>
@@ -58624,6 +59662,7 @@
       <c r="AD755" s="4"/>
       <c r="AE755" s="4"/>
       <c r="AF755" s="4"/>
+      <c r="AG755" s="4"/>
     </row>
     <row r="756">
       <c r="A756" s="4"/>
@@ -58658,6 +59697,7 @@
       <c r="AD756" s="4"/>
       <c r="AE756" s="4"/>
       <c r="AF756" s="4"/>
+      <c r="AG756" s="4"/>
     </row>
     <row r="757">
       <c r="A757" s="4"/>
@@ -58692,6 +59732,7 @@
       <c r="AD757" s="4"/>
       <c r="AE757" s="4"/>
       <c r="AF757" s="4"/>
+      <c r="AG757" s="4"/>
     </row>
     <row r="758">
       <c r="A758" s="4"/>
@@ -58726,6 +59767,7 @@
       <c r="AD758" s="4"/>
       <c r="AE758" s="4"/>
       <c r="AF758" s="4"/>
+      <c r="AG758" s="4"/>
     </row>
     <row r="759">
       <c r="A759" s="4"/>
@@ -58760,6 +59802,7 @@
       <c r="AD759" s="4"/>
       <c r="AE759" s="4"/>
       <c r="AF759" s="4"/>
+      <c r="AG759" s="4"/>
     </row>
     <row r="760">
       <c r="A760" s="4"/>
@@ -58794,6 +59837,7 @@
       <c r="AD760" s="4"/>
       <c r="AE760" s="4"/>
       <c r="AF760" s="4"/>
+      <c r="AG760" s="4"/>
     </row>
     <row r="761">
       <c r="A761" s="4"/>
@@ -58828,6 +59872,7 @@
       <c r="AD761" s="4"/>
       <c r="AE761" s="4"/>
       <c r="AF761" s="4"/>
+      <c r="AG761" s="4"/>
     </row>
     <row r="762">
       <c r="A762" s="4"/>
@@ -58862,6 +59907,7 @@
       <c r="AD762" s="4"/>
       <c r="AE762" s="4"/>
       <c r="AF762" s="4"/>
+      <c r="AG762" s="4"/>
     </row>
     <row r="763">
       <c r="A763" s="4"/>
@@ -58896,6 +59942,7 @@
       <c r="AD763" s="4"/>
       <c r="AE763" s="4"/>
       <c r="AF763" s="4"/>
+      <c r="AG763" s="4"/>
     </row>
     <row r="764">
       <c r="A764" s="4"/>
@@ -58930,6 +59977,7 @@
       <c r="AD764" s="4"/>
       <c r="AE764" s="4"/>
       <c r="AF764" s="4"/>
+      <c r="AG764" s="4"/>
     </row>
     <row r="765">
       <c r="A765" s="4"/>
@@ -58964,6 +60012,7 @@
       <c r="AD765" s="4"/>
       <c r="AE765" s="4"/>
       <c r="AF765" s="4"/>
+      <c r="AG765" s="4"/>
     </row>
     <row r="766">
       <c r="A766" s="4"/>
@@ -58998,6 +60047,7 @@
       <c r="AD766" s="4"/>
       <c r="AE766" s="4"/>
       <c r="AF766" s="4"/>
+      <c r="AG766" s="4"/>
     </row>
     <row r="767">
       <c r="A767" s="4"/>
@@ -59032,6 +60082,7 @@
       <c r="AD767" s="4"/>
       <c r="AE767" s="4"/>
       <c r="AF767" s="4"/>
+      <c r="AG767" s="4"/>
     </row>
     <row r="768">
       <c r="A768" s="4"/>
@@ -59066,6 +60117,7 @@
       <c r="AD768" s="4"/>
       <c r="AE768" s="4"/>
       <c r="AF768" s="4"/>
+      <c r="AG768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="4"/>
@@ -59100,6 +60152,7 @@
       <c r="AD769" s="4"/>
       <c r="AE769" s="4"/>
       <c r="AF769" s="4"/>
+      <c r="AG769" s="4"/>
     </row>
     <row r="770">
       <c r="A770" s="4"/>
@@ -59134,6 +60187,7 @@
       <c r="AD770" s="4"/>
       <c r="AE770" s="4"/>
       <c r="AF770" s="4"/>
+      <c r="AG770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="4"/>
@@ -59168,6 +60222,7 @@
       <c r="AD771" s="4"/>
       <c r="AE771" s="4"/>
       <c r="AF771" s="4"/>
+      <c r="AG771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="4"/>
@@ -59202,6 +60257,7 @@
       <c r="AD772" s="4"/>
       <c r="AE772" s="4"/>
       <c r="AF772" s="4"/>
+      <c r="AG772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="4"/>
@@ -59236,6 +60292,7 @@
       <c r="AD773" s="4"/>
       <c r="AE773" s="4"/>
       <c r="AF773" s="4"/>
+      <c r="AG773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="4"/>
@@ -59270,6 +60327,7 @@
       <c r="AD774" s="4"/>
       <c r="AE774" s="4"/>
       <c r="AF774" s="4"/>
+      <c r="AG774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="4"/>
@@ -59304,6 +60362,7 @@
       <c r="AD775" s="4"/>
       <c r="AE775" s="4"/>
       <c r="AF775" s="4"/>
+      <c r="AG775" s="4"/>
     </row>
     <row r="776">
       <c r="A776" s="4"/>
@@ -59338,6 +60397,7 @@
       <c r="AD776" s="4"/>
       <c r="AE776" s="4"/>
       <c r="AF776" s="4"/>
+      <c r="AG776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="4"/>
@@ -59372,6 +60432,7 @@
       <c r="AD777" s="4"/>
       <c r="AE777" s="4"/>
       <c r="AF777" s="4"/>
+      <c r="AG777" s="4"/>
     </row>
     <row r="778">
       <c r="A778" s="4"/>
@@ -59406,6 +60467,7 @@
       <c r="AD778" s="4"/>
       <c r="AE778" s="4"/>
       <c r="AF778" s="4"/>
+      <c r="AG778" s="4"/>
     </row>
     <row r="779">
       <c r="A779" s="4"/>
@@ -59440,6 +60502,7 @@
       <c r="AD779" s="4"/>
       <c r="AE779" s="4"/>
       <c r="AF779" s="4"/>
+      <c r="AG779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="4"/>
@@ -59474,6 +60537,7 @@
       <c r="AD780" s="4"/>
       <c r="AE780" s="4"/>
       <c r="AF780" s="4"/>
+      <c r="AG780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="4"/>
@@ -59508,6 +60572,7 @@
       <c r="AD781" s="4"/>
       <c r="AE781" s="4"/>
       <c r="AF781" s="4"/>
+      <c r="AG781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="4"/>
@@ -59542,6 +60607,7 @@
       <c r="AD782" s="4"/>
       <c r="AE782" s="4"/>
       <c r="AF782" s="4"/>
+      <c r="AG782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="4"/>
@@ -59576,6 +60642,7 @@
       <c r="AD783" s="4"/>
       <c r="AE783" s="4"/>
       <c r="AF783" s="4"/>
+      <c r="AG783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="4"/>
@@ -59610,6 +60677,7 @@
       <c r="AD784" s="4"/>
       <c r="AE784" s="4"/>
       <c r="AF784" s="4"/>
+      <c r="AG784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="4"/>
@@ -59644,6 +60712,7 @@
       <c r="AD785" s="4"/>
       <c r="AE785" s="4"/>
       <c r="AF785" s="4"/>
+      <c r="AG785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="4"/>
@@ -59678,6 +60747,7 @@
       <c r="AD786" s="4"/>
       <c r="AE786" s="4"/>
       <c r="AF786" s="4"/>
+      <c r="AG786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="4"/>
@@ -59712,6 +60782,7 @@
       <c r="AD787" s="4"/>
       <c r="AE787" s="4"/>
       <c r="AF787" s="4"/>
+      <c r="AG787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="4"/>
@@ -59746,6 +60817,7 @@
       <c r="AD788" s="4"/>
       <c r="AE788" s="4"/>
       <c r="AF788" s="4"/>
+      <c r="AG788" s="4"/>
     </row>
     <row r="789">
       <c r="A789" s="4"/>
@@ -59780,6 +60852,7 @@
       <c r="AD789" s="4"/>
       <c r="AE789" s="4"/>
       <c r="AF789" s="4"/>
+      <c r="AG789" s="4"/>
     </row>
     <row r="790">
       <c r="A790" s="4"/>
@@ -59814,6 +60887,7 @@
       <c r="AD790" s="4"/>
       <c r="AE790" s="4"/>
       <c r="AF790" s="4"/>
+      <c r="AG790" s="4"/>
     </row>
     <row r="791">
       <c r="A791" s="4"/>
@@ -59848,6 +60922,7 @@
       <c r="AD791" s="4"/>
       <c r="AE791" s="4"/>
       <c r="AF791" s="4"/>
+      <c r="AG791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="4"/>
@@ -59882,6 +60957,7 @@
       <c r="AD792" s="4"/>
       <c r="AE792" s="4"/>
       <c r="AF792" s="4"/>
+      <c r="AG792" s="4"/>
     </row>
     <row r="793">
       <c r="A793" s="4"/>
@@ -59916,6 +60992,7 @@
       <c r="AD793" s="4"/>
       <c r="AE793" s="4"/>
       <c r="AF793" s="4"/>
+      <c r="AG793" s="4"/>
     </row>
     <row r="794">
       <c r="A794" s="4"/>
@@ -59950,6 +61027,7 @@
       <c r="AD794" s="4"/>
       <c r="AE794" s="4"/>
       <c r="AF794" s="4"/>
+      <c r="AG794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="4"/>
@@ -59984,6 +61062,7 @@
       <c r="AD795" s="4"/>
       <c r="AE795" s="4"/>
       <c r="AF795" s="4"/>
+      <c r="AG795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="4"/>
@@ -60018,6 +61097,7 @@
       <c r="AD796" s="4"/>
       <c r="AE796" s="4"/>
       <c r="AF796" s="4"/>
+      <c r="AG796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="4"/>
@@ -60052,6 +61132,7 @@
       <c r="AD797" s="4"/>
       <c r="AE797" s="4"/>
       <c r="AF797" s="4"/>
+      <c r="AG797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="4"/>
@@ -60086,6 +61167,7 @@
       <c r="AD798" s="4"/>
       <c r="AE798" s="4"/>
       <c r="AF798" s="4"/>
+      <c r="AG798" s="4"/>
     </row>
     <row r="799">
       <c r="A799" s="4"/>
@@ -60120,6 +61202,7 @@
       <c r="AD799" s="4"/>
       <c r="AE799" s="4"/>
       <c r="AF799" s="4"/>
+      <c r="AG799" s="4"/>
     </row>
     <row r="800">
       <c r="A800" s="4"/>
@@ -60154,6 +61237,7 @@
       <c r="AD800" s="4"/>
       <c r="AE800" s="4"/>
       <c r="AF800" s="4"/>
+      <c r="AG800" s="4"/>
     </row>
     <row r="801">
       <c r="A801" s="4"/>
@@ -60188,6 +61272,7 @@
       <c r="AD801" s="4"/>
       <c r="AE801" s="4"/>
       <c r="AF801" s="4"/>
+      <c r="AG801" s="4"/>
     </row>
     <row r="802">
       <c r="A802" s="4"/>
@@ -60222,6 +61307,7 @@
       <c r="AD802" s="4"/>
       <c r="AE802" s="4"/>
       <c r="AF802" s="4"/>
+      <c r="AG802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="4"/>
@@ -60256,6 +61342,7 @@
       <c r="AD803" s="4"/>
       <c r="AE803" s="4"/>
       <c r="AF803" s="4"/>
+      <c r="AG803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="4"/>
@@ -60290,6 +61377,7 @@
       <c r="AD804" s="4"/>
       <c r="AE804" s="4"/>
       <c r="AF804" s="4"/>
+      <c r="AG804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="4"/>
@@ -60324,6 +61412,7 @@
       <c r="AD805" s="4"/>
       <c r="AE805" s="4"/>
       <c r="AF805" s="4"/>
+      <c r="AG805" s="4"/>
     </row>
     <row r="806">
       <c r="A806" s="4"/>
@@ -60358,6 +61447,7 @@
       <c r="AD806" s="4"/>
       <c r="AE806" s="4"/>
       <c r="AF806" s="4"/>
+      <c r="AG806" s="4"/>
     </row>
     <row r="807">
       <c r="A807" s="4"/>
@@ -60392,6 +61482,7 @@
       <c r="AD807" s="4"/>
       <c r="AE807" s="4"/>
       <c r="AF807" s="4"/>
+      <c r="AG807" s="4"/>
     </row>
     <row r="808">
       <c r="A808" s="4"/>
@@ -60426,6 +61517,7 @@
       <c r="AD808" s="4"/>
       <c r="AE808" s="4"/>
       <c r="AF808" s="4"/>
+      <c r="AG808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="4"/>
@@ -60460,6 +61552,7 @@
       <c r="AD809" s="4"/>
       <c r="AE809" s="4"/>
       <c r="AF809" s="4"/>
+      <c r="AG809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="4"/>
@@ -60494,6 +61587,7 @@
       <c r="AD810" s="4"/>
       <c r="AE810" s="4"/>
       <c r="AF810" s="4"/>
+      <c r="AG810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="4"/>
@@ -60528,6 +61622,7 @@
       <c r="AD811" s="4"/>
       <c r="AE811" s="4"/>
       <c r="AF811" s="4"/>
+      <c r="AG811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="4"/>
@@ -60562,6 +61657,7 @@
       <c r="AD812" s="4"/>
       <c r="AE812" s="4"/>
       <c r="AF812" s="4"/>
+      <c r="AG812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="4"/>
@@ -60596,6 +61692,7 @@
       <c r="AD813" s="4"/>
       <c r="AE813" s="4"/>
       <c r="AF813" s="4"/>
+      <c r="AG813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="4"/>
@@ -60630,6 +61727,7 @@
       <c r="AD814" s="4"/>
       <c r="AE814" s="4"/>
       <c r="AF814" s="4"/>
+      <c r="AG814" s="4"/>
     </row>
     <row r="815">
       <c r="A815" s="4"/>
@@ -60664,6 +61762,7 @@
       <c r="AD815" s="4"/>
       <c r="AE815" s="4"/>
       <c r="AF815" s="4"/>
+      <c r="AG815" s="4"/>
     </row>
     <row r="816">
       <c r="A816" s="4"/>
@@ -60698,6 +61797,7 @@
       <c r="AD816" s="4"/>
       <c r="AE816" s="4"/>
       <c r="AF816" s="4"/>
+      <c r="AG816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="4"/>
@@ -60732,6 +61832,7 @@
       <c r="AD817" s="4"/>
       <c r="AE817" s="4"/>
       <c r="AF817" s="4"/>
+      <c r="AG817" s="4"/>
     </row>
     <row r="818">
       <c r="A818" s="4"/>
@@ -60766,6 +61867,7 @@
       <c r="AD818" s="4"/>
       <c r="AE818" s="4"/>
       <c r="AF818" s="4"/>
+      <c r="AG818" s="4"/>
     </row>
     <row r="819">
       <c r="A819" s="4"/>
@@ -60800,6 +61902,7 @@
       <c r="AD819" s="4"/>
       <c r="AE819" s="4"/>
       <c r="AF819" s="4"/>
+      <c r="AG819" s="4"/>
     </row>
     <row r="820">
       <c r="A820" s="4"/>
@@ -60834,6 +61937,7 @@
       <c r="AD820" s="4"/>
       <c r="AE820" s="4"/>
       <c r="AF820" s="4"/>
+      <c r="AG820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="4"/>
@@ -60868,6 +61972,7 @@
       <c r="AD821" s="4"/>
       <c r="AE821" s="4"/>
       <c r="AF821" s="4"/>
+      <c r="AG821" s="4"/>
     </row>
     <row r="822">
       <c r="A822" s="4"/>
@@ -60902,6 +62007,7 @@
       <c r="AD822" s="4"/>
       <c r="AE822" s="4"/>
       <c r="AF822" s="4"/>
+      <c r="AG822" s="4"/>
     </row>
     <row r="823">
       <c r="A823" s="4"/>
@@ -60936,6 +62042,7 @@
       <c r="AD823" s="4"/>
       <c r="AE823" s="4"/>
       <c r="AF823" s="4"/>
+      <c r="AG823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="4"/>
@@ -60970,6 +62077,7 @@
       <c r="AD824" s="4"/>
       <c r="AE824" s="4"/>
       <c r="AF824" s="4"/>
+      <c r="AG824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="4"/>
@@ -61004,6 +62112,7 @@
       <c r="AD825" s="4"/>
       <c r="AE825" s="4"/>
       <c r="AF825" s="4"/>
+      <c r="AG825" s="4"/>
     </row>
     <row r="826">
       <c r="A826" s="4"/>
@@ -61038,6 +62147,7 @@
       <c r="AD826" s="4"/>
       <c r="AE826" s="4"/>
       <c r="AF826" s="4"/>
+      <c r="AG826" s="4"/>
     </row>
     <row r="827">
       <c r="A827" s="4"/>
@@ -61072,6 +62182,7 @@
       <c r="AD827" s="4"/>
       <c r="AE827" s="4"/>
       <c r="AF827" s="4"/>
+      <c r="AG827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="4"/>
@@ -61106,6 +62217,7 @@
       <c r="AD828" s="4"/>
       <c r="AE828" s="4"/>
       <c r="AF828" s="4"/>
+      <c r="AG828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="4"/>
@@ -61140,6 +62252,7 @@
       <c r="AD829" s="4"/>
       <c r="AE829" s="4"/>
       <c r="AF829" s="4"/>
+      <c r="AG829" s="4"/>
     </row>
     <row r="830">
       <c r="A830" s="4"/>
@@ -61174,6 +62287,7 @@
       <c r="AD830" s="4"/>
       <c r="AE830" s="4"/>
       <c r="AF830" s="4"/>
+      <c r="AG830" s="4"/>
     </row>
     <row r="831">
       <c r="A831" s="4"/>
@@ -61208,6 +62322,7 @@
       <c r="AD831" s="4"/>
       <c r="AE831" s="4"/>
       <c r="AF831" s="4"/>
+      <c r="AG831" s="4"/>
     </row>
     <row r="832">
       <c r="A832" s="4"/>
@@ -61242,6 +62357,7 @@
       <c r="AD832" s="4"/>
       <c r="AE832" s="4"/>
       <c r="AF832" s="4"/>
+      <c r="AG832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="4"/>
@@ -61276,6 +62392,7 @@
       <c r="AD833" s="4"/>
       <c r="AE833" s="4"/>
       <c r="AF833" s="4"/>
+      <c r="AG833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="4"/>
@@ -61310,6 +62427,7 @@
       <c r="AD834" s="4"/>
       <c r="AE834" s="4"/>
       <c r="AF834" s="4"/>
+      <c r="AG834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="4"/>
@@ -61344,6 +62462,7 @@
       <c r="AD835" s="4"/>
       <c r="AE835" s="4"/>
       <c r="AF835" s="4"/>
+      <c r="AG835" s="4"/>
     </row>
     <row r="836">
       <c r="A836" s="4"/>
@@ -61378,6 +62497,7 @@
       <c r="AD836" s="4"/>
       <c r="AE836" s="4"/>
       <c r="AF836" s="4"/>
+      <c r="AG836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="4"/>
@@ -61412,6 +62532,7 @@
       <c r="AD837" s="4"/>
       <c r="AE837" s="4"/>
       <c r="AF837" s="4"/>
+      <c r="AG837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="4"/>
@@ -61446,6 +62567,7 @@
       <c r="AD838" s="4"/>
       <c r="AE838" s="4"/>
       <c r="AF838" s="4"/>
+      <c r="AG838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="4"/>
@@ -61480,6 +62602,7 @@
       <c r="AD839" s="4"/>
       <c r="AE839" s="4"/>
       <c r="AF839" s="4"/>
+      <c r="AG839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="4"/>
@@ -61514,6 +62637,7 @@
       <c r="AD840" s="4"/>
       <c r="AE840" s="4"/>
       <c r="AF840" s="4"/>
+      <c r="AG840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="4"/>
@@ -61548,6 +62672,7 @@
       <c r="AD841" s="4"/>
       <c r="AE841" s="4"/>
       <c r="AF841" s="4"/>
+      <c r="AG841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="4"/>
@@ -61582,6 +62707,7 @@
       <c r="AD842" s="4"/>
       <c r="AE842" s="4"/>
       <c r="AF842" s="4"/>
+      <c r="AG842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="4"/>
@@ -61616,6 +62742,7 @@
       <c r="AD843" s="4"/>
       <c r="AE843" s="4"/>
       <c r="AF843" s="4"/>
+      <c r="AG843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="4"/>
@@ -61650,6 +62777,7 @@
       <c r="AD844" s="4"/>
       <c r="AE844" s="4"/>
       <c r="AF844" s="4"/>
+      <c r="AG844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="4"/>
@@ -61684,6 +62812,7 @@
       <c r="AD845" s="4"/>
       <c r="AE845" s="4"/>
       <c r="AF845" s="4"/>
+      <c r="AG845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="4"/>
@@ -61718,6 +62847,7 @@
       <c r="AD846" s="4"/>
       <c r="AE846" s="4"/>
       <c r="AF846" s="4"/>
+      <c r="AG846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="4"/>
@@ -61752,6 +62882,7 @@
       <c r="AD847" s="4"/>
       <c r="AE847" s="4"/>
       <c r="AF847" s="4"/>
+      <c r="AG847" s="4"/>
     </row>
     <row r="848">
       <c r="A848" s="4"/>
@@ -61786,6 +62917,7 @@
       <c r="AD848" s="4"/>
       <c r="AE848" s="4"/>
       <c r="AF848" s="4"/>
+      <c r="AG848" s="4"/>
     </row>
     <row r="849">
       <c r="A849" s="4"/>
@@ -61820,6 +62952,7 @@
       <c r="AD849" s="4"/>
       <c r="AE849" s="4"/>
       <c r="AF849" s="4"/>
+      <c r="AG849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="4"/>
@@ -61854,6 +62987,7 @@
       <c r="AD850" s="4"/>
       <c r="AE850" s="4"/>
       <c r="AF850" s="4"/>
+      <c r="AG850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="4"/>
@@ -61888,6 +63022,7 @@
       <c r="AD851" s="4"/>
       <c r="AE851" s="4"/>
       <c r="AF851" s="4"/>
+      <c r="AG851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="4"/>
@@ -61922,6 +63057,7 @@
       <c r="AD852" s="4"/>
       <c r="AE852" s="4"/>
       <c r="AF852" s="4"/>
+      <c r="AG852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="4"/>
@@ -61956,6 +63092,7 @@
       <c r="AD853" s="4"/>
       <c r="AE853" s="4"/>
       <c r="AF853" s="4"/>
+      <c r="AG853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="4"/>
@@ -61990,6 +63127,7 @@
       <c r="AD854" s="4"/>
       <c r="AE854" s="4"/>
       <c r="AF854" s="4"/>
+      <c r="AG854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="4"/>
@@ -62024,6 +63162,7 @@
       <c r="AD855" s="4"/>
       <c r="AE855" s="4"/>
       <c r="AF855" s="4"/>
+      <c r="AG855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="4"/>
@@ -62058,6 +63197,7 @@
       <c r="AD856" s="4"/>
       <c r="AE856" s="4"/>
       <c r="AF856" s="4"/>
+      <c r="AG856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="4"/>
@@ -62092,6 +63232,7 @@
       <c r="AD857" s="4"/>
       <c r="AE857" s="4"/>
       <c r="AF857" s="4"/>
+      <c r="AG857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="4"/>
@@ -62126,6 +63267,7 @@
       <c r="AD858" s="4"/>
       <c r="AE858" s="4"/>
       <c r="AF858" s="4"/>
+      <c r="AG858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="4"/>
@@ -62160,6 +63302,7 @@
       <c r="AD859" s="4"/>
       <c r="AE859" s="4"/>
       <c r="AF859" s="4"/>
+      <c r="AG859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="4"/>
@@ -62194,6 +63337,7 @@
       <c r="AD860" s="4"/>
       <c r="AE860" s="4"/>
       <c r="AF860" s="4"/>
+      <c r="AG860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="4"/>
@@ -62228,6 +63372,7 @@
       <c r="AD861" s="4"/>
       <c r="AE861" s="4"/>
       <c r="AF861" s="4"/>
+      <c r="AG861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="4"/>
@@ -62262,6 +63407,7 @@
       <c r="AD862" s="4"/>
       <c r="AE862" s="4"/>
       <c r="AF862" s="4"/>
+      <c r="AG862" s="4"/>
     </row>
     <row r="863">
       <c r="A863" s="4"/>
@@ -62296,6 +63442,7 @@
       <c r="AD863" s="4"/>
       <c r="AE863" s="4"/>
       <c r="AF863" s="4"/>
+      <c r="AG863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="4"/>
@@ -62330,6 +63477,7 @@
       <c r="AD864" s="4"/>
       <c r="AE864" s="4"/>
       <c r="AF864" s="4"/>
+      <c r="AG864" s="4"/>
     </row>
     <row r="865">
       <c r="A865" s="4"/>
@@ -62364,6 +63512,7 @@
       <c r="AD865" s="4"/>
       <c r="AE865" s="4"/>
       <c r="AF865" s="4"/>
+      <c r="AG865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="4"/>
@@ -62398,6 +63547,7 @@
       <c r="AD866" s="4"/>
       <c r="AE866" s="4"/>
       <c r="AF866" s="4"/>
+      <c r="AG866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="4"/>
@@ -62432,6 +63582,7 @@
       <c r="AD867" s="4"/>
       <c r="AE867" s="4"/>
       <c r="AF867" s="4"/>
+      <c r="AG867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="4"/>
@@ -62466,6 +63617,7 @@
       <c r="AD868" s="4"/>
       <c r="AE868" s="4"/>
       <c r="AF868" s="4"/>
+      <c r="AG868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="4"/>
@@ -62500,6 +63652,7 @@
       <c r="AD869" s="4"/>
       <c r="AE869" s="4"/>
       <c r="AF869" s="4"/>
+      <c r="AG869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="4"/>
@@ -62534,6 +63687,7 @@
       <c r="AD870" s="4"/>
       <c r="AE870" s="4"/>
       <c r="AF870" s="4"/>
+      <c r="AG870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="4"/>
@@ -62568,6 +63722,7 @@
       <c r="AD871" s="4"/>
       <c r="AE871" s="4"/>
       <c r="AF871" s="4"/>
+      <c r="AG871" s="4"/>
     </row>
     <row r="872">
       <c r="A872" s="4"/>
@@ -62602,6 +63757,7 @@
       <c r="AD872" s="4"/>
       <c r="AE872" s="4"/>
       <c r="AF872" s="4"/>
+      <c r="AG872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="4"/>
@@ -62636,6 +63792,7 @@
       <c r="AD873" s="4"/>
       <c r="AE873" s="4"/>
       <c r="AF873" s="4"/>
+      <c r="AG873" s="4"/>
     </row>
     <row r="874">
       <c r="A874" s="4"/>
@@ -62670,6 +63827,7 @@
       <c r="AD874" s="4"/>
       <c r="AE874" s="4"/>
       <c r="AF874" s="4"/>
+      <c r="AG874" s="4"/>
     </row>
     <row r="875">
       <c r="A875" s="4"/>
@@ -62704,6 +63862,7 @@
       <c r="AD875" s="4"/>
       <c r="AE875" s="4"/>
       <c r="AF875" s="4"/>
+      <c r="AG875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="4"/>
@@ -62738,6 +63897,7 @@
       <c r="AD876" s="4"/>
       <c r="AE876" s="4"/>
       <c r="AF876" s="4"/>
+      <c r="AG876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="4"/>
@@ -62772,6 +63932,7 @@
       <c r="AD877" s="4"/>
       <c r="AE877" s="4"/>
       <c r="AF877" s="4"/>
+      <c r="AG877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="4"/>
@@ -62806,6 +63967,7 @@
       <c r="AD878" s="4"/>
       <c r="AE878" s="4"/>
       <c r="AF878" s="4"/>
+      <c r="AG878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="4"/>
@@ -62840,6 +64002,7 @@
       <c r="AD879" s="4"/>
       <c r="AE879" s="4"/>
       <c r="AF879" s="4"/>
+      <c r="AG879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="4"/>
@@ -62874,6 +64037,7 @@
       <c r="AD880" s="4"/>
       <c r="AE880" s="4"/>
       <c r="AF880" s="4"/>
+      <c r="AG880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="4"/>
@@ -62908,6 +64072,7 @@
       <c r="AD881" s="4"/>
       <c r="AE881" s="4"/>
       <c r="AF881" s="4"/>
+      <c r="AG881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="4"/>
@@ -62942,6 +64107,7 @@
       <c r="AD882" s="4"/>
       <c r="AE882" s="4"/>
       <c r="AF882" s="4"/>
+      <c r="AG882" s="4"/>
     </row>
     <row r="883">
       <c r="A883" s="4"/>
@@ -62976,6 +64142,7 @@
       <c r="AD883" s="4"/>
       <c r="AE883" s="4"/>
       <c r="AF883" s="4"/>
+      <c r="AG883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="4"/>
@@ -63010,6 +64177,7 @@
       <c r="AD884" s="4"/>
       <c r="AE884" s="4"/>
       <c r="AF884" s="4"/>
+      <c r="AG884" s="4"/>
     </row>
     <row r="885">
       <c r="A885" s="4"/>
@@ -63044,6 +64212,7 @@
       <c r="AD885" s="4"/>
       <c r="AE885" s="4"/>
       <c r="AF885" s="4"/>
+      <c r="AG885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="4"/>
@@ -63078,6 +64247,7 @@
       <c r="AD886" s="4"/>
       <c r="AE886" s="4"/>
       <c r="AF886" s="4"/>
+      <c r="AG886" s="4"/>
     </row>
     <row r="887">
       <c r="A887" s="4"/>
@@ -63112,6 +64282,7 @@
       <c r="AD887" s="4"/>
       <c r="AE887" s="4"/>
       <c r="AF887" s="4"/>
+      <c r="AG887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="4"/>
@@ -63146,6 +64317,7 @@
       <c r="AD888" s="4"/>
       <c r="AE888" s="4"/>
       <c r="AF888" s="4"/>
+      <c r="AG888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="4"/>
@@ -63180,6 +64352,7 @@
       <c r="AD889" s="4"/>
       <c r="AE889" s="4"/>
       <c r="AF889" s="4"/>
+      <c r="AG889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="4"/>
@@ -63214,6 +64387,7 @@
       <c r="AD890" s="4"/>
       <c r="AE890" s="4"/>
       <c r="AF890" s="4"/>
+      <c r="AG890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="4"/>
@@ -63248,6 +64422,7 @@
       <c r="AD891" s="4"/>
       <c r="AE891" s="4"/>
       <c r="AF891" s="4"/>
+      <c r="AG891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="4"/>
@@ -63282,6 +64457,7 @@
       <c r="AD892" s="4"/>
       <c r="AE892" s="4"/>
       <c r="AF892" s="4"/>
+      <c r="AG892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="4"/>
@@ -63316,6 +64492,7 @@
       <c r="AD893" s="4"/>
       <c r="AE893" s="4"/>
       <c r="AF893" s="4"/>
+      <c r="AG893" s="4"/>
     </row>
     <row r="894">
       <c r="A894" s="4"/>
@@ -63350,6 +64527,7 @@
       <c r="AD894" s="4"/>
       <c r="AE894" s="4"/>
       <c r="AF894" s="4"/>
+      <c r="AG894" s="4"/>
     </row>
     <row r="895">
       <c r="A895" s="4"/>
@@ -63384,6 +64562,7 @@
       <c r="AD895" s="4"/>
       <c r="AE895" s="4"/>
       <c r="AF895" s="4"/>
+      <c r="AG895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="4"/>
@@ -63418,6 +64597,7 @@
       <c r="AD896" s="4"/>
       <c r="AE896" s="4"/>
       <c r="AF896" s="4"/>
+      <c r="AG896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="4"/>
@@ -63452,6 +64632,7 @@
       <c r="AD897" s="4"/>
       <c r="AE897" s="4"/>
       <c r="AF897" s="4"/>
+      <c r="AG897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="4"/>
@@ -63486,6 +64667,7 @@
       <c r="AD898" s="4"/>
       <c r="AE898" s="4"/>
       <c r="AF898" s="4"/>
+      <c r="AG898" s="4"/>
     </row>
     <row r="899">
       <c r="A899" s="4"/>
@@ -63520,6 +64702,7 @@
       <c r="AD899" s="4"/>
       <c r="AE899" s="4"/>
       <c r="AF899" s="4"/>
+      <c r="AG899" s="4"/>
     </row>
     <row r="900">
       <c r="A900" s="4"/>
@@ -63554,6 +64737,7 @@
       <c r="AD900" s="4"/>
       <c r="AE900" s="4"/>
       <c r="AF900" s="4"/>
+      <c r="AG900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="4"/>
@@ -63588,6 +64772,7 @@
       <c r="AD901" s="4"/>
       <c r="AE901" s="4"/>
       <c r="AF901" s="4"/>
+      <c r="AG901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="4"/>
@@ -63622,6 +64807,7 @@
       <c r="AD902" s="4"/>
       <c r="AE902" s="4"/>
       <c r="AF902" s="4"/>
+      <c r="AG902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="4"/>
@@ -63656,6 +64842,7 @@
       <c r="AD903" s="4"/>
       <c r="AE903" s="4"/>
       <c r="AF903" s="4"/>
+      <c r="AG903" s="4"/>
     </row>
     <row r="904">
       <c r="A904" s="4"/>
@@ -63690,6 +64877,7 @@
       <c r="AD904" s="4"/>
       <c r="AE904" s="4"/>
       <c r="AF904" s="4"/>
+      <c r="AG904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="4"/>
@@ -63724,6 +64912,7 @@
       <c r="AD905" s="4"/>
       <c r="AE905" s="4"/>
       <c r="AF905" s="4"/>
+      <c r="AG905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="4"/>
@@ -63758,6 +64947,7 @@
       <c r="AD906" s="4"/>
       <c r="AE906" s="4"/>
       <c r="AF906" s="4"/>
+      <c r="AG906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="4"/>
@@ -63792,6 +64982,7 @@
       <c r="AD907" s="4"/>
       <c r="AE907" s="4"/>
       <c r="AF907" s="4"/>
+      <c r="AG907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="4"/>
@@ -63826,6 +65017,7 @@
       <c r="AD908" s="4"/>
       <c r="AE908" s="4"/>
       <c r="AF908" s="4"/>
+      <c r="AG908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="4"/>
@@ -63860,6 +65052,7 @@
       <c r="AD909" s="4"/>
       <c r="AE909" s="4"/>
       <c r="AF909" s="4"/>
+      <c r="AG909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="4"/>
@@ -63894,6 +65087,7 @@
       <c r="AD910" s="4"/>
       <c r="AE910" s="4"/>
       <c r="AF910" s="4"/>
+      <c r="AG910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="4"/>
@@ -63928,6 +65122,7 @@
       <c r="AD911" s="4"/>
       <c r="AE911" s="4"/>
       <c r="AF911" s="4"/>
+      <c r="AG911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="4"/>
@@ -63962,6 +65157,7 @@
       <c r="AD912" s="4"/>
       <c r="AE912" s="4"/>
       <c r="AF912" s="4"/>
+      <c r="AG912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="4"/>
@@ -63996,6 +65192,7 @@
       <c r="AD913" s="4"/>
       <c r="AE913" s="4"/>
       <c r="AF913" s="4"/>
+      <c r="AG913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="4"/>
@@ -64030,6 +65227,7 @@
       <c r="AD914" s="4"/>
       <c r="AE914" s="4"/>
       <c r="AF914" s="4"/>
+      <c r="AG914" s="4"/>
     </row>
     <row r="915">
       <c r="A915" s="4"/>
@@ -64064,6 +65262,7 @@
       <c r="AD915" s="4"/>
       <c r="AE915" s="4"/>
       <c r="AF915" s="4"/>
+      <c r="AG915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="4"/>
@@ -64098,6 +65297,7 @@
       <c r="AD916" s="4"/>
       <c r="AE916" s="4"/>
       <c r="AF916" s="4"/>
+      <c r="AG916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="4"/>
@@ -64132,6 +65332,7 @@
       <c r="AD917" s="4"/>
       <c r="AE917" s="4"/>
       <c r="AF917" s="4"/>
+      <c r="AG917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="4"/>
@@ -64166,6 +65367,7 @@
       <c r="AD918" s="4"/>
       <c r="AE918" s="4"/>
       <c r="AF918" s="4"/>
+      <c r="AG918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="4"/>
@@ -64200,6 +65402,7 @@
       <c r="AD919" s="4"/>
       <c r="AE919" s="4"/>
       <c r="AF919" s="4"/>
+      <c r="AG919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="4"/>
@@ -64234,6 +65437,7 @@
       <c r="AD920" s="4"/>
       <c r="AE920" s="4"/>
       <c r="AF920" s="4"/>
+      <c r="AG920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="4"/>
@@ -64268,6 +65472,7 @@
       <c r="AD921" s="4"/>
       <c r="AE921" s="4"/>
       <c r="AF921" s="4"/>
+      <c r="AG921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="4"/>
@@ -64302,6 +65507,7 @@
       <c r="AD922" s="4"/>
       <c r="AE922" s="4"/>
       <c r="AF922" s="4"/>
+      <c r="AG922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="4"/>
@@ -64336,6 +65542,7 @@
       <c r="AD923" s="4"/>
       <c r="AE923" s="4"/>
       <c r="AF923" s="4"/>
+      <c r="AG923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="4"/>
@@ -64370,6 +65577,7 @@
       <c r="AD924" s="4"/>
       <c r="AE924" s="4"/>
       <c r="AF924" s="4"/>
+      <c r="AG924" s="4"/>
     </row>
     <row r="925">
       <c r="A925" s="4"/>
@@ -64404,6 +65612,7 @@
       <c r="AD925" s="4"/>
       <c r="AE925" s="4"/>
       <c r="AF925" s="4"/>
+      <c r="AG925" s="4"/>
     </row>
     <row r="926">
       <c r="A926" s="4"/>
@@ -64438,6 +65647,7 @@
       <c r="AD926" s="4"/>
       <c r="AE926" s="4"/>
       <c r="AF926" s="4"/>
+      <c r="AG926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="4"/>
@@ -64472,6 +65682,7 @@
       <c r="AD927" s="4"/>
       <c r="AE927" s="4"/>
       <c r="AF927" s="4"/>
+      <c r="AG927" s="4"/>
     </row>
     <row r="928">
       <c r="A928" s="4"/>
@@ -64506,6 +65717,7 @@
       <c r="AD928" s="4"/>
       <c r="AE928" s="4"/>
       <c r="AF928" s="4"/>
+      <c r="AG928" s="4"/>
     </row>
     <row r="929">
       <c r="A929" s="4"/>
@@ -64540,6 +65752,7 @@
       <c r="AD929" s="4"/>
       <c r="AE929" s="4"/>
       <c r="AF929" s="4"/>
+      <c r="AG929" s="4"/>
     </row>
     <row r="930">
       <c r="A930" s="4"/>
@@ -64574,6 +65787,7 @@
       <c r="AD930" s="4"/>
       <c r="AE930" s="4"/>
       <c r="AF930" s="4"/>
+      <c r="AG930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="4"/>
@@ -64608,6 +65822,7 @@
       <c r="AD931" s="4"/>
       <c r="AE931" s="4"/>
       <c r="AF931" s="4"/>
+      <c r="AG931" s="4"/>
     </row>
     <row r="932">
       <c r="A932" s="4"/>
@@ -64642,6 +65857,7 @@
       <c r="AD932" s="4"/>
       <c r="AE932" s="4"/>
       <c r="AF932" s="4"/>
+      <c r="AG932" s="4"/>
     </row>
     <row r="933">
       <c r="A933" s="4"/>
@@ -64676,6 +65892,7 @@
       <c r="AD933" s="4"/>
       <c r="AE933" s="4"/>
       <c r="AF933" s="4"/>
+      <c r="AG933" s="4"/>
     </row>
     <row r="934">
       <c r="A934" s="4"/>
@@ -64710,6 +65927,7 @@
       <c r="AD934" s="4"/>
       <c r="AE934" s="4"/>
       <c r="AF934" s="4"/>
+      <c r="AG934" s="4"/>
     </row>
     <row r="935">
       <c r="A935" s="4"/>
@@ -64744,6 +65962,7 @@
       <c r="AD935" s="4"/>
       <c r="AE935" s="4"/>
       <c r="AF935" s="4"/>
+      <c r="AG935" s="4"/>
     </row>
     <row r="936">
       <c r="A936" s="4"/>
@@ -64778,6 +65997,7 @@
       <c r="AD936" s="4"/>
       <c r="AE936" s="4"/>
       <c r="AF936" s="4"/>
+      <c r="AG936" s="4"/>
     </row>
     <row r="937">
       <c r="A937" s="4"/>
@@ -64812,6 +66032,7 @@
       <c r="AD937" s="4"/>
       <c r="AE937" s="4"/>
       <c r="AF937" s="4"/>
+      <c r="AG937" s="4"/>
     </row>
     <row r="938">
       <c r="A938" s="4"/>
@@ -64846,6 +66067,7 @@
       <c r="AD938" s="4"/>
       <c r="AE938" s="4"/>
       <c r="AF938" s="4"/>
+      <c r="AG938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="4"/>
@@ -64880,6 +66102,7 @@
       <c r="AD939" s="4"/>
       <c r="AE939" s="4"/>
       <c r="AF939" s="4"/>
+      <c r="AG939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="4"/>
@@ -64914,6 +66137,7 @@
       <c r="AD940" s="4"/>
       <c r="AE940" s="4"/>
       <c r="AF940" s="4"/>
+      <c r="AG940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="4"/>
@@ -64948,6 +66172,7 @@
       <c r="AD941" s="4"/>
       <c r="AE941" s="4"/>
       <c r="AF941" s="4"/>
+      <c r="AG941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="4"/>
@@ -64982,6 +66207,7 @@
       <c r="AD942" s="4"/>
       <c r="AE942" s="4"/>
       <c r="AF942" s="4"/>
+      <c r="AG942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="4"/>
@@ -65016,6 +66242,7 @@
       <c r="AD943" s="4"/>
       <c r="AE943" s="4"/>
       <c r="AF943" s="4"/>
+      <c r="AG943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="4"/>
@@ -65050,6 +66277,7 @@
       <c r="AD944" s="4"/>
       <c r="AE944" s="4"/>
       <c r="AF944" s="4"/>
+      <c r="AG944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="4"/>
@@ -65084,6 +66312,7 @@
       <c r="AD945" s="4"/>
       <c r="AE945" s="4"/>
       <c r="AF945" s="4"/>
+      <c r="AG945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="4"/>
@@ -65118,6 +66347,7 @@
       <c r="AD946" s="4"/>
       <c r="AE946" s="4"/>
       <c r="AF946" s="4"/>
+      <c r="AG946" s="4"/>
     </row>
     <row r="947">
       <c r="A947" s="4"/>
@@ -65152,6 +66382,7 @@
       <c r="AD947" s="4"/>
       <c r="AE947" s="4"/>
       <c r="AF947" s="4"/>
+      <c r="AG947" s="4"/>
     </row>
     <row r="948">
       <c r="A948" s="4"/>
@@ -65186,6 +66417,7 @@
       <c r="AD948" s="4"/>
       <c r="AE948" s="4"/>
       <c r="AF948" s="4"/>
+      <c r="AG948" s="4"/>
     </row>
     <row r="949">
       <c r="A949" s="4"/>
@@ -65220,6 +66452,7 @@
       <c r="AD949" s="4"/>
       <c r="AE949" s="4"/>
       <c r="AF949" s="4"/>
+      <c r="AG949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="4"/>
@@ -65254,6 +66487,7 @@
       <c r="AD950" s="4"/>
       <c r="AE950" s="4"/>
       <c r="AF950" s="4"/>
+      <c r="AG950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="4"/>
@@ -65288,6 +66522,7 @@
       <c r="AD951" s="4"/>
       <c r="AE951" s="4"/>
       <c r="AF951" s="4"/>
+      <c r="AG951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="4"/>
@@ -65322,6 +66557,7 @@
       <c r="AD952" s="4"/>
       <c r="AE952" s="4"/>
       <c r="AF952" s="4"/>
+      <c r="AG952" s="4"/>
     </row>
     <row r="953">
       <c r="A953" s="4"/>
@@ -65356,6 +66592,7 @@
       <c r="AD953" s="4"/>
       <c r="AE953" s="4"/>
       <c r="AF953" s="4"/>
+      <c r="AG953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="4"/>
@@ -65390,6 +66627,7 @@
       <c r="AD954" s="4"/>
       <c r="AE954" s="4"/>
       <c r="AF954" s="4"/>
+      <c r="AG954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="4"/>
@@ -65424,6 +66662,7 @@
       <c r="AD955" s="4"/>
       <c r="AE955" s="4"/>
       <c r="AF955" s="4"/>
+      <c r="AG955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="4"/>
@@ -65458,6 +66697,7 @@
       <c r="AD956" s="4"/>
       <c r="AE956" s="4"/>
       <c r="AF956" s="4"/>
+      <c r="AG956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="4"/>
@@ -65492,6 +66732,7 @@
       <c r="AD957" s="4"/>
       <c r="AE957" s="4"/>
       <c r="AF957" s="4"/>
+      <c r="AG957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="4"/>
@@ -65526,6 +66767,7 @@
       <c r="AD958" s="4"/>
       <c r="AE958" s="4"/>
       <c r="AF958" s="4"/>
+      <c r="AG958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="4"/>
@@ -65560,6 +66802,7 @@
       <c r="AD959" s="4"/>
       <c r="AE959" s="4"/>
       <c r="AF959" s="4"/>
+      <c r="AG959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="4"/>
@@ -65594,6 +66837,7 @@
       <c r="AD960" s="4"/>
       <c r="AE960" s="4"/>
       <c r="AF960" s="4"/>
+      <c r="AG960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="4"/>
@@ -65628,6 +66872,7 @@
       <c r="AD961" s="4"/>
       <c r="AE961" s="4"/>
       <c r="AF961" s="4"/>
+      <c r="AG961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="4"/>
@@ -65662,6 +66907,7 @@
       <c r="AD962" s="4"/>
       <c r="AE962" s="4"/>
       <c r="AF962" s="4"/>
+      <c r="AG962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="4"/>
@@ -65696,6 +66942,7 @@
       <c r="AD963" s="4"/>
       <c r="AE963" s="4"/>
       <c r="AF963" s="4"/>
+      <c r="AG963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="4"/>
@@ -65730,6 +66977,7 @@
       <c r="AD964" s="4"/>
       <c r="AE964" s="4"/>
       <c r="AF964" s="4"/>
+      <c r="AG964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="4"/>
@@ -65764,6 +67012,7 @@
       <c r="AD965" s="4"/>
       <c r="AE965" s="4"/>
       <c r="AF965" s="4"/>
+      <c r="AG965" s="4"/>
     </row>
     <row r="966">
       <c r="A966" s="4"/>
@@ -65798,6 +67047,7 @@
       <c r="AD966" s="4"/>
       <c r="AE966" s="4"/>
       <c r="AF966" s="4"/>
+      <c r="AG966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="4"/>
@@ -65832,6 +67082,7 @@
       <c r="AD967" s="4"/>
       <c r="AE967" s="4"/>
       <c r="AF967" s="4"/>
+      <c r="AG967" s="4"/>
     </row>
     <row r="968">
       <c r="A968" s="4"/>
@@ -65866,6 +67117,7 @@
       <c r="AD968" s="4"/>
       <c r="AE968" s="4"/>
       <c r="AF968" s="4"/>
+      <c r="AG968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="4"/>
@@ -65900,6 +67152,7 @@
       <c r="AD969" s="4"/>
       <c r="AE969" s="4"/>
       <c r="AF969" s="4"/>
+      <c r="AG969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="4"/>
@@ -65934,6 +67187,7 @@
       <c r="AD970" s="4"/>
       <c r="AE970" s="4"/>
       <c r="AF970" s="4"/>
+      <c r="AG970" s="4"/>
     </row>
     <row r="971">
       <c r="A971" s="4"/>
@@ -65968,6 +67222,7 @@
       <c r="AD971" s="4"/>
       <c r="AE971" s="4"/>
       <c r="AF971" s="4"/>
+      <c r="AG971" s="4"/>
     </row>
     <row r="972">
       <c r="A972" s="4"/>
@@ -66002,6 +67257,7 @@
       <c r="AD972" s="4"/>
       <c r="AE972" s="4"/>
       <c r="AF972" s="4"/>
+      <c r="AG972" s="4"/>
     </row>
     <row r="973">
       <c r="A973" s="4"/>
@@ -66036,6 +67292,7 @@
       <c r="AD973" s="4"/>
       <c r="AE973" s="4"/>
       <c r="AF973" s="4"/>
+      <c r="AG973" s="4"/>
     </row>
     <row r="974">
       <c r="A974" s="4"/>
@@ -66070,6 +67327,7 @@
       <c r="AD974" s="4"/>
       <c r="AE974" s="4"/>
       <c r="AF974" s="4"/>
+      <c r="AG974" s="4"/>
     </row>
     <row r="975">
       <c r="A975" s="4"/>
@@ -66104,6 +67362,7 @@
       <c r="AD975" s="4"/>
       <c r="AE975" s="4"/>
       <c r="AF975" s="4"/>
+      <c r="AG975" s="4"/>
     </row>
     <row r="976">
       <c r="A976" s="4"/>
@@ -66138,6 +67397,7 @@
       <c r="AD976" s="4"/>
       <c r="AE976" s="4"/>
       <c r="AF976" s="4"/>
+      <c r="AG976" s="4"/>
     </row>
     <row r="977">
       <c r="A977" s="4"/>
@@ -66172,6 +67432,7 @@
       <c r="AD977" s="4"/>
       <c r="AE977" s="4"/>
       <c r="AF977" s="4"/>
+      <c r="AG977" s="4"/>
     </row>
     <row r="978">
       <c r="A978" s="4"/>
@@ -66206,6 +67467,7 @@
       <c r="AD978" s="4"/>
       <c r="AE978" s="4"/>
       <c r="AF978" s="4"/>
+      <c r="AG978" s="4"/>
     </row>
     <row r="979">
       <c r="A979" s="4"/>
@@ -66240,6 +67502,7 @@
       <c r="AD979" s="4"/>
       <c r="AE979" s="4"/>
       <c r="AF979" s="4"/>
+      <c r="AG979" s="4"/>
     </row>
     <row r="980">
       <c r="A980" s="4"/>
@@ -66274,6 +67537,7 @@
       <c r="AD980" s="4"/>
       <c r="AE980" s="4"/>
       <c r="AF980" s="4"/>
+      <c r="AG980" s="4"/>
     </row>
     <row r="981">
       <c r="A981" s="4"/>
@@ -66308,6 +67572,7 @@
       <c r="AD981" s="4"/>
       <c r="AE981" s="4"/>
       <c r="AF981" s="4"/>
+      <c r="AG981" s="4"/>
     </row>
     <row r="982">
       <c r="A982" s="4"/>
@@ -66342,6 +67607,7 @@
       <c r="AD982" s="4"/>
       <c r="AE982" s="4"/>
       <c r="AF982" s="4"/>
+      <c r="AG982" s="4"/>
     </row>
     <row r="983">
       <c r="A983" s="4"/>
@@ -66376,6 +67642,7 @@
       <c r="AD983" s="4"/>
       <c r="AE983" s="4"/>
       <c r="AF983" s="4"/>
+      <c r="AG983" s="4"/>
     </row>
     <row r="984">
       <c r="A984" s="4"/>
@@ -66410,6 +67677,7 @@
       <c r="AD984" s="4"/>
       <c r="AE984" s="4"/>
       <c r="AF984" s="4"/>
+      <c r="AG984" s="4"/>
     </row>
     <row r="985">
       <c r="A985" s="4"/>
@@ -66444,6 +67712,7 @@
       <c r="AD985" s="4"/>
       <c r="AE985" s="4"/>
       <c r="AF985" s="4"/>
+      <c r="AG985" s="4"/>
     </row>
     <row r="986">
       <c r="A986" s="4"/>
@@ -66478,6 +67747,7 @@
       <c r="AD986" s="4"/>
       <c r="AE986" s="4"/>
       <c r="AF986" s="4"/>
+      <c r="AG986" s="4"/>
     </row>
     <row r="987">
       <c r="A987" s="4"/>
@@ -66512,6 +67782,7 @@
       <c r="AD987" s="4"/>
       <c r="AE987" s="4"/>
       <c r="AF987" s="4"/>
+      <c r="AG987" s="4"/>
     </row>
     <row r="988">
       <c r="A988" s="4"/>
@@ -66546,6 +67817,7 @@
       <c r="AD988" s="4"/>
       <c r="AE988" s="4"/>
       <c r="AF988" s="4"/>
+      <c r="AG988" s="4"/>
     </row>
     <row r="989">
       <c r="A989" s="4"/>
@@ -66580,6 +67852,7 @@
       <c r="AD989" s="4"/>
       <c r="AE989" s="4"/>
       <c r="AF989" s="4"/>
+      <c r="AG989" s="4"/>
     </row>
     <row r="990">
       <c r="A990" s="4"/>
@@ -66614,6 +67887,7 @@
       <c r="AD990" s="4"/>
       <c r="AE990" s="4"/>
       <c r="AF990" s="4"/>
+      <c r="AG990" s="4"/>
     </row>
     <row r="991">
       <c r="A991" s="4"/>
@@ -66648,6 +67922,7 @@
       <c r="AD991" s="4"/>
       <c r="AE991" s="4"/>
       <c r="AF991" s="4"/>
+      <c r="AG991" s="4"/>
     </row>
     <row r="992">
       <c r="A992" s="4"/>
@@ -66682,6 +67957,7 @@
       <c r="AD992" s="4"/>
       <c r="AE992" s="4"/>
       <c r="AF992" s="4"/>
+      <c r="AG992" s="4"/>
     </row>
     <row r="993">
       <c r="A993" s="4"/>
@@ -66716,6 +67992,7 @@
       <c r="AD993" s="4"/>
       <c r="AE993" s="4"/>
       <c r="AF993" s="4"/>
+      <c r="AG993" s="4"/>
     </row>
     <row r="994">
       <c r="A994" s="4"/>
@@ -66750,6 +68027,7 @@
       <c r="AD994" s="4"/>
       <c r="AE994" s="4"/>
       <c r="AF994" s="4"/>
+      <c r="AG994" s="4"/>
     </row>
     <row r="995">
       <c r="A995" s="4"/>
@@ -66784,6 +68062,7 @@
       <c r="AD995" s="4"/>
       <c r="AE995" s="4"/>
       <c r="AF995" s="4"/>
+      <c r="AG995" s="4"/>
     </row>
     <row r="996">
       <c r="A996" s="4"/>
@@ -66818,6 +68097,7 @@
       <c r="AD996" s="4"/>
       <c r="AE996" s="4"/>
       <c r="AF996" s="4"/>
+      <c r="AG996" s="4"/>
     </row>
     <row r="997">
       <c r="A997" s="4"/>
@@ -66852,6 +68132,7 @@
       <c r="AD997" s="4"/>
       <c r="AE997" s="4"/>
       <c r="AF997" s="4"/>
+      <c r="AG997" s="4"/>
     </row>
     <row r="998">
       <c r="A998" s="4"/>
@@ -66886,6 +68167,7 @@
       <c r="AD998" s="4"/>
       <c r="AE998" s="4"/>
       <c r="AF998" s="4"/>
+      <c r="AG998" s="4"/>
     </row>
     <row r="999">
       <c r="A999" s="4"/>
@@ -66920,6 +68202,7 @@
       <c r="AD999" s="4"/>
       <c r="AE999" s="4"/>
       <c r="AF999" s="4"/>
+      <c r="AG999" s="4"/>
     </row>
     <row r="1000">
       <c r="A1000" s="4"/>
@@ -66954,6 +68237,7 @@
       <c r="AD1000" s="4"/>
       <c r="AE1000" s="4"/>
       <c r="AF1000" s="4"/>
+      <c r="AG1000" s="4"/>
     </row>
     <row r="1001">
       <c r="A1001" s="4"/>
@@ -66988,6 +68272,7 @@
       <c r="AD1001" s="4"/>
       <c r="AE1001" s="4"/>
       <c r="AF1001" s="4"/>
+      <c r="AG1001" s="4"/>
     </row>
     <row r="1002">
       <c r="A1002" s="4"/>
@@ -67022,6 +68307,7 @@
       <c r="AD1002" s="4"/>
       <c r="AE1002" s="4"/>
       <c r="AF1002" s="4"/>
+      <c r="AG1002" s="4"/>
     </row>
     <row r="1003">
       <c r="A1003" s="4"/>
@@ -67056,6 +68342,7 @@
       <c r="AD1003" s="4"/>
       <c r="AE1003" s="4"/>
       <c r="AF1003" s="4"/>
+      <c r="AG1003" s="4"/>
     </row>
     <row r="1004">
       <c r="A1004" s="4"/>
@@ -67090,6 +68377,7 @@
       <c r="AD1004" s="4"/>
       <c r="AE1004" s="4"/>
       <c r="AF1004" s="4"/>
+      <c r="AG1004" s="4"/>
     </row>
     <row r="1005">
       <c r="A1005" s="4"/>
@@ -67124,6 +68412,7 @@
       <c r="AD1005" s="4"/>
       <c r="AE1005" s="4"/>
       <c r="AF1005" s="4"/>
+      <c r="AG1005" s="4"/>
     </row>
     <row r="1006">
       <c r="A1006" s="4"/>
@@ -67158,6 +68447,7 @@
       <c r="AD1006" s="4"/>
       <c r="AE1006" s="4"/>
       <c r="AF1006" s="4"/>
+      <c r="AG1006" s="4"/>
     </row>
     <row r="1007">
       <c r="A1007" s="4"/>
@@ -67192,6 +68482,7 @@
       <c r="AD1007" s="4"/>
       <c r="AE1007" s="4"/>
       <c r="AF1007" s="4"/>
+      <c r="AG1007" s="4"/>
     </row>
     <row r="1008">
       <c r="A1008" s="4"/>
@@ -67226,6 +68517,7 @@
       <c r="AD1008" s="4"/>
       <c r="AE1008" s="4"/>
       <c r="AF1008" s="4"/>
+      <c r="AG1008" s="4"/>
     </row>
     <row r="1009">
       <c r="A1009" s="4"/>
@@ -67260,6 +68552,7 @@
       <c r="AD1009" s="4"/>
       <c r="AE1009" s="4"/>
       <c r="AF1009" s="4"/>
+      <c r="AG1009" s="4"/>
     </row>
     <row r="1010">
       <c r="A1010" s="4"/>
@@ -67294,6 +68587,7 @@
       <c r="AD1010" s="4"/>
       <c r="AE1010" s="4"/>
       <c r="AF1010" s="4"/>
+      <c r="AG1010" s="4"/>
     </row>
     <row r="1011">
       <c r="A1011" s="4"/>
@@ -67328,6 +68622,7 @@
       <c r="AD1011" s="4"/>
       <c r="AE1011" s="4"/>
       <c r="AF1011" s="4"/>
+      <c r="AG1011" s="4"/>
     </row>
     <row r="1012">
       <c r="A1012" s="4"/>
@@ -67362,6 +68657,7 @@
       <c r="AD1012" s="4"/>
       <c r="AE1012" s="4"/>
       <c r="AF1012" s="4"/>
+      <c r="AG1012" s="4"/>
     </row>
     <row r="1013">
       <c r="A1013" s="4"/>
@@ -67396,6 +68692,7 @@
       <c r="AD1013" s="4"/>
       <c r="AE1013" s="4"/>
       <c r="AF1013" s="4"/>
+      <c r="AG1013" s="4"/>
     </row>
     <row r="1014">
       <c r="A1014" s="4"/>
@@ -67430,6 +68727,7 @@
       <c r="AD1014" s="4"/>
       <c r="AE1014" s="4"/>
       <c r="AF1014" s="4"/>
+      <c r="AG1014" s="4"/>
     </row>
     <row r="1015">
       <c r="A1015" s="4"/>
@@ -67464,6 +68762,7 @@
       <c r="AD1015" s="4"/>
       <c r="AE1015" s="4"/>
       <c r="AF1015" s="4"/>
+      <c r="AG1015" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
+++ b/Dataset/Novel Coronavirus (2019-nCoV) Cases, provided by CN_HK.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="72">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
   <si>
     <t>Suspected</t>
@@ -24,9 +27,6 @@
   </si>
   <si>
     <t>Discharged</t>
-  </si>
-  <si>
-    <t>Location</t>
   </si>
   <si>
     <t>Inpatient</t>
@@ -226,6 +226,9 @@
   <si>
     <t>Egypt</t>
   </si>
+  <si>
+    <t>Iran</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -281,6 +284,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,13 +521,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>
@@ -635,7 +641,7 @@
         <v>763.0</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J41" si="1">J2+1</f>
+        <f t="shared" ref="J3:J42" si="1">J2+1</f>
         <v>1</v>
       </c>
       <c r="K3" s="4"/>
@@ -2474,31 +2480,31 @@
       <c r="Z40" s="4"/>
     </row>
     <row r="41">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>43879.0</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="1">
         <v>5248.0</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="1">
         <v>74185.0</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="1">
         <v>14376.0</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="1">
         <v>11977.0</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="1">
         <v>2004.0</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="1">
         <v>574418.0</v>
       </c>
       <c r="J41" s="1">
@@ -2523,16 +2529,37 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="5">
+        <v>43880.0</v>
+      </c>
+      <c r="B42" s="6">
+        <v>4922.0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>74576.0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>16155.0</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="6">
+        <v>11864.0</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2118.0</v>
+      </c>
+      <c r="I42" s="6">
+        <v>589163.0</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -2551,7 +2578,7 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -29399,7 +29426,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3">
         <v>43849.0</v>
@@ -29491,11 +29518,14 @@
       <c r="AE1" s="3">
         <v>43878.0</v>
       </c>
-      <c r="AF1" s="5">
+      <c r="AF1" s="3">
         <v>43879.0</v>
       </c>
-      <c r="AG1" s="5">
+      <c r="AG1" s="3">
         <v>43880.0</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>43881.0</v>
       </c>
     </row>
     <row r="2">
@@ -29592,10 +29622,13 @@
       <c r="AE2" s="1">
         <v>982.0</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AF2" s="1">
         <v>982.0</v>
       </c>
-      <c r="AG2" s="1"/>
+      <c r="AG2" s="6">
+        <v>986.0</v>
+      </c>
+      <c r="AH2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -29691,10 +29724,13 @@
       <c r="AE3" s="1">
         <v>381.0</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="1">
         <v>387.0</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="6">
+        <v>393.0</v>
+      </c>
+      <c r="AH3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
@@ -29790,10 +29826,13 @@
       <c r="AE4" s="1">
         <v>553.0</v>
       </c>
-      <c r="AF4" s="6">
+      <c r="AF4" s="1">
         <v>555.0</v>
       </c>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="6">
+        <v>560.0</v>
+      </c>
+      <c r="AH4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
@@ -29889,10 +29928,13 @@
       <c r="AE5" s="1">
         <v>292.0</v>
       </c>
-      <c r="AF5" s="6">
+      <c r="AF5" s="1">
         <v>292.0</v>
       </c>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="6">
+        <v>293.0</v>
+      </c>
+      <c r="AH5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
@@ -29988,10 +30030,13 @@
       <c r="AE6" s="1">
         <v>91.0</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="1">
         <v>91.0</v>
       </c>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="6">
+        <v>91.0</v>
+      </c>
+      <c r="AH6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
@@ -30087,10 +30132,13 @@
       <c r="AE7" s="1">
         <v>1328.0</v>
       </c>
-      <c r="AF7" s="6">
+      <c r="AF7" s="1">
         <v>1331.0</v>
       </c>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="6">
+        <v>1332.0</v>
+      </c>
+      <c r="AH7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
@@ -30186,10 +30234,13 @@
       <c r="AE8" s="1">
         <v>242.0</v>
       </c>
-      <c r="AF8" s="6">
+      <c r="AF8" s="1">
         <v>242.0</v>
       </c>
-      <c r="AG8" s="1"/>
+      <c r="AG8" s="6">
+        <v>245.0</v>
+      </c>
+      <c r="AH8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -30285,10 +30336,13 @@
       <c r="AE9" s="1">
         <v>146.0</v>
       </c>
-      <c r="AF9" s="6">
+      <c r="AF9" s="1">
         <v>146.0</v>
       </c>
-      <c r="AG9" s="1"/>
+      <c r="AG9" s="6">
+        <v>146.0</v>
+      </c>
+      <c r="AH9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -30384,10 +30438,13 @@
       <c r="AE10" s="1">
         <v>163.0</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="1">
         <v>163.0</v>
       </c>
-      <c r="AG10" s="1"/>
+      <c r="AG10" s="6">
+        <v>168.0</v>
+      </c>
+      <c r="AH10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
@@ -30483,10 +30540,13 @@
       <c r="AE11" s="1">
         <v>302.0</v>
       </c>
-      <c r="AF11" s="6">
+      <c r="AF11" s="1">
         <v>306.0</v>
       </c>
-      <c r="AG11" s="1"/>
+      <c r="AG11" s="6">
+        <v>307.0</v>
+      </c>
+      <c r="AH11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
@@ -30582,10 +30642,13 @@
       <c r="AE12" s="1">
         <v>464.0</v>
       </c>
-      <c r="AF12" s="6">
+      <c r="AF12" s="1">
         <v>464.0</v>
       </c>
-      <c r="AG12" s="1"/>
+      <c r="AG12" s="6">
+        <v>476.0</v>
+      </c>
+      <c r="AH12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
@@ -30681,10 +30744,13 @@
       <c r="AE13" s="1">
         <v>1257.0</v>
       </c>
-      <c r="AF13" s="6">
+      <c r="AF13" s="1">
         <v>1257.0</v>
       </c>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="6">
+        <v>1262.0</v>
+      </c>
+      <c r="AH13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
@@ -30780,10 +30846,13 @@
       <c r="AE14" s="1">
         <v>59989.0</v>
       </c>
-      <c r="AF14" s="6">
+      <c r="AF14" s="1">
         <v>61682.0</v>
       </c>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="6">
+        <v>62031.0</v>
+      </c>
+      <c r="AH14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
@@ -30879,10 +30948,13 @@
       <c r="AE15" s="1">
         <v>1007.0</v>
       </c>
-      <c r="AF15" s="6">
+      <c r="AF15" s="1">
         <v>1007.0</v>
       </c>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="6">
+        <v>1008.0</v>
+      </c>
+      <c r="AH15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
@@ -30978,10 +31050,13 @@
       <c r="AE16" s="1">
         <v>72.0</v>
       </c>
-      <c r="AF16" s="6">
+      <c r="AF16" s="1">
         <v>73.0</v>
       </c>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="6">
+        <v>75.0</v>
+      </c>
+      <c r="AH16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -31077,10 +31152,13 @@
       <c r="AE17" s="1">
         <v>629.0</v>
       </c>
-      <c r="AF17" s="6">
+      <c r="AF17" s="1">
         <v>629.0</v>
       </c>
-      <c r="AG17" s="1"/>
+      <c r="AG17" s="6">
+        <v>631.0</v>
+      </c>
+      <c r="AH17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
@@ -31176,10 +31254,13 @@
       <c r="AE18" s="1">
         <v>930.0</v>
       </c>
-      <c r="AF18" s="6">
+      <c r="AF18" s="1">
         <v>933.0</v>
       </c>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="6">
+        <v>934.0</v>
+      </c>
+      <c r="AH18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
@@ -31275,10 +31356,13 @@
       <c r="AE19" s="1">
         <v>89.0</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="1">
         <v>89.0</v>
       </c>
-      <c r="AG19" s="1"/>
+      <c r="AG19" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="AH19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
@@ -31374,10 +31458,13 @@
       <c r="AE20" s="1">
         <v>121.0</v>
       </c>
-      <c r="AF20" s="6">
+      <c r="AF20" s="1">
         <v>121.0</v>
       </c>
-      <c r="AG20" s="1"/>
+      <c r="AG20" s="6">
+        <v>121.0</v>
+      </c>
+      <c r="AH20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -31473,10 +31560,13 @@
       <c r="AE21" s="1">
         <v>70.0</v>
       </c>
-      <c r="AF21" s="6">
+      <c r="AF21" s="1">
         <v>70.0</v>
       </c>
-      <c r="AG21" s="1"/>
+      <c r="AG21" s="6">
+        <v>71.0</v>
+      </c>
+      <c r="AH21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
@@ -31572,10 +31662,13 @@
       <c r="AE22" s="1">
         <v>18.0</v>
       </c>
-      <c r="AF22" s="6">
+      <c r="AF22" s="1">
         <v>18.0</v>
       </c>
-      <c r="AG22" s="1"/>
+      <c r="AG22" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="AH22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
@@ -31671,10 +31764,13 @@
       <c r="AE23" s="1">
         <v>240.0</v>
       </c>
-      <c r="AF23" s="6">
+      <c r="AF23" s="1">
         <v>240.0</v>
       </c>
-      <c r="AG23" s="1"/>
+      <c r="AG23" s="6">
+        <v>242.0</v>
+      </c>
+      <c r="AH23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -31770,10 +31866,13 @@
       <c r="AE24" s="1">
         <v>543.0</v>
       </c>
-      <c r="AF24" s="6">
+      <c r="AF24" s="1">
         <v>543.0</v>
       </c>
-      <c r="AG24" s="1"/>
+      <c r="AG24" s="6">
+        <v>544.0</v>
+      </c>
+      <c r="AH24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
@@ -31869,10 +31968,13 @@
       <c r="AE25" s="1">
         <v>333.0</v>
       </c>
-      <c r="AF25" s="6">
+      <c r="AF25" s="1">
         <v>333.0</v>
       </c>
-      <c r="AG25" s="1"/>
+      <c r="AG25" s="6">
+        <v>333.0</v>
+      </c>
+      <c r="AH25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
@@ -31968,10 +32070,13 @@
       <c r="AE26" s="1">
         <v>130.0</v>
       </c>
-      <c r="AF26" s="6">
+      <c r="AF26" s="1">
         <v>131.0</v>
       </c>
-      <c r="AG26" s="1"/>
+      <c r="AG26" s="6">
+        <v>131.0</v>
+      </c>
+      <c r="AH26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
@@ -32067,10 +32172,13 @@
       <c r="AE27" s="1">
         <v>508.0</v>
       </c>
-      <c r="AF27" s="6">
+      <c r="AF27" s="1">
         <v>508.0</v>
       </c>
-      <c r="AG27" s="1"/>
+      <c r="AG27" s="6">
+        <v>514.0</v>
+      </c>
+      <c r="AH27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
@@ -32166,10 +32274,13 @@
       <c r="AE28" s="1">
         <v>125.0</v>
       </c>
-      <c r="AF28" s="6">
+      <c r="AF28" s="1">
         <v>128.0</v>
       </c>
-      <c r="AG28" s="1"/>
+      <c r="AG28" s="6">
+        <v>130.0</v>
+      </c>
+      <c r="AH28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
@@ -32265,10 +32376,13 @@
       <c r="AE29" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF29" s="6">
+      <c r="AF29" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG29" s="1"/>
+      <c r="AG29" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
@@ -32364,10 +32478,13 @@
       <c r="AE30" s="1">
         <v>76.0</v>
       </c>
-      <c r="AF30" s="6">
+      <c r="AF30" s="1">
         <v>76.0</v>
       </c>
-      <c r="AG30" s="1"/>
+      <c r="AG30" s="6">
+        <v>76.0</v>
+      </c>
+      <c r="AH30" s="1"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
@@ -32463,10 +32580,13 @@
       <c r="AE31" s="1">
         <v>171.0</v>
       </c>
-      <c r="AF31" s="6">
+      <c r="AF31" s="1">
         <v>172.0</v>
       </c>
-      <c r="AG31" s="1"/>
+      <c r="AG31" s="6">
+        <v>173.0</v>
+      </c>
+      <c r="AH31" s="1"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
@@ -32562,10 +32682,13 @@
       <c r="AE32" s="1">
         <v>1172.0</v>
       </c>
-      <c r="AF32" s="6">
+      <c r="AF32" s="1">
         <v>1172.0</v>
       </c>
-      <c r="AG32" s="1"/>
+      <c r="AG32" s="6">
+        <v>1174.0</v>
+      </c>
+      <c r="AH32" s="1"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -32601,6 +32724,7 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="4"/>
@@ -32636,6 +32760,7 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -32671,6 +32796,7 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
     </row>
     <row r="36">
       <c r="A36" s="4"/>
@@ -32706,6 +32832,7 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
@@ -32741,6 +32868,7 @@
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
       <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
     </row>
     <row r="38">
       <c r="A38" s="4"/>
@@ -32776,6 +32904,7 @@
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
       <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
     </row>
     <row r="39">
       <c r="A39" s="4"/>
@@ -32811,6 +32940,7 @@
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
       <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
@@ -32846,6 +32976,7 @@
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
       <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
@@ -32941,10 +33072,13 @@
       <c r="AE41" s="1">
         <v>60.0</v>
       </c>
-      <c r="AF41" s="6">
+      <c r="AF41" s="1">
         <v>62.0</v>
       </c>
-      <c r="AG41" s="1"/>
+      <c r="AG41" s="6">
+        <v>65.0</v>
+      </c>
+      <c r="AH41" s="1"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
@@ -33040,10 +33174,13 @@
       <c r="AE42" s="1">
         <v>10.0</v>
       </c>
-      <c r="AF42" s="6">
+      <c r="AF42" s="1">
         <v>10.0</v>
       </c>
-      <c r="AG42" s="1"/>
+      <c r="AG42" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="AH42" s="1"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
@@ -33139,10 +33276,13 @@
       <c r="AE43" s="1">
         <v>22.0</v>
       </c>
-      <c r="AF43" s="6">
+      <c r="AF43" s="1">
         <v>22.0</v>
       </c>
-      <c r="AG43" s="1"/>
+      <c r="AG43" s="6">
+        <v>24.0</v>
+      </c>
+      <c r="AH43" s="1"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
@@ -33238,10 +33378,13 @@
       <c r="AE44" s="1">
         <v>59.0</v>
       </c>
-      <c r="AF44" s="6">
+      <c r="AF44" s="1">
         <v>65.0</v>
       </c>
-      <c r="AG44" s="1"/>
+      <c r="AG44" s="6">
+        <v>70.0</v>
+      </c>
+      <c r="AH44" s="1"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -33337,10 +33480,13 @@
       <c r="AE45" s="1">
         <v>35.0</v>
       </c>
-      <c r="AF45" s="6">
+      <c r="AF45" s="1">
         <v>35.0</v>
       </c>
-      <c r="AG45" s="1"/>
+      <c r="AG45" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="AH45" s="1"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
@@ -33436,10 +33582,13 @@
       <c r="AE46" s="1">
         <v>30.0</v>
       </c>
-      <c r="AF46" s="6">
+      <c r="AF46" s="1">
         <v>31.0</v>
       </c>
-      <c r="AG46" s="1"/>
+      <c r="AG46" s="6">
+        <v>82.0</v>
+      </c>
+      <c r="AH46" s="1"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -33535,10 +33684,13 @@
       <c r="AE47" s="1">
         <v>15.0</v>
       </c>
-      <c r="AF47" s="6">
+      <c r="AF47" s="1">
         <v>15.0</v>
       </c>
-      <c r="AG47" s="1"/>
+      <c r="AG47" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="AH47" s="1"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -33634,10 +33786,13 @@
       <c r="AE48" s="1">
         <v>16.0</v>
       </c>
-      <c r="AF48" s="6">
+      <c r="AF48" s="1">
         <v>16.0</v>
       </c>
-      <c r="AG48" s="1"/>
+      <c r="AG48" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="AH48" s="1"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -33733,10 +33888,13 @@
       <c r="AE49" s="1">
         <v>77.0</v>
       </c>
-      <c r="AF49" s="6">
+      <c r="AF49" s="1">
         <v>81.0</v>
       </c>
-      <c r="AG49" s="1"/>
+      <c r="AG49" s="6">
+        <v>84.0</v>
+      </c>
+      <c r="AH49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
@@ -33832,10 +33990,13 @@
       <c r="AE50" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF50" s="6">
+      <c r="AF50" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG50" s="1"/>
+      <c r="AG50" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH50" s="1"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
@@ -33931,10 +34092,13 @@
       <c r="AE51" s="1">
         <v>12.0</v>
       </c>
-      <c r="AF51" s="6">
+      <c r="AF51" s="1">
         <v>12.0</v>
       </c>
-      <c r="AG51" s="1"/>
+      <c r="AG51" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="AH51" s="1"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
@@ -34030,10 +34194,13 @@
       <c r="AE52" s="1">
         <v>22.0</v>
       </c>
-      <c r="AF52" s="6">
+      <c r="AF52" s="1">
         <v>22.0</v>
       </c>
-      <c r="AG52" s="1"/>
+      <c r="AG52" s="6">
+        <v>22.0</v>
+      </c>
+      <c r="AH52" s="1"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
@@ -34129,10 +34296,13 @@
       <c r="AE53" s="1">
         <v>15.0</v>
       </c>
-      <c r="AF53" s="6">
+      <c r="AF53" s="1">
         <v>15.0</v>
       </c>
-      <c r="AG53" s="1"/>
+      <c r="AG53" s="6">
+        <v>15.0</v>
+      </c>
+      <c r="AH53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
@@ -34228,10 +34398,13 @@
       <c r="AE54" s="1">
         <v>8.0</v>
       </c>
-      <c r="AF54" s="6">
+      <c r="AF54" s="1">
         <v>8.0</v>
       </c>
-      <c r="AG54" s="1"/>
+      <c r="AG54" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="AH54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
@@ -34327,10 +34500,13 @@
       <c r="AE55" s="1">
         <v>14.0</v>
       </c>
-      <c r="AF55" s="6">
+      <c r="AF55" s="1">
         <v>14.0</v>
       </c>
-      <c r="AG55" s="1"/>
+      <c r="AG55" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="AH55" s="1"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
@@ -34426,10 +34602,13 @@
       <c r="AE56" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF56" s="6">
+      <c r="AF56" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG56" s="1"/>
+      <c r="AG56" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH56" s="1"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
@@ -34525,10 +34704,13 @@
       <c r="AE57" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF57" s="6">
+      <c r="AF57" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG57" s="1"/>
+      <c r="AG57" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH57" s="1"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
@@ -34624,10 +34806,13 @@
       <c r="AE58" s="1">
         <v>9.0</v>
       </c>
-      <c r="AF58" s="6">
+      <c r="AF58" s="1">
         <v>9.0</v>
       </c>
-      <c r="AG58" s="1"/>
+      <c r="AG58" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AH58" s="1"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
@@ -34723,10 +34908,13 @@
       <c r="AE59" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF59" s="6">
+      <c r="AF59" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG59" s="1"/>
+      <c r="AG59" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH59" s="1"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
@@ -34822,10 +35010,13 @@
       <c r="AE60" s="1">
         <v>3.0</v>
       </c>
-      <c r="AF60" s="6">
+      <c r="AF60" s="1">
         <v>3.0</v>
       </c>
-      <c r="AG60" s="1"/>
+      <c r="AG60" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AH60" s="1"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
@@ -34921,10 +35112,13 @@
       <c r="AE61" s="1">
         <v>3.0</v>
       </c>
-      <c r="AF61" s="6">
+      <c r="AF61" s="1">
         <v>3.0</v>
       </c>
-      <c r="AG61" s="1"/>
+      <c r="AG61" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AH61" s="1"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
@@ -35020,10 +35214,13 @@
       <c r="AE62" s="1">
         <v>3.0</v>
       </c>
-      <c r="AF62" s="6">
+      <c r="AF62" s="1">
         <v>3.0</v>
       </c>
-      <c r="AG62" s="1"/>
+      <c r="AG62" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="AH62" s="1"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -35119,10 +35316,13 @@
       <c r="AE63" s="1">
         <v>9.0</v>
       </c>
-      <c r="AF63" s="6">
+      <c r="AF63" s="1">
         <v>9.0</v>
       </c>
-      <c r="AG63" s="1"/>
+      <c r="AG63" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="AH63" s="1"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
@@ -35218,10 +35418,13 @@
       <c r="AE64" s="1">
         <v>2.0</v>
       </c>
-      <c r="AF64" s="6">
+      <c r="AF64" s="1">
         <v>2.0</v>
       </c>
-      <c r="AG64" s="1"/>
+      <c r="AG64" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AH64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
@@ -35317,10 +35520,13 @@
       <c r="AE65" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF65" s="6">
+      <c r="AF65" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG65" s="1"/>
+      <c r="AG65" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH65" s="1"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
@@ -35416,10 +35622,13 @@
       <c r="AE66" s="1">
         <v>2.0</v>
       </c>
-      <c r="AF66" s="6">
+      <c r="AF66" s="1">
         <v>2.0</v>
       </c>
-      <c r="AG66" s="1"/>
+      <c r="AG66" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AH66" s="1"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
@@ -35515,10 +35724,13 @@
       <c r="AE67" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF67" s="6">
+      <c r="AF67" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG67" s="1"/>
+      <c r="AG67" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH67" s="1"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
@@ -35614,45 +35826,115 @@
       <c r="AE68" s="1">
         <v>1.0</v>
       </c>
-      <c r="AF68" s="6">
+      <c r="AF68" s="1">
         <v>1.0</v>
       </c>
-      <c r="AG68" s="1"/>
+      <c r="AG68" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="AH68" s="1"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
-      <c r="AB69" s="4"/>
-      <c r="AC69" s="4"/>
-      <c r="AD69" s="4"/>
-      <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="4"/>
+      <c r="A69" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="C69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="N69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="R69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="S69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="T69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="X69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="Z69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AA69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AB69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AC69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AD69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AE69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AF69" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="AG69" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="AH69" s="4"/>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -35688,6 +35970,7 @@
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
       <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="4"/>
@@ -35723,6 +36006,7 @@
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
       <c r="AG71" s="4"/>
+      <c r="AH71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="4"/>
@@ -35758,6 +36042,7 @@
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
       <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="4"/>
@@ -35793,6 +36078,7 @@
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
       <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" s="4"/>
@@ -35828,6 +36114,7 @@
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
       <c r="AG74" s="4"/>
+      <c r="AH74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="4"/>
@@ -35863,6 +36150,7 @@
       <c r="AE75" s="4"/>
       <c r="AF75" s="4"/>
       <c r="AG75" s="4"/>
+      <c r="AH75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="4"/>
@@ -35898,6 +36186,7 @@
       <c r="AE76" s="4"/>
       <c r="AF76" s="4"/>
       <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
     </row>
     <row r="77">
       <c r="A77" s="4"/>
@@ -35933,6 +36222,7 @@
       <c r="AE77" s="4"/>
       <c r="AF77" s="4"/>
       <c r="AG77" s="4"/>
+      <c r="AH77" s="4"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
@@ -35968,6 +36258,7 @@
       <c r="AE78" s="4"/>
       <c r="AF78" s="4"/>
       <c r="AG78" s="4"/>
+      <c r="AH78" s="4"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -36003,6 +36294,7 @@
       <c r="AE79" s="4"/>
       <c r="AF79" s="4"/>
       <c r="AG79" s="4"/>
+      <c r="AH79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="4"/>
@@ -36038,6 +36330,7 @@
       <c r="AE80" s="4"/>
       <c r="AF80" s="4"/>
       <c r="AG80" s="4"/>
+      <c r="AH80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="4"/>
@@ -36073,6 +36366,7 @@
       <c r="AE81" s="4"/>
       <c r="AF81" s="4"/>
       <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" s="4"/>
@@ -36108,6 +36402,7 @@
       <c r="AE82" s="4"/>
       <c r="AF82" s="4"/>
       <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="4"/>
@@ -36143,6 +36438,7 @@
       <c r="AE83" s="4"/>
       <c r="AF83" s="4"/>
       <c r="AG83" s="4"/>
+      <c r="AH83" s="4"/>
     </row>
     <row r="84">
       <c r="A84" s="4"/>
@@ -36178,6 +36474,7 @@
       <c r="AE84" s="4"/>
       <c r="AF84" s="4"/>
       <c r="AG84" s="4"/>
+      <c r="AH84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="4"/>
@@ -36213,6 +36510,7 @@
       <c r="AE85" s="4"/>
       <c r="AF85" s="4"/>
       <c r="AG85" s="4"/>
+      <c r="AH85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="4"/>
@@ -36248,6 +36546,7 @@
       <c r="AE86" s="4"/>
       <c r="AF86" s="4"/>
       <c r="AG86" s="4"/>
+      <c r="AH86" s="4"/>
     </row>
     <row r="87">
       <c r="A87" s="4"/>
@@ -36283,6 +36582,7 @@
       <c r="AE87" s="4"/>
       <c r="AF87" s="4"/>
       <c r="AG87" s="4"/>
+      <c r="AH87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="4"/>
@@ -36318,6 +36618,7 @@
       <c r="AE88" s="4"/>
       <c r="AF88" s="4"/>
       <c r="AG88" s="4"/>
+      <c r="AH88" s="4"/>
     </row>
     <row r="89">
       <c r="A89" s="4"/>
@@ -36353,6 +36654,7 @@
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
       <c r="AG89" s="4"/>
+      <c r="AH89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="4"/>
@@ -36388,6 +36690,7 @@
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
       <c r="AG90" s="4"/>
+      <c r="AH90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="4"/>
@@ -36423,6 +36726,7 @@
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
       <c r="AG91" s="4"/>
+      <c r="AH91" s="4"/>
     </row>
     <row r="92">
       <c r="A92" s="4"/>
@@ -36458,6 +36762,7 @@
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
       <c r="AG92" s="4"/>
+      <c r="AH92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4"/>
@@ -36493,6 +36798,7 @@
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
       <c r="AG93" s="4"/>
+      <c r="AH93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4"/>
@@ -36528,6 +36834,7 @@
       <c r="AE94" s="4"/>
       <c r="AF94" s="4"/>
       <c r="AG94" s="4"/>
+      <c r="AH94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4"/>
@@ -36563,6 +36870,7 @@
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
       <c r="AG95" s="4"/>
+      <c r="AH95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4"/>
@@ -36598,6 +36906,7 @@
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
       <c r="AG96" s="4"/>
+      <c r="AH96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4"/>
@@ -36633,6 +36942,7 @@
       <c r="AE97" s="4"/>
       <c r="AF97" s="4"/>
       <c r="AG97" s="4"/>
+      <c r="AH97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4"/>
@@ -36668,6 +36978,7 @@
       <c r="AE98" s="4"/>
       <c r="AF98" s="4"/>
       <c r="AG98" s="4"/>
+      <c r="AH98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="4"/>
@@ -36703,6 +37014,7 @@
       <c r="AE99" s="4"/>
       <c r="AF99" s="4"/>
       <c r="AG99" s="4"/>
+      <c r="AH99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="4"/>
@@ -36738,6 +37050,7 @@
       <c r="AE100" s="4"/>
       <c r="AF100" s="4"/>
       <c r="AG100" s="4"/>
+      <c r="AH100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
@@ -36773,6 +37086,7 @@
       <c r="AE101" s="4"/>
       <c r="AF101" s="4"/>
       <c r="AG101" s="4"/>
+      <c r="AH101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4"/>
@@ -36808,6 +37122,7 @@
       <c r="AE102" s="4"/>
       <c r="AF102" s="4"/>
       <c r="AG102" s="4"/>
+      <c r="AH102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="4"/>
@@ -36843,6 +37158,7 @@
       <c r="AE103" s="4"/>
       <c r="AF103" s="4"/>
       <c r="AG103" s="4"/>
+      <c r="AH103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="4"/>
@@ -36878,6 +37194,7 @@
       <c r="AE104" s="4"/>
       <c r="AF104" s="4"/>
       <c r="AG104" s="4"/>
+      <c r="AH104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
@@ -36913,6 +37230,7 @@
       <c r="AE105" s="4"/>
       <c r="AF105" s="4"/>
       <c r="AG105" s="4"/>
+      <c r="AH105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -36948,6 +37266,7 @@
       <c r="AE106" s="4"/>
       <c r="AF106" s="4"/>
       <c r="AG106" s="4"/>
+      <c r="AH106" s="4"/>
     </row>
     <row r="107">
       <c r="A107" s="4"/>
@@ -36983,6 +37302,7 @@
       <c r="AE107" s="4"/>
       <c r="AF107" s="4"/>
       <c r="AG107" s="4"/>
+      <c r="AH107" s="4"/>
     </row>
     <row r="108">
       <c r="A108" s="4"/>
@@ -37018,6 +37338,7 @@
       <c r="AE108" s="4"/>
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
+      <c r="AH108" s="4"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
@@ -37053,6 +37374,7 @@
       <c r="AE109" s="4"/>
       <c r="AF109" s="4"/>
       <c r="AG109" s="4"/>
+      <c r="AH109" s="4"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -37088,6 +37410,7 @@
       <c r="AE110" s="4"/>
       <c r="AF110" s="4"/>
       <c r="AG110" s="4"/>
+      <c r="AH110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="4"/>
@@ -37123,6 +37446,7 @@
       <c r="AE111" s="4"/>
       <c r="AF111" s="4"/>
       <c r="AG111" s="4"/>
+      <c r="AH111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -37158,6 +37482,7 @@
       <c r="AE112" s="4"/>
       <c r="AF112" s="4"/>
       <c r="AG112" s="4"/>
+      <c r="AH112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="4"/>
@@ -37193,6 +37518,7 @@
       <c r="AE113" s="4"/>
       <c r="AF113" s="4"/>
       <c r="AG113" s="4"/>
+      <c r="AH113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
@@ -37228,6 +37554,7 @@
       <c r="AE114" s="4"/>
       <c r="AF114" s="4"/>
       <c r="AG114" s="4"/>
+      <c r="AH114" s="4"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -37263,6 +37590,7 @@
       <c r="AE115" s="4"/>
       <c r="AF115" s="4"/>
       <c r="AG115" s="4"/>
+      <c r="AH115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -37298,6 +37626,7 @@
       <c r="AE116" s="4"/>
       <c r="AF116" s="4"/>
       <c r="AG116" s="4"/>
+      <c r="AH116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4"/>
@@ -37333,6 +37662,7 @@
       <c r="AE117" s="4"/>
       <c r="AF117" s="4"/>
       <c r="AG117" s="4"/>
+      <c r="AH117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4"/>
@@ -37368,6 +37698,7 @@
       <c r="AE118" s="4"/>
       <c r="AF118" s="4"/>
       <c r="AG118" s="4"/>
+      <c r="AH118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="4"/>
@@ -37403,6 +37734,7 @@
       <c r="AE119" s="4"/>
       <c r="AF119" s="4"/>
       <c r="AG119" s="4"/>
+      <c r="AH119" s="4"/>
     </row>
     <row r="120">
       <c r="A120" s="4"/>
@@ -37438,6 +37770,7 @@
       <c r="AE120" s="4"/>
       <c r="AF120" s="4"/>
       <c r="AG120" s="4"/>
+      <c r="AH120" s="4"/>
     </row>
     <row r="121">
       <c r="A121" s="4"/>
@@ -37473,6 +37806,7 @@
       <c r="AE121" s="4"/>
       <c r="AF121" s="4"/>
       <c r="AG121" s="4"/>
+      <c r="AH121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4"/>
@@ -37508,6 +37842,7 @@
       <c r="AE122" s="4"/>
       <c r="AF122" s="4"/>
       <c r="AG122" s="4"/>
+      <c r="AH122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
@@ -37543,6 +37878,7 @@
       <c r="AE123" s="4"/>
       <c r="AF123" s="4"/>
       <c r="AG123" s="4"/>
+      <c r="AH123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -37578,6 +37914,7 @@
       <c r="AE124" s="4"/>
       <c r="AF124" s="4"/>
       <c r="AG124" s="4"/>
+      <c r="AH124" s="4"/>
     </row>
     <row r="125">
       <c r="A125" s="4"/>
@@ -37613,6 +37950,7 @@
       <c r="AE125" s="4"/>
       <c r="AF125" s="4"/>
       <c r="AG125" s="4"/>
+      <c r="AH125" s="4"/>
     </row>
     <row r="126">
       <c r="A126" s="4"/>
@@ -37648,6 +37986,7 @@
       <c r="AE126" s="4"/>
       <c r="AF126" s="4"/>
       <c r="AG126" s="4"/>
+      <c r="AH126" s="4"/>
     </row>
     <row r="127">
       <c r="A127" s="4"/>
@@ -37683,6 +38022,7 @@
       <c r="AE127" s="4"/>
       <c r="AF127" s="4"/>
       <c r="AG127" s="4"/>
+      <c r="AH127" s="4"/>
     </row>
     <row r="128">
       <c r="A128" s="4"/>
@@ -37718,6 +38058,7 @@
       <c r="AE128" s="4"/>
       <c r="AF128" s="4"/>
       <c r="AG128" s="4"/>
+      <c r="AH128" s="4"/>
     </row>
     <row r="129">
       <c r="A129" s="4"/>
@@ -37753,6 +38094,7 @@
       <c r="AE129" s="4"/>
       <c r="AF129" s="4"/>
       <c r="AG129" s="4"/>
+      <c r="AH129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="4"/>
@@ -37788,6 +38130,7 @@
       <c r="AE130" s="4"/>
       <c r="AF130" s="4"/>
       <c r="AG130" s="4"/>
+      <c r="AH130" s="4"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
@@ -37823,6 +38166,7 @@
       <c r="AE131" s="4"/>
       <c r="AF131" s="4"/>
       <c r="AG131" s="4"/>
+      <c r="AH131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -37858,6 +38202,7 @@
       <c r="AE132" s="4"/>
       <c r="AF132" s="4"/>
       <c r="AG132" s="4"/>
+      <c r="AH132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="4"/>
@@ -37893,6 +38238,7 @@
       <c r="AE133" s="4"/>
       <c r="AF133" s="4"/>
       <c r="AG133" s="4"/>
+      <c r="AH133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="4"/>
@@ -37928,6 +38274,7 @@
       <c r="AE134" s="4"/>
       <c r="AF134" s="4"/>
       <c r="AG134" s="4"/>
+      <c r="AH134" s="4"/>
     </row>
     <row r="135">
       <c r="A135" s="4"/>
@@ -37963,6 +38310,7 @@
       <c r="AE135" s="4"/>
       <c r="AF135" s="4"/>
       <c r="AG135" s="4"/>
+      <c r="AH135" s="4"/>
     </row>
     <row r="136">
       <c r="A136" s="4"/>
@@ -37998,6 +38346,7 @@
       <c r="AE136" s="4"/>
       <c r="AF136" s="4"/>
       <c r="AG136" s="4"/>
+      <c r="AH136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="4"/>
@@ -38033,6 +38382,7 @@
       <c r="AE137" s="4"/>
       <c r="AF137" s="4"/>
       <c r="AG137" s="4"/>
+      <c r="AH137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4"/>
@@ -38068,6 +38418,7 @@
       <c r="AE138" s="4"/>
       <c r="AF138" s="4"/>
       <c r="AG138" s="4"/>
+      <c r="AH138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4"/>
@@ -38103,6 +38454,7 @@
       <c r="AE139" s="4"/>
       <c r="AF139" s="4"/>
       <c r="AG139" s="4"/>
+      <c r="AH139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4"/>
@@ -38138,6 +38490,7 @@
       <c r="AE140" s="4"/>
       <c r="AF140" s="4"/>
       <c r="AG140" s="4"/>
+      <c r="AH140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4"/>
@@ -38173,6 +38526,7 @@
       <c r="AE141" s="4"/>
       <c r="AF141" s="4"/>
       <c r="AG141" s="4"/>
+      <c r="AH141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -38208,6 +38562,7 @@
       <c r="AE142" s="4"/>
       <c r="AF142" s="4"/>
       <c r="AG142" s="4"/>
+      <c r="AH142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4"/>
@@ -38243,6 +38598,7 @@
       <c r="AE143" s="4"/>
       <c r="AF143" s="4"/>
       <c r="AG143" s="4"/>
+      <c r="AH143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="4"/>
@@ -38278,6 +38634,7 @@
       <c r="AE144" s="4"/>
       <c r="AF144" s="4"/>
       <c r="AG144" s="4"/>
+      <c r="AH144" s="4"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
@@ -38313,6 +38670,7 @@
       <c r="AE145" s="4"/>
       <c r="AF145" s="4"/>
       <c r="AG145" s="4"/>
+      <c r="AH145" s="4"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -38348,6 +38706,7 @@
       <c r="AE146" s="4"/>
       <c r="AF146" s="4"/>
       <c r="AG146" s="4"/>
+      <c r="AH146" s="4"/>
     </row>
     <row r="147">
       <c r="A147" s="4"/>
@@ -38383,6 +38742,7 @@
       <c r="AE147" s="4"/>
       <c r="AF147" s="4"/>
       <c r="AG147" s="4"/>
+      <c r="AH147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4"/>
@@ -38418,6 +38778,7 @@
       <c r="AE148" s="4"/>
       <c r="AF148" s="4"/>
       <c r="AG148" s="4"/>
+      <c r="AH148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="4"/>
@@ -38453,6 +38814,7 @@
       <c r="AE149" s="4"/>
       <c r="AF149" s="4"/>
       <c r="AG149" s="4"/>
+      <c r="AH149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="4"/>
@@ -38488,6 +38850,7 @@
       <c r="AE150" s="4"/>
       <c r="AF150" s="4"/>
       <c r="AG150" s="4"/>
+      <c r="AH150" s="4"/>
     </row>
     <row r="151">
       <c r="A151" s="4"/>
@@ -38523,6 +38886,7 @@
       <c r="AE151" s="4"/>
       <c r="AF151" s="4"/>
       <c r="AG151" s="4"/>
+      <c r="AH151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="4"/>
@@ -38558,6 +38922,7 @@
       <c r="AE152" s="4"/>
       <c r="AF152" s="4"/>
       <c r="AG152" s="4"/>
+      <c r="AH152" s="4"/>
     </row>
     <row r="153">
       <c r="A153" s="4"/>
@@ -38593,6 +38958,7 @@
       <c r="AE153" s="4"/>
       <c r="AF153" s="4"/>
       <c r="AG153" s="4"/>
+      <c r="AH153" s="4"/>
     </row>
     <row r="154">
       <c r="A154" s="4"/>
@@ -38628,6 +38994,7 @@
       <c r="AE154" s="4"/>
       <c r="AF154" s="4"/>
       <c r="AG154" s="4"/>
+      <c r="AH154" s="4"/>
     </row>
     <row r="155">
       <c r="A155" s="4"/>
@@ -38663,6 +39030,7 @@
       <c r="AE155" s="4"/>
       <c r="AF155" s="4"/>
       <c r="AG155" s="4"/>
+      <c r="AH155" s="4"/>
     </row>
     <row r="156">
       <c r="A156" s="4"/>
@@ -38698,6 +39066,7 @@
       <c r="AE156" s="4"/>
       <c r="AF156" s="4"/>
       <c r="AG156" s="4"/>
+      <c r="AH156" s="4"/>
     </row>
     <row r="157">
       <c r="A157" s="4"/>
@@ -38733,6 +39102,7 @@
       <c r="AE157" s="4"/>
       <c r="AF157" s="4"/>
       <c r="AG157" s="4"/>
+      <c r="AH157" s="4"/>
     </row>
     <row r="158">
       <c r="A158" s="4"/>
@@ -38768,6 +39138,7 @@
       <c r="AE158" s="4"/>
       <c r="AF158" s="4"/>
       <c r="AG158" s="4"/>
+      <c r="AH158" s="4"/>
     </row>
     <row r="159">
       <c r="A159" s="4"/>
@@ -38803,6 +39174,7 @@
       <c r="AE159" s="4"/>
       <c r="AF159" s="4"/>
       <c r="AG159" s="4"/>
+      <c r="AH159" s="4"/>
     </row>
     <row r="160">
       <c r="A160" s="4"/>
@@ -38838,6 +39210,7 @@
       <c r="AE160" s="4"/>
       <c r="AF160" s="4"/>
       <c r="AG160" s="4"/>
+      <c r="AH160" s="4"/>
     </row>
     <row r="161">
       <c r="A161" s="4"/>
@@ -38873,6 +39246,7 @@
       <c r="AE161" s="4"/>
       <c r="AF161" s="4"/>
       <c r="AG161" s="4"/>
+      <c r="AH161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4"/>
@@ -38908,6 +39282,7 @@
       <c r="AE162" s="4"/>
       <c r="AF162" s="4"/>
       <c r="AG162" s="4"/>
+      <c r="AH162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4"/>
@@ -38943,6 +39318,7 @@
       <c r="AE163" s="4"/>
       <c r="AF163" s="4"/>
       <c r="AG163" s="4"/>
+      <c r="AH163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="4"/>
@@ -38978,6 +39354,7 @@
       <c r="AE164" s="4"/>
       <c r="AF164" s="4"/>
       <c r="AG164" s="4"/>
+      <c r="AH164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="4"/>
@@ -39013,6 +39390,7 @@
       <c r="AE165" s="4"/>
       <c r="AF165" s="4"/>
       <c r="AG165" s="4"/>
+      <c r="AH165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="4"/>
@@ -39048,6 +39426,7 @@
       <c r="AE166" s="4"/>
       <c r="AF166" s="4"/>
       <c r="AG166" s="4"/>
+      <c r="AH166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="4"/>
@@ -39083,6 +39462,7 @@
       <c r="AE167" s="4"/>
       <c r="AF167" s="4"/>
       <c r="AG167" s="4"/>
+      <c r="AH167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
@@ -39118,6 +39498,7 @@
       <c r="AE168" s="4"/>
       <c r="AF168" s="4"/>
       <c r="AG168" s="4"/>
+      <c r="AH168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -39153,6 +39534,7 @@
       <c r="AE169" s="4"/>
       <c r="AF169" s="4"/>
       <c r="AG169" s="4"/>
+      <c r="AH169" s="4"/>
     </row>
     <row r="170">
       <c r="A170" s="4"/>
@@ -39188,6 +39570,7 @@
       <c r="AE170" s="4"/>
       <c r="AF170" s="4"/>
       <c r="AG170" s="4"/>
+      <c r="AH170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="4"/>
@@ -39223,6 +39606,7 @@
       <c r="AE171" s="4"/>
       <c r="AF171" s="4"/>
       <c r="AG171" s="4"/>
+      <c r="AH171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="4"/>
@@ -39258,6 +39642,7 @@
       <c r="AE172" s="4"/>
       <c r="AF172" s="4"/>
       <c r="AG172" s="4"/>
+      <c r="AH172" s="4"/>
     </row>
     <row r="173">
       <c r="A173" s="4"/>
@@ -39293,6 +39678,7 @@
       <c r="AE173" s="4"/>
       <c r="AF173" s="4"/>
       <c r="AG173" s="4"/>
+      <c r="AH173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="4"/>
@@ -39328,6 +39714,7 @@
       <c r="AE174" s="4"/>
       <c r="AF174" s="4"/>
       <c r="AG174" s="4"/>
+      <c r="AH174" s="4"/>
     </row>
     <row r="175">
       <c r="A175" s="4"/>
@@ -39363,6 +39750,7 @@
       <c r="AE175" s="4"/>
       <c r="AF175" s="4"/>
       <c r="AG175" s="4"/>
+      <c r="AH175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="4"/>
@@ -39398,6 +39786,7 @@
       <c r="AE176" s="4"/>
       <c r="AF176" s="4"/>
       <c r="AG176" s="4"/>
+      <c r="AH176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="4"/>
@@ -39433,6 +39822,7 @@
       <c r="AE177" s="4"/>
       <c r="AF177" s="4"/>
       <c r="AG177" s="4"/>
+      <c r="AH177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
@@ -39468,6 +39858,7 @@
       <c r="AE178" s="4"/>
       <c r="AF178" s="4"/>
       <c r="AG178" s="4"/>
+      <c r="AH178" s="4"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -39503,6 +39894,7 @@
       <c r="AE179" s="4"/>
       <c r="AF179" s="4"/>
       <c r="AG179" s="4"/>
+      <c r="AH179" s="4"/>
     </row>
     <row r="180">
       <c r="A180" s="4"/>
@@ -39538,6 +39930,7 @@
       <c r="AE180" s="4"/>
       <c r="AF180" s="4"/>
       <c r="AG180" s="4"/>
+      <c r="AH180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="4"/>
@@ -39573,6 +39966,7 @@
       <c r="AE181" s="4"/>
       <c r="AF181" s="4"/>
       <c r="AG181" s="4"/>
+      <c r="AH181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="4"/>
@@ -39608,6 +40002,7 @@
       <c r="AE182" s="4"/>
       <c r="AF182" s="4"/>
       <c r="AG182" s="4"/>
+      <c r="AH182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="4"/>
@@ -39643,6 +40038,7 @@
       <c r="AE183" s="4"/>
       <c r="AF183" s="4"/>
       <c r="AG183" s="4"/>
+      <c r="AH183" s="4"/>
     </row>
     <row r="184">
       <c r="A184" s="4"/>
@@ -39678,6 +40074,7 @@
       <c r="AE184" s="4"/>
       <c r="AF184" s="4"/>
       <c r="AG184" s="4"/>
+      <c r="AH184" s="4"/>
     </row>
     <row r="185">
       <c r="A185" s="4"/>
@@ -39713,6 +40110,7 @@
       <c r="AE185" s="4"/>
       <c r="AF185" s="4"/>
       <c r="AG185" s="4"/>
+      <c r="AH185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4"/>
@@ -39748,6 +40146,7 @@
       <c r="AE186" s="4"/>
       <c r="AF186" s="4"/>
       <c r="AG186" s="4"/>
+      <c r="AH186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4"/>
@@ -39783,6 +40182,7 @@
       <c r="AE187" s="4"/>
       <c r="AF187" s="4"/>
       <c r="AG187" s="4"/>
+      <c r="AH187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
@@ -39818,6 +40218,7 @@
       <c r="AE188" s="4"/>
       <c r="AF188" s="4"/>
       <c r="AG188" s="4"/>
+      <c r="AH188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -39853,6 +40254,7 @@
       <c r="AE189" s="4"/>
       <c r="AF189" s="4"/>
       <c r="AG189" s="4"/>
+      <c r="AH189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4"/>
@@ -39888,6 +40290,7 @@
       <c r="AE190" s="4"/>
       <c r="AF190" s="4"/>
       <c r="AG190" s="4"/>
+      <c r="AH190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4"/>
@@ -39923,6 +40326,7 @@
       <c r="AE191" s="4"/>
       <c r="AF191" s="4"/>
       <c r="AG191" s="4"/>
+      <c r="AH191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4"/>
@@ -39958,6 +40362,7 @@
       <c r="AE192" s="4"/>
       <c r="AF192" s="4"/>
       <c r="AG192" s="4"/>
+      <c r="AH192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4"/>
@@ -39993,6 +40398,7 @@
       <c r="AE193" s="4"/>
       <c r="AF193" s="4"/>
       <c r="AG193" s="4"/>
+      <c r="AH193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4"/>
@@ -40028,6 +40434,7 @@
       <c r="AE194" s="4"/>
       <c r="AF194" s="4"/>
       <c r="AG194" s="4"/>
+      <c r="AH194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4"/>
@@ -40063,6 +40470,7 @@
       <c r="AE195" s="4"/>
       <c r="AF195" s="4"/>
       <c r="AG195" s="4"/>
+      <c r="AH195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4"/>
@@ -40098,6 +40506,7 @@
       <c r="AE196" s="4"/>
       <c r="AF196" s="4"/>
       <c r="AG196" s="4"/>
+      <c r="AH196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4"/>
@@ -40133,6 +40542,7 @@
       <c r="AE197" s="4"/>
       <c r="AF197" s="4"/>
       <c r="AG197" s="4"/>
+      <c r="AH197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4"/>
@@ -40168,6 +40578,7 @@
       <c r="AE198" s="4"/>
       <c r="AF198" s="4"/>
       <c r="AG198" s="4"/>
+      <c r="AH198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4"/>
@@ -40203,6 +40614,7 @@
       <c r="AE199" s="4"/>
       <c r="AF199" s="4"/>
       <c r="AG199" s="4"/>
+      <c r="AH199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4"/>
@@ -40238,6 +40650,7 @@
       <c r="AE200" s="4"/>
       <c r="AF200" s="4"/>
       <c r="AG200" s="4"/>
+      <c r="AH200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
@@ -40273,6 +40686,7 @@
       <c r="AE201" s="4"/>
       <c r="AF201" s="4"/>
       <c r="AG201" s="4"/>
+      <c r="AH201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
@@ -40308,6 +40722,7 @@
       <c r="AE202" s="4"/>
       <c r="AF202" s="4"/>
       <c r="AG202" s="4"/>
+      <c r="AH202" s="4"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
@@ -40343,6 +40758,7 @@
       <c r="AE203" s="4"/>
       <c r="AF203" s="4"/>
       <c r="AG203" s="4"/>
+      <c r="AH203" s="4"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
@@ -40378,6 +40794,7 @@
       <c r="AE204" s="4"/>
       <c r="AF204" s="4"/>
       <c r="AG204" s="4"/>
+      <c r="AH204" s="4"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
@@ -40413,6 +40830,7 @@
       <c r="AE205" s="4"/>
       <c r="AF205" s="4"/>
       <c r="AG205" s="4"/>
+      <c r="AH205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -40448,6 +40866,7 @@
       <c r="AE206" s="4"/>
       <c r="AF206" s="4"/>
       <c r="AG206" s="4"/>
+      <c r="AH206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="4"/>
@@ -40483,6 +40902,7 @@
       <c r="AE207" s="4"/>
       <c r="AF207" s="4"/>
       <c r="AG207" s="4"/>
+      <c r="AH207" s="4"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
@@ -40518,6 +40938,7 @@
       <c r="AE208" s="4"/>
       <c r="AF208" s="4"/>
       <c r="AG208" s="4"/>
+      <c r="AH208" s="4"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
@@ -40553,6 +40974,7 @@
       <c r="AE209" s="4"/>
       <c r="AF209" s="4"/>
       <c r="AG209" s="4"/>
+      <c r="AH209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -40588,6 +41010,7 @@
       <c r="AE210" s="4"/>
       <c r="AF210" s="4"/>
       <c r="AG210" s="4"/>
+      <c r="AH210" s="4"/>
     </row>
     <row r="211">
       <c r="A211" s="4"/>
@@ -40623,6 +41046,7 @@
       <c r="AE211" s="4"/>
       <c r="AF211" s="4"/>
       <c r="AG211" s="4"/>
+      <c r="AH211" s="4"/>
     </row>
     <row r="212">
       <c r="A212" s="4"/>
@@ -40658,6 +41082,7 @@
       <c r="AE212" s="4"/>
       <c r="AF212" s="4"/>
       <c r="AG212" s="4"/>
+      <c r="AH212" s="4"/>
     </row>
     <row r="213">
       <c r="A213" s="4"/>
@@ -40693,6 +41118,7 @@
       <c r="AE213" s="4"/>
       <c r="AF213" s="4"/>
       <c r="AG213" s="4"/>
+      <c r="AH213" s="4"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
@@ -40728,6 +41154,7 @@
       <c r="AE214" s="4"/>
       <c r="AF214" s="4"/>
       <c r="AG214" s="4"/>
+      <c r="AH214" s="4"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -40763,6 +41190,7 @@
       <c r="AE215" s="4"/>
       <c r="AF215" s="4"/>
       <c r="AG215" s="4"/>
+      <c r="AH215" s="4"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -40798,6 +41226,7 @@
       <c r="AE216" s="4"/>
       <c r="AF216" s="4"/>
       <c r="AG216" s="4"/>
+      <c r="AH216" s="4"/>
     </row>
     <row r="217">
       <c r="A217" s="4"/>
@@ -40833,6 +41262,7 @@
       <c r="AE217" s="4"/>
       <c r="AF217" s="4"/>
       <c r="AG217" s="4"/>
+      <c r="AH217" s="4"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
@@ -40868,6 +41298,7 @@
       <c r="AE218" s="4"/>
       <c r="AF218" s="4"/>
       <c r="AG218" s="4"/>
+      <c r="AH218" s="4"/>
     </row>
     <row r="219">
       <c r="A219" s="4"/>
@@ -40903,6 +41334,7 @@
       <c r="AE219" s="4"/>
       <c r="AF219" s="4"/>
       <c r="AG219" s="4"/>
+      <c r="AH219" s="4"/>
     </row>
     <row r="220">
       <c r="A220" s="4"/>
@@ -40938,6 +41370,7 @@
       <c r="AE220" s="4"/>
       <c r="AF220" s="4"/>
       <c r="AG220" s="4"/>
+      <c r="AH220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4"/>
@@ -40973,6 +41406,7 @@
       <c r="AE221" s="4"/>
       <c r="AF221" s="4"/>
       <c r="AG221" s="4"/>
+      <c r="AH221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4"/>
@@ -41008,6 +41442,7 @@
       <c r="AE222" s="4"/>
       <c r="AF222" s="4"/>
       <c r="AG222" s="4"/>
+      <c r="AH222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4"/>
@@ -41043,6 +41478,7 @@
       <c r="AE223" s="4"/>
       <c r="AF223" s="4"/>
       <c r="AG223" s="4"/>
+      <c r="AH223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4"/>
@@ -41078,6 +41514,7 @@
       <c r="AE224" s="4"/>
       <c r="AF224" s="4"/>
       <c r="AG224" s="4"/>
+      <c r="AH224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4"/>
@@ -41113,6 +41550,7 @@
       <c r="AE225" s="4"/>
       <c r="AF225" s="4"/>
       <c r="AG225" s="4"/>
+      <c r="AH225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4"/>
@@ -41148,6 +41586,7 @@
       <c r="AE226" s="4"/>
       <c r="AF226" s="4"/>
       <c r="AG226" s="4"/>
+      <c r="AH226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4"/>
@@ -41183,6 +41622,7 @@
       <c r="AE227" s="4"/>
       <c r="AF227" s="4"/>
       <c r="AG227" s="4"/>
+      <c r="AH227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4"/>
@@ -41218,6 +41658,7 @@
       <c r="AE228" s="4"/>
       <c r="AF228" s="4"/>
       <c r="AG228" s="4"/>
+      <c r="AH228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4"/>
@@ -41253,6 +41694,7 @@
       <c r="AE229" s="4"/>
       <c r="AF229" s="4"/>
       <c r="AG229" s="4"/>
+      <c r="AH229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4"/>
@@ -41288,6 +41730,7 @@
       <c r="AE230" s="4"/>
       <c r="AF230" s="4"/>
       <c r="AG230" s="4"/>
+      <c r="AH230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="4"/>
@@ -41323,6 +41766,7 @@
       <c r="AE231" s="4"/>
       <c r="AF231" s="4"/>
       <c r="AG231" s="4"/>
+      <c r="AH231" s="4"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
@@ -41358,6 +41802,7 @@
       <c r="AE232" s="4"/>
       <c r="AF232" s="4"/>
       <c r="AG232" s="4"/>
+      <c r="AH232" s="4"/>
     </row>
     <row r="233">
       <c r="A233" s="4"/>
@@ -41393,6 +41838,7 @@
       <c r="AE233" s="4"/>
       <c r="AF233" s="4"/>
       <c r="AG233" s="4"/>
+      <c r="AH233" s="4"/>
     </row>
     <row r="234">
       <c r="A234" s="4"/>
@@ -41428,6 +41874,7 @@
       <c r="AE234" s="4"/>
       <c r="AF234" s="4"/>
       <c r="AG234" s="4"/>
+      <c r="AH234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4"/>
@@ -41463,6 +41910,7 @@
       <c r="AE235" s="4"/>
       <c r="AF235" s="4"/>
       <c r="AG235" s="4"/>
+      <c r="AH235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="4"/>
@@ -41498,6 +41946,7 @@
       <c r="AE236" s="4"/>
       <c r="AF236" s="4"/>
       <c r="AG236" s="4"/>
+      <c r="AH236" s="4"/>
     </row>
     <row r="237">
       <c r="A237" s="4"/>
@@ -41533,6 +41982,7 @@
       <c r="AE237" s="4"/>
       <c r="AF237" s="4"/>
       <c r="AG237" s="4"/>
+      <c r="AH237" s="4"/>
     </row>
     <row r="238">
       <c r="A238" s="4"/>
@@ -41568,6 +42018,7 @@
       <c r="AE238" s="4"/>
       <c r="AF238" s="4"/>
       <c r="AG238" s="4"/>
+      <c r="AH238" s="4"/>
     </row>
     <row r="239">
       <c r="A239" s="4"/>
@@ -41603,6 +42054,7 @@
       <c r="AE239" s="4"/>
       <c r="AF239" s="4"/>
       <c r="AG239" s="4"/>
+      <c r="AH239" s="4"/>
     </row>
     <row r="240">
       <c r="A240" s="4"/>
@@ -41638,6 +42090,7 @@
       <c r="AE240" s="4"/>
       <c r="AF240" s="4"/>
       <c r="AG240" s="4"/>
+      <c r="AH240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="4"/>
@@ -41673,6 +42126,7 @@
       <c r="AE241" s="4"/>
       <c r="AF241" s="4"/>
       <c r="AG241" s="4"/>
+      <c r="AH241" s="4"/>
     </row>
     <row r="242">
       <c r="A242" s="4"/>
@@ -41708,6 +42162,7 @@
       <c r="AE242" s="4"/>
       <c r="AF242" s="4"/>
       <c r="AG242" s="4"/>
+      <c r="AH242" s="4"/>
     </row>
     <row r="243">
       <c r="A243" s="4"/>
@@ -41743,6 +42198,7 @@
       <c r="AE243" s="4"/>
       <c r="AF243" s="4"/>
       <c r="AG243" s="4"/>
+      <c r="AH243" s="4"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
@@ -41778,6 +42234,7 @@
       <c r="AE244" s="4"/>
       <c r="AF244" s="4"/>
       <c r="AG244" s="4"/>
+      <c r="AH244" s="4"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
@@ -41813,6 +42270,7 @@
       <c r="AE245" s="4"/>
       <c r="AF245" s="4"/>
       <c r="AG245" s="4"/>
+      <c r="AH245" s="4"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
@@ -41848,6 +42306,7 @@
       <c r="AE246" s="4"/>
       <c r="AF246" s="4"/>
       <c r="AG246" s="4"/>
+      <c r="AH246" s="4"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
@@ -41883,6 +42342,7 @@
       <c r="AE247" s="4"/>
       <c r="AF247" s="4"/>
       <c r="AG247" s="4"/>
+      <c r="AH247" s="4"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -41918,6 +42378,7 @@
       <c r="AE248" s="4"/>
       <c r="AF248" s="4"/>
       <c r="AG248" s="4"/>
+      <c r="AH248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4"/>
@@ -41953,6 +42414,7 @@
       <c r="AE249" s="4"/>
       <c r="AF249" s="4"/>
       <c r="AG249" s="4"/>
+      <c r="AH249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4"/>
@@ -41988,6 +42450,7 @@
       <c r="AE250" s="4"/>
       <c r="AF250" s="4"/>
       <c r="AG250" s="4"/>
+      <c r="AH250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4"/>
@@ -42023,6 +42486,7 @@
       <c r="AE251" s="4"/>
       <c r="AF251" s="4"/>
       <c r="AG251" s="4"/>
+      <c r="AH251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
@@ -42058,6 +42522,7 @@
       <c r="AE252" s="4"/>
       <c r="AF252" s="4"/>
       <c r="AG252" s="4"/>
+      <c r="AH252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -42093,6 +42558,7 @@
       <c r="AE253" s="4"/>
       <c r="AF253" s="4"/>
       <c r="AG253" s="4"/>
+      <c r="AH253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4"/>
@@ -42128,6 +42594,7 @@
       <c r="AE254" s="4"/>
       <c r="AF254" s="4"/>
       <c r="AG254" s="4"/>
+      <c r="AH254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4"/>
@@ -42163,6 +42630,7 @@
       <c r="AE255" s="4"/>
       <c r="AF255" s="4"/>
       <c r="AG255" s="4"/>
+      <c r="AH255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4"/>
@@ -42198,6 +42666,7 @@
       <c r="AE256" s="4"/>
       <c r="AF256" s="4"/>
       <c r="AG256" s="4"/>
+      <c r="AH256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4"/>
@@ -42233,6 +42702,7 @@
       <c r="AE257" s="4"/>
       <c r="AF257" s="4"/>
       <c r="AG257" s="4"/>
+      <c r="AH257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
@@ -42268,6 +42738,7 @@
       <c r="AE258" s="4"/>
       <c r="AF258" s="4"/>
       <c r="AG258" s="4"/>
+      <c r="AH258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -42303,6 +42774,7 @@
       <c r="AE259" s="4"/>
       <c r="AF259" s="4"/>
       <c r="AG259" s="4"/>
+      <c r="AH259" s="4"/>
     </row>
     <row r="260">
       <c r="A260" s="4"/>
@@ -42338,6 +42810,7 @@
       <c r="AE260" s="4"/>
       <c r="AF260" s="4"/>
       <c r="AG260" s="4"/>
+      <c r="AH260" s="4"/>
     </row>
     <row r="261">
       <c r="A261" s="4"/>
@@ -42373,6 +42846,7 @@
       <c r="AE261" s="4"/>
       <c r="AF261" s="4"/>
       <c r="AG261" s="4"/>
+      <c r="AH261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4"/>
@@ -42408,6 +42882,7 @@
       <c r="AE262" s="4"/>
       <c r="AF262" s="4"/>
       <c r="AG262" s="4"/>
+      <c r="AH262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4"/>
@@ -42443,6 +42918,7 @@
       <c r="AE263" s="4"/>
       <c r="AF263" s="4"/>
       <c r="AG263" s="4"/>
+      <c r="AH263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="4"/>
@@ -42478,6 +42954,7 @@
       <c r="AE264" s="4"/>
       <c r="AF264" s="4"/>
       <c r="AG264" s="4"/>
+      <c r="AH264" s="4"/>
     </row>
     <row r="265">
       <c r="A265" s="4"/>
@@ -42513,6 +42990,7 @@
       <c r="AE265" s="4"/>
       <c r="AF265" s="4"/>
       <c r="AG265" s="4"/>
+      <c r="AH265" s="4"/>
     </row>
     <row r="266">
       <c r="A266" s="4"/>
@@ -42548,6 +43026,7 @@
       <c r="AE266" s="4"/>
       <c r="AF266" s="4"/>
       <c r="AG266" s="4"/>
+      <c r="AH266" s="4"/>
     </row>
     <row r="267">
       <c r="A267" s="4"/>
@@ -42583,6 +43062,7 @@
       <c r="AE267" s="4"/>
       <c r="AF267" s="4"/>
       <c r="AG267" s="4"/>
+      <c r="AH267" s="4"/>
     </row>
     <row r="268">
       <c r="A268" s="4"/>
@@ -42618,6 +43098,7 @@
       <c r="AE268" s="4"/>
       <c r="AF268" s="4"/>
       <c r="AG268" s="4"/>
+      <c r="AH268" s="4"/>
     </row>
     <row r="269">
       <c r="A269" s="4"/>
@@ -42653,6 +43134,7 @@
       <c r="AE269" s="4"/>
       <c r="AF269" s="4"/>
       <c r="AG269" s="4"/>
+      <c r="AH269" s="4"/>
     </row>
     <row r="270">
       <c r="A270" s="4"/>
@@ -42688,6 +43170,7 @@
       <c r="AE270" s="4"/>
       <c r="AF270" s="4"/>
       <c r="AG270" s="4"/>
+      <c r="AH270" s="4"/>
     </row>
     <row r="271">
       <c r="A271" s="4"/>
@@ -42723,6 +43206,7 @@
       <c r="AE271" s="4"/>
       <c r="AF271" s="4"/>
       <c r="AG271" s="4"/>
+      <c r="AH271" s="4"/>
     </row>
     <row r="272">
       <c r="A272" s="4"/>
@@ -42758,6 +43242,7 @@
       <c r="AE272" s="4"/>
       <c r="AF272" s="4"/>
       <c r="AG272" s="4"/>
+      <c r="AH272" s="4"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
@@ -42793,6 +43278,7 @@
       <c r="AE273" s="4"/>
       <c r="AF273" s="4"/>
       <c r="AG273" s="4"/>
+      <c r="AH273" s="4"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -42828,6 +43314,7 @@
       <c r="AE274" s="4"/>
       <c r="AF274" s="4"/>
       <c r="AG274" s="4"/>
+      <c r="AH274" s="4"/>
     </row>
     <row r="275">
       <c r="A275" s="4"/>
@@ -42863,6 +43350,7 @@
       <c r="AE275" s="4"/>
       <c r="AF275" s="4"/>
       <c r="AG275" s="4"/>
+      <c r="AH275" s="4"/>
     </row>
     <row r="276">
       <c r="A276" s="4"/>
@@ -42898,6 +43386,7 @@
       <c r="AE276" s="4"/>
       <c r="AF276" s="4"/>
       <c r="AG276" s="4"/>
+      <c r="AH276" s="4"/>
     </row>
     <row r="277">
       <c r="A277" s="4"/>
@@ -42933,6 +43422,7 @@
       <c r="AE277" s="4"/>
       <c r="AF277" s="4"/>
       <c r="AG277" s="4"/>
+      <c r="AH277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4"/>
@@ -42968,6 +43458,7 @@
       <c r="AE278" s="4"/>
       <c r="AF278" s="4"/>
       <c r="AG278" s="4"/>
+      <c r="AH278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
@@ -43003,6 +43494,7 @@
       <c r="AE279" s="4"/>
       <c r="AF279" s="4"/>
       <c r="AG279" s="4"/>
+      <c r="AH279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -43038,6 +43530,7 @@
       <c r="AE280" s="4"/>
       <c r="AF280" s="4"/>
       <c r="AG280" s="4"/>
+      <c r="AH280" s="4"/>
     </row>
     <row r="281">
       <c r="A281" s="4"/>
@@ -43073,6 +43566,7 @@
       <c r="AE281" s="4"/>
       <c r="AF281" s="4"/>
       <c r="AG281" s="4"/>
+      <c r="AH281" s="4"/>
     </row>
     <row r="282">
       <c r="A282" s="4"/>
@@ -43108,6 +43602,7 @@
       <c r="AE282" s="4"/>
       <c r="AF282" s="4"/>
       <c r="AG282" s="4"/>
+      <c r="AH282" s="4"/>
     </row>
     <row r="283">
       <c r="A283" s="4"/>
@@ -43143,6 +43638,7 @@
       <c r="AE283" s="4"/>
       <c r="AF283" s="4"/>
       <c r="AG283" s="4"/>
+      <c r="AH283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4"/>
@@ -43178,6 +43674,7 @@
       <c r="AE284" s="4"/>
       <c r="AF284" s="4"/>
       <c r="AG284" s="4"/>
+      <c r="AH284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
@@ -43213,6 +43710,7 @@
       <c r="AE285" s="4"/>
       <c r="AF285" s="4"/>
       <c r="AG285" s="4"/>
+      <c r="AH285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -43248,6 +43746,7 @@
       <c r="AE286" s="4"/>
       <c r="AF286" s="4"/>
       <c r="AG286" s="4"/>
+      <c r="AH286" s="4"/>
     </row>
     <row r="287">
       <c r="A287" s="4"/>
@@ -43283,6 +43782,7 @@
       <c r="AE287" s="4"/>
       <c r="AF287" s="4"/>
       <c r="AG287" s="4"/>
+      <c r="AH287" s="4"/>
     </row>
     <row r="288">
       <c r="A288" s="4"/>
@@ -43318,6 +43818,7 @@
       <c r="AE288" s="4"/>
       <c r="AF288" s="4"/>
       <c r="AG288" s="4"/>
+      <c r="AH288" s="4"/>
     </row>
     <row r="289">
       <c r="A289" s="4"/>
@@ -43353,6 +43854,7 @@
       <c r="AE289" s="4"/>
       <c r="AF289" s="4"/>
       <c r="AG289" s="4"/>
+      <c r="AH289" s="4"/>
     </row>
     <row r="290">
       <c r="A290" s="4"/>
@@ -43388,6 +43890,7 @@
       <c r="AE290" s="4"/>
       <c r="AF290" s="4"/>
       <c r="AG290" s="4"/>
+      <c r="AH290" s="4"/>
     </row>
     <row r="291">
       <c r="A291" s="4"/>
@@ -43423,6 +43926,7 @@
       <c r="AE291" s="4"/>
       <c r="AF291" s="4"/>
       <c r="AG291" s="4"/>
+      <c r="AH291" s="4"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
@@ -43458,6 +43962,7 @@
       <c r="AE292" s="4"/>
       <c r="AF292" s="4"/>
       <c r="AG292" s="4"/>
+      <c r="AH292" s="4"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -43493,6 +43998,7 @@
       <c r="AE293" s="4"/>
       <c r="AF293" s="4"/>
       <c r="AG293" s="4"/>
+      <c r="AH293" s="4"/>
     </row>
     <row r="294">
       <c r="A294" s="4"/>
@@ -43528,6 +44034,7 @@
       <c r="AE294" s="4"/>
       <c r="AF294" s="4"/>
       <c r="AG294" s="4"/>
+      <c r="AH294" s="4"/>
     </row>
     <row r="295">
       <c r="A295" s="4"/>
@@ -43563,6 +44070,7 @@
       <c r="AE295" s="4"/>
       <c r="AF295" s="4"/>
       <c r="AG295" s="4"/>
+      <c r="AH295" s="4"/>
     </row>
     <row r="296">
       <c r="A296" s="4"/>
@@ -43598,6 +44106,7 @@
       <c r="AE296" s="4"/>
       <c r="AF296" s="4"/>
       <c r="AG296" s="4"/>
+      <c r="AH296" s="4"/>
     </row>
     <row r="297">
       <c r="A297" s="4"/>
@@ -43633,6 +44142,7 @@
       <c r="AE297" s="4"/>
       <c r="AF297" s="4"/>
       <c r="AG297" s="4"/>
+      <c r="AH297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4"/>
@@ -43668,6 +44178,7 @@
       <c r="AE298" s="4"/>
       <c r="AF298" s="4"/>
       <c r="AG298" s="4"/>
+      <c r="AH298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4"/>
@@ -43703,6 +44214,7 @@
       <c r="AE299" s="4"/>
       <c r="AF299" s="4"/>
       <c r="AG299" s="4"/>
+      <c r="AH299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="4"/>
@@ -43738,6 +44250,7 @@
       <c r="AE300" s="4"/>
       <c r="AF300" s="4"/>
       <c r="AG300" s="4"/>
+      <c r="AH300" s="4"/>
     </row>
     <row r="301">
       <c r="A301" s="4"/>
@@ -43773,6 +44286,7 @@
       <c r="AE301" s="4"/>
       <c r="AF301" s="4"/>
       <c r="AG301" s="4"/>
+      <c r="AH301" s="4"/>
     </row>
     <row r="302">
       <c r="A302" s="4"/>
@@ -43808,6 +44322,7 @@
       <c r="AE302" s="4"/>
       <c r="AF302" s="4"/>
       <c r="AG302" s="4"/>
+      <c r="AH302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4"/>
@@ -43843,6 +44358,7 @@
       <c r="AE303" s="4"/>
       <c r="AF303" s="4"/>
       <c r="AG303" s="4"/>
+      <c r="AH303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4"/>
@@ -43878,6 +44394,7 @@
       <c r="AE304" s="4"/>
       <c r="AF304" s="4"/>
       <c r="AG304" s="4"/>
+      <c r="AH304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="4"/>
@@ -43913,6 +44430,7 @@
       <c r="AE305" s="4"/>
       <c r="AF305" s="4"/>
       <c r="AG305" s="4"/>
+      <c r="AH305" s="4"/>
     </row>
     <row r="306">
       <c r="A306" s="4"/>
@@ -43948,6 +44466,7 @@
       <c r="AE306" s="4"/>
       <c r="AF306" s="4"/>
       <c r="AG306" s="4"/>
+      <c r="AH306" s="4"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
@@ -43983,6 +44502,7 @@
       <c r="AE307" s="4"/>
       <c r="AF307" s="4"/>
       <c r="AG307" s="4"/>
+      <c r="AH307" s="4"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -44018,6 +44538,7 @@
       <c r="AE308" s="4"/>
       <c r="AF308" s="4"/>
       <c r="AG308" s="4"/>
+      <c r="AH308" s="4"/>
     </row>
     <row r="309">
       <c r="A309" s="4"/>
@@ -44053,6 +44574,7 @@
       <c r="AE309" s="4"/>
       <c r="AF309" s="4"/>
       <c r="AG309" s="4"/>
+      <c r="AH309" s="4"/>
     </row>
     <row r="310">
       <c r="A310" s="4"/>
@@ -44088,6 +44610,7 @@
       <c r="AE310" s="4"/>
       <c r="AF310" s="4"/>
       <c r="AG310" s="4"/>
+      <c r="AH310" s="4"/>
     </row>
     <row r="311">
       <c r="A311" s="4"/>
@@ -44123,6 +44646,7 @@
       <c r="AE311" s="4"/>
       <c r="AF311" s="4"/>
       <c r="AG311" s="4"/>
+      <c r="AH311" s="4"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -44158,6 +44682,7 @@
       <c r="AE312" s="4"/>
       <c r="AF312" s="4"/>
       <c r="AG312" s="4"/>
+      <c r="AH312" s="4"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -44193,6 +44718,7 @@
       <c r="AE313" s="4"/>
       <c r="AF313" s="4"/>
       <c r="AG313" s="4"/>
+      <c r="AH313" s="4"/>
     </row>
     <row r="314">
       <c r="A314" s="4"/>
@@ -44228,6 +44754,7 @@
       <c r="AE314" s="4"/>
       <c r="AF314" s="4"/>
       <c r="AG314" s="4"/>
+      <c r="AH314" s="4"/>
     </row>
     <row r="315">
       <c r="A315" s="4"/>
@@ -44263,6 +44790,7 @@
       <c r="AE315" s="4"/>
       <c r="AF315" s="4"/>
       <c r="AG315" s="4"/>
+      <c r="AH315" s="4"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
@@ -44298,6 +44826,7 @@
       <c r="AE316" s="4"/>
       <c r="AF316" s="4"/>
       <c r="AG316" s="4"/>
+      <c r="AH316" s="4"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
@@ -44333,6 +44862,7 @@
       <c r="AE317" s="4"/>
       <c r="AF317" s="4"/>
       <c r="AG317" s="4"/>
+      <c r="AH317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -44368,6 +44898,7 @@
       <c r="AE318" s="4"/>
       <c r="AF318" s="4"/>
       <c r="AG318" s="4"/>
+      <c r="AH318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4"/>
@@ -44403,6 +44934,7 @@
       <c r="AE319" s="4"/>
       <c r="AF319" s="4"/>
       <c r="AG319" s="4"/>
+      <c r="AH319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="4"/>
@@ -44438,6 +44970,7 @@
       <c r="AE320" s="4"/>
       <c r="AF320" s="4"/>
       <c r="AG320" s="4"/>
+      <c r="AH320" s="4"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -44473,6 +45006,7 @@
       <c r="AE321" s="4"/>
       <c r="AF321" s="4"/>
       <c r="AG321" s="4"/>
+      <c r="AH321" s="4"/>
     </row>
     <row r="322">
       <c r="A322" s="4"/>
@@ -44508,6 +45042,7 @@
       <c r="AE322" s="4"/>
       <c r="AF322" s="4"/>
       <c r="AG322" s="4"/>
+      <c r="AH322" s="4"/>
     </row>
     <row r="323">
       <c r="A323" s="4"/>
@@ -44543,6 +45078,7 @@
       <c r="AE323" s="4"/>
       <c r="AF323" s="4"/>
       <c r="AG323" s="4"/>
+      <c r="AH323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4"/>
@@ -44578,6 +45114,7 @@
       <c r="AE324" s="4"/>
       <c r="AF324" s="4"/>
       <c r="AG324" s="4"/>
+      <c r="AH324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="4"/>
@@ -44613,6 +45150,7 @@
       <c r="AE325" s="4"/>
       <c r="AF325" s="4"/>
       <c r="AG325" s="4"/>
+      <c r="AH325" s="4"/>
     </row>
     <row r="326">
       <c r="A326" s="4"/>
@@ -44648,6 +45186,7 @@
       <c r="AE326" s="4"/>
       <c r="AF326" s="4"/>
       <c r="AG326" s="4"/>
+      <c r="AH326" s="4"/>
     </row>
     <row r="327">
       <c r="A327" s="4"/>
@@ -44683,6 +45222,7 @@
       <c r="AE327" s="4"/>
       <c r="AF327" s="4"/>
       <c r="AG327" s="4"/>
+      <c r="AH327" s="4"/>
     </row>
     <row r="328">
       <c r="A328" s="4"/>
@@ -44718,6 +45258,7 @@
       <c r="AE328" s="4"/>
       <c r="AF328" s="4"/>
       <c r="AG328" s="4"/>
+      <c r="AH328" s="4"/>
     </row>
     <row r="329">
       <c r="A329" s="4"/>
@@ -44753,6 +45294,7 @@
       <c r="AE329" s="4"/>
       <c r="AF329" s="4"/>
       <c r="AG329" s="4"/>
+      <c r="AH329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="4"/>
@@ -44788,6 +45330,7 @@
       <c r="AE330" s="4"/>
       <c r="AF330" s="4"/>
       <c r="AG330" s="4"/>
+      <c r="AH330" s="4"/>
     </row>
     <row r="331">
       <c r="A331" s="4"/>
@@ -44823,6 +45366,7 @@
       <c r="AE331" s="4"/>
       <c r="AF331" s="4"/>
       <c r="AG331" s="4"/>
+      <c r="AH331" s="4"/>
     </row>
     <row r="332">
       <c r="A332" s="4"/>
@@ -44858,6 +45402,7 @@
       <c r="AE332" s="4"/>
       <c r="AF332" s="4"/>
       <c r="AG332" s="4"/>
+      <c r="AH332" s="4"/>
     </row>
     <row r="333">
       <c r="A333" s="4"/>
@@ -44893,6 +45438,7 @@
       <c r="AE333" s="4"/>
       <c r="AF333" s="4"/>
       <c r="AG333" s="4"/>
+      <c r="AH333" s="4"/>
     </row>
     <row r="334">
       <c r="A334" s="4"/>
@@ -44928,6 +45474,7 @@
       <c r="AE334" s="4"/>
       <c r="AF334" s="4"/>
       <c r="AG334" s="4"/>
+      <c r="AH334" s="4"/>
     </row>
     <row r="335">
       <c r="A335" s="4"/>
@@ -44963,6 +45510,7 @@
       <c r="AE335" s="4"/>
       <c r="AF335" s="4"/>
       <c r="AG335" s="4"/>
+      <c r="AH335" s="4"/>
     </row>
     <row r="336">
       <c r="A336" s="4"/>
@@ -44998,6 +45546,7 @@
       <c r="AE336" s="4"/>
       <c r="AF336" s="4"/>
       <c r="AG336" s="4"/>
+      <c r="AH336" s="4"/>
     </row>
     <row r="337">
       <c r="A337" s="4"/>
@@ -45033,6 +45582,7 @@
       <c r="AE337" s="4"/>
       <c r="AF337" s="4"/>
       <c r="AG337" s="4"/>
+      <c r="AH337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4"/>
@@ -45068,6 +45618,7 @@
       <c r="AE338" s="4"/>
       <c r="AF338" s="4"/>
       <c r="AG338" s="4"/>
+      <c r="AH338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4"/>
@@ -45103,6 +45654,7 @@
       <c r="AE339" s="4"/>
       <c r="AF339" s="4"/>
       <c r="AG339" s="4"/>
+      <c r="AH339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4"/>
@@ -45138,6 +45690,7 @@
       <c r="AE340" s="4"/>
       <c r="AF340" s="4"/>
       <c r="AG340" s="4"/>
+      <c r="AH340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4"/>
@@ -45173,6 +45726,7 @@
       <c r="AE341" s="4"/>
       <c r="AF341" s="4"/>
       <c r="AG341" s="4"/>
+      <c r="AH341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4"/>
@@ -45208,6 +45762,7 @@
       <c r="AE342" s="4"/>
       <c r="AF342" s="4"/>
       <c r="AG342" s="4"/>
+      <c r="AH342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4"/>
@@ -45243,6 +45798,7 @@
       <c r="AE343" s="4"/>
       <c r="AF343" s="4"/>
       <c r="AG343" s="4"/>
+      <c r="AH343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4"/>
@@ -45278,6 +45834,7 @@
       <c r="AE344" s="4"/>
       <c r="AF344" s="4"/>
       <c r="AG344" s="4"/>
+      <c r="AH344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4"/>
@@ -45313,6 +45870,7 @@
       <c r="AE345" s="4"/>
       <c r="AF345" s="4"/>
       <c r="AG345" s="4"/>
+      <c r="AH345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4"/>
@@ -45348,6 +45906,7 @@
       <c r="AE346" s="4"/>
       <c r="AF346" s="4"/>
       <c r="AG346" s="4"/>
+      <c r="AH346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4"/>
@@ -45383,6 +45942,7 @@
       <c r="AE347" s="4"/>
       <c r="AF347" s="4"/>
       <c r="AG347" s="4"/>
+      <c r="AH347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4"/>
@@ -45418,6 +45978,7 @@
       <c r="AE348" s="4"/>
       <c r="AF348" s="4"/>
       <c r="AG348" s="4"/>
+      <c r="AH348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4"/>
@@ -45453,6 +46014,7 @@
       <c r="AE349" s="4"/>
       <c r="AF349" s="4"/>
       <c r="AG349" s="4"/>
+      <c r="AH349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="4"/>
@@ -45488,6 +46050,7 @@
       <c r="AE350" s="4"/>
       <c r="AF350" s="4"/>
       <c r="AG350" s="4"/>
+      <c r="AH350" s="4"/>
     </row>
     <row r="351">
       <c r="A351" s="4"/>
@@ -45523,6 +46086,7 @@
       <c r="AE351" s="4"/>
       <c r="AF351" s="4"/>
       <c r="AG351" s="4"/>
+      <c r="AH351" s="4"/>
     </row>
     <row r="352">
       <c r="A352" s="4"/>
@@ -45558,6 +46122,7 @@
       <c r="AE352" s="4"/>
       <c r="AF352" s="4"/>
       <c r="AG352" s="4"/>
+      <c r="AH352" s="4"/>
     </row>
     <row r="353">
       <c r="A353" s="4"/>
@@ -45593,6 +46158,7 @@
       <c r="AE353" s="4"/>
       <c r="AF353" s="4"/>
       <c r="AG353" s="4"/>
+      <c r="AH353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4"/>
@@ -45628,6 +46194,7 @@
       <c r="AE354" s="4"/>
       <c r="AF354" s="4"/>
       <c r="AG354" s="4"/>
+      <c r="AH354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="4"/>
@@ -45663,6 +46230,7 @@
       <c r="AE355" s="4"/>
       <c r="AF355" s="4"/>
       <c r="AG355" s="4"/>
+      <c r="AH355" s="4"/>
     </row>
     <row r="356">
       <c r="A356" s="4"/>
@@ -45698,6 +46266,7 @@
       <c r="AE356" s="4"/>
       <c r="AF356" s="4"/>
       <c r="AG356" s="4"/>
+      <c r="AH356" s="4"/>
     </row>
     <row r="357">
       <c r="A357" s="4"/>
@@ -45733,6 +46302,7 @@
       <c r="AE357" s="4"/>
       <c r="AF357" s="4"/>
       <c r="AG357" s="4"/>
+      <c r="AH357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="4"/>
@@ -45768,6 +46338,7 @@
       <c r="AE358" s="4"/>
       <c r="AF358" s="4"/>
       <c r="AG358" s="4"/>
+      <c r="AH358" s="4"/>
     </row>
     <row r="359">
       <c r="A359" s="4"/>
@@ -45803,6 +46374,7 @@
       <c r="AE359" s="4"/>
       <c r="AF359" s="4"/>
       <c r="AG359" s="4"/>
+      <c r="AH359" s="4"/>
     </row>
     <row r="360">
       <c r="A360" s="4"/>
@@ -45838,6 +46410,7 @@
       <c r="AE360" s="4"/>
       <c r="AF360" s="4"/>
       <c r="AG360" s="4"/>
+      <c r="AH360" s="4"/>
     </row>
     <row r="361">
       <c r="A361" s="4"/>
@@ -45873,6 +46446,7 @@
       <c r="AE361" s="4"/>
       <c r="AF361" s="4"/>
       <c r="AG361" s="4"/>
+      <c r="AH361" s="4"/>
     </row>
     <row r="362">
       <c r="A362" s="4"/>
@@ -45908,6 +46482,7 @@
       <c r="AE362" s="4"/>
       <c r="AF362" s="4"/>
       <c r="AG362" s="4"/>
+      <c r="AH362" s="4"/>
     </row>
     <row r="363">
       <c r="A363" s="4"/>
@@ -45943,6 +46518,7 @@
       <c r="AE363" s="4"/>
       <c r="AF363" s="4"/>
       <c r="AG363" s="4"/>
+      <c r="AH363" s="4"/>
     </row>
     <row r="364">
       <c r="A364" s="4"/>
@@ -45978,6 +46554,7 @@
       <c r="AE364" s="4"/>
       <c r="AF364" s="4"/>
       <c r="AG364" s="4"/>
+      <c r="AH364" s="4"/>
     </row>
     <row r="365">
       <c r="A365" s="4"/>
@@ -46013,6 +46590,7 @@
       <c r="AE365" s="4"/>
       <c r="AF365" s="4"/>
       <c r="AG365" s="4"/>
+      <c r="AH365" s="4"/>
     </row>
     <row r="366">
       <c r="A366" s="4"/>
@@ -46048,6 +46626,7 @@
       <c r="AE366" s="4"/>
       <c r="AF366" s="4"/>
       <c r="AG366" s="4"/>
+      <c r="AH366" s="4"/>
     </row>
     <row r="367">
       <c r="A367" s="4"/>
@@ -46083,6 +46662,7 @@
       <c r="AE367" s="4"/>
       <c r="AF367" s="4"/>
       <c r="AG367" s="4"/>
+      <c r="AH367" s="4"/>
     </row>
     <row r="368">
       <c r="A368" s="4"/>
@@ -46118,6 +46698,7 @@
       <c r="AE368" s="4"/>
       <c r="AF368" s="4"/>
       <c r="AG368" s="4"/>
+      <c r="AH368" s="4"/>
     </row>
     <row r="369">
       <c r="A369" s="4"/>
@@ -46153,6 +46734,7 @@
       <c r="AE369" s="4"/>
       <c r="AF369" s="4"/>
       <c r="AG369" s="4"/>
+      <c r="AH369" s="4"/>
     </row>
     <row r="370">
       <c r="A370" s="4"/>
@@ -46188,6 +46770,7 @@
       <c r="AE370" s="4"/>
       <c r="AF370" s="4"/>
       <c r="AG370" s="4"/>
+      <c r="AH370" s="4"/>
     </row>
     <row r="371">
       <c r="A371" s="4"/>
@@ -46223,6 +46806,7 @@
       <c r="AE371" s="4"/>
       <c r="AF371" s="4"/>
       <c r="AG371" s="4"/>
+      <c r="AH371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4"/>
@@ -46258,6 +46842,7 @@
       <c r="AE372" s="4"/>
       <c r="AF372" s="4"/>
       <c r="AG372" s="4"/>
+      <c r="AH372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="4"/>
@@ -46293,6 +46878,7 @@
       <c r="AE373" s="4"/>
       <c r="AF373" s="4"/>
       <c r="AG373" s="4"/>
+      <c r="AH373" s="4"/>
     </row>
     <row r="374">
       <c r="A374" s="4"/>
@@ -46328,6 +46914,7 @@
       <c r="AE374" s="4"/>
       <c r="AF374" s="4"/>
       <c r="AG374" s="4"/>
+      <c r="AH374" s="4"/>
     </row>
     <row r="375">
       <c r="A375" s="4"/>
@@ -46363,6 +46950,7 @@
       <c r="AE375" s="4"/>
       <c r="AF375" s="4"/>
       <c r="AG375" s="4"/>
+      <c r="AH375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="4"/>
@@ -46398,6 +46986,7 @@
       <c r="AE376" s="4"/>
       <c r="AF376" s="4"/>
       <c r="AG376" s="4"/>
+      <c r="AH376" s="4"/>
     </row>
     <row r="377">
       <c r="A377" s="4"/>
@@ -46433,6 +47022,7 @@
       <c r="AE377" s="4"/>
       <c r="AF377" s="4"/>
       <c r="AG377" s="4"/>
+      <c r="AH377" s="4"/>
     </row>
     <row r="378">
       <c r="A378" s="4"/>
@@ -46468,6 +47058,7 @@
       <c r="AE378" s="4"/>
       <c r="AF378" s="4"/>
       <c r="AG378" s="4"/>
+      <c r="AH378" s="4"/>
     </row>
     <row r="379">
       <c r="A379" s="4"/>
@@ -46503,6 +47094,7 @@
       <c r="AE379" s="4"/>
       <c r="AF379" s="4"/>
       <c r="AG379" s="4"/>
+      <c r="AH379" s="4"/>
     </row>
     <row r="380">
       <c r="A380" s="4"/>
@@ -46538,6 +47130,7 @@
       <c r="AE380" s="4"/>
       <c r="AF380" s="4"/>
       <c r="AG380" s="4"/>
+      <c r="AH380" s="4"/>
     </row>
     <row r="381">
       <c r="A381" s="4"/>
@@ -46573,6 +47166,7 @@
       <c r="AE381" s="4"/>
       <c r="AF381" s="4"/>
       <c r="AG381" s="4"/>
+      <c r="AH381" s="4"/>
     </row>
     <row r="382">
       <c r="A382" s="4"/>
@@ -46608,6 +47202,7 @@
       <c r="AE382" s="4"/>
       <c r="AF382" s="4"/>
       <c r="AG382" s="4"/>
+      <c r="AH382" s="4"/>
     </row>
     <row r="383">
       <c r="A383" s="4"/>
@@ -46643,6 +47238,7 @@
       <c r="AE383" s="4"/>
       <c r="AF383" s="4"/>
       <c r="AG383" s="4"/>
+      <c r="AH383" s="4"/>
     </row>
     <row r="384">
       <c r="A384" s="4"/>
@@ -46678,6 +47274,7 @@
       <c r="AE384" s="4"/>
       <c r="AF384" s="4"/>
       <c r="AG384" s="4"/>
+      <c r="AH384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4"/>
@@ -46713,6 +47310,7 @@
       <c r="AE385" s="4"/>
       <c r="AF385" s="4"/>
       <c r="AG385" s="4"/>
+      <c r="AH385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4"/>
@@ -46748,6 +47346,7 @@
       <c r="AE386" s="4"/>
       <c r="AF386" s="4"/>
       <c r="AG386" s="4"/>
+      <c r="AH386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4"/>
@@ -46783,6 +47382,7 @@
       <c r="AE387" s="4"/>
       <c r="AF387" s="4"/>
       <c r="AG387" s="4"/>
+      <c r="AH387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4"/>
@@ -46818,6 +47418,7 @@
       <c r="AE388" s="4"/>
       <c r="AF388" s="4"/>
       <c r="AG388" s="4"/>
+      <c r="AH388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4"/>
@@ -46853,6 +47454,7 @@
       <c r="AE389" s="4"/>
       <c r="AF389" s="4"/>
       <c r="AG389" s="4"/>
+      <c r="AH389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4"/>
@@ -46888,6 +47490,7 @@
       <c r="AE390" s="4"/>
       <c r="AF390" s="4"/>
       <c r="AG390" s="4"/>
+      <c r="AH390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="4"/>
@@ -46923,6 +47526,7 @@
       <c r="AE391" s="4"/>
       <c r="AF391" s="4"/>
       <c r="AG391" s="4"/>
+      <c r="AH391" s="4"/>
     </row>
     <row r="392">
       <c r="A392" s="4"/>
@@ -46958,6 +47562,7 @@
       <c r="AE392" s="4"/>
       <c r="AF392" s="4"/>
       <c r="AG392" s="4"/>
+      <c r="AH392" s="4"/>
     </row>
     <row r="393">
       <c r="A393" s="4"/>
@@ -46993,6 +47598,7 @@
       <c r="AE393" s="4"/>
       <c r="AF393" s="4"/>
       <c r="AG393" s="4"/>
+      <c r="AH393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4"/>
@@ -47028,6 +47634,7 @@
       <c r="AE394" s="4"/>
       <c r="AF394" s="4"/>
       <c r="AG394" s="4"/>
+      <c r="AH394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4"/>
@@ -47063,6 +47670,7 @@
       <c r="AE395" s="4"/>
       <c r="AF395" s="4"/>
       <c r="AG395" s="4"/>
+      <c r="AH395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="4"/>
@@ -47098,6 +47706,7 @@
       <c r="AE396" s="4"/>
       <c r="AF396" s="4"/>
       <c r="AG396" s="4"/>
+      <c r="AH396" s="4"/>
     </row>
     <row r="397">
       <c r="A397" s="4"/>
@@ -47133,6 +47742,7 @@
       <c r="AE397" s="4"/>
       <c r="AF397" s="4"/>
       <c r="AG397" s="4"/>
+      <c r="AH397" s="4"/>
     </row>
     <row r="398">
       <c r="A398" s="4"/>
@@ -47168,6 +47778,7 @@
       <c r="AE398" s="4"/>
       <c r="AF398" s="4"/>
       <c r="AG398" s="4"/>
+      <c r="AH398" s="4"/>
     </row>
     <row r="399">
       <c r="A399" s="4"/>
@@ -47203,6 +47814,7 @@
       <c r="AE399" s="4"/>
       <c r="AF399" s="4"/>
       <c r="AG399" s="4"/>
+      <c r="AH399" s="4"/>
     </row>
     <row r="400">
       <c r="A400" s="4"/>
@@ -47238,6 +47850,7 @@
       <c r="AE400" s="4"/>
       <c r="AF400" s="4"/>
       <c r="AG400" s="4"/>
+      <c r="AH400" s="4"/>
     </row>
     <row r="401">
       <c r="A401" s="4"/>
@@ -47273,6 +47886,7 @@
       <c r="AE401" s="4"/>
       <c r="AF401" s="4"/>
       <c r="AG401" s="4"/>
+      <c r="AH401" s="4"/>
     </row>
     <row r="402">
       <c r="A402" s="4"/>
@@ -47308,6 +47922,7 @@
       <c r="AE402" s="4"/>
       <c r="AF402" s="4"/>
       <c r="AG402" s="4"/>
+      <c r="AH402" s="4"/>
     </row>
     <row r="403">
       <c r="A403" s="4"/>
@@ -47343,6 +47958,7 @@
       <c r="AE403" s="4"/>
       <c r="AF403" s="4"/>
       <c r="AG403" s="4"/>
+      <c r="AH403" s="4"/>
     </row>
     <row r="404">
       <c r="A404" s="4"/>
@@ -47378,6 +47994,7 @@
       <c r="AE404" s="4"/>
       <c r="AF404" s="4"/>
       <c r="AG404" s="4"/>
+      <c r="AH404" s="4"/>
     </row>
     <row r="405">
       <c r="A405" s="4"/>
@@ -47413,6 +48030,7 @@
       <c r="AE405" s="4"/>
       <c r="AF405" s="4"/>
       <c r="AG405" s="4"/>
+      <c r="AH405" s="4"/>
     </row>
     <row r="406">
       <c r="A406" s="4"/>
@@ -47448,6 +48066,7 @@
       <c r="AE406" s="4"/>
       <c r="AF406" s="4"/>
       <c r="AG406" s="4"/>
+      <c r="AH406" s="4"/>
     </row>
     <row r="407">
       <c r="A407" s="4"/>
@@ -47483,6 +48102,7 @@
       <c r="AE407" s="4"/>
       <c r="AF407" s="4"/>
       <c r="AG407" s="4"/>
+      <c r="AH407" s="4"/>
     </row>
     <row r="408">
       <c r="A408" s="4"/>
@@ -47518,6 +48138,7 @@
       <c r="AE408" s="4"/>
       <c r="AF408" s="4"/>
       <c r="AG408" s="4"/>
+      <c r="AH408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="4"/>
@@ -47553,6 +48174,7 @@
       <c r="AE409" s="4"/>
       <c r="AF409" s="4"/>
       <c r="AG409" s="4"/>
+      <c r="AH409" s="4"/>
     </row>
     <row r="410">
       <c r="A410" s="4"/>
@@ -47588,6 +48210,7 @@
       <c r="AE410" s="4"/>
       <c r="AF410" s="4"/>
       <c r="AG410" s="4"/>
+      <c r="AH410" s="4"/>
     </row>
     <row r="411">
       <c r="A411" s="4"/>
@@ -47623,6 +48246,7 @@
       <c r="AE411" s="4"/>
       <c r="AF411" s="4"/>
       <c r="AG411" s="4"/>
+      <c r="AH411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="4"/>
@@ -47658,6 +48282,7 @@
       <c r="AE412" s="4"/>
       <c r="AF412" s="4"/>
       <c r="AG412" s="4"/>
+      <c r="AH412" s="4"/>
     </row>
     <row r="413">
       <c r="A413" s="4"/>
@@ -47693,6 +48318,7 @@
       <c r="AE413" s="4"/>
       <c r="AF413" s="4"/>
       <c r="AG413" s="4"/>
+      <c r="AH413" s="4"/>
     </row>
     <row r="414">
       <c r="A414" s="4"/>
@@ -47728,6 +48354,7 @@
       <c r="AE414" s="4"/>
       <c r="AF414" s="4"/>
       <c r="AG414" s="4"/>
+      <c r="AH414" s="4"/>
     </row>
     <row r="415">
       <c r="A415" s="4"/>
@@ -47763,6 +48390,7 @@
       <c r="AE415" s="4"/>
       <c r="AF415" s="4"/>
       <c r="AG415" s="4"/>
+      <c r="AH415" s="4"/>
     </row>
     <row r="416">
       <c r="A416" s="4"/>
@@ -47798,6 +48426,7 @@
       <c r="AE416" s="4"/>
       <c r="AF416" s="4"/>
       <c r="AG416" s="4"/>
+      <c r="AH416" s="4"/>
     </row>
     <row r="417">
       <c r="A417" s="4"/>
@@ -47833,6 +48462,7 @@
       <c r="AE417" s="4"/>
       <c r="AF417" s="4"/>
       <c r="AG417" s="4"/>
+      <c r="AH417" s="4"/>
     </row>
     <row r="418">
       <c r="A418" s="4"/>
@@ -47868,6 +48498,7 @@
       <c r="AE418" s="4"/>
       <c r="AF418" s="4"/>
       <c r="AG418" s="4"/>
+      <c r="AH418" s="4"/>
     </row>
     <row r="419">
       <c r="A419" s="4"/>
@@ -47903,6 +48534,7 @@
       <c r="AE419" s="4"/>
       <c r="AF419" s="4"/>
       <c r="AG419" s="4"/>
+      <c r="AH419" s="4"/>
     </row>
     <row r="420">
       <c r="A420" s="4"/>
@@ -47938,6 +48570,7 @@
       <c r="AE420" s="4"/>
       <c r="AF420" s="4"/>
       <c r="AG420" s="4"/>
+      <c r="AH420" s="4"/>
     </row>
     <row r="421">
       <c r="A421" s="4"/>
@@ -47973,6 +48606,7 @@
       <c r="AE421" s="4"/>
       <c r="AF421" s="4"/>
       <c r="AG421" s="4"/>
+      <c r="AH421" s="4"/>
     </row>
     <row r="422">
       <c r="A422" s="4"/>
@@ -48008,6 +48642,7 @@
       <c r="AE422" s="4"/>
       <c r="AF422" s="4"/>
       <c r="AG422" s="4"/>
+      <c r="AH422" s="4"/>
     </row>
     <row r="423">
       <c r="A423" s="4"/>
@@ -48043,6 +48678,7 @@
       <c r="AE423" s="4"/>
       <c r="AF423" s="4"/>
       <c r="AG423" s="4"/>
+      <c r="AH423" s="4"/>
     </row>
     <row r="424">
       <c r="A424" s="4"/>
@@ -48078,6 +48714,7 @@
       <c r="AE424" s="4"/>
       <c r="AF424" s="4"/>
       <c r="AG424" s="4"/>
+      <c r="AH424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="4"/>
@@ -48113,6 +48750,7 @@
       <c r="AE425" s="4"/>
       <c r="AF425" s="4"/>
       <c r="AG425" s="4"/>
+      <c r="AH425" s="4"/>
     </row>
     <row r="426">
       <c r="A426" s="4"/>
@@ -48148,6 +48786,7 @@
       <c r="AE426" s="4"/>
       <c r="AF426" s="4"/>
       <c r="AG426" s="4"/>
+      <c r="AH426" s="4"/>
     </row>
     <row r="427">
       <c r="A427" s="4"/>
@@ -48183,6 +48822,7 @@
       <c r="AE427" s="4"/>
       <c r="AF427" s="4"/>
       <c r="AG427" s="4"/>
+      <c r="AH427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="4"/>
@@ -48218,6 +48858,7 @@
       <c r="AE428" s="4"/>
       <c r="AF428" s="4"/>
       <c r="AG428" s="4"/>
+      <c r="AH428" s="4"/>
     </row>
     <row r="429">
       <c r="A429" s="4"/>
@@ -48253,6 +48894,7 @@
       <c r="AE429" s="4"/>
       <c r="AF429" s="4"/>
       <c r="AG429" s="4"/>
+      <c r="AH429" s="4"/>
     </row>
     <row r="430">
       <c r="A430" s="4"/>
@@ -48288,6 +48930,7 @@
       <c r="AE430" s="4"/>
       <c r="AF430" s="4"/>
       <c r="AG430" s="4"/>
+      <c r="AH430" s="4"/>
     </row>
     <row r="431">
       <c r="A431" s="4"/>
@@ -48323,6 +48966,7 @@
       <c r="AE431" s="4"/>
       <c r="AF431" s="4"/>
       <c r="AG431" s="4"/>
+      <c r="AH431" s="4"/>
     </row>
     <row r="432">
       <c r="A432" s="4"/>
@@ -48358,6 +49002,7 @@
       <c r="AE432" s="4"/>
       <c r="AF432" s="4"/>
       <c r="AG432" s="4"/>
+      <c r="AH432" s="4"/>
     </row>
     <row r="433">
       <c r="A433" s="4"/>
@@ -48393,6 +49038,7 @@
       <c r="AE433" s="4"/>
       <c r="AF433" s="4"/>
       <c r="AG433" s="4"/>
+      <c r="AH433" s="4"/>
     </row>
     <row r="434">
       <c r="A434" s="4"/>
@@ -48428,6 +49074,7 @@
       <c r="AE434" s="4"/>
       <c r="AF434" s="4"/>
       <c r="AG434" s="4"/>
+      <c r="AH434" s="4"/>
     </row>
     <row r="435">
       <c r="A435" s="4"/>
@@ -48463,6 +49110,7 @@
       <c r="AE435" s="4"/>
       <c r="AF435" s="4"/>
       <c r="AG435" s="4"/>
+      <c r="AH435" s="4"/>
     </row>
     <row r="436">
       <c r="A436" s="4"/>
@@ -48498,6 +49146,7 @@
       <c r="AE436" s="4"/>
       <c r="AF436" s="4"/>
       <c r="AG436" s="4"/>
+      <c r="AH436" s="4"/>
     </row>
     <row r="437">
       <c r="A437" s="4"/>
@@ -48533,6 +49182,7 @@
       <c r="AE437" s="4"/>
       <c r="AF437" s="4"/>
       <c r="AG437" s="4"/>
+      <c r="AH437" s="4"/>
     </row>
     <row r="438">
       <c r="A438" s="4"/>
@@ -48568,6 +49218,7 @@
       <c r="AE438" s="4"/>
       <c r="AF438" s="4"/>
       <c r="AG438" s="4"/>
+      <c r="AH438" s="4"/>
     </row>
     <row r="439">
       <c r="A439" s="4"/>
@@ -48603,6 +49254,7 @@
       <c r="AE439" s="4"/>
       <c r="AF439" s="4"/>
       <c r="AG439" s="4"/>
+      <c r="AH439" s="4"/>
     </row>
     <row r="440">
       <c r="A440" s="4"/>
@@ -48638,6 +49290,7 @@
       <c r="AE440" s="4"/>
       <c r="AF440" s="4"/>
       <c r="AG440" s="4"/>
+      <c r="AH440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4"/>
@@ -48673,6 +49326,7 @@
       <c r="AE441" s="4"/>
       <c r="AF441" s="4"/>
       <c r="AG441" s="4"/>
+      <c r="AH441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4"/>
@@ -48708,6 +49362,7 @@
       <c r="AE442" s="4"/>
       <c r="AF442" s="4"/>
       <c r="AG442" s="4"/>
+      <c r="AH442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="4"/>
@@ -48743,6 +49398,7 @@
       <c r="AE443" s="4"/>
       <c r="AF443" s="4"/>
       <c r="AG443" s="4"/>
+      <c r="AH443" s="4"/>
     </row>
     <row r="444">
       <c r="A444" s="4"/>
@@ -48778,6 +49434,7 @@
       <c r="AE444" s="4"/>
       <c r="AF444" s="4"/>
       <c r="AG444" s="4"/>
+      <c r="AH444" s="4"/>
     </row>
     <row r="445">
       <c r="A445" s="4"/>
@@ -48813,6 +49470,7 @@
       <c r="AE445" s="4"/>
       <c r="AF445" s="4"/>
       <c r="AG445" s="4"/>
+      <c r="AH445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4"/>
@@ -48848,6 +49506,7 @@
       <c r="AE446" s="4"/>
       <c r="AF446" s="4"/>
       <c r="AG446" s="4"/>
+      <c r="AH446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4"/>
@@ -48883,6 +49542,7 @@
       <c r="AE447" s="4"/>
       <c r="AF447" s="4"/>
       <c r="AG447" s="4"/>
+      <c r="AH447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="4"/>
@@ -48918,6 +49578,7 @@
       <c r="AE448" s="4"/>
       <c r="AF448" s="4"/>
       <c r="AG448" s="4"/>
+      <c r="AH448" s="4"/>
     </row>
     <row r="449">
       <c r="A449" s="4"/>
@@ -48953,6 +49614,7 @@
       <c r="AE449" s="4"/>
       <c r="AF449" s="4"/>
       <c r="AG449" s="4"/>
+      <c r="AH449" s="4"/>
     </row>
     <row r="450">
       <c r="A450" s="4"/>
@@ -48988,6 +49650,7 @@
       <c r="AE450" s="4"/>
       <c r="AF450" s="4"/>
       <c r="AG450" s="4"/>
+      <c r="AH450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4"/>
@@ -49023,6 +49686,7 @@
       <c r="AE451" s="4"/>
       <c r="AF451" s="4"/>
       <c r="AG451" s="4"/>
+      <c r="AH451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4"/>
@@ -49058,6 +49722,7 @@
       <c r="AE452" s="4"/>
       <c r="AF452" s="4"/>
       <c r="AG452" s="4"/>
+      <c r="AH452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4"/>
@@ -49093,6 +49758,7 @@
       <c r="AE453" s="4"/>
       <c r="AF453" s="4"/>
       <c r="AG453" s="4"/>
+      <c r="AH453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4"/>
@@ -49128,6 +49794,7 @@
       <c r="AE454" s="4"/>
       <c r="AF454" s="4"/>
       <c r="AG454" s="4"/>
+      <c r="AH454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4"/>
@@ -49163,6 +49830,7 @@
       <c r="AE455" s="4"/>
       <c r="AF455" s="4"/>
       <c r="AG455" s="4"/>
+      <c r="AH455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4"/>
@@ -49198,6 +49866,7 @@
       <c r="AE456" s="4"/>
       <c r="AF456" s="4"/>
       <c r="AG456" s="4"/>
+      <c r="AH456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4"/>
@@ -49233,6 +49902,7 @@
       <c r="AE457" s="4"/>
       <c r="AF457" s="4"/>
       <c r="AG457" s="4"/>
+      <c r="AH457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4"/>
@@ -49268,6 +49938,7 @@
       <c r="AE458" s="4"/>
       <c r="AF458" s="4"/>
       <c r="AG458" s="4"/>
+      <c r="AH458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4"/>
@@ -49303,6 +49974,7 @@
       <c r="AE459" s="4"/>
       <c r="AF459" s="4"/>
       <c r="AG459" s="4"/>
+      <c r="AH459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4"/>
@@ -49338,6 +50010,7 @@
       <c r="AE460" s="4"/>
       <c r="AF460" s="4"/>
       <c r="AG460" s="4"/>
+      <c r="AH460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4"/>
@@ -49373,6 +50046,7 @@
       <c r="AE461" s="4"/>
       <c r="AF461" s="4"/>
       <c r="AG461" s="4"/>
+      <c r="AH461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="4"/>
@@ -49408,6 +50082,7 @@
       <c r="AE462" s="4"/>
       <c r="AF462" s="4"/>
       <c r="AG462" s="4"/>
+      <c r="AH462" s="4"/>
     </row>
     <row r="463">
       <c r="A463" s="4"/>
@@ -49443,6 +50118,7 @@
       <c r="AE463" s="4"/>
       <c r="AF463" s="4"/>
       <c r="AG463" s="4"/>
+      <c r="AH463" s="4"/>
     </row>
     <row r="464">
       <c r="A464" s="4"/>
@@ -49478,6 +50154,7 @@
       <c r="AE464" s="4"/>
       <c r="AF464" s="4"/>
       <c r="AG464" s="4"/>
+      <c r="AH464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4"/>
@@ -49513,6 +50190,7 @@
       <c r="AE465" s="4"/>
       <c r="AF465" s="4"/>
       <c r="AG465" s="4"/>
+      <c r="AH465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4"/>
@@ -49548,6 +50226,7 @@
       <c r="AE466" s="4"/>
       <c r="AF466" s="4"/>
       <c r="AG466" s="4"/>
+      <c r="AH466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="4"/>
@@ -49583,6 +50262,7 @@
       <c r="AE467" s="4"/>
       <c r="AF467" s="4"/>
       <c r="AG467" s="4"/>
+      <c r="AH467" s="4"/>
     </row>
     <row r="468">
       <c r="A468" s="4"/>
@@ -49618,6 +50298,7 @@
       <c r="AE468" s="4"/>
       <c r="AF468" s="4"/>
       <c r="AG468" s="4"/>
+      <c r="AH468" s="4"/>
     </row>
     <row r="469">
       <c r="A469" s="4"/>
@@ -49653,6 +50334,7 @@
       <c r="AE469" s="4"/>
       <c r="AF469" s="4"/>
       <c r="AG469" s="4"/>
+      <c r="AH469" s="4"/>
     </row>
     <row r="470">
       <c r="A470" s="4"/>
@@ -49688,6 +50370,7 @@
       <c r="AE470" s="4"/>
       <c r="AF470" s="4"/>
       <c r="AG470" s="4"/>
+      <c r="AH470" s="4"/>
     </row>
     <row r="471">
       <c r="A471" s="4"/>
@@ -49723,6 +50406,7 @@
       <c r="AE471" s="4"/>
       <c r="AF471" s="4"/>
       <c r="AG471" s="4"/>
+      <c r="AH471" s="4"/>
     </row>
     <row r="472">
       <c r="A472" s="4"/>
@@ -49758,6 +50442,7 @@
       <c r="AE472" s="4"/>
       <c r="AF472" s="4"/>
       <c r="AG472" s="4"/>
+      <c r="AH472" s="4"/>
     </row>
     <row r="473">
       <c r="A473" s="4"/>
@@ -49793,6 +50478,7 @@
       <c r="AE473" s="4"/>
       <c r="AF473" s="4"/>
       <c r="AG473" s="4"/>
+      <c r="AH473" s="4"/>
     </row>
     <row r="474">
       <c r="A474" s="4"/>
@@ -49828,6 +50514,7 @@
       <c r="AE474" s="4"/>
       <c r="AF474" s="4"/>
       <c r="AG474" s="4"/>
+      <c r="AH474" s="4"/>
     </row>
     <row r="475">
       <c r="A475" s="4"/>
@@ -49863,6 +50550,7 @@
       <c r="AE475" s="4"/>
       <c r="AF475" s="4"/>
       <c r="AG475" s="4"/>
+      <c r="AH475" s="4"/>
     </row>
     <row r="476">
       <c r="A476" s="4"/>
@@ -49898,6 +50586,7 @@
       <c r="AE476" s="4"/>
       <c r="AF476" s="4"/>
       <c r="AG476" s="4"/>
+      <c r="AH476" s="4"/>
     </row>
     <row r="477">
       <c r="A477" s="4"/>
@@ -49933,6 +50622,7 @@
       <c r="AE477" s="4"/>
       <c r="AF477" s="4"/>
       <c r="AG477" s="4"/>
+      <c r="AH477" s="4"/>
     </row>
     <row r="478">
       <c r="A478" s="4"/>
@@ -49968,6 +50658,7 @@
       <c r="AE478" s="4"/>
       <c r="AF478" s="4"/>
       <c r="AG478" s="4"/>
+      <c r="AH478" s="4"/>
     </row>
     <row r="479">
       <c r="A479" s="4"/>
@@ -50003,6 +50694,7 @@
       <c r="AE479" s="4"/>
       <c r="AF479" s="4"/>
       <c r="AG479" s="4"/>
+      <c r="AH479" s="4"/>
     </row>
     <row r="480">
       <c r="A480" s="4"/>
@@ -50038,6 +50730,7 @@
       <c r="AE480" s="4"/>
       <c r="AF480" s="4"/>
       <c r="AG480" s="4"/>
+      <c r="AH480" s="4"/>
     </row>
     <row r="481">
       <c r="A481" s="4"/>
@@ -50073,6 +50766,7 @@
       <c r="AE481" s="4"/>
       <c r="AF481" s="4"/>
       <c r="AG481" s="4"/>
+      <c r="AH481" s="4"/>
     </row>
     <row r="482">
       <c r="A482" s="4"/>
@@ -50108,6 +50802,7 @@
       <c r="AE482" s="4"/>
       <c r="AF482" s="4"/>
       <c r="AG482" s="4"/>
+      <c r="AH482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4"/>
@@ -50143,6 +50838,7 @@
       <c r="AE483" s="4"/>
       <c r="AF483" s="4"/>
       <c r="AG483" s="4"/>
+      <c r="AH483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4"/>
@@ -50178,6 +50874,7 @@
       <c r="AE484" s="4"/>
       <c r="AF484" s="4"/>
       <c r="AG484" s="4"/>
+      <c r="AH484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4"/>
@@ -50213,6 +50910,7 @@
       <c r="AE485" s="4"/>
       <c r="AF485" s="4"/>
       <c r="AG485" s="4"/>
+      <c r="AH485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4"/>
@@ -50248,6 +50946,7 @@
       <c r="AE486" s="4"/>
       <c r="AF486" s="4"/>
       <c r="AG486" s="4"/>
+      <c r="AH486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4"/>
@@ -50283,6 +50982,7 @@
       <c r="AE487" s="4"/>
       <c r="AF487" s="4"/>
       <c r="AG487" s="4"/>
+      <c r="AH487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4"/>
@@ -50318,6 +51018,7 @@
       <c r="AE488" s="4"/>
       <c r="AF488" s="4"/>
       <c r="AG488" s="4"/>
+      <c r="AH488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="4"/>
@@ -50353,6 +51054,7 @@
       <c r="AE489" s="4"/>
       <c r="AF489" s="4"/>
       <c r="AG489" s="4"/>
+      <c r="AH489" s="4"/>
     </row>
     <row r="490">
       <c r="A490" s="4"/>
@@ -50388,6 +51090,7 @@
       <c r="AE490" s="4"/>
       <c r="AF490" s="4"/>
       <c r="AG490" s="4"/>
+      <c r="AH490" s="4"/>
     </row>
     <row r="491">
       <c r="A491" s="4"/>
@@ -50423,6 +51126,7 @@
       <c r="AE491" s="4"/>
       <c r="AF491" s="4"/>
       <c r="AG491" s="4"/>
+      <c r="AH491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4"/>
@@ -50458,6 +51162,7 @@
       <c r="AE492" s="4"/>
       <c r="AF492" s="4"/>
       <c r="AG492" s="4"/>
+      <c r="AH492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4"/>
@@ -50493,6 +51198,7 @@
       <c r="AE493" s="4"/>
       <c r="AF493" s="4"/>
       <c r="AG493" s="4"/>
+      <c r="AH493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="4"/>
@@ -50528,6 +51234,7 @@
       <c r="AE494" s="4"/>
       <c r="AF494" s="4"/>
       <c r="AG494" s="4"/>
+      <c r="AH494" s="4"/>
     </row>
     <row r="495">
       <c r="A495" s="4"/>
@@ -50563,6 +51270,7 @@
       <c r="AE495" s="4"/>
       <c r="AF495" s="4"/>
       <c r="AG495" s="4"/>
+      <c r="AH495" s="4"/>
     </row>
     <row r="496">
       <c r="A496" s="4"/>
@@ -50598,6 +51306,7 @@
       <c r="AE496" s="4"/>
       <c r="AF496" s="4"/>
       <c r="AG496" s="4"/>
+      <c r="AH496" s="4"/>
     </row>
     <row r="497">
       <c r="A497" s="4"/>
@@ -50633,6 +51342,7 @@
       <c r="AE497" s="4"/>
       <c r="AF497" s="4"/>
       <c r="AG497" s="4"/>
+      <c r="AH497" s="4"/>
     </row>
     <row r="498">
       <c r="A498" s="4"/>
@@ -50668,6 +51378,7 @@
       <c r="AE498" s="4"/>
       <c r="AF498" s="4"/>
       <c r="AG498" s="4"/>
+      <c r="AH498" s="4"/>
     </row>
     <row r="499">
       <c r="A499" s="4"/>
@@ -50703,6 +51414,7 @@
       <c r="AE499" s="4"/>
       <c r="AF499" s="4"/>
       <c r="AG499" s="4"/>
+      <c r="AH499" s="4"/>
     </row>
     <row r="500">
       <c r="A500" s="4"/>
@@ -50738,6 +51450,7 @@
       <c r="AE500" s="4"/>
       <c r="AF500" s="4"/>
       <c r="AG500" s="4"/>
+      <c r="AH500" s="4"/>
     </row>
     <row r="501">
       <c r="A501" s="4"/>
@@ -50773,6 +51486,7 @@
       <c r="AE501" s="4"/>
       <c r="AF501" s="4"/>
       <c r="AG501" s="4"/>
+      <c r="AH501" s="4"/>
     </row>
     <row r="502">
       <c r="A502" s="4"/>
@@ -50808,6 +51522,7 @@
       <c r="AE502" s="4"/>
       <c r="AF502" s="4"/>
       <c r="AG502" s="4"/>
+      <c r="AH502" s="4"/>
     </row>
     <row r="503">
       <c r="A503" s="4"/>
@@ -50843,6 +51558,7 @@
       <c r="AE503" s="4"/>
       <c r="AF503" s="4"/>
       <c r="AG503" s="4"/>
+      <c r="AH503" s="4"/>
     </row>
     <row r="504">
       <c r="A504" s="4"/>
@@ -50878,6 +51594,7 @@
       <c r="AE504" s="4"/>
       <c r="AF504" s="4"/>
       <c r="AG504" s="4"/>
+      <c r="AH504" s="4"/>
     </row>
     <row r="505">
       <c r="A505" s="4"/>
@@ -50913,6 +51630,7 @@
       <c r="AE505" s="4"/>
       <c r="AF505" s="4"/>
       <c r="AG505" s="4"/>
+      <c r="AH505" s="4"/>
     </row>
     <row r="506">
       <c r="A506" s="4"/>
@@ -50948,6 +51666,7 @@
       <c r="AE506" s="4"/>
       <c r="AF506" s="4"/>
       <c r="AG506" s="4"/>
+      <c r="AH506" s="4"/>
     </row>
     <row r="507">
       <c r="A507" s="4"/>
@@ -50983,6 +51702,7 @@
       <c r="AE507" s="4"/>
       <c r="AF507" s="4"/>
       <c r="AG507" s="4"/>
+      <c r="AH507" s="4"/>
     </row>
     <row r="508">
       <c r="A508" s="4"/>
@@ -51018,6 +51738,7 @@
       <c r="AE508" s="4"/>
       <c r="AF508" s="4"/>
       <c r="AG508" s="4"/>
+      <c r="AH508" s="4"/>
     </row>
     <row r="509">
       <c r="A509" s="4"/>
@@ -51053,6 +51774,7 @@
       <c r="AE509" s="4"/>
       <c r="AF509" s="4"/>
       <c r="AG509" s="4"/>
+      <c r="AH509" s="4"/>
     </row>
     <row r="510">
       <c r="A510" s="4"/>
@@ -51088,6 +51810,7 @@
       <c r="AE510" s="4"/>
       <c r="AF510" s="4"/>
       <c r="AG510" s="4"/>
+      <c r="AH510" s="4"/>
     </row>
     <row r="511">
       <c r="A511" s="4"/>
@@ -51123,6 +51846,7 @@
       <c r="AE511" s="4"/>
       <c r="AF511" s="4"/>
       <c r="AG511" s="4"/>
+      <c r="AH511" s="4"/>
     </row>
     <row r="512">
       <c r="A512" s="4"/>
@@ -51158,6 +51882,7 @@
       <c r="AE512" s="4"/>
       <c r="AF512" s="4"/>
       <c r="AG512" s="4"/>
+      <c r="AH512" s="4"/>
     </row>
     <row r="513">
       <c r="A513" s="4"/>
@@ -51193,6 +51918,7 @@
       <c r="AE513" s="4"/>
       <c r="AF513" s="4"/>
       <c r="AG513" s="4"/>
+      <c r="AH513" s="4"/>
     </row>
     <row r="514">
       <c r="A514" s="4"/>
@@ -51228,6 +51954,7 @@
       <c r="AE514" s="4"/>
       <c r="AF514" s="4"/>
       <c r="AG514" s="4"/>
+      <c r="AH514" s="4"/>
     </row>
     <row r="515">
       <c r="A515" s="4"/>
@@ -51263,6 +51990,7 @@
       <c r="AE515" s="4"/>
       <c r="AF515" s="4"/>
       <c r="AG515" s="4"/>
+      <c r="AH515" s="4"/>
     </row>
     <row r="516">
       <c r="A516" s="4"/>
@@ -51298,6 +52026,7 @@
       <c r="AE516" s="4"/>
       <c r="AF516" s="4"/>
       <c r="AG516" s="4"/>
+      <c r="AH516" s="4"/>
     </row>
     <row r="517">
       <c r="A517" s="4"/>
@@ -51333,6 +52062,7 @@
       <c r="AE517" s="4"/>
       <c r="AF517" s="4"/>
       <c r="AG517" s="4"/>
+      <c r="AH517" s="4"/>
     </row>
     <row r="518">
       <c r="A518" s="4"/>
@@ -51368,6 +52098,7 @@
       <c r="AE518" s="4"/>
       <c r="AF518" s="4"/>
       <c r="AG518" s="4"/>
+      <c r="AH518" s="4"/>
     </row>
     <row r="519">
       <c r="A519" s="4"/>
@@ -51403,6 +52134,7 @@
       <c r="AE519" s="4"/>
       <c r="AF519" s="4"/>
       <c r="AG519" s="4"/>
+      <c r="AH519" s="4"/>
     </row>
     <row r="520">
       <c r="A520" s="4"/>
@@ -51438,6 +52170,7 @@
       <c r="AE520" s="4"/>
       <c r="AF520" s="4"/>
       <c r="AG520" s="4"/>
+      <c r="AH520" s="4"/>
     </row>
     <row r="521">
       <c r="A521" s="4"/>
@@ -51473,6 +52206,7 @@
       <c r="AE521" s="4"/>
       <c r="AF521" s="4"/>
       <c r="AG521" s="4"/>
+      <c r="AH521" s="4"/>
     </row>
     <row r="522">
       <c r="A522" s="4"/>
@@ -51508,6 +52242,7 @@
       <c r="AE522" s="4"/>
       <c r="AF522" s="4"/>
       <c r="AG522" s="4"/>
+      <c r="AH522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4"/>
@@ -51543,6 +52278,7 @@
       <c r="AE523" s="4"/>
       <c r="AF523" s="4"/>
       <c r="AG523" s="4"/>
+      <c r="AH523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4"/>
@@ -51578,6 +52314,7 @@
       <c r="AE524" s="4"/>
       <c r="AF524" s="4"/>
       <c r="AG524" s="4"/>
+      <c r="AH524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4"/>
@@ -51613,6 +52350,7 @@
       <c r="AE525" s="4"/>
       <c r="AF525" s="4"/>
       <c r="AG525" s="4"/>
+      <c r="AH525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="4"/>
@@ -51648,6 +52386,7 @@
       <c r="AE526" s="4"/>
       <c r="AF526" s="4"/>
       <c r="AG526" s="4"/>
+      <c r="AH526" s="4"/>
     </row>
     <row r="527">
       <c r="A527" s="4"/>
@@ -51683,6 +52422,7 @@
       <c r="AE527" s="4"/>
       <c r="AF527" s="4"/>
       <c r="AG527" s="4"/>
+      <c r="AH527" s="4"/>
     </row>
     <row r="528">
       <c r="A528" s="4"/>
@@ -51718,6 +52458,7 @@
       <c r="AE528" s="4"/>
       <c r="AF528" s="4"/>
       <c r="AG528" s="4"/>
+      <c r="AH528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4"/>
@@ -51753,6 +52494,7 @@
       <c r="AE529" s="4"/>
       <c r="AF529" s="4"/>
       <c r="AG529" s="4"/>
+      <c r="AH529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4"/>
@@ -51788,6 +52530,7 @@
       <c r="AE530" s="4"/>
       <c r="AF530" s="4"/>
       <c r="AG530" s="4"/>
+      <c r="AH530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="4"/>
@@ -51823,6 +52566,7 @@
       <c r="AE531" s="4"/>
       <c r="AF531" s="4"/>
       <c r="AG531" s="4"/>
+      <c r="AH531" s="4"/>
     </row>
     <row r="532">
       <c r="A532" s="4"/>
@@ -51858,6 +52602,7 @@
       <c r="AE532" s="4"/>
       <c r="AF532" s="4"/>
       <c r="AG532" s="4"/>
+      <c r="AH532" s="4"/>
     </row>
     <row r="533">
       <c r="A533" s="4"/>
@@ -51893,6 +52638,7 @@
       <c r="AE533" s="4"/>
       <c r="AF533" s="4"/>
       <c r="AG533" s="4"/>
+      <c r="AH533" s="4"/>
     </row>
     <row r="534">
       <c r="A534" s="4"/>
@@ -51928,6 +52674,7 @@
       <c r="AE534" s="4"/>
       <c r="AF534" s="4"/>
       <c r="AG534" s="4"/>
+      <c r="AH534" s="4"/>
     </row>
     <row r="535">
       <c r="A535" s="4"/>
@@ -51963,6 +52710,7 @@
       <c r="AE535" s="4"/>
       <c r="AF535" s="4"/>
       <c r="AG535" s="4"/>
+      <c r="AH535" s="4"/>
     </row>
     <row r="536">
       <c r="A536" s="4"/>
@@ -51998,6 +52746,7 @@
       <c r="AE536" s="4"/>
       <c r="AF536" s="4"/>
       <c r="AG536" s="4"/>
+      <c r="AH536" s="4"/>
     </row>
     <row r="537">
       <c r="A537" s="4"/>
@@ -52033,6 +52782,7 @@
       <c r="AE537" s="4"/>
       <c r="AF537" s="4"/>
       <c r="AG537" s="4"/>
+      <c r="AH537" s="4"/>
     </row>
     <row r="538">
       <c r="A538" s="4"/>
@@ -52068,6 +52818,7 @@
       <c r="AE538" s="4"/>
       <c r="AF538" s="4"/>
       <c r="AG538" s="4"/>
+      <c r="AH538" s="4"/>
     </row>
     <row r="539">
       <c r="A539" s="4"/>
@@ -52103,6 +52854,7 @@
       <c r="AE539" s="4"/>
       <c r="AF539" s="4"/>
       <c r="AG539" s="4"/>
+      <c r="AH539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4"/>
@@ -52138,6 +52890,7 @@
       <c r="AE540" s="4"/>
       <c r="AF540" s="4"/>
       <c r="AG540" s="4"/>
+      <c r="AH540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4"/>
@@ -52173,6 +52926,7 @@
       <c r="AE541" s="4"/>
       <c r="AF541" s="4"/>
       <c r="AG541" s="4"/>
+      <c r="AH541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4"/>
@@ -52208,6 +52962,7 @@
       <c r="AE542" s="4"/>
       <c r="AF542" s="4"/>
       <c r="AG542" s="4"/>
+      <c r="AH542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4"/>
@@ -52243,6 +52998,7 @@
       <c r="AE543" s="4"/>
       <c r="AF543" s="4"/>
       <c r="AG543" s="4"/>
+      <c r="AH543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4"/>
@@ -52278,6 +53034,7 @@
       <c r="AE544" s="4"/>
       <c r="AF544" s="4"/>
       <c r="AG544" s="4"/>
+      <c r="AH544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="4"/>
@@ -52313,6 +53070,7 @@
       <c r="AE545" s="4"/>
       <c r="AF545" s="4"/>
       <c r="AG545" s="4"/>
+      <c r="AH545" s="4"/>
     </row>
     <row r="546">
       <c r="A546" s="4"/>
@@ -52348,6 +53106,7 @@
       <c r="AE546" s="4"/>
       <c r="AF546" s="4"/>
       <c r="AG546" s="4"/>
+      <c r="AH546" s="4"/>
     </row>
     <row r="547">
       <c r="A547" s="4"/>
@@ -52383,6 +53142,7 @@
       <c r="AE547" s="4"/>
       <c r="AF547" s="4"/>
       <c r="AG547" s="4"/>
+      <c r="AH547" s="4"/>
     </row>
     <row r="548">
       <c r="A548" s="4"/>
@@ -52418,6 +53178,7 @@
       <c r="AE548" s="4"/>
       <c r="AF548" s="4"/>
       <c r="AG548" s="4"/>
+      <c r="AH548" s="4"/>
     </row>
     <row r="549">
       <c r="A549" s="4"/>
@@ -52453,6 +53214,7 @@
       <c r="AE549" s="4"/>
       <c r="AF549" s="4"/>
       <c r="AG549" s="4"/>
+      <c r="AH549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="4"/>
@@ -52488,6 +53250,7 @@
       <c r="AE550" s="4"/>
       <c r="AF550" s="4"/>
       <c r="AG550" s="4"/>
+      <c r="AH550" s="4"/>
     </row>
     <row r="551">
       <c r="A551" s="4"/>
@@ -52523,6 +53286,7 @@
       <c r="AE551" s="4"/>
       <c r="AF551" s="4"/>
       <c r="AG551" s="4"/>
+      <c r="AH551" s="4"/>
     </row>
     <row r="552">
       <c r="A552" s="4"/>
@@ -52558,6 +53322,7 @@
       <c r="AE552" s="4"/>
       <c r="AF552" s="4"/>
       <c r="AG552" s="4"/>
+      <c r="AH552" s="4"/>
     </row>
     <row r="553">
       <c r="A553" s="4"/>
@@ -52593,6 +53358,7 @@
       <c r="AE553" s="4"/>
       <c r="AF553" s="4"/>
       <c r="AG553" s="4"/>
+      <c r="AH553" s="4"/>
     </row>
     <row r="554">
       <c r="A554" s="4"/>
@@ -52628,6 +53394,7 @@
       <c r="AE554" s="4"/>
       <c r="AF554" s="4"/>
       <c r="AG554" s="4"/>
+      <c r="AH554" s="4"/>
     </row>
     <row r="555">
       <c r="A555" s="4"/>
@@ -52663,6 +53430,7 @@
       <c r="AE555" s="4"/>
       <c r="AF555" s="4"/>
       <c r="AG555" s="4"/>
+      <c r="AH555" s="4"/>
     </row>
     <row r="556">
       <c r="A556" s="4"/>
@@ -52698,6 +53466,7 @@
       <c r="AE556" s="4"/>
       <c r="AF556" s="4"/>
       <c r="AG556" s="4"/>
+      <c r="AH556" s="4"/>
     </row>
     <row r="557">
       <c r="A557" s="4"/>
@@ -52733,6 +53502,7 @@
       <c r="AE557" s="4"/>
       <c r="AF557" s="4"/>
       <c r="AG557" s="4"/>
+      <c r="AH557" s="4"/>
     </row>
     <row r="558">
       <c r="A558" s="4"/>
@@ -52768,6 +53538,7 @@
       <c r="AE558" s="4"/>
       <c r="AF558" s="4"/>
       <c r="AG558" s="4"/>
+      <c r="AH558" s="4"/>
     </row>
     <row r="559">
       <c r="A559" s="4"/>
@@ -52803,6 +53574,7 @@
       <c r="AE559" s="4"/>
       <c r="AF559" s="4"/>
       <c r="AG559" s="4"/>
+      <c r="AH559" s="4"/>
     </row>
     <row r="560">
       <c r="A560" s="4"/>
@@ -52838,6 +53610,7 @@
       <c r="AE560" s="4"/>
       <c r="AF560" s="4"/>
       <c r="AG560" s="4"/>
+      <c r="AH560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4"/>
@@ -52873,6 +53646,7 @@
       <c r="AE561" s="4"/>
       <c r="AF561" s="4"/>
       <c r="AG561" s="4"/>
+      <c r="AH561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4"/>
@@ -52908,6 +53682,7 @@
       <c r="AE562" s="4"/>
       <c r="AF562" s="4"/>
       <c r="AG562" s="4"/>
+      <c r="AH562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4"/>
@@ -52943,6 +53718,7 @@
       <c r="AE563" s="4"/>
       <c r="AF563" s="4"/>
       <c r="AG563" s="4"/>
+      <c r="AH563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4"/>
@@ -52978,6 +53754,7 @@
       <c r="AE564" s="4"/>
       <c r="AF564" s="4"/>
       <c r="AG564" s="4"/>
+      <c r="AH564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4"/>
@@ -53013,6 +53790,7 @@
       <c r="AE565" s="4"/>
       <c r="AF565" s="4"/>
       <c r="AG565" s="4"/>
+      <c r="AH565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4"/>
@@ -53048,6 +53826,7 @@
       <c r="AE566" s="4"/>
       <c r="AF566" s="4"/>
       <c r="AG566" s="4"/>
+      <c r="AH566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4"/>
@@ -53083,6 +53862,7 @@
       <c r="AE567" s="4"/>
       <c r="AF567" s="4"/>
       <c r="AG567" s="4"/>
+      <c r="AH567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4"/>
@@ -53118,6 +53898,7 @@
       <c r="AE568" s="4"/>
       <c r="AF568" s="4"/>
       <c r="AG568" s="4"/>
+      <c r="AH568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="4"/>
@@ -53153,6 +53934,7 @@
       <c r="AE569" s="4"/>
       <c r="AF569" s="4"/>
       <c r="AG569" s="4"/>
+      <c r="AH569" s="4"/>
     </row>
     <row r="570">
       <c r="A570" s="4"/>
@@ -53188,6 +53970,7 @@
       <c r="AE570" s="4"/>
       <c r="AF570" s="4"/>
       <c r="AG570" s="4"/>
+      <c r="AH570" s="4"/>
     </row>
     <row r="571">
       <c r="A571" s="4"/>
@@ -53223,6 +54006,7 @@
       <c r="AE571" s="4"/>
       <c r="AF571" s="4"/>
       <c r="AG571" s="4"/>
+      <c r="AH571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="4"/>
@@ -53258,6 +54042,7 @@
       <c r="AE572" s="4"/>
       <c r="AF572" s="4"/>
       <c r="AG572" s="4"/>
+      <c r="AH572" s="4"/>
     </row>
     <row r="573">
       <c r="A573" s="4"/>
@@ -53293,6 +54078,7 @@
       <c r="AE573" s="4"/>
       <c r="AF573" s="4"/>
       <c r="AG573" s="4"/>
+      <c r="AH573" s="4"/>
     </row>
     <row r="574">
       <c r="A574" s="4"/>
@@ -53328,6 +54114,7 @@
       <c r="AE574" s="4"/>
       <c r="AF574" s="4"/>
       <c r="AG574" s="4"/>
+      <c r="AH574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4"/>
@@ -53363,6 +54150,7 @@
       <c r="AE575" s="4"/>
       <c r="AF575" s="4"/>
       <c r="AG575" s="4"/>
+      <c r="AH575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4"/>
@@ -53398,6 +54186,7 @@
       <c r="AE576" s="4"/>
       <c r="AF576" s="4"/>
       <c r="AG576" s="4"/>
+      <c r="AH576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4"/>
@@ -53433,6 +54222,7 @@
       <c r="AE577" s="4"/>
       <c r="AF577" s="4"/>
       <c r="AG577" s="4"/>
+      <c r="AH577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="4"/>
@@ -53468,6 +54258,7 @@
       <c r="AE578" s="4"/>
       <c r="AF578" s="4"/>
       <c r="AG578" s="4"/>
+      <c r="AH578" s="4"/>
     </row>
     <row r="579">
       <c r="A579" s="4"/>
@@ -53503,6 +54294,7 @@
       <c r="AE579" s="4"/>
       <c r="AF579" s="4"/>
       <c r="AG579" s="4"/>
+      <c r="AH579" s="4"/>
     </row>
     <row r="580">
       <c r="A580" s="4"/>
@@ -53538,6 +54330,7 @@
       <c r="AE580" s="4"/>
       <c r="AF580" s="4"/>
       <c r="AG580" s="4"/>
+      <c r="AH580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4"/>
@@ -53573,6 +54366,7 @@
       <c r="AE581" s="4"/>
       <c r="AF581" s="4"/>
       <c r="AG581" s="4"/>
+      <c r="AH581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="4"/>
@@ -53608,6 +54402,7 @@
       <c r="AE582" s="4"/>
       <c r="AF582" s="4"/>
       <c r="AG582" s="4"/>
+      <c r="AH582" s="4"/>
     </row>
     <row r="583">
       <c r="A583" s="4"/>
@@ -53643,6 +54438,7 @@
       <c r="AE583" s="4"/>
       <c r="AF583" s="4"/>
       <c r="AG583" s="4"/>
+      <c r="AH583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="4"/>
@@ -53678,6 +54474,7 @@
       <c r="AE584" s="4"/>
       <c r="AF584" s="4"/>
       <c r="AG584" s="4"/>
+      <c r="AH584" s="4"/>
     </row>
     <row r="585">
       <c r="A585" s="4"/>
@@ -53713,6 +54510,7 @@
       <c r="AE585" s="4"/>
       <c r="AF585" s="4"/>
       <c r="AG585" s="4"/>
+      <c r="AH585" s="4"/>
     </row>
     <row r="586">
       <c r="A586" s="4"/>
@@ -53748,6 +54546,7 @@
       <c r="AE586" s="4"/>
       <c r="AF586" s="4"/>
       <c r="AG586" s="4"/>
+      <c r="AH586" s="4"/>
     </row>
     <row r="587">
       <c r="A587" s="4"/>
@@ -53783,6 +54582,7 @@
       <c r="AE587" s="4"/>
       <c r="AF587" s="4"/>
       <c r="AG587" s="4"/>
+      <c r="AH587" s="4"/>
     </row>
     <row r="588">
       <c r="A588" s="4"/>
@@ -53818,6 +54618,7 @@
       <c r="AE588" s="4"/>
       <c r="AF588" s="4"/>
       <c r="AG588" s="4"/>
+      <c r="AH588" s="4"/>
     </row>
     <row r="589">
       <c r="A589" s="4"/>
@@ -53853,6 +54654,7 @@
       <c r="AE589" s="4"/>
       <c r="AF589" s="4"/>
       <c r="AG589" s="4"/>
+      <c r="AH589" s="4"/>
     </row>
     <row r="590">
       <c r="A590" s="4"/>
@@ -53888,6 +54690,7 @@
       <c r="AE590" s="4"/>
       <c r="AF590" s="4"/>
       <c r="AG590" s="4"/>
+      <c r="AH590" s="4"/>
     </row>
     <row r="591">
       <c r="A591" s="4"/>
@@ -53923,6 +54726,7 @@
       <c r="AE591" s="4"/>
       <c r="AF591" s="4"/>
       <c r="AG591" s="4"/>
+      <c r="AH591" s="4"/>
     </row>
     <row r="592">
       <c r="A592" s="4"/>
@@ -53958,6 +54762,7 @@
       <c r="AE592" s="4"/>
       <c r="AF592" s="4"/>
       <c r="AG592" s="4"/>
+      <c r="AH592" s="4"/>
     </row>
     <row r="593">
       <c r="A593" s="4"/>
@@ -53993,6 +54798,7 @@
       <c r="AE593" s="4"/>
       <c r="AF593" s="4"/>
       <c r="AG593" s="4"/>
+      <c r="AH593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="4"/>
@@ -54028,6 +54834,7 @@
       <c r="AE594" s="4"/>
       <c r="AF594" s="4"/>
       <c r="AG594" s="4"/>
+      <c r="AH594" s="4"/>
     </row>
     <row r="595">
       <c r="A595" s="4"/>
@@ -54063,6 +54870,7 @@
       <c r="AE595" s="4"/>
       <c r="AF595" s="4"/>
       <c r="AG595" s="4"/>
+      <c r="AH595" s="4"/>
     </row>
     <row r="596">
       <c r="A596" s="4"/>
@@ -54098,6 +54906,7 @@
       <c r="AE596" s="4"/>
       <c r="AF596" s="4"/>
       <c r="AG596" s="4"/>
+      <c r="AH596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="4"/>
@@ -54133,6 +54942,7 @@
       <c r="AE597" s="4"/>
       <c r="AF597" s="4"/>
       <c r="AG597" s="4"/>
+      <c r="AH597" s="4"/>
     </row>
     <row r="598">
       <c r="A598" s="4"/>
@@ -54168,6 +54978,7 @@
       <c r="AE598" s="4"/>
       <c r="AF598" s="4"/>
       <c r="AG598" s="4"/>
+      <c r="AH598" s="4"/>
     </row>
     <row r="599">
       <c r="A599" s="4"/>
@@ -54203,6 +55014,7 @@
       <c r="AE599" s="4"/>
       <c r="AF599" s="4"/>
       <c r="AG599" s="4"/>
+      <c r="AH599" s="4"/>
     </row>
     <row r="600">
       <c r="A600" s="4"/>
@@ -54238,6 +55050,7 @@
       <c r="AE600" s="4"/>
       <c r="AF600" s="4"/>
       <c r="AG600" s="4"/>
+      <c r="AH600" s="4"/>
     </row>
     <row r="601">
       <c r="A601" s="4"/>
@@ -54273,6 +55086,7 @@
       <c r="AE601" s="4"/>
       <c r="AF601" s="4"/>
       <c r="AG601" s="4"/>
+      <c r="AH601" s="4"/>
     </row>
     <row r="602">
       <c r="A602" s="4"/>
@@ -54308,6 +55122,7 @@
       <c r="AE602" s="4"/>
       <c r="AF602" s="4"/>
       <c r="AG602" s="4"/>
+      <c r="AH602" s="4"/>
     </row>
     <row r="603">
       <c r="A603" s="4"/>
@@ -54343,6 +55158,7 @@
       <c r="AE603" s="4"/>
       <c r="AF603" s="4"/>
       <c r="AG603" s="4"/>
+      <c r="AH603" s="4"/>
     </row>
     <row r="604">
       <c r="A604" s="4"/>
@@ -54378,6 +55194,7 @@
       <c r="AE604" s="4"/>
       <c r="AF604" s="4"/>
       <c r="AG604" s="4"/>
+      <c r="AH604" s="4"/>
     </row>
     <row r="605">
       <c r="A605" s="4"/>
@@ -54413,6 +55230,7 @@
       <c r="AE605" s="4"/>
       <c r="AF605" s="4"/>
       <c r="AG605" s="4"/>
+      <c r="AH605" s="4"/>
     </row>
     <row r="606">
       <c r="A606" s="4"/>
@@ -54448,6 +55266,7 @@
       <c r="AE606" s="4"/>
       <c r="AF606" s="4"/>
       <c r="AG606" s="4"/>
+      <c r="AH606" s="4"/>
     </row>
     <row r="607">
       <c r="A607" s="4"/>
@@ -54483,6 +55302,7 @@
       <c r="AE607" s="4"/>
       <c r="AF607" s="4"/>
       <c r="AG607" s="4"/>
+      <c r="AH607" s="4"/>
     </row>
     <row r="608">
       <c r="A608" s="4"/>
@@ -54518,6 +55338,7 @@
       <c r="AE608" s="4"/>
       <c r="AF608" s="4"/>
       <c r="AG608" s="4"/>
+      <c r="AH608" s="4"/>
     </row>
     <row r="609">
       <c r="A609" s="4"/>
@@ -54553,6 +55374,7 @@
       <c r="AE609" s="4"/>
       <c r="AF609" s="4"/>
       <c r="AG609" s="4"/>
+      <c r="AH609" s="4"/>
     </row>
     <row r="610">
       <c r="A610" s="4"/>
@@ -54588,6 +55410,7 @@
       <c r="AE610" s="4"/>
       <c r="AF610" s="4"/>
       <c r="AG610" s="4"/>
+      <c r="AH610" s="4"/>
     </row>
     <row r="611">
       <c r="A611" s="4"/>
@@ -54623,6 +55446,7 @@
       <c r="AE611" s="4"/>
       <c r="AF611" s="4"/>
       <c r="AG611" s="4"/>
+      <c r="AH611" s="4"/>
     </row>
     <row r="612">
       <c r="A612" s="4"/>
@@ -54658,6 +55482,7 @@
       <c r="AE612" s="4"/>
       <c r="AF612" s="4"/>
       <c r="AG612" s="4"/>
+      <c r="AH612" s="4"/>
     </row>
     <row r="613">
       <c r="A613" s="4"/>
@@ -54693,6 +55518,7 @@
       <c r="AE613" s="4"/>
       <c r="AF613" s="4"/>
       <c r="AG613" s="4"/>
+      <c r="AH613" s="4"/>
     </row>
     <row r="614">
       <c r="A614" s="4"/>
@@ -54728,6 +55554,7 @@
       <c r="AE614" s="4"/>
       <c r="AF614" s="4"/>
       <c r="AG614" s="4"/>
+      <c r="AH614" s="4"/>
     </row>
     <row r="615">
       <c r="A615" s="4"/>
@@ -54763,6 +55590,7 @@
       <c r="AE615" s="4"/>
       <c r="AF615" s="4"/>
       <c r="AG615" s="4"/>
+      <c r="AH615" s="4"/>
     </row>
     <row r="616">
       <c r="A616" s="4"/>
@@ -54798,6 +55626,7 @@
       <c r="AE616" s="4"/>
       <c r="AF616" s="4"/>
       <c r="AG616" s="4"/>
+      <c r="AH616" s="4"/>
     </row>
     <row r="617">
       <c r="A617" s="4"/>
@@ -54833,6 +55662,7 @@
       <c r="AE617" s="4"/>
       <c r="AF617" s="4"/>
       <c r="AG617" s="4"/>
+      <c r="AH617" s="4"/>
     </row>
     <row r="618">
       <c r="A618" s="4"/>
@@ -54868,6 +55698,7 @@
       <c r="AE618" s="4"/>
       <c r="AF618" s="4"/>
       <c r="AG618" s="4"/>
+      <c r="AH618" s="4"/>
     </row>
     <row r="619">
       <c r="A619" s="4"/>
@@ -54903,6 +55734,7 @@
       <c r="AE619" s="4"/>
       <c r="AF619" s="4"/>
       <c r="AG619" s="4"/>
+      <c r="AH619" s="4"/>
     </row>
     <row r="620">
       <c r="A620" s="4"/>
@@ -54938,6 +55770,7 @@
       <c r="AE620" s="4"/>
       <c r="AF620" s="4"/>
       <c r="AG620" s="4"/>
+      <c r="AH620" s="4"/>
     </row>
     <row r="621">
       <c r="A621" s="4"/>
@@ -54973,6 +55806,7 @@
       <c r="AE621" s="4"/>
       <c r="AF621" s="4"/>
       <c r="AG621" s="4"/>
+      <c r="AH621" s="4"/>
     </row>
     <row r="622">
       <c r="A622" s="4"/>
@@ -55008,6 +55842,7 @@
       <c r="AE622" s="4"/>
       <c r="AF622" s="4"/>
       <c r="AG622" s="4"/>
+      <c r="AH622" s="4"/>
     </row>
     <row r="623">
       <c r="A623" s="4"/>
@@ -55043,6 +55878,7 @@
       <c r="AE623" s="4"/>
       <c r="AF623" s="4"/>
       <c r="AG623" s="4"/>
+      <c r="AH623" s="4"/>
     </row>
     <row r="624">
       <c r="A624" s="4"/>
@@ -55078,6 +55914,7 @@
       <c r="AE624" s="4"/>
       <c r="AF624" s="4"/>
       <c r="AG624" s="4"/>
+      <c r="AH624" s="4"/>
     </row>
     <row r="625">
       <c r="A625" s="4"/>
@@ -55113,6 +55950,7 @@
       <c r="AE625" s="4"/>
       <c r="AF625" s="4"/>
       <c r="AG625" s="4"/>
+      <c r="AH625" s="4"/>
     </row>
     <row r="626">
       <c r="A626" s="4"/>
@@ -55148,6 +55986,7 @@
       <c r="AE626" s="4"/>
       <c r="AF626" s="4"/>
       <c r="AG626" s="4"/>
+      <c r="AH626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="4"/>
@@ -55183,6 +56022,7 @@
       <c r="AE627" s="4"/>
       <c r="AF627" s="4"/>
       <c r="AG627" s="4"/>
+      <c r="AH627" s="4"/>
     </row>
     <row r="628">
       <c r="A628" s="4"/>
@@ -55218,6 +56058,7 @@
       <c r="AE628" s="4"/>
       <c r="AF628" s="4"/>
       <c r="AG628" s="4"/>
+      <c r="AH628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4"/>
@@ -55253,6 +56094,7 @@
       <c r="AE629" s="4"/>
       <c r="AF629" s="4"/>
       <c r="AG629" s="4"/>
+      <c r="AH629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="4"/>
@@ -55288,6 +56130,7 @@
       <c r="AE630" s="4"/>
       <c r="AF630" s="4"/>
       <c r="AG630" s="4"/>
+      <c r="AH630" s="4"/>
     </row>
     <row r="631">
       <c r="A631" s="4"/>
@@ -55323,6 +56166,7 @@
       <c r="AE631" s="4"/>
       <c r="AF631" s="4"/>
       <c r="AG631" s="4"/>
+      <c r="AH631" s="4"/>
     </row>
     <row r="632">
       <c r="A632" s="4"/>
@@ -55358,6 +56202,7 @@
       <c r="AE632" s="4"/>
       <c r="AF632" s="4"/>
       <c r="AG632" s="4"/>
+      <c r="AH632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4"/>
@@ -55393,6 +56238,7 @@
       <c r="AE633" s="4"/>
       <c r="AF633" s="4"/>
       <c r="AG633" s="4"/>
+      <c r="AH633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4"/>
@@ -55428,6 +56274,7 @@
       <c r="AE634" s="4"/>
       <c r="AF634" s="4"/>
       <c r="AG634" s="4"/>
+      <c r="AH634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="4"/>
@@ -55463,6 +56310,7 @@
       <c r="AE635" s="4"/>
       <c r="AF635" s="4"/>
       <c r="AG635" s="4"/>
+      <c r="AH635" s="4"/>
     </row>
     <row r="636">
       <c r="A636" s="4"/>
@@ -55498,6 +56346,7 @@
       <c r="AE636" s="4"/>
       <c r="AF636" s="4"/>
       <c r="AG636" s="4"/>
+      <c r="AH636" s="4"/>
     </row>
     <row r="637">
       <c r="A637" s="4"/>
@@ -55533,6 +56382,7 @@
       <c r="AE637" s="4"/>
       <c r="AF637" s="4"/>
       <c r="AG637" s="4"/>
+      <c r="AH637" s="4"/>
     </row>
     <row r="638">
       <c r="A638" s="4"/>
@@ -55568,6 +56418,7 @@
       <c r="AE638" s="4"/>
       <c r="AF638" s="4"/>
       <c r="AG638" s="4"/>
+      <c r="AH638" s="4"/>
     </row>
     <row r="639">
       <c r="A639" s="4"/>
@@ -55603,6 +56454,7 @@
       <c r="AE639" s="4"/>
       <c r="AF639" s="4"/>
       <c r="AG639" s="4"/>
+      <c r="AH639" s="4"/>
     </row>
     <row r="640">
       <c r="A640" s="4"/>
@@ -55638,6 +56490,7 @@
       <c r="AE640" s="4"/>
       <c r="AF640" s="4"/>
       <c r="AG640" s="4"/>
+      <c r="AH640" s="4"/>
     </row>
     <row r="641">
       <c r="A641" s="4"/>
@@ -55673,6 +56526,7 @@
       <c r="AE641" s="4"/>
       <c r="AF641" s="4"/>
       <c r="AG641" s="4"/>
+      <c r="AH641" s="4"/>
     </row>
     <row r="642">
       <c r="A642" s="4"/>
@@ -55708,6 +56562,7 @@
       <c r="AE642" s="4"/>
       <c r="AF642" s="4"/>
       <c r="AG642" s="4"/>
+      <c r="AH642" s="4"/>
     </row>
     <row r="643">
       <c r="A643" s="4"/>
@@ -55743,6 +56598,7 @@
       <c r="AE643" s="4"/>
       <c r="AF643" s="4"/>
       <c r="AG643" s="4"/>
+      <c r="AH643" s="4"/>
     </row>
     <row r="644">
       <c r="A644" s="4"/>
@@ -55778,6 +56634,7 @@
       <c r="AE644" s="4"/>
       <c r="AF644" s="4"/>
       <c r="AG644" s="4"/>
+      <c r="AH644" s="4"/>
     </row>
     <row r="645">
       <c r="A645" s="4"/>
@@ -55813,6 +56670,7 @@
       <c r="AE645" s="4"/>
       <c r="AF645" s="4"/>
       <c r="AG645" s="4"/>
+      <c r="AH645" s="4"/>
     </row>
     <row r="646">
       <c r="A646" s="4"/>
@@ -55848,6 +56706,7 @@
       <c r="AE646" s="4"/>
       <c r="AF646" s="4"/>
       <c r="AG646" s="4"/>
+      <c r="AH646" s="4"/>
     </row>
     <row r="647">
       <c r="A647" s="4"/>
@@ -55883,6 +56742,7 @@
       <c r="AE647" s="4"/>
       <c r="AF647" s="4"/>
       <c r="AG647" s="4"/>
+      <c r="AH647" s="4"/>
     </row>
     <row r="648">
       <c r="A648" s="4"/>
@@ -55918,6 +56778,7 @@
       <c r="AE648" s="4"/>
       <c r="AF648" s="4"/>
       <c r="AG648" s="4"/>
+      <c r="AH648" s="4"/>
     </row>
     <row r="649">
       <c r="A649" s="4"/>
@@ -55953,6 +56814,7 @@
       <c r="AE649" s="4"/>
       <c r="AF649" s="4"/>
       <c r="AG649" s="4"/>
+      <c r="AH649" s="4"/>
     </row>
     <row r="650">
       <c r="A650" s="4"/>
@@ -55988,6 +56850,7 @@
       <c r="AE650" s="4"/>
       <c r="AF650" s="4"/>
       <c r="AG650" s="4"/>
+      <c r="AH650" s="4"/>
     </row>
     <row r="651">
       <c r="A651" s="4"/>
@@ -56023,6 +56886,7 @@
       <c r="AE651" s="4"/>
       <c r="AF651" s="4"/>
       <c r="AG651" s="4"/>
+      <c r="AH651" s="4"/>
     </row>
     <row r="652">
       <c r="A652" s="4"/>
@@ -56058,6 +56922,7 @@
       <c r="AE652" s="4"/>
       <c r="AF652" s="4"/>
       <c r="AG652" s="4"/>
+      <c r="AH652" s="4"/>
     </row>
     <row r="653">
       <c r="A653" s="4"/>
@@ -56093,6 +56958,7 @@
       <c r="AE653" s="4"/>
       <c r="AF653" s="4"/>
       <c r="AG653" s="4"/>
+      <c r="AH653" s="4"/>
     </row>
     <row r="654">
       <c r="A654" s="4"/>
@@ -56128,6 +56994,7 @@
       <c r="AE654" s="4"/>
       <c r="AF654" s="4"/>
       <c r="AG654" s="4"/>
+      <c r="AH654" s="4"/>
     </row>
     <row r="655">
       <c r="A655" s="4"/>
@@ -56163,6 +57030,7 @@
       <c r="AE655" s="4"/>
       <c r="AF655" s="4"/>
       <c r="AG655" s="4"/>
+      <c r="AH655" s="4"/>
     </row>
     <row r="656">
       <c r="A656" s="4"/>
@@ -56198,6 +57066,7 @@
       <c r="AE656" s="4"/>
       <c r="AF656" s="4"/>
       <c r="AG656" s="4"/>
+      <c r="AH656" s="4"/>
     </row>
     <row r="657">
       <c r="A657" s="4"/>
@@ -56233,6 +57102,7 @@
       <c r="AE657" s="4"/>
       <c r="AF657" s="4"/>
       <c r="AG657" s="4"/>
+      <c r="AH657" s="4"/>
     </row>
     <row r="658">
       <c r="A658" s="4"/>
@@ -56268,6 +57138,7 @@
       <c r="AE658" s="4"/>
       <c r="AF658" s="4"/>
       <c r="AG658" s="4"/>
+      <c r="AH658" s="4"/>
     </row>
     <row r="659">
       <c r="A659" s="4"/>
@@ -56303,6 +57174,7 @@
       <c r="AE659" s="4"/>
       <c r="AF659" s="4"/>
       <c r="AG659" s="4"/>
+      <c r="AH659" s="4"/>
     </row>
     <row r="660">
       <c r="A660" s="4"/>
@@ -56338,6 +57210,7 @@
       <c r="AE660" s="4"/>
       <c r="AF660" s="4"/>
       <c r="AG660" s="4"/>
+      <c r="AH660" s="4"/>
     </row>
     <row r="661">
       <c r="A661" s="4"/>
@@ -56373,6 +57246,7 @@
       <c r="AE661" s="4"/>
       <c r="AF661" s="4"/>
       <c r="AG661" s="4"/>
+      <c r="AH661" s="4"/>
     </row>
     <row r="662">
       <c r="A662" s="4"/>
@@ -56408,6 +57282,7 @@
       <c r="AE662" s="4"/>
       <c r="AF662" s="4"/>
       <c r="AG662" s="4"/>
+      <c r="AH662" s="4"/>
     </row>
     <row r="663">
       <c r="A663" s="4"/>
@@ -56443,6 +57318,7 @@
       <c r="AE663" s="4"/>
       <c r="AF663" s="4"/>
       <c r="AG663" s="4"/>
+      <c r="AH663" s="4"/>
     </row>
     <row r="664">
       <c r="A664" s="4"/>
@@ -56478,6 +57354,7 @@
       <c r="AE664" s="4"/>
       <c r="AF664" s="4"/>
       <c r="AG664" s="4"/>
+      <c r="AH664" s="4"/>
     </row>
     <row r="665">
       <c r="A665" s="4"/>
@@ -56513,6 +57390,7 @@
       <c r="AE665" s="4"/>
       <c r="AF665" s="4"/>
       <c r="AG665" s="4"/>
+      <c r="AH665" s="4"/>
     </row>
     <row r="666">
       <c r="A666" s="4"/>
@@ -56548,6 +57426,7 @@
       <c r="AE666" s="4"/>
       <c r="AF666" s="4"/>
       <c r="AG666" s="4"/>
+      <c r="AH666" s="4"/>
     </row>
     <row r="667">
       <c r="A667" s="4"/>
@@ -56583,6 +57462,7 @@
       <c r="AE667" s="4"/>
       <c r="AF667" s="4"/>
       <c r="AG667" s="4"/>
+      <c r="AH667" s="4"/>
     </row>
     <row r="668">
       <c r="A668" s="4"/>
@@ -56618,6 +57498,7 @@
       <c r="AE668" s="4"/>
       <c r="AF668" s="4"/>
       <c r="AG668" s="4"/>
+      <c r="AH668" s="4"/>
     </row>
     <row r="669">
       <c r="A669" s="4"/>
@@ -56653,6 +57534,7 @@
       <c r="AE669" s="4"/>
       <c r="AF669" s="4"/>
       <c r="AG669" s="4"/>
+      <c r="AH669" s="4"/>
     </row>
     <row r="670">
       <c r="A670" s="4"/>
@@ -56688,6 +57570,7 @@
       <c r="AE670" s="4"/>
       <c r="AF670" s="4"/>
       <c r="AG670" s="4"/>
+      <c r="AH670" s="4"/>
     </row>
     <row r="671">
       <c r="A671" s="4"/>
@@ -56723,6 +57606,7 @@
       <c r="AE671" s="4"/>
       <c r="AF671" s="4"/>
       <c r="AG671" s="4"/>
+      <c r="AH671" s="4"/>
     </row>
     <row r="672">
       <c r="A672" s="4"/>
@@ -56758,6 +57642,7 @@
       <c r="AE672" s="4"/>
       <c r="AF672" s="4"/>
       <c r="AG672" s="4"/>
+      <c r="AH672" s="4"/>
     </row>
     <row r="673">
       <c r="A673" s="4"/>
@@ -56793,6 +57678,7 @@
       <c r="AE673" s="4"/>
       <c r="AF673" s="4"/>
       <c r="AG673" s="4"/>
+      <c r="AH673" s="4"/>
     </row>
     <row r="674">
       <c r="A674" s="4"/>
@@ -56828,6 +57714,7 @@
       <c r="AE674" s="4"/>
       <c r="AF674" s="4"/>
       <c r="AG674" s="4"/>
+      <c r="AH674" s="4"/>
     </row>
     <row r="675">
       <c r="A675" s="4"/>
@@ -56863,6 +57750,7 @@
       <c r="AE675" s="4"/>
       <c r="AF675" s="4"/>
       <c r="AG675" s="4"/>
+      <c r="AH675" s="4"/>
     </row>
     <row r="676">
       <c r="A676" s="4"/>
@@ -56898,6 +57786,7 @@
       <c r="AE676" s="4"/>
       <c r="AF676" s="4"/>
       <c r="AG676" s="4"/>
+      <c r="AH676" s="4"/>
     </row>
     <row r="677">
       <c r="A677" s="4"/>
@@ -56933,6 +57822,7 @@
       <c r="AE677" s="4"/>
       <c r="AF677" s="4"/>
       <c r="AG677" s="4"/>
+      <c r="AH677" s="4"/>
     </row>
     <row r="678">
       <c r="A678" s="4"/>
@@ -56968,6 +57858,7 @@
       <c r="AE678" s="4"/>
       <c r="AF678" s="4"/>
       <c r="AG678" s="4"/>
+      <c r="AH678" s="4"/>
     </row>
     <row r="679">
       <c r="A679" s="4"/>
@@ -57003,6 +57894,7 @@
       <c r="AE679" s="4"/>
       <c r="AF679" s="4"/>
       <c r="AG679" s="4"/>
+      <c r="AH679" s="4"/>
     </row>
     <row r="680">
       <c r="A680" s="4"/>
@@ -57038,6 +57930,7 @@
       <c r="AE680" s="4"/>
       <c r="AF680" s="4"/>
       <c r="AG680" s="4"/>
+      <c r="AH680" s="4"/>
     </row>
     <row r="681">
       <c r="A681" s="4"/>
@@ -57073,6 +57966,7 @@
       <c r="AE681" s="4"/>
       <c r="AF681" s="4"/>
       <c r="AG681" s="4"/>
+      <c r="AH681" s="4"/>
     </row>
     <row r="682">
       <c r="A682" s="4"/>
@@ -57108,6 +58002,7 @@
       <c r="AE682" s="4"/>
       <c r="AF682" s="4"/>
       <c r="AG682" s="4"/>
+      <c r="AH682" s="4"/>
     </row>
     <row r="683">
       <c r="A683" s="4"/>
@@ -57143,6 +58038,7 @@
       <c r="AE683" s="4"/>
       <c r="AF683" s="4"/>
       <c r="AG683" s="4"/>
+      <c r="AH683" s="4"/>
     </row>
     <row r="684">
       <c r="A684" s="4"/>
@@ -57178,6 +58074,7 @@
       <c r="AE684" s="4"/>
       <c r="AF684" s="4"/>
       <c r="AG684" s="4"/>
+      <c r="AH684" s="4"/>
     </row>
     <row r="685">
       <c r="A685" s="4"/>
@@ -57213,6 +58110,7 @@
       <c r="AE685" s="4"/>
       <c r="AF685" s="4"/>
       <c r="AG685" s="4"/>
+      <c r="AH685" s="4"/>
     </row>
     <row r="686">
       <c r="A686" s="4"/>
@@ -57248,6 +58146,7 @@
       <c r="AE686" s="4"/>
       <c r="AF686" s="4"/>
       <c r="AG686" s="4"/>
+      <c r="AH686" s="4"/>
     </row>
     <row r="687">
       <c r="A687" s="4"/>
@@ -57283,6 +58182,7 @@
       <c r="AE687" s="4"/>
       <c r="AF687" s="4"/>
       <c r="AG687" s="4"/>
+      <c r="AH687" s="4"/>
     </row>
     <row r="688">
       <c r="A688" s="4"/>
@@ -57318,6 +58218,7 @@
       <c r="AE688" s="4"/>
       <c r="AF688" s="4"/>
       <c r="AG688" s="4"/>
+      <c r="AH688" s="4"/>
     </row>
     <row r="689">
       <c r="A689" s="4"/>
@@ -57353,6 +58254,7 @@
       <c r="AE689" s="4"/>
       <c r="AF689" s="4"/>
       <c r="AG689" s="4"/>
+      <c r="AH689" s="4"/>
     </row>
     <row r="690">
       <c r="A690" s="4"/>
@@ -57388,6 +58290,7 @@
       <c r="AE690" s="4"/>
       <c r="AF690" s="4"/>
       <c r="AG690" s="4"/>
+      <c r="AH690" s="4"/>
     </row>
     <row r="691">
       <c r="A691" s="4"/>
@@ -57423,6 +58326,7 @@
       <c r="AE691" s="4"/>
       <c r="AF691" s="4"/>
       <c r="AG691" s="4"/>
+      <c r="AH691" s="4"/>
     </row>
     <row r="692">
       <c r="A692" s="4"/>
@@ -57458,6 +58362,7 @@
       <c r="AE692" s="4"/>
       <c r="AF692" s="4"/>
       <c r="AG692" s="4"/>
+      <c r="AH692" s="4"/>
     </row>
     <row r="693">
       <c r="A693" s="4"/>
@@ -57493,6 +58398,7 @@
       <c r="AE693" s="4"/>
       <c r="AF693" s="4"/>
       <c r="AG693" s="4"/>
+      <c r="AH693" s="4"/>
     </row>
     <row r="694">
       <c r="A694" s="4"/>
@@ -57528,6 +58434,7 @@
       <c r="AE694" s="4"/>
       <c r="AF694" s="4"/>
       <c r="AG694" s="4"/>
+      <c r="AH694" s="4"/>
     </row>
     <row r="695">
       <c r="A695" s="4"/>
@@ -57563,6 +58470,7 @@
       <c r="AE695" s="4"/>
       <c r="AF695" s="4"/>
       <c r="AG695" s="4"/>
+      <c r="AH695" s="4"/>
     </row>
     <row r="696">
       <c r="A696" s="4"/>
@@ -57598,6 +58506,7 @@
       <c r="AE696" s="4"/>
       <c r="AF696" s="4"/>
       <c r="AG696" s="4"/>
+      <c r="AH696" s="4"/>
     </row>
     <row r="697">
       <c r="A697" s="4"/>
@@ -57633,6 +58542,7 @@
       <c r="AE697" s="4"/>
       <c r="AF697" s="4"/>
       <c r="AG697" s="4"/>
+      <c r="AH697" s="4"/>
     </row>
     <row r="698">
       <c r="A698" s="4"/>
@@ -57668,6 +58578,7 @@
       <c r="AE698" s="4"/>
       <c r="AF698" s="4"/>
       <c r="AG698" s="4"/>
+      <c r="AH698" s="4"/>
     </row>
     <row r="699">
       <c r="A699" s="4"/>
@@ -57703,6 +58614,7 @@
       <c r="AE699" s="4"/>
       <c r="AF699" s="4"/>
       <c r="AG699" s="4"/>
+      <c r="AH699" s="4"/>
     </row>
     <row r="700">
       <c r="A700" s="4"/>
@@ -57738,6 +58650,7 @@
       <c r="AE700" s="4"/>
       <c r="AF700" s="4"/>
       <c r="AG700" s="4"/>
+      <c r="AH700" s="4"/>
     </row>
     <row r="701">
       <c r="A701" s="4"/>
@@ -57773,6 +58686,7 @@
       <c r="AE701" s="4"/>
       <c r="AF701" s="4"/>
       <c r="AG701" s="4"/>
+      <c r="AH701" s="4"/>
     </row>
     <row r="702">
       <c r="A702" s="4"/>
@@ -57808,6 +58722,7 @@
       <c r="AE702" s="4"/>
       <c r="AF702" s="4"/>
       <c r="AG702" s="4"/>
+      <c r="AH702" s="4"/>
     </row>
     <row r="703">
       <c r="A703" s="4"/>
@@ -57843,6 +58758,7 @@
       <c r="AE703" s="4"/>
       <c r="AF703" s="4"/>
       <c r="AG703" s="4"/>
+      <c r="AH703" s="4"/>
     </row>
     <row r="704">
       <c r="A704" s="4"/>
@@ -57878,6 +58794,7 @@
       <c r="AE704" s="4"/>
       <c r="AF704" s="4"/>
       <c r="AG704" s="4"/>
+      <c r="AH704" s="4"/>
     </row>
     <row r="705">
       <c r="A705" s="4"/>
@@ -57913,6 +58830,7 @@
       <c r="AE705" s="4"/>
       <c r="AF705" s="4"/>
       <c r="AG705" s="4"/>
+      <c r="AH705" s="4"/>
     </row>
     <row r="706">
       <c r="A706" s="4"/>
@@ -57948,6 +58866,7 @@
       <c r="AE706" s="4"/>
       <c r="AF706" s="4"/>
       <c r="AG706" s="4"/>
+      <c r="AH706" s="4"/>
     </row>
     <row r="707">
       <c r="A707" s="4"/>
@@ -57983,6 +58902,7 @@
       <c r="AE707" s="4"/>
       <c r="AF707" s="4"/>
       <c r="AG707" s="4"/>
+      <c r="AH707" s="4"/>
     </row>
     <row r="708">
       <c r="A708" s="4"/>
@@ -58018,6 +58938,7 @@
       <c r="AE708" s="4"/>
       <c r="AF708" s="4"/>
       <c r="AG708" s="4"/>
+      <c r="AH708" s="4"/>
     </row>
     <row r="709">
       <c r="A709" s="4"/>
@@ -58053,6 +58974,7 @@
       <c r="AE709" s="4"/>
       <c r="AF709" s="4"/>
       <c r="AG709" s="4"/>
+      <c r="AH709" s="4"/>
     </row>
     <row r="710">
       <c r="A710" s="4"/>
@@ -58088,6 +59010,7 @@
       <c r="AE710" s="4"/>
       <c r="AF710" s="4"/>
       <c r="AG710" s="4"/>
+      <c r="AH710" s="4"/>
     </row>
     <row r="711">
       <c r="A711" s="4"/>
@@ -58123,6 +59046,7 @@
       <c r="AE711" s="4"/>
       <c r="AF711" s="4"/>
       <c r="AG711" s="4"/>
+      <c r="AH711" s="4"/>
     </row>
     <row r="712">
       <c r="A712" s="4"/>
@@ -58158,6 +59082,7 @@
       <c r="AE712" s="4"/>
       <c r="AF712" s="4"/>
       <c r="AG712" s="4"/>
+      <c r="AH712" s="4"/>
     </row>
     <row r="713">
       <c r="A713" s="4"/>
@@ -58193,6 +59118,7 @@
       <c r="AE713" s="4"/>
       <c r="AF713" s="4"/>
       <c r="AG713" s="4"/>
+      <c r="AH713" s="4"/>
     </row>
     <row r="714">
       <c r="A714" s="4"/>
@@ -58228,6 +59154,7 @@
       <c r="AE714" s="4"/>
       <c r="AF714" s="4"/>
       <c r="AG714" s="4"/>
+      <c r="AH714" s="4"/>
     </row>
     <row r="715">
       <c r="A715" s="4"/>
@@ -58263,6 +59190,7 @@
       <c r="AE715" s="4"/>
       <c r="AF715" s="4"/>
       <c r="AG715" s="4"/>
+      <c r="AH715" s="4"/>
     </row>
     <row r="716">
       <c r="A716" s="4"/>
@@ -58298,6 +59226,7 @@
       <c r="AE716" s="4"/>
       <c r="AF716" s="4"/>
       <c r="AG716" s="4"/>
+      <c r="AH716" s="4"/>
     </row>
     <row r="717">
       <c r="A717" s="4"/>
@@ -58333,6 +59262,7 @@
       <c r="AE717" s="4"/>
       <c r="AF717" s="4"/>
       <c r="AG717" s="4"/>
+      <c r="AH717" s="4"/>
     </row>
     <row r="718">
       <c r="A718" s="4"/>
@@ -58368,6 +59298,7 @@
       <c r="AE718" s="4"/>
       <c r="AF718" s="4"/>
       <c r="AG718" s="4"/>
+      <c r="AH718" s="4"/>
     </row>
     <row r="719">
       <c r="A719" s="4"/>
@@ -58403,6 +59334,7 @@
       <c r="AE719" s="4"/>
       <c r="AF719" s="4"/>
       <c r="AG719" s="4"/>
+      <c r="AH719" s="4"/>
     </row>
     <row r="720">
       <c r="A720" s="4"/>
@@ -58438,6 +59370,7 @@
       <c r="AE720" s="4"/>
       <c r="AF720" s="4"/>
       <c r="AG720" s="4"/>
+      <c r="AH720" s="4"/>
     </row>
     <row r="721">
       <c r="A721" s="4"/>
@@ -58473,6 +59406,7 @@
       <c r="AE721" s="4"/>
       <c r="AF721" s="4"/>
       <c r="AG721" s="4"/>
+      <c r="AH721" s="4"/>
     </row>
     <row r="722">
       <c r="A722" s="4"/>
@@ -58508,6 +59442,7 @@
       <c r="AE722" s="4"/>
       <c r="AF722" s="4"/>
       <c r="AG722" s="4"/>
+      <c r="AH722" s="4"/>
     </row>
     <row r="723">
       <c r="A723" s="4"/>
@@ -58543,6 +59478,7 @@
       <c r="AE723" s="4"/>
       <c r="AF723" s="4"/>
       <c r="AG723" s="4"/>
+      <c r="AH723" s="4"/>
     </row>
     <row r="724">
       <c r="A724" s="4"/>
@@ -58578,6 +59514,7 @@
       <c r="AE724" s="4"/>
       <c r="AF724" s="4"/>
       <c r="AG724" s="4"/>
+      <c r="AH724" s="4"/>
     </row>
     <row r="725">
       <c r="A725" s="4"/>
@@ -58613,6 +59550,7 @@
       <c r="AE725" s="4"/>
       <c r="AF725" s="4"/>
       <c r="AG725" s="4"/>
+      <c r="AH725" s="4"/>
     </row>
     <row r="726">
       <c r="A726" s="4"/>
@@ -58648,6 +59586,7 @@
       <c r="AE726" s="4"/>
       <c r="AF726" s="4"/>
       <c r="AG726" s="4"/>
+      <c r="AH726" s="4"/>
     </row>
     <row r="727">
       <c r="A727" s="4"/>
@@ -58683,6 +59622,7 @@
       <c r="AE727" s="4"/>
       <c r="AF727" s="4"/>
       <c r="AG727" s="4"/>
+      <c r="AH727" s="4"/>
     </row>
     <row r="728">
       <c r="A728" s="4"/>
@@ -58718,6 +59658,7 @@
       <c r="AE728" s="4"/>
       <c r="AF728" s="4"/>
       <c r="AG728" s="4"/>
+      <c r="AH728" s="4"/>
     </row>
     <row r="729">
       <c r="A729" s="4"/>
@@ -58753,6 +59694,7 @@
       <c r="AE729" s="4"/>
       <c r="AF729" s="4"/>
       <c r="AG729" s="4"/>
+      <c r="AH729" s="4"/>
     </row>
     <row r="730">
       <c r="A730" s="4"/>
@@ -58788,6 +59730,7 @@
       <c r="AE730" s="4"/>
       <c r="AF730" s="4"/>
       <c r="AG730" s="4"/>
+      <c r="AH730" s="4"/>
     </row>
     <row r="731">
       <c r="A731" s="4"/>
@@ -58823,6 +59766,7 @@
       <c r="AE731" s="4"/>
       <c r="AF731" s="4"/>
       <c r="AG731" s="4"/>
+      <c r="AH731" s="4"/>
     </row>
     <row r="732">
       <c r="A732" s="4"/>
@@ -58858,6 +59802,7 @@
       <c r="AE732" s="4"/>
       <c r="AF732" s="4"/>
       <c r="AG732" s="4"/>
+      <c r="AH732" s="4"/>
     </row>
     <row r="733">
       <c r="A733" s="4"/>
@@ -58893,6 +59838,7 @@
       <c r="AE733" s="4"/>
       <c r="AF733" s="4"/>
       <c r="AG733" s="4"/>
+      <c r="AH733" s="4"/>
     </row>
     <row r="734">
       <c r="A734" s="4"/>
@@ -58928,6 +59874,7 @@
       <c r="AE734" s="4"/>
       <c r="AF734" s="4"/>
       <c r="AG734" s="4"/>
+      <c r="AH734" s="4"/>
     </row>
     <row r="735">
       <c r="A735" s="4"/>
@@ -58963,6 +59910,7 @@
       <c r="AE735" s="4"/>
       <c r="AF735" s="4"/>
       <c r="AG735" s="4"/>
+      <c r="AH735" s="4"/>
     </row>
     <row r="736">
       <c r="A736" s="4"/>
@@ -58998,6 +59946,7 @@
       <c r="AE736" s="4"/>
       <c r="AF736" s="4"/>
       <c r="AG736" s="4"/>
+      <c r="AH736" s="4"/>
     </row>
     <row r="737">
       <c r="A737" s="4"/>
@@ -59033,6 +59982,7 @@
       <c r="AE737" s="4"/>
       <c r="AF737" s="4"/>
       <c r="AG737" s="4"/>
+      <c r="AH737" s="4"/>
     </row>
     <row r="738">
       <c r="A738" s="4"/>
@@ -59068,6 +60018,7 @@
       <c r="AE738" s="4"/>
       <c r="AF738" s="4"/>
       <c r="AG738" s="4"/>
+      <c r="AH738" s="4"/>
     </row>
     <row r="739">
       <c r="A739" s="4"/>
@@ -59103,6 +60054,7 @@
       <c r="AE739" s="4"/>
       <c r="AF739" s="4"/>
       <c r="AG739" s="4"/>
+      <c r="AH739" s="4"/>
     </row>
     <row r="740">
       <c r="A740" s="4"/>
@@ -59138,6 +60090,7 @@
       <c r="AE740" s="4"/>
       <c r="AF740" s="4"/>
       <c r="AG740" s="4"/>
+      <c r="AH740" s="4"/>
     </row>
     <row r="741">
       <c r="A741" s="4"/>
@@ -59173,6 +60126,7 @@
       <c r="AE741" s="4"/>
       <c r="AF741" s="4"/>
       <c r="AG741" s="4"/>
+      <c r="AH741" s="4"/>
     </row>
     <row r="742">
       <c r="A742" s="4"/>
@@ -59208,6 +60162,7 @@
       <c r="AE742" s="4"/>
       <c r="AF742" s="4"/>
       <c r="AG742" s="4"/>
+      <c r="AH742" s="4"/>
     </row>
     <row r="743">
       <c r="A743" s="4"/>
@@ -59243,6 +60198,7 @@
       <c r="AE743" s="4"/>
       <c r="AF743" s="4"/>
       <c r="AG743" s="4"/>
+      <c r="AH743" s="4"/>
     </row>
     <row r="744">
       <c r="A744" s="4"/>
@@ -59278,6 +60234,7 @@
       <c r="AE744" s="4"/>
       <c r="AF744" s="4"/>
       <c r="AG744" s="4"/>
+      <c r="AH744" s="4"/>
     </row>
     <row r="745">
       <c r="A745" s="4"/>
@@ -59313,6 +60270,7 @@
       <c r="AE745" s="4"/>
       <c r="AF745" s="4"/>
       <c r="AG745" s="4"/>
+      <c r="AH745" s="4"/>
     </row>
     <row r="746">
       <c r="A746" s="4"/>
@@ -59348,6 +60306,7 @@
       <c r="AE746" s="4"/>
       <c r="AF746" s="4"/>
       <c r="AG746" s="4"/>
+      <c r="AH746" s="4"/>
     </row>
     <row r="747">
       <c r="A747" s="4"/>
@@ -59383,6 +60342,7 @@
       <c r="AE747" s="4"/>
       <c r="AF747" s="4"/>
       <c r="AG747" s="4"/>
+      <c r="AH747" s="4"/>
     </row>
     <row r="748">
       <c r="A748" s="4"/>
@@ -59418,6 +60378,7 @@
       <c r="AE748" s="4"/>
       <c r="AF748" s="4"/>
       <c r="AG748" s="4"/>
+      <c r="AH748" s="4"/>
     </row>
     <row r="749">
       <c r="A749" s="4"/>
@@ -59453,6 +60414,7 @@
       <c r="AE749" s="4"/>
       <c r="AF749" s="4"/>
       <c r="AG749" s="4"/>
+      <c r="AH749" s="4"/>
     </row>
     <row r="750">
       <c r="A750" s="4"/>
@@ -59488,6 +60450,7 @@
       <c r="AE750" s="4"/>
       <c r="AF750" s="4"/>
       <c r="AG750" s="4"/>
+      <c r="AH750" s="4"/>
     </row>
     <row r="751">
       <c r="A751" s="4"/>
@@ -59523,6 +60486,7 @@
       <c r="AE751" s="4"/>
       <c r="AF751" s="4"/>
       <c r="AG751" s="4"/>
+      <c r="AH751" s="4"/>
     </row>
     <row r="752">
       <c r="A752" s="4"/>
@@ -59558,6 +60522,7 @@
       <c r="AE752" s="4"/>
       <c r="AF752" s="4"/>
       <c r="AG752" s="4"/>
+      <c r="AH752" s="4"/>
     </row>
     <row r="753">
       <c r="A753" s="4"/>
@@ -59593,6 +60558,7 @@
       <c r="AE753" s="4"/>
       <c r="AF753" s="4"/>
       <c r="AG753" s="4"/>
+      <c r="AH753" s="4"/>
     </row>
     <row r="754">
       <c r="A754" s="4"/>
@@ -59628,6 +60594,7 @@
       <c r="AE754" s="4"/>
       <c r="AF754" s="4"/>
       <c r="AG754" s="4"/>
+      <c r="AH754" s="4"/>
     </row>
     <row r="755">
       <c r="A755" s="4"/>
@@ -59663,6 +60630,7 @@
       <c r="AE755" s="4"/>
       <c r="AF755" s="4"/>
       <c r="AG755" s="4"/>
+      <c r="AH755" s="4"/>
     </row>
     <row r="756">
       <c r="A756" s="4"/>
@@ -59698,6 +60666,7 @@
       <c r="AE756" s="4"/>
       <c r="AF756" s="4"/>
       <c r="AG756" s="4"/>
+      <c r="AH756" s="4"/>
     </row>
     <row r="757">
       <c r="A757" s="4"/>
@@ -59733,6 +60702,7 @@
       <c r="AE757" s="4"/>
       <c r="AF757" s="4"/>
       <c r="AG757" s="4"/>
+      <c r="AH757" s="4"/>
     </row>
     <row r="758">
       <c r="A758" s="4"/>
@@ -59768,6 +60738,7 @@
       <c r="AE758" s="4"/>
       <c r="AF758" s="4"/>
       <c r="AG758" s="4"/>
+      <c r="AH758" s="4"/>
     </row>
     <row r="759">
       <c r="A759" s="4"/>
@@ -59803,6 +60774,7 @@
       <c r="AE759" s="4"/>
       <c r="AF759" s="4"/>
       <c r="AG759" s="4"/>
+      <c r="AH759" s="4"/>
     </row>
     <row r="760">
       <c r="A760" s="4"/>
@@ -59838,6 +60810,7 @@
       <c r="AE760" s="4"/>
       <c r="AF760" s="4"/>
       <c r="AG760" s="4"/>
+      <c r="AH760" s="4"/>
     </row>
     <row r="761">
       <c r="A761" s="4"/>
@@ -59873,6 +60846,7 @@
       <c r="AE761" s="4"/>
       <c r="AF761" s="4"/>
       <c r="AG761" s="4"/>
+      <c r="AH761" s="4"/>
     </row>
     <row r="762">
       <c r="A762" s="4"/>
@@ -59908,6 +60882,7 @@
       <c r="AE762" s="4"/>
       <c r="AF762" s="4"/>
       <c r="AG762" s="4"/>
+      <c r="AH762" s="4"/>
     </row>
     <row r="763">
       <c r="A763" s="4"/>
@@ -59943,6 +60918,7 @@
       <c r="AE763" s="4"/>
       <c r="AF763" s="4"/>
       <c r="AG763" s="4"/>
+      <c r="AH763" s="4"/>
     </row>
     <row r="764">
       <c r="A764" s="4"/>
@@ -59978,6 +60954,7 @@
       <c r="AE764" s="4"/>
       <c r="AF764" s="4"/>
       <c r="AG764" s="4"/>
+      <c r="AH764" s="4"/>
     </row>
     <row r="765">
       <c r="A765" s="4"/>
@@ -60013,6 +60990,7 @@
       <c r="AE765" s="4"/>
       <c r="AF765" s="4"/>
       <c r="AG765" s="4"/>
+      <c r="AH765" s="4"/>
     </row>
     <row r="766">
       <c r="A766" s="4"/>
@@ -60048,6 +61026,7 @@
       <c r="AE766" s="4"/>
       <c r="AF766" s="4"/>
       <c r="AG766" s="4"/>
+      <c r="AH766" s="4"/>
     </row>
     <row r="767">
       <c r="A767" s="4"/>
@@ -60083,6 +61062,7 @@
       <c r="AE767" s="4"/>
       <c r="AF767" s="4"/>
       <c r="AG767" s="4"/>
+      <c r="AH767" s="4"/>
     </row>
     <row r="768">
       <c r="A768" s="4"/>
@@ -60118,6 +61098,7 @@
       <c r="AE768" s="4"/>
       <c r="AF768" s="4"/>
       <c r="AG768" s="4"/>
+      <c r="AH768" s="4"/>
     </row>
     <row r="769">
       <c r="A769" s="4"/>
@@ -60153,6 +61134,7 @@
       <c r="AE769" s="4"/>
       <c r="AF769" s="4"/>
       <c r="AG769" s="4"/>
+      <c r="AH769" s="4"/>
     </row>
     <row r="770">
       <c r="A770" s="4"/>
@@ -60188,6 +61170,7 @@
       <c r="AE770" s="4"/>
       <c r="AF770" s="4"/>
       <c r="AG770" s="4"/>
+      <c r="AH770" s="4"/>
     </row>
     <row r="771">
       <c r="A771" s="4"/>
@@ -60223,6 +61206,7 @@
       <c r="AE771" s="4"/>
       <c r="AF771" s="4"/>
       <c r="AG771" s="4"/>
+      <c r="AH771" s="4"/>
     </row>
     <row r="772">
       <c r="A772" s="4"/>
@@ -60258,6 +61242,7 @@
       <c r="AE772" s="4"/>
       <c r="AF772" s="4"/>
       <c r="AG772" s="4"/>
+      <c r="AH772" s="4"/>
     </row>
     <row r="773">
       <c r="A773" s="4"/>
@@ -60293,6 +61278,7 @@
       <c r="AE773" s="4"/>
       <c r="AF773" s="4"/>
       <c r="AG773" s="4"/>
+      <c r="AH773" s="4"/>
     </row>
     <row r="774">
       <c r="A774" s="4"/>
@@ -60328,6 +61314,7 @@
       <c r="AE774" s="4"/>
       <c r="AF774" s="4"/>
       <c r="AG774" s="4"/>
+      <c r="AH774" s="4"/>
     </row>
     <row r="775">
       <c r="A775" s="4"/>
@@ -60363,6 +61350,7 @@
       <c r="AE775" s="4"/>
       <c r="AF775" s="4"/>
       <c r="AG775" s="4"/>
+      <c r="AH775" s="4"/>
     </row>
     <row r="776">
       <c r="A776" s="4"/>
@@ -60398,6 +61386,7 @@
       <c r="AE776" s="4"/>
       <c r="AF776" s="4"/>
       <c r="AG776" s="4"/>
+      <c r="AH776" s="4"/>
     </row>
     <row r="777">
       <c r="A777" s="4"/>
@@ -60433,6 +61422,7 @@
       <c r="AE777" s="4"/>
       <c r="AF777" s="4"/>
       <c r="AG777" s="4"/>
+      <c r="AH777" s="4"/>
     </row>
     <row r="778">
       <c r="A778" s="4"/>
@@ -60468,6 +61458,7 @@
       <c r="AE778" s="4"/>
       <c r="AF778" s="4"/>
       <c r="AG778" s="4"/>
+      <c r="AH778" s="4"/>
     </row>
     <row r="779">
       <c r="A779" s="4"/>
@@ -60503,6 +61494,7 @@
       <c r="AE779" s="4"/>
       <c r="AF779" s="4"/>
       <c r="AG779" s="4"/>
+      <c r="AH779" s="4"/>
     </row>
     <row r="780">
       <c r="A780" s="4"/>
@@ -60538,6 +61530,7 @@
       <c r="AE780" s="4"/>
       <c r="AF780" s="4"/>
       <c r="AG780" s="4"/>
+      <c r="AH780" s="4"/>
     </row>
     <row r="781">
       <c r="A781" s="4"/>
@@ -60573,6 +61566,7 @@
       <c r="AE781" s="4"/>
       <c r="AF781" s="4"/>
       <c r="AG781" s="4"/>
+      <c r="AH781" s="4"/>
     </row>
     <row r="782">
       <c r="A782" s="4"/>
@@ -60608,6 +61602,7 @@
       <c r="AE782" s="4"/>
       <c r="AF782" s="4"/>
       <c r="AG782" s="4"/>
+      <c r="AH782" s="4"/>
     </row>
     <row r="783">
       <c r="A783" s="4"/>
@@ -60643,6 +61638,7 @@
       <c r="AE783" s="4"/>
       <c r="AF783" s="4"/>
       <c r="AG783" s="4"/>
+      <c r="AH783" s="4"/>
     </row>
     <row r="784">
       <c r="A784" s="4"/>
@@ -60678,6 +61674,7 @@
       <c r="AE784" s="4"/>
       <c r="AF784" s="4"/>
       <c r="AG784" s="4"/>
+      <c r="AH784" s="4"/>
     </row>
     <row r="785">
       <c r="A785" s="4"/>
@@ -60713,6 +61710,7 @@
       <c r="AE785" s="4"/>
       <c r="AF785" s="4"/>
       <c r="AG785" s="4"/>
+      <c r="AH785" s="4"/>
     </row>
     <row r="786">
       <c r="A786" s="4"/>
@@ -60748,6 +61746,7 @@
       <c r="AE786" s="4"/>
       <c r="AF786" s="4"/>
       <c r="AG786" s="4"/>
+      <c r="AH786" s="4"/>
     </row>
     <row r="787">
       <c r="A787" s="4"/>
@@ -60783,6 +61782,7 @@
       <c r="AE787" s="4"/>
       <c r="AF787" s="4"/>
       <c r="AG787" s="4"/>
+      <c r="AH787" s="4"/>
     </row>
     <row r="788">
       <c r="A788" s="4"/>
@@ -60818,6 +61818,7 @@
       <c r="AE788" s="4"/>
       <c r="AF788" s="4"/>
       <c r="AG788" s="4"/>
+      <c r="AH788" s="4"/>
     </row>
     <row r="789">
       <c r="A789" s="4"/>
@@ -60853,6 +61854,7 @@
       <c r="AE789" s="4"/>
       <c r="AF789" s="4"/>
       <c r="AG789" s="4"/>
+      <c r="AH789" s="4"/>
     </row>
     <row r="790">
       <c r="A790" s="4"/>
@@ -60888,6 +61890,7 @@
       <c r="AE790" s="4"/>
       <c r="AF790" s="4"/>
       <c r="AG790" s="4"/>
+      <c r="AH790" s="4"/>
     </row>
     <row r="791">
       <c r="A791" s="4"/>
@@ -60923,6 +61926,7 @@
       <c r="AE791" s="4"/>
       <c r="AF791" s="4"/>
       <c r="AG791" s="4"/>
+      <c r="AH791" s="4"/>
     </row>
     <row r="792">
       <c r="A792" s="4"/>
@@ -60958,6 +61962,7 @@
       <c r="AE792" s="4"/>
       <c r="AF792" s="4"/>
       <c r="AG792" s="4"/>
+      <c r="AH792" s="4"/>
     </row>
     <row r="793">
       <c r="A793" s="4"/>
@@ -60993,6 +61998,7 @@
       <c r="AE793" s="4"/>
       <c r="AF793" s="4"/>
       <c r="AG793" s="4"/>
+      <c r="AH793" s="4"/>
     </row>
     <row r="794">
       <c r="A794" s="4"/>
@@ -61028,6 +62034,7 @@
       <c r="AE794" s="4"/>
       <c r="AF794" s="4"/>
       <c r="AG794" s="4"/>
+      <c r="AH794" s="4"/>
     </row>
     <row r="795">
       <c r="A795" s="4"/>
@@ -61063,6 +62070,7 @@
       <c r="AE795" s="4"/>
       <c r="AF795" s="4"/>
       <c r="AG795" s="4"/>
+      <c r="AH795" s="4"/>
     </row>
     <row r="796">
       <c r="A796" s="4"/>
@@ -61098,6 +62106,7 @@
       <c r="AE796" s="4"/>
       <c r="AF796" s="4"/>
       <c r="AG796" s="4"/>
+      <c r="AH796" s="4"/>
     </row>
     <row r="797">
       <c r="A797" s="4"/>
@@ -61133,6 +62142,7 @@
       <c r="AE797" s="4"/>
       <c r="AF797" s="4"/>
       <c r="AG797" s="4"/>
+      <c r="AH797" s="4"/>
     </row>
     <row r="798">
       <c r="A798" s="4"/>
@@ -61168,6 +62178,7 @@
       <c r="AE798" s="4"/>
       <c r="AF798" s="4"/>
       <c r="AG798" s="4"/>
+      <c r="AH798" s="4"/>
     </row>
     <row r="799">
       <c r="A799" s="4"/>
@@ -61203,6 +62214,7 @@
       <c r="AE799" s="4"/>
       <c r="AF799" s="4"/>
       <c r="AG799" s="4"/>
+      <c r="AH799" s="4"/>
     </row>
     <row r="800">
       <c r="A800" s="4"/>
@@ -61238,6 +62250,7 @@
       <c r="AE800" s="4"/>
       <c r="AF800" s="4"/>
       <c r="AG800" s="4"/>
+      <c r="AH800" s="4"/>
     </row>
     <row r="801">
       <c r="A801" s="4"/>
@@ -61273,6 +62286,7 @@
       <c r="AE801" s="4"/>
       <c r="AF801" s="4"/>
       <c r="AG801" s="4"/>
+      <c r="AH801" s="4"/>
     </row>
     <row r="802">
       <c r="A802" s="4"/>
@@ -61308,6 +62322,7 @@
       <c r="AE802" s="4"/>
       <c r="AF802" s="4"/>
       <c r="AG802" s="4"/>
+      <c r="AH802" s="4"/>
     </row>
     <row r="803">
       <c r="A803" s="4"/>
@@ -61343,6 +62358,7 @@
       <c r="AE803" s="4"/>
       <c r="AF803" s="4"/>
       <c r="AG803" s="4"/>
+      <c r="AH803" s="4"/>
     </row>
     <row r="804">
       <c r="A804" s="4"/>
@@ -61378,6 +62394,7 @@
       <c r="AE804" s="4"/>
       <c r="AF804" s="4"/>
       <c r="AG804" s="4"/>
+      <c r="AH804" s="4"/>
     </row>
     <row r="805">
       <c r="A805" s="4"/>
@@ -61413,6 +62430,7 @@
       <c r="AE805" s="4"/>
       <c r="AF805" s="4"/>
       <c r="AG805" s="4"/>
+      <c r="AH805" s="4"/>
     </row>
     <row r="806">
       <c r="A806" s="4"/>
@@ -61448,6 +62466,7 @@
       <c r="AE806" s="4"/>
       <c r="AF806" s="4"/>
       <c r="AG806" s="4"/>
+      <c r="AH806" s="4"/>
     </row>
     <row r="807">
       <c r="A807" s="4"/>
@@ -61483,6 +62502,7 @@
       <c r="AE807" s="4"/>
       <c r="AF807" s="4"/>
       <c r="AG807" s="4"/>
+      <c r="AH807" s="4"/>
     </row>
     <row r="808">
       <c r="A808" s="4"/>
@@ -61518,6 +62538,7 @@
       <c r="AE808" s="4"/>
       <c r="AF808" s="4"/>
       <c r="AG808" s="4"/>
+      <c r="AH808" s="4"/>
     </row>
     <row r="809">
       <c r="A809" s="4"/>
@@ -61553,6 +62574,7 @@
       <c r="AE809" s="4"/>
       <c r="AF809" s="4"/>
       <c r="AG809" s="4"/>
+      <c r="AH809" s="4"/>
     </row>
     <row r="810">
       <c r="A810" s="4"/>
@@ -61588,6 +62610,7 @@
       <c r="AE810" s="4"/>
       <c r="AF810" s="4"/>
       <c r="AG810" s="4"/>
+      <c r="AH810" s="4"/>
     </row>
     <row r="811">
       <c r="A811" s="4"/>
@@ -61623,6 +62646,7 @@
       <c r="AE811" s="4"/>
       <c r="AF811" s="4"/>
       <c r="AG811" s="4"/>
+      <c r="AH811" s="4"/>
     </row>
     <row r="812">
       <c r="A812" s="4"/>
@@ -61658,6 +62682,7 @@
       <c r="AE812" s="4"/>
       <c r="AF812" s="4"/>
       <c r="AG812" s="4"/>
+      <c r="AH812" s="4"/>
     </row>
     <row r="813">
       <c r="A813" s="4"/>
@@ -61693,6 +62718,7 @@
       <c r="AE813" s="4"/>
       <c r="AF813" s="4"/>
       <c r="AG813" s="4"/>
+      <c r="AH813" s="4"/>
     </row>
     <row r="814">
       <c r="A814" s="4"/>
@@ -61728,6 +62754,7 @@
       <c r="AE814" s="4"/>
       <c r="AF814" s="4"/>
       <c r="AG814" s="4"/>
+      <c r="AH814" s="4"/>
     </row>
     <row r="815">
       <c r="A815" s="4"/>
@@ -61763,6 +62790,7 @@
       <c r="AE815" s="4"/>
       <c r="AF815" s="4"/>
       <c r="AG815" s="4"/>
+      <c r="AH815" s="4"/>
     </row>
     <row r="816">
       <c r="A816" s="4"/>
@@ -61798,6 +62826,7 @@
       <c r="AE816" s="4"/>
       <c r="AF816" s="4"/>
       <c r="AG816" s="4"/>
+      <c r="AH816" s="4"/>
     </row>
     <row r="817">
       <c r="A817" s="4"/>
@@ -61833,6 +62862,7 @@
       <c r="AE817" s="4"/>
       <c r="AF817" s="4"/>
       <c r="AG817" s="4"/>
+      <c r="AH817" s="4"/>
     </row>
     <row r="818">
       <c r="A818" s="4"/>
@@ -61868,6 +62898,7 @@
       <c r="AE818" s="4"/>
       <c r="AF818" s="4"/>
       <c r="AG818" s="4"/>
+      <c r="AH818" s="4"/>
     </row>
     <row r="819">
       <c r="A819" s="4"/>
@@ -61903,6 +62934,7 @@
       <c r="AE819" s="4"/>
       <c r="AF819" s="4"/>
       <c r="AG819" s="4"/>
+      <c r="AH819" s="4"/>
     </row>
     <row r="820">
       <c r="A820" s="4"/>
@@ -61938,6 +62970,7 @@
       <c r="AE820" s="4"/>
       <c r="AF820" s="4"/>
       <c r="AG820" s="4"/>
+      <c r="AH820" s="4"/>
     </row>
     <row r="821">
       <c r="A821" s="4"/>
@@ -61973,6 +63006,7 @@
       <c r="AE821" s="4"/>
       <c r="AF821" s="4"/>
       <c r="AG821" s="4"/>
+      <c r="AH821" s="4"/>
     </row>
     <row r="822">
       <c r="A822" s="4"/>
@@ -62008,6 +63042,7 @@
       <c r="AE822" s="4"/>
       <c r="AF822" s="4"/>
       <c r="AG822" s="4"/>
+      <c r="AH822" s="4"/>
     </row>
     <row r="823">
       <c r="A823" s="4"/>
@@ -62043,6 +63078,7 @@
       <c r="AE823" s="4"/>
       <c r="AF823" s="4"/>
       <c r="AG823" s="4"/>
+      <c r="AH823" s="4"/>
     </row>
     <row r="824">
       <c r="A824" s="4"/>
@@ -62078,6 +63114,7 @@
       <c r="AE824" s="4"/>
       <c r="AF824" s="4"/>
       <c r="AG824" s="4"/>
+      <c r="AH824" s="4"/>
     </row>
     <row r="825">
       <c r="A825" s="4"/>
@@ -62113,6 +63150,7 @@
       <c r="AE825" s="4"/>
       <c r="AF825" s="4"/>
       <c r="AG825" s="4"/>
+      <c r="AH825" s="4"/>
     </row>
     <row r="826">
       <c r="A826" s="4"/>
@@ -62148,6 +63186,7 @@
       <c r="AE826" s="4"/>
       <c r="AF826" s="4"/>
       <c r="AG826" s="4"/>
+      <c r="AH826" s="4"/>
     </row>
     <row r="827">
       <c r="A827" s="4"/>
@@ -62183,6 +63222,7 @@
       <c r="AE827" s="4"/>
       <c r="AF827" s="4"/>
       <c r="AG827" s="4"/>
+      <c r="AH827" s="4"/>
     </row>
     <row r="828">
       <c r="A828" s="4"/>
@@ -62218,6 +63258,7 @@
       <c r="AE828" s="4"/>
       <c r="AF828" s="4"/>
       <c r="AG828" s="4"/>
+      <c r="AH828" s="4"/>
     </row>
     <row r="829">
       <c r="A829" s="4"/>
@@ -62253,6 +63294,7 @@
       <c r="AE829" s="4"/>
       <c r="AF829" s="4"/>
       <c r="AG829" s="4"/>
+      <c r="AH829" s="4"/>
     </row>
     <row r="830">
       <c r="A830" s="4"/>
@@ -62288,6 +63330,7 @@
       <c r="AE830" s="4"/>
       <c r="AF830" s="4"/>
       <c r="AG830" s="4"/>
+      <c r="AH830" s="4"/>
     </row>
     <row r="831">
       <c r="A831" s="4"/>
@@ -62323,6 +63366,7 @@
       <c r="AE831" s="4"/>
       <c r="AF831" s="4"/>
       <c r="AG831" s="4"/>
+      <c r="AH831" s="4"/>
     </row>
     <row r="832">
       <c r="A832" s="4"/>
@@ -62358,6 +63402,7 @@
       <c r="AE832" s="4"/>
       <c r="AF832" s="4"/>
       <c r="AG832" s="4"/>
+      <c r="AH832" s="4"/>
     </row>
     <row r="833">
       <c r="A833" s="4"/>
@@ -62393,6 +63438,7 @@
       <c r="AE833" s="4"/>
       <c r="AF833" s="4"/>
       <c r="AG833" s="4"/>
+      <c r="AH833" s="4"/>
     </row>
     <row r="834">
       <c r="A834" s="4"/>
@@ -62428,6 +63474,7 @@
       <c r="AE834" s="4"/>
       <c r="AF834" s="4"/>
       <c r="AG834" s="4"/>
+      <c r="AH834" s="4"/>
     </row>
     <row r="835">
       <c r="A835" s="4"/>
@@ -62463,6 +63510,7 @@
       <c r="AE835" s="4"/>
       <c r="AF835" s="4"/>
       <c r="AG835" s="4"/>
+      <c r="AH835" s="4"/>
     </row>
     <row r="836">
       <c r="A836" s="4"/>
@@ -62498,6 +63546,7 @@
       <c r="AE836" s="4"/>
       <c r="AF836" s="4"/>
       <c r="AG836" s="4"/>
+      <c r="AH836" s="4"/>
     </row>
     <row r="837">
       <c r="A837" s="4"/>
@@ -62533,6 +63582,7 @@
       <c r="AE837" s="4"/>
       <c r="AF837" s="4"/>
       <c r="AG837" s="4"/>
+      <c r="AH837" s="4"/>
     </row>
     <row r="838">
       <c r="A838" s="4"/>
@@ -62568,6 +63618,7 @@
       <c r="AE838" s="4"/>
       <c r="AF838" s="4"/>
       <c r="AG838" s="4"/>
+      <c r="AH838" s="4"/>
     </row>
     <row r="839">
       <c r="A839" s="4"/>
@@ -62603,6 +63654,7 @@
       <c r="AE839" s="4"/>
       <c r="AF839" s="4"/>
       <c r="AG839" s="4"/>
+      <c r="AH839" s="4"/>
     </row>
     <row r="840">
       <c r="A840" s="4"/>
@@ -62638,6 +63690,7 @@
       <c r="AE840" s="4"/>
       <c r="AF840" s="4"/>
       <c r="AG840" s="4"/>
+      <c r="AH840" s="4"/>
     </row>
     <row r="841">
       <c r="A841" s="4"/>
@@ -62673,6 +63726,7 @@
       <c r="AE841" s="4"/>
       <c r="AF841" s="4"/>
       <c r="AG841" s="4"/>
+      <c r="AH841" s="4"/>
     </row>
     <row r="842">
       <c r="A842" s="4"/>
@@ -62708,6 +63762,7 @@
       <c r="AE842" s="4"/>
       <c r="AF842" s="4"/>
       <c r="AG842" s="4"/>
+      <c r="AH842" s="4"/>
     </row>
     <row r="843">
       <c r="A843" s="4"/>
@@ -62743,6 +63798,7 @@
       <c r="AE843" s="4"/>
       <c r="AF843" s="4"/>
       <c r="AG843" s="4"/>
+      <c r="AH843" s="4"/>
     </row>
     <row r="844">
       <c r="A844" s="4"/>
@@ -62778,6 +63834,7 @@
       <c r="AE844" s="4"/>
       <c r="AF844" s="4"/>
       <c r="AG844" s="4"/>
+      <c r="AH844" s="4"/>
     </row>
     <row r="845">
       <c r="A845" s="4"/>
@@ -62813,6 +63870,7 @@
       <c r="AE845" s="4"/>
       <c r="AF845" s="4"/>
       <c r="AG845" s="4"/>
+      <c r="AH845" s="4"/>
     </row>
     <row r="846">
       <c r="A846" s="4"/>
@@ -62848,6 +63906,7 @@
       <c r="AE846" s="4"/>
       <c r="AF846" s="4"/>
       <c r="AG846" s="4"/>
+      <c r="AH846" s="4"/>
     </row>
     <row r="847">
       <c r="A847" s="4"/>
@@ -62883,6 +63942,7 @@
       <c r="AE847" s="4"/>
       <c r="AF847" s="4"/>
       <c r="AG847" s="4"/>
+      <c r="AH847" s="4"/>
     </row>
     <row r="848">
       <c r="A848" s="4"/>
@@ -62918,6 +63978,7 @@
       <c r="AE848" s="4"/>
       <c r="AF848" s="4"/>
       <c r="AG848" s="4"/>
+      <c r="AH848" s="4"/>
     </row>
     <row r="849">
       <c r="A849" s="4"/>
@@ -62953,6 +64014,7 @@
       <c r="AE849" s="4"/>
       <c r="AF849" s="4"/>
       <c r="AG849" s="4"/>
+      <c r="AH849" s="4"/>
     </row>
     <row r="850">
       <c r="A850" s="4"/>
@@ -62988,6 +64050,7 @@
       <c r="AE850" s="4"/>
       <c r="AF850" s="4"/>
       <c r="AG850" s="4"/>
+      <c r="AH850" s="4"/>
     </row>
     <row r="851">
       <c r="A851" s="4"/>
@@ -63023,6 +64086,7 @@
       <c r="AE851" s="4"/>
       <c r="AF851" s="4"/>
       <c r="AG851" s="4"/>
+      <c r="AH851" s="4"/>
     </row>
     <row r="852">
       <c r="A852" s="4"/>
@@ -63058,6 +64122,7 @@
       <c r="AE852" s="4"/>
       <c r="AF852" s="4"/>
       <c r="AG852" s="4"/>
+      <c r="AH852" s="4"/>
     </row>
     <row r="853">
       <c r="A853" s="4"/>
@@ -63093,6 +64158,7 @@
       <c r="AE853" s="4"/>
       <c r="AF853" s="4"/>
       <c r="AG853" s="4"/>
+      <c r="AH853" s="4"/>
     </row>
     <row r="854">
       <c r="A854" s="4"/>
@@ -63128,6 +64194,7 @@
       <c r="AE854" s="4"/>
       <c r="AF854" s="4"/>
       <c r="AG854" s="4"/>
+      <c r="AH854" s="4"/>
     </row>
     <row r="855">
       <c r="A855" s="4"/>
@@ -63163,6 +64230,7 @@
       <c r="AE855" s="4"/>
       <c r="AF855" s="4"/>
       <c r="AG855" s="4"/>
+      <c r="AH855" s="4"/>
     </row>
     <row r="856">
       <c r="A856" s="4"/>
@@ -63198,6 +64266,7 @@
       <c r="AE856" s="4"/>
       <c r="AF856" s="4"/>
       <c r="AG856" s="4"/>
+      <c r="AH856" s="4"/>
     </row>
     <row r="857">
       <c r="A857" s="4"/>
@@ -63233,6 +64302,7 @@
       <c r="AE857" s="4"/>
       <c r="AF857" s="4"/>
       <c r="AG857" s="4"/>
+      <c r="AH857" s="4"/>
     </row>
     <row r="858">
       <c r="A858" s="4"/>
@@ -63268,6 +64338,7 @@
       <c r="AE858" s="4"/>
       <c r="AF858" s="4"/>
       <c r="AG858" s="4"/>
+      <c r="AH858" s="4"/>
     </row>
     <row r="859">
       <c r="A859" s="4"/>
@@ -63303,6 +64374,7 @@
       <c r="AE859" s="4"/>
       <c r="AF859" s="4"/>
       <c r="AG859" s="4"/>
+      <c r="AH859" s="4"/>
     </row>
     <row r="860">
       <c r="A860" s="4"/>
@@ -63338,6 +64410,7 @@
       <c r="AE860" s="4"/>
       <c r="AF860" s="4"/>
       <c r="AG860" s="4"/>
+      <c r="AH860" s="4"/>
     </row>
     <row r="861">
       <c r="A861" s="4"/>
@@ -63373,6 +64446,7 @@
       <c r="AE861" s="4"/>
       <c r="AF861" s="4"/>
       <c r="AG861" s="4"/>
+      <c r="AH861" s="4"/>
     </row>
     <row r="862">
       <c r="A862" s="4"/>
@@ -63408,6 +64482,7 @@
       <c r="AE862" s="4"/>
       <c r="AF862" s="4"/>
       <c r="AG862" s="4"/>
+      <c r="AH862" s="4"/>
     </row>
     <row r="863">
       <c r="A863" s="4"/>
@@ -63443,6 +64518,7 @@
       <c r="AE863" s="4"/>
       <c r="AF863" s="4"/>
       <c r="AG863" s="4"/>
+      <c r="AH863" s="4"/>
     </row>
     <row r="864">
       <c r="A864" s="4"/>
@@ -63478,6 +64554,7 @@
       <c r="AE864" s="4"/>
       <c r="AF864" s="4"/>
       <c r="AG864" s="4"/>
+      <c r="AH864" s="4"/>
     </row>
     <row r="865">
       <c r="A865" s="4"/>
@@ -63513,6 +64590,7 @@
       <c r="AE865" s="4"/>
       <c r="AF865" s="4"/>
       <c r="AG865" s="4"/>
+      <c r="AH865" s="4"/>
     </row>
     <row r="866">
       <c r="A866" s="4"/>
@@ -63548,6 +64626,7 @@
       <c r="AE866" s="4"/>
       <c r="AF866" s="4"/>
       <c r="AG866" s="4"/>
+      <c r="AH866" s="4"/>
     </row>
     <row r="867">
       <c r="A867" s="4"/>
@@ -63583,6 +64662,7 @@
       <c r="AE867" s="4"/>
       <c r="AF867" s="4"/>
       <c r="AG867" s="4"/>
+      <c r="AH867" s="4"/>
     </row>
     <row r="868">
       <c r="A868" s="4"/>
@@ -63618,6 +64698,7 @@
       <c r="AE868" s="4"/>
       <c r="AF868" s="4"/>
       <c r="AG868" s="4"/>
+      <c r="AH868" s="4"/>
     </row>
     <row r="869">
       <c r="A869" s="4"/>
@@ -63653,6 +64734,7 @@
       <c r="AE869" s="4"/>
       <c r="AF869" s="4"/>
       <c r="AG869" s="4"/>
+      <c r="AH869" s="4"/>
     </row>
     <row r="870">
       <c r="A870" s="4"/>
@@ -63688,6 +64770,7 @@
       <c r="AE870" s="4"/>
       <c r="AF870" s="4"/>
       <c r="AG870" s="4"/>
+      <c r="AH870" s="4"/>
     </row>
     <row r="871">
       <c r="A871" s="4"/>
@@ -63723,6 +64806,7 @@
       <c r="AE871" s="4"/>
       <c r="AF871" s="4"/>
       <c r="AG871" s="4"/>
+      <c r="AH871" s="4"/>
     </row>
     <row r="872">
       <c r="A872" s="4"/>
@@ -63758,6 +64842,7 @@
       <c r="AE872" s="4"/>
       <c r="AF872" s="4"/>
       <c r="AG872" s="4"/>
+      <c r="AH872" s="4"/>
     </row>
     <row r="873">
       <c r="A873" s="4"/>
@@ -63793,6 +64878,7 @@
       <c r="AE873" s="4"/>
       <c r="AF873" s="4"/>
       <c r="AG873" s="4"/>
+      <c r="AH873" s="4"/>
     </row>
     <row r="874">
       <c r="A874" s="4"/>
@@ -63828,6 +64914,7 @@
       <c r="AE874" s="4"/>
       <c r="AF874" s="4"/>
       <c r="AG874" s="4"/>
+      <c r="AH874" s="4"/>
     </row>
     <row r="875">
       <c r="A875" s="4"/>
@@ -63863,6 +64950,7 @@
       <c r="AE875" s="4"/>
       <c r="AF875" s="4"/>
       <c r="AG875" s="4"/>
+      <c r="AH875" s="4"/>
     </row>
     <row r="876">
       <c r="A876" s="4"/>
@@ -63898,6 +64986,7 @@
       <c r="AE876" s="4"/>
       <c r="AF876" s="4"/>
       <c r="AG876" s="4"/>
+      <c r="AH876" s="4"/>
     </row>
     <row r="877">
       <c r="A877" s="4"/>
@@ -63933,6 +65022,7 @@
       <c r="AE877" s="4"/>
       <c r="AF877" s="4"/>
       <c r="AG877" s="4"/>
+      <c r="AH877" s="4"/>
     </row>
     <row r="878">
       <c r="A878" s="4"/>
@@ -63968,6 +65058,7 @@
       <c r="AE878" s="4"/>
       <c r="AF878" s="4"/>
       <c r="AG878" s="4"/>
+      <c r="AH878" s="4"/>
     </row>
     <row r="879">
       <c r="A879" s="4"/>
@@ -64003,6 +65094,7 @@
       <c r="AE879" s="4"/>
       <c r="AF879" s="4"/>
       <c r="AG879" s="4"/>
+      <c r="AH879" s="4"/>
     </row>
     <row r="880">
       <c r="A880" s="4"/>
@@ -64038,6 +65130,7 @@
       <c r="AE880" s="4"/>
       <c r="AF880" s="4"/>
       <c r="AG880" s="4"/>
+      <c r="AH880" s="4"/>
     </row>
     <row r="881">
       <c r="A881" s="4"/>
@@ -64073,6 +65166,7 @@
       <c r="AE881" s="4"/>
       <c r="AF881" s="4"/>
       <c r="AG881" s="4"/>
+      <c r="AH881" s="4"/>
     </row>
     <row r="882">
       <c r="A882" s="4"/>
@@ -64108,6 +65202,7 @@
       <c r="AE882" s="4"/>
       <c r="AF882" s="4"/>
       <c r="AG882" s="4"/>
+      <c r="AH882" s="4"/>
     </row>
     <row r="883">
       <c r="A883" s="4"/>
@@ -64143,6 +65238,7 @@
       <c r="AE883" s="4"/>
       <c r="AF883" s="4"/>
       <c r="AG883" s="4"/>
+      <c r="AH883" s="4"/>
     </row>
     <row r="884">
       <c r="A884" s="4"/>
@@ -64178,6 +65274,7 @@
       <c r="AE884" s="4"/>
       <c r="AF884" s="4"/>
       <c r="AG884" s="4"/>
+      <c r="AH884" s="4"/>
     </row>
     <row r="885">
       <c r="A885" s="4"/>
@@ -64213,6 +65310,7 @@
       <c r="AE885" s="4"/>
       <c r="AF885" s="4"/>
       <c r="AG885" s="4"/>
+      <c r="AH885" s="4"/>
     </row>
     <row r="886">
       <c r="A886" s="4"/>
@@ -64248,6 +65346,7 @@
       <c r="AE886" s="4"/>
       <c r="AF886" s="4"/>
       <c r="AG886" s="4"/>
+      <c r="AH886" s="4"/>
     </row>
     <row r="887">
       <c r="A887" s="4"/>
@@ -64283,6 +65382,7 @@
       <c r="AE887" s="4"/>
       <c r="AF887" s="4"/>
       <c r="AG887" s="4"/>
+      <c r="AH887" s="4"/>
     </row>
     <row r="888">
       <c r="A888" s="4"/>
@@ -64318,6 +65418,7 @@
       <c r="AE888" s="4"/>
       <c r="AF888" s="4"/>
       <c r="AG888" s="4"/>
+      <c r="AH888" s="4"/>
     </row>
     <row r="889">
       <c r="A889" s="4"/>
@@ -64353,6 +65454,7 @@
       <c r="AE889" s="4"/>
       <c r="AF889" s="4"/>
       <c r="AG889" s="4"/>
+      <c r="AH889" s="4"/>
     </row>
     <row r="890">
       <c r="A890" s="4"/>
@@ -64388,6 +65490,7 @@
       <c r="AE890" s="4"/>
       <c r="AF890" s="4"/>
       <c r="AG890" s="4"/>
+      <c r="AH890" s="4"/>
     </row>
     <row r="891">
       <c r="A891" s="4"/>
@@ -64423,6 +65526,7 @@
       <c r="AE891" s="4"/>
       <c r="AF891" s="4"/>
       <c r="AG891" s="4"/>
+      <c r="AH891" s="4"/>
     </row>
     <row r="892">
       <c r="A892" s="4"/>
@@ -64458,6 +65562,7 @@
       <c r="AE892" s="4"/>
       <c r="AF892" s="4"/>
       <c r="AG892" s="4"/>
+      <c r="AH892" s="4"/>
     </row>
     <row r="893">
       <c r="A893" s="4"/>
@@ -64493,6 +65598,7 @@
       <c r="AE893" s="4"/>
       <c r="AF893" s="4"/>
       <c r="AG893" s="4"/>
+      <c r="AH893" s="4"/>
     </row>
     <row r="894">
       <c r="A894" s="4"/>
@@ -64528,6 +65634,7 @@
       <c r="AE894" s="4"/>
       <c r="AF894" s="4"/>
       <c r="AG894" s="4"/>
+      <c r="AH894" s="4"/>
     </row>
     <row r="895">
       <c r="A895" s="4"/>
@@ -64563,6 +65670,7 @@
       <c r="AE895" s="4"/>
       <c r="AF895" s="4"/>
       <c r="AG895" s="4"/>
+      <c r="AH895" s="4"/>
     </row>
     <row r="896">
       <c r="A896" s="4"/>
@@ -64598,6 +65706,7 @@
       <c r="AE896" s="4"/>
       <c r="AF896" s="4"/>
       <c r="AG896" s="4"/>
+      <c r="AH896" s="4"/>
     </row>
     <row r="897">
       <c r="A897" s="4"/>
@@ -64633,6 +65742,7 @@
       <c r="AE897" s="4"/>
       <c r="AF897" s="4"/>
       <c r="AG897" s="4"/>
+      <c r="AH897" s="4"/>
     </row>
     <row r="898">
       <c r="A898" s="4"/>
@@ -64668,6 +65778,7 @@
       <c r="AE898" s="4"/>
       <c r="AF898" s="4"/>
       <c r="AG898" s="4"/>
+      <c r="AH898" s="4"/>
     </row>
     <row r="899">
       <c r="A899" s="4"/>
@@ -64703,6 +65814,7 @@
       <c r="AE899" s="4"/>
       <c r="AF899" s="4"/>
       <c r="AG899" s="4"/>
+      <c r="AH899" s="4"/>
     </row>
     <row r="900">
       <c r="A900" s="4"/>
@@ -64738,6 +65850,7 @@
       <c r="AE900" s="4"/>
       <c r="AF900" s="4"/>
       <c r="AG900" s="4"/>
+      <c r="AH900" s="4"/>
     </row>
     <row r="901">
       <c r="A901" s="4"/>
@@ -64773,6 +65886,7 @@
       <c r="AE901" s="4"/>
       <c r="AF901" s="4"/>
       <c r="AG901" s="4"/>
+      <c r="AH901" s="4"/>
     </row>
     <row r="902">
       <c r="A902" s="4"/>
@@ -64808,6 +65922,7 @@
       <c r="AE902" s="4"/>
       <c r="AF902" s="4"/>
       <c r="AG902" s="4"/>
+      <c r="AH902" s="4"/>
     </row>
     <row r="903">
       <c r="A903" s="4"/>
@@ -64843,6 +65958,7 @@
       <c r="AE903" s="4"/>
       <c r="AF903" s="4"/>
       <c r="AG903" s="4"/>
+      <c r="AH903" s="4"/>
     </row>
     <row r="904">
       <c r="A904" s="4"/>
@@ -64878,6 +65994,7 @@
       <c r="AE904" s="4"/>
       <c r="AF904" s="4"/>
       <c r="AG904" s="4"/>
+      <c r="AH904" s="4"/>
     </row>
     <row r="905">
       <c r="A905" s="4"/>
@@ -64913,6 +66030,7 @@
       <c r="AE905" s="4"/>
       <c r="AF905" s="4"/>
       <c r="AG905" s="4"/>
+      <c r="AH905" s="4"/>
     </row>
     <row r="906">
       <c r="A906" s="4"/>
@@ -64948,6 +66066,7 @@
       <c r="AE906" s="4"/>
       <c r="AF906" s="4"/>
       <c r="AG906" s="4"/>
+      <c r="AH906" s="4"/>
     </row>
     <row r="907">
       <c r="A907" s="4"/>
@@ -64983,6 +66102,7 @@
       <c r="AE907" s="4"/>
       <c r="AF907" s="4"/>
       <c r="AG907" s="4"/>
+      <c r="AH907" s="4"/>
     </row>
     <row r="908">
       <c r="A908" s="4"/>
@@ -65018,6 +66138,7 @@
       <c r="AE908" s="4"/>
       <c r="AF908" s="4"/>
       <c r="AG908" s="4"/>
+      <c r="AH908" s="4"/>
     </row>
     <row r="909">
       <c r="A909" s="4"/>
@@ -65053,6 +66174,7 @@
       <c r="AE909" s="4"/>
       <c r="AF909" s="4"/>
       <c r="AG909" s="4"/>
+      <c r="AH909" s="4"/>
     </row>
     <row r="910">
       <c r="A910" s="4"/>
@@ -65088,6 +66210,7 @@
       <c r="AE910" s="4"/>
       <c r="AF910" s="4"/>
       <c r="AG910" s="4"/>
+      <c r="AH910" s="4"/>
     </row>
     <row r="911">
       <c r="A911" s="4"/>
@@ -65123,6 +66246,7 @@
       <c r="AE911" s="4"/>
       <c r="AF911" s="4"/>
       <c r="AG911" s="4"/>
+      <c r="AH911" s="4"/>
     </row>
     <row r="912">
       <c r="A912" s="4"/>
@@ -65158,6 +66282,7 @@
       <c r="AE912" s="4"/>
       <c r="AF912" s="4"/>
       <c r="AG912" s="4"/>
+      <c r="AH912" s="4"/>
     </row>
     <row r="913">
       <c r="A913" s="4"/>
@@ -65193,6 +66318,7 @@
       <c r="AE913" s="4"/>
       <c r="AF913" s="4"/>
       <c r="AG913" s="4"/>
+      <c r="AH913" s="4"/>
     </row>
     <row r="914">
       <c r="A914" s="4"/>
@@ -65228,6 +66354,7 @@
       <c r="AE914" s="4"/>
       <c r="AF914" s="4"/>
       <c r="AG914" s="4"/>
+      <c r="AH914" s="4"/>
     </row>
     <row r="915">
       <c r="A915" s="4"/>
@@ -65263,6 +66390,7 @@
       <c r="AE915" s="4"/>
       <c r="AF915" s="4"/>
       <c r="AG915" s="4"/>
+      <c r="AH915" s="4"/>
     </row>
     <row r="916">
       <c r="A916" s="4"/>
@@ -65298,6 +66426,7 @@
       <c r="AE916" s="4"/>
       <c r="AF916" s="4"/>
       <c r="AG916" s="4"/>
+      <c r="AH916" s="4"/>
     </row>
     <row r="917">
       <c r="A917" s="4"/>
@@ -65333,6 +66462,7 @@
       <c r="AE917" s="4"/>
       <c r="AF917" s="4"/>
       <c r="AG917" s="4"/>
+      <c r="AH917" s="4"/>
     </row>
     <row r="918">
       <c r="A918" s="4"/>
@@ -65368,6 +66498,7 @@
       <c r="AE918" s="4"/>
       <c r="AF918" s="4"/>
       <c r="AG918" s="4"/>
+      <c r="AH918" s="4"/>
     </row>
     <row r="919">
       <c r="A919" s="4"/>
@@ -65403,6 +66534,7 @@
       <c r="AE919" s="4"/>
       <c r="AF919" s="4"/>
       <c r="AG919" s="4"/>
+      <c r="AH919" s="4"/>
     </row>
     <row r="920">
       <c r="A920" s="4"/>
@@ -65438,6 +66570,7 @@
       <c r="AE920" s="4"/>
       <c r="AF920" s="4"/>
       <c r="AG920" s="4"/>
+      <c r="AH920" s="4"/>
     </row>
     <row r="921">
       <c r="A921" s="4"/>
@@ -65473,6 +66606,7 @@
       <c r="AE921" s="4"/>
       <c r="AF921" s="4"/>
       <c r="AG921" s="4"/>
+      <c r="AH921" s="4"/>
     </row>
     <row r="922">
       <c r="A922" s="4"/>
@@ -65508,6 +66642,7 @@
       <c r="AE922" s="4"/>
       <c r="AF922" s="4"/>
       <c r="AG922" s="4"/>
+      <c r="AH922" s="4"/>
     </row>
     <row r="923">
       <c r="A923" s="4"/>
@@ -65543,6 +66678,7 @@
       <c r="AE923" s="4"/>
       <c r="AF923" s="4"/>
       <c r="AG923" s="4"/>
+      <c r="AH923" s="4"/>
     </row>
     <row r="924">
       <c r="A924" s="4"/>
@@ -65578,6 +66714,7 @@
       <c r="AE924" s="4"/>
       <c r="AF924" s="4"/>
       <c r="AG924" s="4"/>
+      <c r="AH924" s="4"/>
     </row>
     <row r="925">
       <c r="A925" s="4"/>
@@ -65613,6 +66750,7 @@
       <c r="AE925" s="4"/>
       <c r="AF925" s="4"/>
       <c r="AG925" s="4"/>
+      <c r="AH925" s="4"/>
     </row>
     <row r="926">
       <c r="A926" s="4"/>
@@ -65648,6 +66786,7 @@
       <c r="AE926" s="4"/>
       <c r="AF926" s="4"/>
       <c r="AG926" s="4"/>
+      <c r="AH926" s="4"/>
     </row>
     <row r="927">
       <c r="A927" s="4"/>
@@ -65683,6 +66822,7 @@
       <c r="AE927" s="4"/>
       <c r="AF927" s="4"/>
       <c r="AG927" s="4"/>
+      <c r="AH927" s="4"/>
     </row>
     <row r="928">
       <c r="A928" s="4"/>
@@ -65718,6 +66858,7 @@
       <c r="AE928" s="4"/>
       <c r="AF928" s="4"/>
       <c r="AG928" s="4"/>
+      <c r="AH928" s="4"/>
     </row>
     <row r="929">
       <c r="A929" s="4"/>
@@ -65753,6 +66894,7 @@
       <c r="AE929" s="4"/>
       <c r="AF929" s="4"/>
       <c r="AG929" s="4"/>
+      <c r="AH929" s="4"/>
     </row>
     <row r="930">
       <c r="A930" s="4"/>
@@ -65788,6 +66930,7 @@
       <c r="AE930" s="4"/>
       <c r="AF930" s="4"/>
       <c r="AG930" s="4"/>
+      <c r="AH930" s="4"/>
     </row>
     <row r="931">
       <c r="A931" s="4"/>
@@ -65823,6 +66966,7 @@
       <c r="AE931" s="4"/>
       <c r="AF931" s="4"/>
       <c r="AG931" s="4"/>
+      <c r="AH931" s="4"/>
     </row>
     <row r="932">
       <c r="A932" s="4"/>
@@ -65858,6 +67002,7 @@
       <c r="AE932" s="4"/>
       <c r="AF932" s="4"/>
       <c r="AG932" s="4"/>
+      <c r="AH932" s="4"/>
     </row>
     <row r="933">
       <c r="A933" s="4"/>
@@ -65893,6 +67038,7 @@
       <c r="AE933" s="4"/>
       <c r="AF933" s="4"/>
       <c r="AG933" s="4"/>
+      <c r="AH933" s="4"/>
     </row>
     <row r="934">
       <c r="A934" s="4"/>
@@ -65928,6 +67074,7 @@
       <c r="AE934" s="4"/>
       <c r="AF934" s="4"/>
       <c r="AG934" s="4"/>
+      <c r="AH934" s="4"/>
     </row>
     <row r="935">
       <c r="A935" s="4"/>
@@ -65963,6 +67110,7 @@
       <c r="AE935" s="4"/>
       <c r="AF935" s="4"/>
       <c r="AG935" s="4"/>
+      <c r="AH935" s="4"/>
     </row>
     <row r="936">
       <c r="A936" s="4"/>
@@ -65998,6 +67146,7 @@
       <c r="AE936" s="4"/>
       <c r="AF936" s="4"/>
       <c r="AG936" s="4"/>
+      <c r="AH936" s="4"/>
     </row>
     <row r="937">
       <c r="A937" s="4"/>
@@ -66033,6 +67182,7 @@
       <c r="AE937" s="4"/>
       <c r="AF937" s="4"/>
       <c r="AG937" s="4"/>
+      <c r="AH937" s="4"/>
     </row>
     <row r="938">
       <c r="A938" s="4"/>
@@ -66068,6 +67218,7 @@
       <c r="AE938" s="4"/>
       <c r="AF938" s="4"/>
       <c r="AG938" s="4"/>
+      <c r="AH938" s="4"/>
     </row>
     <row r="939">
       <c r="A939" s="4"/>
@@ -66103,6 +67254,7 @@
       <c r="AE939" s="4"/>
       <c r="AF939" s="4"/>
       <c r="AG939" s="4"/>
+      <c r="AH939" s="4"/>
     </row>
     <row r="940">
       <c r="A940" s="4"/>
@@ -66138,6 +67290,7 @@
       <c r="AE940" s="4"/>
       <c r="AF940" s="4"/>
       <c r="AG940" s="4"/>
+      <c r="AH940" s="4"/>
     </row>
     <row r="941">
       <c r="A941" s="4"/>
@@ -66173,6 +67326,7 @@
       <c r="AE941" s="4"/>
       <c r="AF941" s="4"/>
       <c r="AG941" s="4"/>
+      <c r="AH941" s="4"/>
     </row>
     <row r="942">
       <c r="A942" s="4"/>
@@ -66208,6 +67362,7 @@
       <c r="AE942" s="4"/>
       <c r="AF942" s="4"/>
       <c r="AG942" s="4"/>
+      <c r="AH942" s="4"/>
     </row>
     <row r="943">
       <c r="A943" s="4"/>
@@ -66243,6 +67398,7 @@
       <c r="AE943" s="4"/>
       <c r="AF943" s="4"/>
       <c r="AG943" s="4"/>
+      <c r="AH943" s="4"/>
     </row>
     <row r="944">
       <c r="A944" s="4"/>
@@ -66278,6 +67434,7 @@
       <c r="AE944" s="4"/>
       <c r="AF944" s="4"/>
       <c r="AG944" s="4"/>
+      <c r="AH944" s="4"/>
     </row>
     <row r="945">
       <c r="A945" s="4"/>
@@ -66313,6 +67470,7 @@
       <c r="AE945" s="4"/>
       <c r="AF945" s="4"/>
       <c r="AG945" s="4"/>
+      <c r="AH945" s="4"/>
     </row>
     <row r="946">
       <c r="A946" s="4"/>
@@ -66348,6 +67506,7 @@
       <c r="AE946" s="4"/>
       <c r="AF946" s="4"/>
       <c r="AG946" s="4"/>
+      <c r="AH946" s="4"/>
     </row>
     <row r="947">
       <c r="A947" s="4"/>
@@ -66383,6 +67542,7 @@
       <c r="AE947" s="4"/>
       <c r="AF947" s="4"/>
       <c r="AG947" s="4"/>
+      <c r="AH947" s="4"/>
     </row>
     <row r="948">
       <c r="A948" s="4"/>
@@ -66418,6 +67578,7 @@
       <c r="AE948" s="4"/>
       <c r="AF948" s="4"/>
       <c r="AG948" s="4"/>
+      <c r="AH948" s="4"/>
     </row>
     <row r="949">
       <c r="A949" s="4"/>
@@ -66453,6 +67614,7 @@
       <c r="AE949" s="4"/>
       <c r="AF949" s="4"/>
       <c r="AG949" s="4"/>
+      <c r="AH949" s="4"/>
     </row>
     <row r="950">
       <c r="A950" s="4"/>
@@ -66488,6 +67650,7 @@
       <c r="AE950" s="4"/>
       <c r="AF950" s="4"/>
       <c r="AG950" s="4"/>
+      <c r="AH950" s="4"/>
     </row>
     <row r="951">
       <c r="A951" s="4"/>
@@ -66523,6 +67686,7 @@
       <c r="AE951" s="4"/>
       <c r="AF951" s="4"/>
       <c r="AG951" s="4"/>
+      <c r="AH951" s="4"/>
     </row>
     <row r="952">
       <c r="A952" s="4"/>
@@ -66558,6 +67722,7 @@
       <c r="AE952" s="4"/>
       <c r="AF952" s="4"/>
       <c r="AG952" s="4"/>
+      <c r="AH952" s="4"/>
     </row>
     <row r="953">
       <c r="A953" s="4"/>
@@ -66593,6 +67758,7 @@
       <c r="AE953" s="4"/>
       <c r="AF953" s="4"/>
       <c r="AG953" s="4"/>
+      <c r="AH953" s="4"/>
     </row>
     <row r="954">
       <c r="A954" s="4"/>
@@ -66628,6 +67794,7 @@
       <c r="AE954" s="4"/>
       <c r="AF954" s="4"/>
       <c r="AG954" s="4"/>
+      <c r="AH954" s="4"/>
     </row>
     <row r="955">
       <c r="A955" s="4"/>
@@ -66663,6 +67830,7 @@
       <c r="AE955" s="4"/>
       <c r="AF955" s="4"/>
       <c r="AG955" s="4"/>
+      <c r="AH955" s="4"/>
     </row>
     <row r="956">
       <c r="A956" s="4"/>
@@ -66698,6 +67866,7 @@
       <c r="AE956" s="4"/>
       <c r="AF956" s="4"/>
       <c r="AG956" s="4"/>
+      <c r="AH956" s="4"/>
     </row>
     <row r="957">
       <c r="A957" s="4"/>
@@ -66733,6 +67902,7 @@
       <c r="AE957" s="4"/>
       <c r="AF957" s="4"/>
       <c r="AG957" s="4"/>
+      <c r="AH957" s="4"/>
     </row>
     <row r="958">
       <c r="A958" s="4"/>
@@ -66768,6 +67938,7 @@
       <c r="AE958" s="4"/>
       <c r="AF958" s="4"/>
       <c r="AG958" s="4"/>
+      <c r="AH958" s="4"/>
     </row>
     <row r="959">
       <c r="A959" s="4"/>
@@ -66803,6 +67974,7 @@
       <c r="AE959" s="4"/>
       <c r="AF959" s="4"/>
       <c r="AG959" s="4"/>
+      <c r="AH959" s="4"/>
     </row>
     <row r="960">
       <c r="A960" s="4"/>
@@ -66838,6 +68010,7 @@
       <c r="AE960" s="4"/>
       <c r="AF960" s="4"/>
       <c r="AG960" s="4"/>
+      <c r="AH960" s="4"/>
     </row>
     <row r="961">
       <c r="A961" s="4"/>
@@ -66873,6 +68046,7 @@
       <c r="AE961" s="4"/>
       <c r="AF961" s="4"/>
       <c r="AG961" s="4"/>
+      <c r="AH961" s="4"/>
     </row>
     <row r="962">
       <c r="A962" s="4"/>
@@ -66908,6 +68082,7 @@
       <c r="AE962" s="4"/>
       <c r="AF962" s="4"/>
       <c r="AG962" s="4"/>
+      <c r="AH962" s="4"/>
     </row>
     <row r="963">
       <c r="A963" s="4"/>
@@ -66943,6 +68118,7 @@
       <c r="AE963" s="4"/>
       <c r="AF963" s="4"/>
       <c r="AG963" s="4"/>
+      <c r="AH963" s="4"/>
     </row>
     <row r="964">
       <c r="A964" s="4"/>
@@ -66978,6 +68154,7 @@
       <c r="AE964" s="4"/>
       <c r="AF964" s="4"/>
       <c r="AG964" s="4"/>
+      <c r="AH964" s="4"/>
     </row>
     <row r="965">
       <c r="A965" s="4"/>
@@ -67013,6 +68190,7 @@
       <c r="AE965" s="4"/>
       <c r="AF965" s="4"/>
       <c r="AG965" s="4"/>
+      <c r="AH965" s="4"/>
     </row>
     <row r="966">
       <c r="A966" s="4"/>
@@ -67048,6 +68226,7 @@
       <c r="AE966" s="4"/>
       <c r="AF966" s="4"/>
       <c r="AG966" s="4"/>
+      <c r="AH966" s="4"/>
     </row>
     <row r="967">
       <c r="A967" s="4"/>
@@ -67083,6 +68262,7 @@
       <c r="AE967" s="4"/>
       <c r="AF967" s="4"/>
       <c r="AG967" s="4"/>
+      <c r="AH967" s="4"/>
     </row>
     <row r="968">
       <c r="A968" s="4"/>
@@ -67118,6 +68298,7 @@
       <c r="AE968" s="4"/>
       <c r="AF968" s="4"/>
       <c r="AG968" s="4"/>
+      <c r="AH968" s="4"/>
     </row>
     <row r="969">
       <c r="A969" s="4"/>
@@ -67153,6 +68334,7 @@
       <c r="AE969" s="4"/>
       <c r="AF969" s="4"/>
       <c r="AG969" s="4"/>
+      <c r="AH969" s="4"/>
     </row>
     <row r="970">
       <c r="A970" s="4"/>
@@ -67188,6 +68370,7 @@
       <c r="AE970" s="4"/>
       <c r="AF970" s="4"/>
       <c r="AG970" s="4"/>
+      <c r="AH970" s="4"/>
     </row>
     <row r="971">
       <c r="A971" s="4"/>
@@ -67223,6 +68406,7 @@
       <c r="AE971" s="4"/>
       <c r="AF971" s="4"/>
       <c r="AG971" s="4"/>
+      <c r="AH971" s="4"/>
     </row>
     <row r="972">
       <c r="A972" s="4"/>
@@ -67258,6 +68442,7 @@
       <c r="AE972" s="4"/>
       <c r="AF972" s="4"/>
       <c r="AG972" s="4"/>
+      <c r="AH972" s="4"/>
     </row>
     <row r="973">
       <c r="A973" s="4"/>
@@ -67293,6 +68478,7 @@
       <c r="AE973" s="4"/>
       <c r="AF973" s="4"/>
       <c r="AG973" s="4"/>
+      <c r="AH973" s="4"/>
     </row>
     <row r="974">
       <c r="A974" s="4"/>
@@ -67328,6 +68514,7 @@
       <c r="AE974" s="4"/>
       <c r="AF974" s="4"/>
       <c r="AG974" s="4"/>
+      <c r="AH974" s="4"/>
     </row>
     <row r="975">
       <c r="A975" s="4"/>
@@ -67363,6 +68550,7 @@
       <c r="AE975" s="4"/>
       <c r="AF975" s="4"/>
       <c r="AG975" s="4"/>
+      <c r="AH975" s="4"/>
     </row>
     <row r="976">
       <c r="A976" s="4"/>
@@ -67398,6 +68586,7 @@
       <c r="AE976" s="4"/>
       <c r="AF976" s="4"/>
       <c r="AG976" s="4"/>
+      <c r="AH976" s="4"/>
     </row>
     <row r="977">
       <c r="A977" s="4"/>
@@ -67433,6 +68622,7 @@
       <c r="AE977" s="4"/>
       <c r="AF977" s="4"/>
       <c r="AG977" s="4"/>
+      <c r="AH977" s="4"/>
     </row>
     <row r="978">
       <c r="A978" s="4"/>
@@ -67468,6 +68658,7 @@
       <c r="AE978" s="4"/>
       <c r="AF978" s="4"/>
       <c r="AG978" s="4"/>
+      <c r="AH978" s="4"/>
     </row>
     <row r="979">
       <c r="A979" s="4"/>
@@ -67503,6 +68694,7 @@
       <c r="AE979" s="4"/>
       <c r="AF979" s="4"/>
       <c r="AG979" s="4"/>
+      <c r="AH979" s="4"/>
     </row>
     <row r="980">
       <c r="A980" s="4"/>
@@ -67538,6 +68730,7 @@
       <c r="AE980" s="4"/>
       <c r="AF980" s="4"/>
       <c r="AG980" s="4"/>
+      <c r="AH980" s="4"/>
     </row>
     <row r="981">
       <c r="A981" s="4"/>
@@ -67573,6 +68766,7 @@
       <c r="AE981" s="4"/>
       <c r="AF981" s="4"/>
       <c r="AG981" s="4"/>
+      <c r="AH981" s="4"/>
     </row>
     <row r="982">
       <c r="A982" s="4"/>
@@ -67608,6 +68802,7 @@
       <c r="AE982" s="4"/>
       <c r="AF982" s="4"/>
       <c r="AG982" s="4"/>
+      <c r="AH982" s="4"/>
     </row>
     <row r="983">
       <c r="A983" s="4"/>
@@ -67643,6 +68838,7 @@
       <c r="AE983" s="4"/>
       <c r="AF983" s="4"/>
       <c r="AG983" s="4"/>
+      <c r="AH983" s="4"/>
     </row>
     <row r="984">
       <c r="A984" s="4"/>
@@ -67678,6 +68874,7 @@
       <c r="AE984" s="4"/>
       <c r="AF984" s="4"/>
       <c r="AG984" s="4"/>
+      <c r="AH984" s="4"/>
     </row>
     <row r="985">
       <c r="A985" s="4"/>
@@ -67713,6 +68910,7 @@
       <c r="AE985" s="4"/>
       <c r="AF985" s="4"/>
       <c r="AG985" s="4"/>
+      <c r="AH985" s="4"/>
     </row>
     <row r="986">
       <c r="A986" s="4"/>
@@ -67748,6 +68946,7 @@
       <c r="AE986" s="4"/>
       <c r="AF986" s="4"/>
       <c r="AG986" s="4"/>
+      <c r="AH986" s="4"/>
     </row>
     <row r="987">
       <c r="A987" s="4"/>
@@ -67783,6 +68982,7 @@
       <c r="AE987" s="4"/>
       <c r="AF987" s="4"/>
       <c r="AG987" s="4"/>
+      <c r="AH987" s="4"/>
     </row>
     <row r="988">
       <c r="A988" s="4"/>
@@ -67818,6 +69018,7 @@
       <c r="AE988" s="4"/>
       <c r="AF988" s="4"/>
       <c r="AG988" s="4"/>
+      <c r="AH988" s="4"/>
     </row>
     <row r="989">
       <c r="A989" s="4"/>
@@ -67853,6 +69054,7 @@
       <c r="AE989" s="4"/>
       <c r="AF989" s="4"/>
       <c r="AG989" s="4"/>
+      <c r="AH989" s="4"/>
     </row>
     <row r="990">
       <c r="A990" s="4"/>
@@ -67888,6 +69090,7 @@
       <c r="AE990" s="4"/>
       <c r="AF990" s="4"/>
       <c r="AG990" s="4"/>
+      <c r="AH990" s="4"/>
     </row>
     <row r="991">
       <c r="A991" s="4"/>
@@ -67923,6 +69126,7 @@
       <c r="AE991" s="4"/>
       <c r="AF991" s="4"/>
       <c r="AG991" s="4"/>
+      <c r="AH991" s="4"/>
     </row>
     <row r="992">
       <c r="A992" s="4"/>
@@ -67958,6 +69162,7 @@
       <c r="AE992" s="4"/>
       <c r="AF992" s="4"/>
       <c r="AG992" s="4"/>
+      <c r="AH992" s="4"/>
     </row>
     <row r="993">
       <c r="A993" s="4"/>
@@ -67993,6 +69198,7 @@
       <c r="AE993" s="4"/>
       <c r="AF993" s="4"/>
       <c r="AG993" s="4"/>
+      <c r="AH993" s="4"/>
     </row>
     <row r="994">
       <c r="A994" s="4"/>
@@ -68028,6 +69234,7 @@
       <c r="AE994" s="4"/>
       <c r="AF994" s="4"/>
       <c r="AG994" s="4"/>
+      <c r="AH994" s="4"/>
     </row>
     <row r="995">
       <c r="A995" s="4"/>
@@ -68063,6 +69270,7 @@
       <c r="AE995" s="4"/>
       <c r="AF995" s="4"/>
       <c r="AG995" s="4"/>
+      <c r="AH995" s="4"/>
     </row>
     <row r="996">
       <c r="A996" s="4"/>
@@ -68098,6 +69306,7 @@
       <c r="AE996" s="4"/>
       <c r="AF996" s="4"/>
       <c r="AG996" s="4"/>
+      <c r="AH996" s="4"/>
     </row>
     <row r="997">
       <c r="A997" s="4"/>
@@ -68133,6 +69342,7 @@
       <c r="AE997" s="4"/>
       <c r="AF997" s="4"/>
       <c r="AG997" s="4"/>
+      <c r="AH997" s="4"/>
     </row>
     <row r="998">
       <c r="A998" s="4"/>
@@ -68168,6 +69378,7 @@
       <c r="AE998" s="4"/>
       <c r="AF998" s="4"/>
       <c r="AG998" s="4"/>
+      <c r="AH998" s="4"/>
     </row>
     <row r="999">
       <c r="A999" s="4"/>
@@ -68203,6 +69414,7 @@
       <c r="AE999" s="4"/>
       <c r="AF999" s="4"/>
       <c r="AG999" s="4"/>
+      <c r="AH999" s="4"/>
     </row>
     <row r="1000">
       <c r="A1000" s="4"/>
@@ -68238,6 +69450,7 @@
       <c r="AE1000" s="4"/>
       <c r="AF1000" s="4"/>
       <c r="AG1000" s="4"/>
+      <c r="AH1000" s="4"/>
     </row>
     <row r="1001">
       <c r="A1001" s="4"/>
@@ -68273,6 +69486,7 @@
       <c r="AE1001" s="4"/>
       <c r="AF1001" s="4"/>
       <c r="AG1001" s="4"/>
+      <c r="AH1001" s="4"/>
     </row>
     <row r="1002">
       <c r="A1002" s="4"/>
@@ -68308,6 +69522,7 @@
       <c r="AE1002" s="4"/>
       <c r="AF1002" s="4"/>
       <c r="AG1002" s="4"/>
+      <c r="AH1002" s="4"/>
     </row>
     <row r="1003">
       <c r="A1003" s="4"/>
@@ -68343,6 +69558,7 @@
       <c r="AE1003" s="4"/>
       <c r="AF1003" s="4"/>
       <c r="AG1003" s="4"/>
+      <c r="AH1003" s="4"/>
     </row>
     <row r="1004">
       <c r="A1004" s="4"/>
@@ -68378,6 +69594,7 @@
       <c r="AE1004" s="4"/>
       <c r="AF1004" s="4"/>
       <c r="AG1004" s="4"/>
+      <c r="AH1004" s="4"/>
     </row>
     <row r="1005">
       <c r="A1005" s="4"/>
@@ -68413,6 +69630,7 @@
       <c r="AE1005" s="4"/>
       <c r="AF1005" s="4"/>
       <c r="AG1005" s="4"/>
+      <c r="AH1005" s="4"/>
     </row>
     <row r="1006">
       <c r="A1006" s="4"/>
@@ -68448,6 +69666,7 @@
       <c r="AE1006" s="4"/>
       <c r="AF1006" s="4"/>
       <c r="AG1006" s="4"/>
+      <c r="AH1006" s="4"/>
     </row>
     <row r="1007">
       <c r="A1007" s="4"/>
@@ -68483,6 +69702,7 @@
       <c r="AE1007" s="4"/>
       <c r="AF1007" s="4"/>
       <c r="AG1007" s="4"/>
+      <c r="AH1007" s="4"/>
     </row>
     <row r="1008">
       <c r="A1008" s="4"/>
@@ -68518,6 +69738,7 @@
       <c r="AE1008" s="4"/>
       <c r="AF1008" s="4"/>
       <c r="AG1008" s="4"/>
+      <c r="AH1008" s="4"/>
     </row>
     <row r="1009">
       <c r="A1009" s="4"/>
@@ -68553,6 +69774,7 @@
       <c r="AE1009" s="4"/>
       <c r="AF1009" s="4"/>
       <c r="AG1009" s="4"/>
+      <c r="AH1009" s="4"/>
     </row>
     <row r="1010">
       <c r="A1010" s="4"/>
@@ -68588,6 +69810,7 @@
       <c r="AE1010" s="4"/>
       <c r="AF1010" s="4"/>
       <c r="AG1010" s="4"/>
+      <c r="AH1010" s="4"/>
     </row>
     <row r="1011">
       <c r="A1011" s="4"/>
@@ -68623,6 +69846,7 @@
       <c r="AE1011" s="4"/>
       <c r="AF1011" s="4"/>
       <c r="AG1011" s="4"/>
+      <c r="AH1011" s="4"/>
     </row>
     <row r="1012">
       <c r="A1012" s="4"/>
@@ -68658,6 +69882,7 @@
       <c r="AE1012" s="4"/>
       <c r="AF1012" s="4"/>
       <c r="AG1012" s="4"/>
+      <c r="AH1012" s="4"/>
     </row>
     <row r="1013">
       <c r="A1013" s="4"/>
@@ -68693,6 +69918,7 @@
       <c r="AE1013" s="4"/>
       <c r="AF1013" s="4"/>
       <c r="AG1013" s="4"/>
+      <c r="AH1013" s="4"/>
     </row>
     <row r="1014">
       <c r="A1014" s="4"/>
@@ -68728,6 +69954,7 @@
       <c r="AE1014" s="4"/>
       <c r="AF1014" s="4"/>
       <c r="AG1014" s="4"/>
+      <c r="AH1014" s="4"/>
     </row>
     <row r="1015">
       <c r="A1015" s="4"/>
@@ -68763,6 +69990,7 @@
       <c r="AE1015" s="4"/>
       <c r="AF1015" s="4"/>
       <c r="AG1015" s="4"/>
+      <c r="AH1015" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
